--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.314188</v>
+        <v>0.300811</v>
       </c>
       <c r="C2" t="n">
-        <v>0.251559</v>
+        <v>0.242217</v>
       </c>
       <c r="D2" t="n">
-        <v>0.252789</v>
+        <v>0.246179</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.314873</v>
+        <v>0.305558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2545</v>
+        <v>0.245773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.254978</v>
+        <v>0.253069</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.317987</v>
+        <v>0.30946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261158</v>
+        <v>0.252662</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260035</v>
+        <v>0.257109</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.326448</v>
+        <v>0.316421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.268173</v>
+        <v>0.260757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266508</v>
+        <v>0.264002</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.335266</v>
+        <v>0.322531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.274444</v>
+        <v>0.263884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.270679</v>
+        <v>0.267555</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.339262</v>
+        <v>0.32853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226114</v>
+        <v>0.222749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2295</v>
+        <v>0.229983</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287813</v>
+        <v>0.287026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.228117</v>
+        <v>0.222469</v>
       </c>
       <c r="D8" t="n">
-        <v>0.238879</v>
+        <v>0.232385</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.298521</v>
+        <v>0.293732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235472</v>
+        <v>0.228051</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24166</v>
+        <v>0.239305</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.302909</v>
+        <v>0.300387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239257</v>
+        <v>0.234289</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2452</v>
+        <v>0.243353</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307896</v>
+        <v>0.30647</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243694</v>
+        <v>0.239588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.247935</v>
+        <v>0.248934</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.312173</v>
+        <v>0.311398</v>
       </c>
       <c r="C12" t="n">
-        <v>0.248688</v>
+        <v>0.24301</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254098</v>
+        <v>0.253178</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.321176</v>
+        <v>0.318692</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253107</v>
+        <v>0.24915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.257945</v>
+        <v>0.258716</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.325816</v>
+        <v>0.327158</v>
       </c>
       <c r="C14" t="n">
-        <v>0.260446</v>
+        <v>0.254073</v>
       </c>
       <c r="D14" t="n">
-        <v>0.264285</v>
+        <v>0.264622</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.333163</v>
+        <v>0.334905</v>
       </c>
       <c r="C15" t="n">
-        <v>0.266535</v>
+        <v>0.260974</v>
       </c>
       <c r="D15" t="n">
-        <v>0.269961</v>
+        <v>0.270027</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.34208</v>
+        <v>0.343208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.273002</v>
+        <v>0.267757</v>
       </c>
       <c r="D16" t="n">
-        <v>0.27549</v>
+        <v>0.275003</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.349061</v>
+        <v>0.350622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.279737</v>
+        <v>0.274921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.282158</v>
+        <v>0.282368</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.355927</v>
+        <v>0.355764</v>
       </c>
       <c r="C18" t="n">
-        <v>0.286464</v>
+        <v>0.28083</v>
       </c>
       <c r="D18" t="n">
-        <v>0.288601</v>
+        <v>0.288836</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.364167</v>
+        <v>0.36305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.293681</v>
+        <v>0.28621</v>
       </c>
       <c r="D19" t="n">
-        <v>0.294391</v>
+        <v>0.294209</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.371661</v>
+        <v>0.36943</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301195</v>
+        <v>0.292518</v>
       </c>
       <c r="D20" t="n">
-        <v>0.301103</v>
+        <v>0.301563</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.379145</v>
+        <v>0.377035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.250927</v>
+        <v>0.244562</v>
       </c>
       <c r="D21" t="n">
-        <v>0.255784</v>
+        <v>0.256063</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.331265</v>
+        <v>0.330658</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255928</v>
+        <v>0.248085</v>
       </c>
       <c r="D22" t="n">
-        <v>0.261536</v>
+        <v>0.260365</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.336301</v>
+        <v>0.334857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.260686</v>
+        <v>0.253957</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266322</v>
+        <v>0.266062</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340848</v>
+        <v>0.339853</v>
       </c>
       <c r="C24" t="n">
-        <v>0.267408</v>
+        <v>0.25987</v>
       </c>
       <c r="D24" t="n">
-        <v>0.272614</v>
+        <v>0.271627</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.346114</v>
+        <v>0.345927</v>
       </c>
       <c r="C25" t="n">
-        <v>0.271414</v>
+        <v>0.263623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276393</v>
+        <v>0.276129</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.352131</v>
+        <v>0.351735</v>
       </c>
       <c r="C26" t="n">
-        <v>0.276889</v>
+        <v>0.269693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.282434</v>
+        <v>0.28172</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356699</v>
+        <v>0.356479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.282609</v>
+        <v>0.276732</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287798</v>
+        <v>0.288241</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.362777</v>
+        <v>0.362646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.289463</v>
+        <v>0.282419</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294622</v>
+        <v>0.294002</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.368401</v>
+        <v>0.368223</v>
       </c>
       <c r="C29" t="n">
-        <v>0.297107</v>
+        <v>0.289271</v>
       </c>
       <c r="D29" t="n">
-        <v>0.301002</v>
+        <v>0.300807</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374601</v>
+        <v>0.374557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.303846</v>
+        <v>0.295319</v>
       </c>
       <c r="D30" t="n">
-        <v>0.307039</v>
+        <v>0.306482</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380924</v>
+        <v>0.380685</v>
       </c>
       <c r="C31" t="n">
-        <v>0.309607</v>
+        <v>0.301907</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314506</v>
+        <v>0.313222</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.386142</v>
+        <v>0.385769</v>
       </c>
       <c r="C32" t="n">
-        <v>0.316571</v>
+        <v>0.30793</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319776</v>
+        <v>0.319113</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391998</v>
+        <v>0.391633</v>
       </c>
       <c r="C33" t="n">
-        <v>0.322753</v>
+        <v>0.314793</v>
       </c>
       <c r="D33" t="n">
-        <v>0.327175</v>
+        <v>0.324868</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.398985</v>
+        <v>0.39845</v>
       </c>
       <c r="C34" t="n">
-        <v>0.328971</v>
+        <v>0.320916</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332921</v>
+        <v>0.332281</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.40551</v>
+        <v>0.405134</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266135</v>
+        <v>0.257835</v>
       </c>
       <c r="D35" t="n">
-        <v>0.272023</v>
+        <v>0.270565</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350173</v>
+        <v>0.350147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.270569</v>
+        <v>0.26223</v>
       </c>
       <c r="D36" t="n">
-        <v>0.275969</v>
+        <v>0.274958</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354115</v>
+        <v>0.353809</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275784</v>
+        <v>0.267085</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280435</v>
+        <v>0.280725</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.358816</v>
+        <v>0.357929</v>
       </c>
       <c r="C38" t="n">
-        <v>0.281946</v>
+        <v>0.273248</v>
       </c>
       <c r="D38" t="n">
-        <v>0.287102</v>
+        <v>0.2851</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.363091</v>
+        <v>0.36283</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286508</v>
+        <v>0.277911</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291169</v>
+        <v>0.290209</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.367658</v>
+        <v>0.367364</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291883</v>
+        <v>0.283521</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297539</v>
+        <v>0.297392</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372798</v>
+        <v>0.372796</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298606</v>
+        <v>0.290212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.303771</v>
+        <v>0.303454</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378568</v>
+        <v>0.378309</v>
       </c>
       <c r="C42" t="n">
-        <v>0.30361</v>
+        <v>0.295666</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309525</v>
+        <v>0.309317</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.384263</v>
+        <v>0.383772</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309563</v>
+        <v>0.30123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.315148</v>
+        <v>0.315127</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.390386</v>
+        <v>0.389772</v>
       </c>
       <c r="C44" t="n">
-        <v>0.317086</v>
+        <v>0.30793</v>
       </c>
       <c r="D44" t="n">
-        <v>0.322414</v>
+        <v>0.320589</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.396434</v>
+        <v>0.395801</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323475</v>
+        <v>0.314156</v>
       </c>
       <c r="D45" t="n">
-        <v>0.328051</v>
+        <v>0.326684</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402971</v>
+        <v>0.402652</v>
       </c>
       <c r="C46" t="n">
-        <v>0.329527</v>
+        <v>0.320378</v>
       </c>
       <c r="D46" t="n">
-        <v>0.334425</v>
+        <v>0.333648</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.408771</v>
+        <v>0.40819</v>
       </c>
       <c r="C47" t="n">
-        <v>0.335762</v>
+        <v>0.326633</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338817</v>
+        <v>0.339272</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414679</v>
+        <v>0.414447</v>
       </c>
       <c r="C48" t="n">
-        <v>0.341508</v>
+        <v>0.332411</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345043</v>
+        <v>0.343907</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.42076</v>
+        <v>0.420121</v>
       </c>
       <c r="C49" t="n">
-        <v>0.347165</v>
+        <v>0.337681</v>
       </c>
       <c r="D49" t="n">
-        <v>0.350159</v>
+        <v>0.349402</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.426528</v>
+        <v>0.426027</v>
       </c>
       <c r="C50" t="n">
-        <v>0.278486</v>
+        <v>0.270493</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276751</v>
+        <v>0.276938</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.363223</v>
+        <v>0.36313</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283429</v>
+        <v>0.275166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2814</v>
+        <v>0.282198</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367112</v>
+        <v>0.367623</v>
       </c>
       <c r="C52" t="n">
-        <v>0.289204</v>
+        <v>0.279486</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286154</v>
+        <v>0.286064</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371868</v>
+        <v>0.371832</v>
       </c>
       <c r="C53" t="n">
-        <v>0.293933</v>
+        <v>0.285242</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291254</v>
+        <v>0.291636</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376203</v>
+        <v>0.376426</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2996</v>
+        <v>0.29074</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296935</v>
+        <v>0.297167</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380732</v>
+        <v>0.380581</v>
       </c>
       <c r="C55" t="n">
-        <v>0.305402</v>
+        <v>0.296662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302686</v>
+        <v>0.302853</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385998</v>
+        <v>0.385867</v>
       </c>
       <c r="C56" t="n">
-        <v>0.311289</v>
+        <v>0.302443</v>
       </c>
       <c r="D56" t="n">
-        <v>0.308307</v>
+        <v>0.308043</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391826</v>
+        <v>0.391798</v>
       </c>
       <c r="C57" t="n">
-        <v>0.317015</v>
+        <v>0.308426</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314455</v>
+        <v>0.314122</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.397745</v>
+        <v>0.39783</v>
       </c>
       <c r="C58" t="n">
-        <v>0.322955</v>
+        <v>0.314715</v>
       </c>
       <c r="D58" t="n">
-        <v>0.321241</v>
+        <v>0.320711</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403808</v>
+        <v>0.403809</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32966</v>
+        <v>0.320832</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326784</v>
+        <v>0.326465</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.410225</v>
+        <v>0.409807</v>
       </c>
       <c r="C60" t="n">
-        <v>0.335977</v>
+        <v>0.326687</v>
       </c>
       <c r="D60" t="n">
-        <v>0.333517</v>
+        <v>0.332774</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41601</v>
+        <v>0.415885</v>
       </c>
       <c r="C61" t="n">
-        <v>0.342299</v>
+        <v>0.332848</v>
       </c>
       <c r="D61" t="n">
-        <v>0.339201</v>
+        <v>0.338681</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.422087</v>
+        <v>0.421706</v>
       </c>
       <c r="C62" t="n">
-        <v>0.348457</v>
+        <v>0.338457</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344313</v>
+        <v>0.344171</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.427875</v>
+        <v>0.427594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.354199</v>
+        <v>0.344211</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35024</v>
+        <v>0.349942</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433868</v>
+        <v>0.433692</v>
       </c>
       <c r="C64" t="n">
-        <v>0.290142</v>
+        <v>0.280828</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289346</v>
+        <v>0.289156</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.402466</v>
+        <v>0.397789</v>
       </c>
       <c r="C65" t="n">
-        <v>0.297014</v>
+        <v>0.287223</v>
       </c>
       <c r="D65" t="n">
-        <v>0.299272</v>
+        <v>0.298068</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.405526</v>
+        <v>0.39965</v>
       </c>
       <c r="C66" t="n">
-        <v>0.303379</v>
+        <v>0.292362</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302951</v>
+        <v>0.303235</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.414514</v>
+        <v>0.408118</v>
       </c>
       <c r="C67" t="n">
-        <v>0.311158</v>
+        <v>0.299215</v>
       </c>
       <c r="D67" t="n">
-        <v>0.308393</v>
+        <v>0.306686</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.424366</v>
+        <v>0.418396</v>
       </c>
       <c r="C68" t="n">
-        <v>0.317939</v>
+        <v>0.306072</v>
       </c>
       <c r="D68" t="n">
-        <v>0.316467</v>
+        <v>0.314873</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.426703</v>
+        <v>0.430547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.324961</v>
+        <v>0.314576</v>
       </c>
       <c r="D69" t="n">
-        <v>0.323101</v>
+        <v>0.322717</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.436013</v>
+        <v>0.442321</v>
       </c>
       <c r="C70" t="n">
-        <v>0.33127</v>
+        <v>0.321912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.329638</v>
+        <v>0.331719</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.449253</v>
+        <v>0.453768</v>
       </c>
       <c r="C71" t="n">
-        <v>0.338112</v>
+        <v>0.331264</v>
       </c>
       <c r="D71" t="n">
-        <v>0.337688</v>
+        <v>0.340217</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.462162</v>
+        <v>0.465709</v>
       </c>
       <c r="C72" t="n">
-        <v>0.347408</v>
+        <v>0.340534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.346524</v>
+        <v>0.347349</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.480344</v>
+        <v>0.48298</v>
       </c>
       <c r="C73" t="n">
-        <v>0.358551</v>
+        <v>0.350731</v>
       </c>
       <c r="D73" t="n">
-        <v>0.35548</v>
+        <v>0.357153</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.496196</v>
+        <v>0.500285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.368204</v>
+        <v>0.362628</v>
       </c>
       <c r="D74" t="n">
-        <v>0.365936</v>
+        <v>0.369157</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.515586</v>
+        <v>0.514246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.380993</v>
+        <v>0.371359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.378027</v>
+        <v>0.379844</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.534588</v>
+        <v>0.5313290000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.392286</v>
+        <v>0.382347</v>
       </c>
       <c r="D76" t="n">
-        <v>0.388606</v>
+        <v>0.390118</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.559365</v>
+        <v>0.553333</v>
       </c>
       <c r="C77" t="n">
-        <v>0.404649</v>
+        <v>0.393613</v>
       </c>
       <c r="D77" t="n">
-        <v>0.400492</v>
+        <v>0.404067</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.587051</v>
+        <v>0.580647</v>
       </c>
       <c r="C78" t="n">
-        <v>0.380287</v>
+        <v>0.37631</v>
       </c>
       <c r="D78" t="n">
-        <v>0.37592</v>
+        <v>0.379988</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.711906</v>
+        <v>0.716224</v>
       </c>
       <c r="C79" t="n">
-        <v>0.391343</v>
+        <v>0.385167</v>
       </c>
       <c r="D79" t="n">
-        <v>0.390216</v>
+        <v>0.392946</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.731966</v>
+        <v>0.734132</v>
       </c>
       <c r="C80" t="n">
-        <v>0.406232</v>
+        <v>0.404769</v>
       </c>
       <c r="D80" t="n">
-        <v>0.398448</v>
+        <v>0.408607</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.753632</v>
+        <v>0.754049</v>
       </c>
       <c r="C81" t="n">
-        <v>0.422517</v>
+        <v>0.420318</v>
       </c>
       <c r="D81" t="n">
-        <v>0.413787</v>
+        <v>0.423161</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.772801</v>
+        <v>0.779522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.439675</v>
+        <v>0.435023</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431987</v>
+        <v>0.437109</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.794947</v>
+        <v>0.800222</v>
       </c>
       <c r="C83" t="n">
-        <v>0.457395</v>
+        <v>0.453563</v>
       </c>
       <c r="D83" t="n">
-        <v>0.44878</v>
+        <v>0.455686</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.824595</v>
+        <v>0.829268</v>
       </c>
       <c r="C84" t="n">
-        <v>0.477406</v>
+        <v>0.471722</v>
       </c>
       <c r="D84" t="n">
-        <v>0.47397</v>
+        <v>0.474398</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.848456</v>
+        <v>0.851295</v>
       </c>
       <c r="C85" t="n">
-        <v>0.501036</v>
+        <v>0.491417</v>
       </c>
       <c r="D85" t="n">
-        <v>0.49269</v>
+        <v>0.494937</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.872479</v>
+        <v>0.877065</v>
       </c>
       <c r="C86" t="n">
-        <v>0.521987</v>
+        <v>0.5124649999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.514454</v>
+        <v>0.515597</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.900173</v>
+        <v>0.903895</v>
       </c>
       <c r="C87" t="n">
-        <v>0.541836</v>
+        <v>0.533979</v>
       </c>
       <c r="D87" t="n">
-        <v>0.532788</v>
+        <v>0.535088</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.926828</v>
+        <v>0.9318070000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>0.564353</v>
+        <v>0.556133</v>
       </c>
       <c r="D88" t="n">
-        <v>0.554642</v>
+        <v>0.557698</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9540459999999999</v>
+        <v>0.959005</v>
       </c>
       <c r="C89" t="n">
-        <v>0.586215</v>
+        <v>0.579036</v>
       </c>
       <c r="D89" t="n">
-        <v>0.577628</v>
+        <v>0.579858</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.983699</v>
+        <v>0.98834</v>
       </c>
       <c r="C90" t="n">
-        <v>0.610017</v>
+        <v>0.603418</v>
       </c>
       <c r="D90" t="n">
-        <v>0.600293</v>
+        <v>0.6046550000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01363</v>
+        <v>1.02012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.632956</v>
+        <v>0.626596</v>
       </c>
       <c r="D91" t="n">
-        <v>0.623835</v>
+        <v>0.628049</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04457</v>
+        <v>1.05096</v>
       </c>
       <c r="C92" t="n">
-        <v>0.651589</v>
+        <v>0.646242</v>
       </c>
       <c r="D92" t="n">
-        <v>0.643821</v>
+        <v>0.651888</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15891</v>
+        <v>1.17132</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6689659999999999</v>
+        <v>0.664042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.661229</v>
+        <v>0.667525</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16744</v>
+        <v>1.17934</v>
       </c>
       <c r="C94" t="n">
-        <v>0.682378</v>
+        <v>0.676814</v>
       </c>
       <c r="D94" t="n">
-        <v>0.679889</v>
+        <v>0.683837</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17568</v>
+        <v>1.18824</v>
       </c>
       <c r="C95" t="n">
-        <v>0.698231</v>
+        <v>0.694627</v>
       </c>
       <c r="D95" t="n">
-        <v>0.690375</v>
+        <v>0.696619</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.1919</v>
+        <v>1.2002</v>
       </c>
       <c r="C96" t="n">
-        <v>0.717099</v>
+        <v>0.7114549999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.708915</v>
+        <v>0.712785</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.20212</v>
+        <v>1.2156</v>
       </c>
       <c r="C97" t="n">
-        <v>0.732553</v>
+        <v>0.729185</v>
       </c>
       <c r="D97" t="n">
-        <v>0.729166</v>
+        <v>0.735637</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21719</v>
+        <v>1.23003</v>
       </c>
       <c r="C98" t="n">
-        <v>0.750489</v>
+        <v>0.74747</v>
       </c>
       <c r="D98" t="n">
-        <v>0.746313</v>
+        <v>0.75357</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23711</v>
+        <v>1.25019</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7699009999999999</v>
+        <v>0.766593</v>
       </c>
       <c r="D99" t="n">
-        <v>0.766355</v>
+        <v>0.773686</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25478</v>
+        <v>1.26804</v>
       </c>
       <c r="C100" t="n">
-        <v>0.789093</v>
+        <v>0.785998</v>
       </c>
       <c r="D100" t="n">
-        <v>0.78744</v>
+        <v>0.792879</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.27059</v>
+        <v>1.28366</v>
       </c>
       <c r="C101" t="n">
-        <v>0.809287</v>
+        <v>0.8067569999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8077260000000001</v>
+        <v>0.813373</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.2908</v>
+        <v>1.30398</v>
       </c>
       <c r="C102" t="n">
-        <v>0.831107</v>
+        <v>0.828716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.827811</v>
+        <v>0.834999</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31693</v>
+        <v>1.33036</v>
       </c>
       <c r="C103" t="n">
-        <v>0.853178</v>
+        <v>0.850712</v>
       </c>
       <c r="D103" t="n">
-        <v>0.851318</v>
+        <v>0.85851</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.33955</v>
+        <v>1.353</v>
       </c>
       <c r="C104" t="n">
-        <v>0.875907</v>
+        <v>0.872757</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8749</v>
+        <v>0.882332</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.36289</v>
+        <v>1.3778</v>
       </c>
       <c r="C105" t="n">
-        <v>0.899375</v>
+        <v>0.896249</v>
       </c>
       <c r="D105" t="n">
-        <v>0.898822</v>
+        <v>0.90682</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.3882</v>
+        <v>1.40228</v>
       </c>
       <c r="C106" t="n">
-        <v>0.922166</v>
+        <v>0.919264</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9238769999999999</v>
+        <v>0.9321</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.39242</v>
+        <v>1.41035</v>
       </c>
       <c r="C107" t="n">
-        <v>0.874263</v>
+        <v>0.8741370000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.870409</v>
+        <v>0.87799</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39832</v>
+        <v>1.4129</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8893799999999999</v>
+        <v>0.888594</v>
       </c>
       <c r="D108" t="n">
-        <v>0.88519</v>
+        <v>0.892745</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40715</v>
+        <v>1.42305</v>
       </c>
       <c r="C109" t="n">
-        <v>0.904307</v>
+        <v>0.903243</v>
       </c>
       <c r="D109" t="n">
-        <v>0.902677</v>
+        <v>0.909872</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41492</v>
+        <v>1.4315</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9193249999999999</v>
+        <v>0.919664</v>
       </c>
       <c r="D110" t="n">
-        <v>0.917851</v>
+        <v>0.926879</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42587</v>
+        <v>1.44033</v>
       </c>
       <c r="C111" t="n">
-        <v>0.936903</v>
+        <v>0.935488</v>
       </c>
       <c r="D111" t="n">
-        <v>0.93285</v>
+        <v>0.940347</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43882</v>
+        <v>1.4531</v>
       </c>
       <c r="C112" t="n">
-        <v>0.954691</v>
+        <v>0.953576</v>
       </c>
       <c r="D112" t="n">
-        <v>0.951153</v>
+        <v>0.959634</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4495</v>
+        <v>1.46419</v>
       </c>
       <c r="C113" t="n">
-        <v>0.972743</v>
+        <v>0.9718</v>
       </c>
       <c r="D113" t="n">
-        <v>0.970557</v>
+        <v>0.977993</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46688</v>
+        <v>1.48008</v>
       </c>
       <c r="C114" t="n">
-        <v>0.991382</v>
+        <v>0.9907280000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.988177</v>
+        <v>0.996623</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47938</v>
+        <v>1.49571</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01061</v>
+        <v>1.01002</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00836</v>
+        <v>1.0181</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49729</v>
+        <v>1.51453</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03068</v>
+        <v>1.03026</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02816</v>
+        <v>1.03863</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.51878</v>
+        <v>1.53457</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05087</v>
+        <v>1.05077</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05054</v>
+        <v>1.05985</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.53848</v>
+        <v>1.55442</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07179</v>
+        <v>1.07181</v>
       </c>
       <c r="D118" t="n">
-        <v>1.0694</v>
+        <v>1.07828</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.55858</v>
+        <v>1.57401</v>
       </c>
       <c r="C119" t="n">
-        <v>1.0954</v>
+        <v>1.09453</v>
       </c>
       <c r="D119" t="n">
-        <v>1.09187</v>
+        <v>1.1017</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276821</v>
+        <v>0.275942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222455</v>
+        <v>0.211397</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208037</v>
+        <v>0.206603</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288577</v>
+        <v>0.28076</v>
       </c>
       <c r="C3" t="n">
-        <v>0.228514</v>
+        <v>0.21626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210082</v>
+        <v>0.209511</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.291739</v>
+        <v>0.288806</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230377</v>
+        <v>0.221495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212971</v>
+        <v>0.210988</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.292956</v>
+        <v>0.288152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236276</v>
+        <v>0.226744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214242</v>
+        <v>0.212952</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.296171</v>
+        <v>0.293207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.242334</v>
+        <v>0.23115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.219874</v>
+        <v>0.217309</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.304247</v>
+        <v>0.303367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225908</v>
+        <v>0.211295</v>
       </c>
       <c r="D7" t="n">
-        <v>0.219377</v>
+        <v>0.217048</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.295304</v>
+        <v>0.293805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227102</v>
+        <v>0.221523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222341</v>
+        <v>0.225355</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.300453</v>
+        <v>0.300161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232327</v>
+        <v>0.224153</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22491</v>
+        <v>0.224728</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303374</v>
+        <v>0.302525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234678</v>
+        <v>0.226728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227516</v>
+        <v>0.224367</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.307048</v>
+        <v>0.305693</v>
       </c>
       <c r="C11" t="n">
-        <v>0.231579</v>
+        <v>0.223076</v>
       </c>
       <c r="D11" t="n">
-        <v>0.228677</v>
+        <v>0.223859</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.310984</v>
+        <v>0.309187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241808</v>
+        <v>0.23262</v>
       </c>
       <c r="D12" t="n">
-        <v>0.228251</v>
+        <v>0.229482</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325114</v>
+        <v>0.31879</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239759</v>
+        <v>0.225112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231254</v>
+        <v>0.235075</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.32346</v>
+        <v>0.321385</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245368</v>
+        <v>0.237258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232808</v>
+        <v>0.231662</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330193</v>
+        <v>0.335576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.249165</v>
+        <v>0.240558</v>
       </c>
       <c r="D15" t="n">
-        <v>0.23658</v>
+        <v>0.240947</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.335358</v>
+        <v>0.336802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.255546</v>
+        <v>0.245356</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238607</v>
+        <v>0.24513</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.342063</v>
+        <v>0.340284</v>
       </c>
       <c r="C17" t="n">
-        <v>0.259536</v>
+        <v>0.249241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242945</v>
+        <v>0.242558</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34463</v>
+        <v>0.345839</v>
       </c>
       <c r="C18" t="n">
-        <v>0.267809</v>
+        <v>0.25771</v>
       </c>
       <c r="D18" t="n">
-        <v>0.243878</v>
+        <v>0.250704</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.349982</v>
+        <v>0.348764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.27081</v>
+        <v>0.261689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.249231</v>
+        <v>0.253969</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.35576</v>
+        <v>0.356391</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2784</v>
+        <v>0.269306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248945</v>
+        <v>0.254352</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.362435</v>
+        <v>0.365926</v>
       </c>
       <c r="C21" t="n">
-        <v>0.255476</v>
+        <v>0.245871</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25306</v>
+        <v>0.251763</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.347216</v>
+        <v>0.346091</v>
       </c>
       <c r="C22" t="n">
-        <v>0.269436</v>
+        <v>0.262187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.254379</v>
+        <v>0.255932</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.356232</v>
+        <v>0.354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.266826</v>
+        <v>0.262441</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255415</v>
+        <v>0.257095</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.36114</v>
+        <v>0.359682</v>
       </c>
       <c r="C24" t="n">
-        <v>0.28453</v>
+        <v>0.269862</v>
       </c>
       <c r="D24" t="n">
-        <v>0.260356</v>
+        <v>0.261991</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.367454</v>
+        <v>0.36586</v>
       </c>
       <c r="C25" t="n">
-        <v>0.294895</v>
+        <v>0.285601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.268761</v>
+        <v>0.26829</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.370386</v>
+        <v>0.369191</v>
       </c>
       <c r="C26" t="n">
-        <v>0.294059</v>
+        <v>0.287299</v>
       </c>
       <c r="D26" t="n">
-        <v>0.26915</v>
+        <v>0.268395</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.377664</v>
+        <v>0.375607</v>
       </c>
       <c r="C27" t="n">
-        <v>0.303419</v>
+        <v>0.29221</v>
       </c>
       <c r="D27" t="n">
-        <v>0.273246</v>
+        <v>0.272117</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.380704</v>
+        <v>0.380253</v>
       </c>
       <c r="C28" t="n">
-        <v>0.305622</v>
+        <v>0.298896</v>
       </c>
       <c r="D28" t="n">
-        <v>0.274736</v>
+        <v>0.275714</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.387536</v>
+        <v>0.387475</v>
       </c>
       <c r="C29" t="n">
-        <v>0.313283</v>
+        <v>0.304545</v>
       </c>
       <c r="D29" t="n">
-        <v>0.280312</v>
+        <v>0.278441</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.39238</v>
+        <v>0.392024</v>
       </c>
       <c r="C30" t="n">
-        <v>0.324767</v>
+        <v>0.317324</v>
       </c>
       <c r="D30" t="n">
-        <v>0.284327</v>
+        <v>0.286116</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.399648</v>
+        <v>0.398842</v>
       </c>
       <c r="C31" t="n">
-        <v>0.323266</v>
+        <v>0.314764</v>
       </c>
       <c r="D31" t="n">
-        <v>0.285675</v>
+        <v>0.286197</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.401844</v>
+        <v>0.400492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.334787</v>
+        <v>0.325179</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291532</v>
+        <v>0.289651</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.408138</v>
+        <v>0.406685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.344725</v>
+        <v>0.33533</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294688</v>
+        <v>0.295423</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411538</v>
+        <v>0.410691</v>
       </c>
       <c r="C34" t="n">
-        <v>0.350725</v>
+        <v>0.339195</v>
       </c>
       <c r="D34" t="n">
-        <v>0.299281</v>
+        <v>0.298032</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.41969</v>
+        <v>0.418558</v>
       </c>
       <c r="C35" t="n">
-        <v>0.28613</v>
+        <v>0.279215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278641</v>
+        <v>0.278145</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.402481</v>
+        <v>0.403389</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291983</v>
+        <v>0.285072</v>
       </c>
       <c r="D36" t="n">
-        <v>0.281663</v>
+        <v>0.28096</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.407888</v>
+        <v>0.408157</v>
       </c>
       <c r="C37" t="n">
-        <v>0.297969</v>
+        <v>0.290744</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284043</v>
+        <v>0.283206</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.410128</v>
+        <v>0.410464</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303355</v>
+        <v>0.295639</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28735</v>
+        <v>0.285866</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415358</v>
+        <v>0.415099</v>
       </c>
       <c r="C39" t="n">
-        <v>0.308099</v>
+        <v>0.302151</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290622</v>
+        <v>0.291129</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419105</v>
+        <v>0.419561</v>
       </c>
       <c r="C40" t="n">
-        <v>0.312388</v>
+        <v>0.305842</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29294</v>
+        <v>0.292775</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423183</v>
+        <v>0.423556</v>
       </c>
       <c r="C41" t="n">
-        <v>0.318369</v>
+        <v>0.308921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.294706</v>
+        <v>0.294313</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.430676</v>
+        <v>0.429636</v>
       </c>
       <c r="C42" t="n">
-        <v>0.320379</v>
+        <v>0.311192</v>
       </c>
       <c r="D42" t="n">
-        <v>0.297403</v>
+        <v>0.296692</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.436215</v>
+        <v>0.435905</v>
       </c>
       <c r="C43" t="n">
-        <v>0.326234</v>
+        <v>0.316392</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299622</v>
+        <v>0.298516</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440843</v>
+        <v>0.440599</v>
       </c>
       <c r="C44" t="n">
-        <v>0.33117</v>
+        <v>0.321094</v>
       </c>
       <c r="D44" t="n">
-        <v>0.302324</v>
+        <v>0.301231</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442536</v>
+        <v>0.442412</v>
       </c>
       <c r="C45" t="n">
-        <v>0.335463</v>
+        <v>0.324844</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305817</v>
+        <v>0.304789</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.450125</v>
+        <v>0.44865</v>
       </c>
       <c r="C46" t="n">
-        <v>0.336608</v>
+        <v>0.326159</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306166</v>
+        <v>0.3057</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4551</v>
+        <v>0.455582</v>
       </c>
       <c r="C47" t="n">
-        <v>0.343798</v>
+        <v>0.331922</v>
       </c>
       <c r="D47" t="n">
-        <v>0.310124</v>
+        <v>0.308399</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.46091</v>
+        <v>0.46081</v>
       </c>
       <c r="C48" t="n">
-        <v>0.35039</v>
+        <v>0.338091</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312404</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.466619</v>
+        <v>0.466894</v>
       </c>
       <c r="C49" t="n">
-        <v>0.355132</v>
+        <v>0.342183</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31601</v>
+        <v>0.315329</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476684</v>
+        <v>0.476612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.321727</v>
+        <v>0.312526</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293975</v>
+        <v>0.293636</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429933</v>
+        <v>0.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326489</v>
+        <v>0.315846</v>
       </c>
       <c r="D51" t="n">
-        <v>0.297506</v>
+        <v>0.296594</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433676</v>
+        <v>0.433338</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329285</v>
+        <v>0.318966</v>
       </c>
       <c r="D52" t="n">
-        <v>0.298405</v>
+        <v>0.297267</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438945</v>
+        <v>0.438645</v>
       </c>
       <c r="C53" t="n">
-        <v>0.335725</v>
+        <v>0.323759</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300519</v>
+        <v>0.300579</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442296</v>
+        <v>0.442273</v>
       </c>
       <c r="C54" t="n">
-        <v>0.339908</v>
+        <v>0.329226</v>
       </c>
       <c r="D54" t="n">
-        <v>0.304058</v>
+        <v>0.303506</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.44532</v>
+        <v>0.444966</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347076</v>
+        <v>0.334367</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305473</v>
+        <v>0.305285</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.450378</v>
+        <v>0.44958</v>
       </c>
       <c r="C56" t="n">
-        <v>0.346496</v>
+        <v>0.334579</v>
       </c>
       <c r="D56" t="n">
-        <v>0.311706</v>
+        <v>0.307332</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453426</v>
+        <v>0.453009</v>
       </c>
       <c r="C57" t="n">
-        <v>0.355541</v>
+        <v>0.342833</v>
       </c>
       <c r="D57" t="n">
-        <v>0.310917</v>
+        <v>0.309796</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456955</v>
+        <v>0.457026</v>
       </c>
       <c r="C58" t="n">
-        <v>0.363654</v>
+        <v>0.350292</v>
       </c>
       <c r="D58" t="n">
-        <v>0.314684</v>
+        <v>0.313991</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.461357</v>
+        <v>0.46096</v>
       </c>
       <c r="C59" t="n">
-        <v>0.370669</v>
+        <v>0.357433</v>
       </c>
       <c r="D59" t="n">
-        <v>0.319062</v>
+        <v>0.318569</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.466287</v>
+        <v>0.465836</v>
       </c>
       <c r="C60" t="n">
-        <v>0.376148</v>
+        <v>0.361781</v>
       </c>
       <c r="D60" t="n">
-        <v>0.321456</v>
+        <v>0.320423</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.469915</v>
+        <v>0.470312</v>
       </c>
       <c r="C61" t="n">
-        <v>0.382215</v>
+        <v>0.367407</v>
       </c>
       <c r="D61" t="n">
-        <v>0.324072</v>
+        <v>0.323294</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477521</v>
+        <v>0.477056</v>
       </c>
       <c r="C62" t="n">
-        <v>0.387887</v>
+        <v>0.371876</v>
       </c>
       <c r="D62" t="n">
-        <v>0.326091</v>
+        <v>0.32499</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.482236</v>
+        <v>0.481232</v>
       </c>
       <c r="C63" t="n">
-        <v>0.393699</v>
+        <v>0.377335</v>
       </c>
       <c r="D63" t="n">
-        <v>0.329218</v>
+        <v>0.328587</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.488214</v>
+        <v>0.489328</v>
       </c>
       <c r="C64" t="n">
-        <v>0.353214</v>
+        <v>0.344214</v>
       </c>
       <c r="D64" t="n">
-        <v>0.320476</v>
+        <v>0.319686</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.463213</v>
+        <v>0.463711</v>
       </c>
       <c r="C65" t="n">
-        <v>0.360665</v>
+        <v>0.350178</v>
       </c>
       <c r="D65" t="n">
-        <v>0.317115</v>
+        <v>0.316553</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.469146</v>
+        <v>0.467552</v>
       </c>
       <c r="C66" t="n">
-        <v>0.363504</v>
+        <v>0.354917</v>
       </c>
       <c r="D66" t="n">
-        <v>0.31884</v>
+        <v>0.318096</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.479794</v>
+        <v>0.478261</v>
       </c>
       <c r="C67" t="n">
-        <v>0.370975</v>
+        <v>0.361263</v>
       </c>
       <c r="D67" t="n">
-        <v>0.32224</v>
+        <v>0.322054</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.490669</v>
+        <v>0.490848</v>
       </c>
       <c r="C68" t="n">
-        <v>0.375685</v>
+        <v>0.365315</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325586</v>
+        <v>0.326065</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.495687</v>
+        <v>0.493655</v>
       </c>
       <c r="C69" t="n">
-        <v>0.380567</v>
+        <v>0.370287</v>
       </c>
       <c r="D69" t="n">
-        <v>0.32832</v>
+        <v>0.327871</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.512482</v>
+        <v>0.508562</v>
       </c>
       <c r="C70" t="n">
-        <v>0.386313</v>
+        <v>0.376474</v>
       </c>
       <c r="D70" t="n">
-        <v>0.332668</v>
+        <v>0.33124</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.525761</v>
+        <v>0.514045</v>
       </c>
       <c r="C71" t="n">
-        <v>0.394799</v>
+        <v>0.384984</v>
       </c>
       <c r="D71" t="n">
-        <v>0.336039</v>
+        <v>0.335486</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.534479</v>
+        <v>0.524875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4046</v>
+        <v>0.393046</v>
       </c>
       <c r="D72" t="n">
-        <v>0.340801</v>
+        <v>0.339517</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.550982</v>
+        <v>0.542007</v>
       </c>
       <c r="C73" t="n">
-        <v>0.414702</v>
+        <v>0.402777</v>
       </c>
       <c r="D73" t="n">
-        <v>0.346889</v>
+        <v>0.344812</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.573751</v>
+        <v>0.556443</v>
       </c>
       <c r="C74" t="n">
-        <v>0.421352</v>
+        <v>0.408247</v>
       </c>
       <c r="D74" t="n">
-        <v>0.349445</v>
+        <v>0.347093</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5888910000000001</v>
+        <v>0.57353</v>
       </c>
       <c r="C75" t="n">
-        <v>0.429444</v>
+        <v>0.416195</v>
       </c>
       <c r="D75" t="n">
-        <v>0.355531</v>
+        <v>0.353433</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.60917</v>
+        <v>0.593265</v>
       </c>
       <c r="C76" t="n">
-        <v>0.441731</v>
+        <v>0.428331</v>
       </c>
       <c r="D76" t="n">
-        <v>0.356977</v>
+        <v>0.361666</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6243</v>
+        <v>0.6112300000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.453958</v>
+        <v>0.440472</v>
       </c>
       <c r="D77" t="n">
-        <v>0.367228</v>
+        <v>0.365707</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.653805</v>
+        <v>0.6431249999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.401428</v>
+        <v>0.410475</v>
       </c>
       <c r="D78" t="n">
-        <v>0.362214</v>
+        <v>0.360703</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.698262</v>
+        <v>0.691815</v>
       </c>
       <c r="C79" t="n">
-        <v>0.413107</v>
+        <v>0.426932</v>
       </c>
       <c r="D79" t="n">
-        <v>0.366193</v>
+        <v>0.363067</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.715175</v>
+        <v>0.716445</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430466</v>
+        <v>0.445288</v>
       </c>
       <c r="D80" t="n">
-        <v>0.371452</v>
+        <v>0.368677</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.761744</v>
+        <v>0.745595</v>
       </c>
       <c r="C81" t="n">
-        <v>0.439365</v>
+        <v>0.462951</v>
       </c>
       <c r="D81" t="n">
-        <v>0.383408</v>
+        <v>0.379776</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.792033</v>
+        <v>0.782927</v>
       </c>
       <c r="C82" t="n">
-        <v>0.461362</v>
+        <v>0.483297</v>
       </c>
       <c r="D82" t="n">
-        <v>0.395401</v>
+        <v>0.382673</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.847785</v>
+        <v>0.830256</v>
       </c>
       <c r="C83" t="n">
-        <v>0.479985</v>
+        <v>0.510564</v>
       </c>
       <c r="D83" t="n">
-        <v>0.403239</v>
+        <v>0.398332</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.882833</v>
+        <v>0.885247</v>
       </c>
       <c r="C84" t="n">
-        <v>0.502251</v>
+        <v>0.5304140000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412415</v>
+        <v>0.408881</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.928856</v>
+        <v>0.921903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.52411</v>
+        <v>0.557777</v>
       </c>
       <c r="D85" t="n">
-        <v>0.423302</v>
+        <v>0.420038</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.987223</v>
+        <v>0.978718</v>
       </c>
       <c r="C86" t="n">
-        <v>0.54684</v>
+        <v>0.58011</v>
       </c>
       <c r="D86" t="n">
-        <v>0.439681</v>
+        <v>0.436934</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03868</v>
+        <v>1.03488</v>
       </c>
       <c r="C87" t="n">
-        <v>0.575699</v>
+        <v>0.611708</v>
       </c>
       <c r="D87" t="n">
-        <v>0.460412</v>
+        <v>0.448719</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09188</v>
+        <v>1.09479</v>
       </c>
       <c r="C88" t="n">
-        <v>0.60538</v>
+        <v>0.642158</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472409</v>
+        <v>0.467684</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14285</v>
+        <v>1.13709</v>
       </c>
       <c r="C89" t="n">
-        <v>0.641647</v>
+        <v>0.679597</v>
       </c>
       <c r="D89" t="n">
-        <v>0.491112</v>
+        <v>0.485925</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.19487</v>
+        <v>1.19285</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6778189999999999</v>
+        <v>0.714371</v>
       </c>
       <c r="D90" t="n">
-        <v>0.510494</v>
+        <v>0.511368</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.26318</v>
+        <v>1.26948</v>
       </c>
       <c r="C91" t="n">
-        <v>0.723614</v>
+        <v>0.758423</v>
       </c>
       <c r="D91" t="n">
-        <v>0.538651</v>
+        <v>0.537281</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.32681</v>
+        <v>1.31245</v>
       </c>
       <c r="C92" t="n">
-        <v>0.741908</v>
+        <v>0.798681</v>
       </c>
       <c r="D92" t="n">
-        <v>0.651817</v>
+        <v>0.648062</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35614</v>
+        <v>1.35602</v>
       </c>
       <c r="C93" t="n">
-        <v>0.773515</v>
+        <v>0.832037</v>
       </c>
       <c r="D93" t="n">
-        <v>0.673773</v>
+        <v>0.676128</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.39628</v>
+        <v>1.41391</v>
       </c>
       <c r="C94" t="n">
-        <v>0.804964</v>
+        <v>0.865761</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696464</v>
+        <v>0.696704</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44535</v>
+        <v>1.45327</v>
       </c>
       <c r="C95" t="n">
-        <v>0.838402</v>
+        <v>0.902372</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7232189999999999</v>
+        <v>0.723313</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.49097</v>
+        <v>1.49748</v>
       </c>
       <c r="C96" t="n">
-        <v>0.874155</v>
+        <v>0.9381389999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7474730000000001</v>
+        <v>0.750922</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.53758</v>
+        <v>1.55457</v>
       </c>
       <c r="C97" t="n">
-        <v>0.911643</v>
+        <v>0.975154</v>
       </c>
       <c r="D97" t="n">
-        <v>0.774938</v>
+        <v>0.778955</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.58979</v>
+        <v>1.60454</v>
       </c>
       <c r="C98" t="n">
-        <v>0.949997</v>
+        <v>1.01281</v>
       </c>
       <c r="D98" t="n">
-        <v>0.79836</v>
+        <v>0.8070349999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.63346</v>
+        <v>1.64359</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9925040000000001</v>
+        <v>1.0537</v>
       </c>
       <c r="D99" t="n">
-        <v>0.825996</v>
+        <v>0.832191</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.67923</v>
+        <v>1.69149</v>
       </c>
       <c r="C100" t="n">
-        <v>1.03412</v>
+        <v>1.09044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.855201</v>
+        <v>0.8583809999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72844</v>
+        <v>1.72882</v>
       </c>
       <c r="C101" t="n">
-        <v>1.07085</v>
+        <v>1.12389</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8815539999999999</v>
+        <v>0.883437</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.77274</v>
+        <v>1.78278</v>
       </c>
       <c r="C102" t="n">
-        <v>1.1166</v>
+        <v>1.16583</v>
       </c>
       <c r="D102" t="n">
-        <v>0.910127</v>
+        <v>0.915759</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.80387</v>
+        <v>1.83337</v>
       </c>
       <c r="C103" t="n">
-        <v>1.15547</v>
+        <v>1.20087</v>
       </c>
       <c r="D103" t="n">
-        <v>0.931894</v>
+        <v>0.943307</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.85948</v>
+        <v>1.87573</v>
       </c>
       <c r="C104" t="n">
-        <v>1.19664</v>
+        <v>1.23682</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9610649999999999</v>
+        <v>0.9720760000000001</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90552</v>
+        <v>1.91301</v>
       </c>
       <c r="C105" t="n">
-        <v>1.24442</v>
+        <v>1.27979</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9961680000000001</v>
+        <v>0.998275</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.9473</v>
+        <v>1.97563</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29357</v>
+        <v>1.31876</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02728</v>
+        <v>1.02334</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.85448</v>
+        <v>1.86974</v>
       </c>
       <c r="C107" t="n">
-        <v>1.18853</v>
+        <v>1.23472</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06688</v>
+        <v>1.07172</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.87661</v>
+        <v>1.90002</v>
       </c>
       <c r="C108" t="n">
-        <v>1.21603</v>
+        <v>1.26313</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08873</v>
+        <v>1.09463</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.90933</v>
+        <v>1.93457</v>
       </c>
       <c r="C109" t="n">
-        <v>1.24882</v>
+        <v>1.29283</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11009</v>
+        <v>1.11195</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.95675</v>
+        <v>1.96762</v>
       </c>
       <c r="C110" t="n">
-        <v>1.27961</v>
+        <v>1.32136</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12441</v>
+        <v>1.13008</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.98901</v>
+        <v>1.99957</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3083</v>
+        <v>1.34675</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14885</v>
+        <v>1.15122</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.02621</v>
+        <v>2.03958</v>
       </c>
       <c r="C112" t="n">
-        <v>1.34454</v>
+        <v>1.38188</v>
       </c>
       <c r="D112" t="n">
-        <v>1.16894</v>
+        <v>1.17626</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.06088</v>
+        <v>2.07305</v>
       </c>
       <c r="C113" t="n">
-        <v>1.38136</v>
+        <v>1.41238</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1947</v>
+        <v>1.19365</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.09762</v>
+        <v>2.10805</v>
       </c>
       <c r="C114" t="n">
-        <v>1.41216</v>
+        <v>1.44231</v>
       </c>
       <c r="D114" t="n">
-        <v>1.21506</v>
+        <v>1.21414</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.12592</v>
+        <v>2.13765</v>
       </c>
       <c r="C115" t="n">
-        <v>1.45231</v>
+        <v>1.47751</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23581</v>
+        <v>1.24055</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.16794</v>
+        <v>2.17762</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48782</v>
+        <v>1.50944</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25767</v>
+        <v>1.26093</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.20583</v>
+        <v>2.21377</v>
       </c>
       <c r="C117" t="n">
-        <v>1.5237</v>
+        <v>1.54071</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27932</v>
+        <v>1.2836</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.24044</v>
+        <v>2.24025</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56712</v>
+        <v>1.58113</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30077</v>
+        <v>1.30786</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2785</v>
+        <v>2.2818</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60702</v>
+        <v>1.61649</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32407</v>
+        <v>1.32979</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.442009</v>
+        <v>0.43866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.353672</v>
+        <v>0.333211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275162</v>
+        <v>0.275152</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4487</v>
+        <v>0.456051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.359127</v>
+        <v>0.337573</v>
       </c>
       <c r="D3" t="n">
-        <v>0.279989</v>
+        <v>0.277886</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.475781</v>
+        <v>0.470133</v>
       </c>
       <c r="C4" t="n">
-        <v>0.384388</v>
+        <v>0.359104</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289629</v>
+        <v>0.28901</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.484684</v>
+        <v>0.479662</v>
       </c>
       <c r="C5" t="n">
-        <v>0.390166</v>
+        <v>0.368274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293409</v>
+        <v>0.293507</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.497642</v>
+        <v>0.489088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402968</v>
+        <v>0.3736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.297198</v>
+        <v>0.296455</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.511757</v>
+        <v>0.50064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.422525</v>
+        <v>0.396227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304624</v>
+        <v>0.30534</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.520498</v>
+        <v>0.508711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.438344</v>
+        <v>0.417521</v>
       </c>
       <c r="D8" t="n">
-        <v>0.314227</v>
+        <v>0.313076</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.541674</v>
+        <v>0.534581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.457779</v>
+        <v>0.432191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.325717</v>
+        <v>0.328708</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5526219999999999</v>
+        <v>0.548838</v>
       </c>
       <c r="C10" t="n">
-        <v>0.485059</v>
+        <v>0.452876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.341597</v>
+        <v>0.340854</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.577998</v>
+        <v>0.570194</v>
       </c>
       <c r="C11" t="n">
-        <v>0.37887</v>
+        <v>0.347989</v>
       </c>
       <c r="D11" t="n">
-        <v>0.277801</v>
+        <v>0.276991</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.425944</v>
+        <v>0.4215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.374975</v>
+        <v>0.354861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279136</v>
+        <v>0.27838</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.445957</v>
+        <v>0.43642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.389585</v>
+        <v>0.368729</v>
       </c>
       <c r="D13" t="n">
-        <v>0.291745</v>
+        <v>0.288099</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.449386</v>
+        <v>0.439865</v>
       </c>
       <c r="C14" t="n">
-        <v>0.404196</v>
+        <v>0.385728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.290164</v>
+        <v>0.287726</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.462096</v>
+        <v>0.468977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.422648</v>
+        <v>0.398825</v>
       </c>
       <c r="D15" t="n">
-        <v>0.297345</v>
+        <v>0.300644</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475588</v>
+        <v>0.474735</v>
       </c>
       <c r="C16" t="n">
-        <v>0.442182</v>
+        <v>0.425561</v>
       </c>
       <c r="D16" t="n">
-        <v>0.305245</v>
+        <v>0.303763</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.495795</v>
+        <v>0.504335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.454177</v>
+        <v>0.437142</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31339</v>
+        <v>0.316301</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.512436</v>
+        <v>0.516852</v>
       </c>
       <c r="C18" t="n">
-        <v>0.468995</v>
+        <v>0.450641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315654</v>
+        <v>0.318228</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.542727</v>
+        <v>0.5427149999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.491432</v>
+        <v>0.466654</v>
       </c>
       <c r="D19" t="n">
-        <v>0.330335</v>
+        <v>0.335623</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.551422</v>
+        <v>0.552576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.515487</v>
+        <v>0.489803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.340756</v>
+        <v>0.341908</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.570845</v>
+        <v>0.567957</v>
       </c>
       <c r="C21" t="n">
-        <v>0.538523</v>
+        <v>0.507805</v>
       </c>
       <c r="D21" t="n">
-        <v>0.349993</v>
+        <v>0.354338</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.585585</v>
+        <v>0.586971</v>
       </c>
       <c r="C22" t="n">
-        <v>0.559647</v>
+        <v>0.528491</v>
       </c>
       <c r="D22" t="n">
-        <v>0.362276</v>
+        <v>0.363476</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.626631</v>
+        <v>0.620441</v>
       </c>
       <c r="C23" t="n">
-        <v>0.585914</v>
+        <v>0.561891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.378072</v>
+        <v>0.377715</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.641702</v>
+        <v>0.640852</v>
       </c>
       <c r="C24" t="n">
-        <v>0.607414</v>
+        <v>0.578975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.391232</v>
+        <v>0.39188</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.664429</v>
+        <v>0.663944</v>
       </c>
       <c r="C25" t="n">
-        <v>0.638576</v>
+        <v>0.604743</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401355</v>
+        <v>0.409117</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.69887</v>
+        <v>0.696309</v>
       </c>
       <c r="C26" t="n">
-        <v>0.416472</v>
+        <v>0.395734</v>
       </c>
       <c r="D26" t="n">
-        <v>0.292469</v>
+        <v>0.29305</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.517778</v>
+        <v>0.5140940000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.421496</v>
+        <v>0.403553</v>
       </c>
       <c r="D27" t="n">
-        <v>0.297056</v>
+        <v>0.296273</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.528276</v>
+        <v>0.529701</v>
       </c>
       <c r="C28" t="n">
-        <v>0.438817</v>
+        <v>0.418601</v>
       </c>
       <c r="D28" t="n">
-        <v>0.305661</v>
+        <v>0.303615</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.547277</v>
+        <v>0.544386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.44811</v>
+        <v>0.428246</v>
       </c>
       <c r="D29" t="n">
-        <v>0.312029</v>
+        <v>0.309996</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.568491</v>
+        <v>0.5665210000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.467206</v>
+        <v>0.450218</v>
       </c>
       <c r="D30" t="n">
-        <v>0.319304</v>
+        <v>0.316561</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.591928</v>
+        <v>0.583059</v>
       </c>
       <c r="C31" t="n">
-        <v>0.484333</v>
+        <v>0.463471</v>
       </c>
       <c r="D31" t="n">
-        <v>0.330645</v>
+        <v>0.323805</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6100449999999999</v>
+        <v>0.602882</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50222</v>
+        <v>0.480859</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337725</v>
+        <v>0.332828</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.623405</v>
+        <v>0.615011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.523685</v>
+        <v>0.500042</v>
       </c>
       <c r="D33" t="n">
-        <v>0.34937</v>
+        <v>0.341228</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.649895</v>
+        <v>0.642231</v>
       </c>
       <c r="C34" t="n">
-        <v>0.546744</v>
+        <v>0.520032</v>
       </c>
       <c r="D34" t="n">
-        <v>0.358759</v>
+        <v>0.354453</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.669473</v>
+        <v>0.665544</v>
       </c>
       <c r="C35" t="n">
-        <v>0.571048</v>
+        <v>0.543642</v>
       </c>
       <c r="D35" t="n">
-        <v>0.370984</v>
+        <v>0.359252</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.691314</v>
+        <v>0.680378</v>
       </c>
       <c r="C36" t="n">
-        <v>0.597475</v>
+        <v>0.566262</v>
       </c>
       <c r="D36" t="n">
-        <v>0.385812</v>
+        <v>0.384188</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.723267</v>
+        <v>0.708576</v>
       </c>
       <c r="C37" t="n">
-        <v>0.62231</v>
+        <v>0.591774</v>
       </c>
       <c r="D37" t="n">
-        <v>0.40113</v>
+        <v>0.390723</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.744655</v>
+        <v>0.734432</v>
       </c>
       <c r="C38" t="n">
-        <v>0.649848</v>
+        <v>0.615546</v>
       </c>
       <c r="D38" t="n">
-        <v>0.415692</v>
+        <v>0.406458</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7774720000000001</v>
+        <v>0.771493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.67862</v>
+        <v>0.642438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.428418</v>
+        <v>0.419372</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.799467</v>
+        <v>0.793507</v>
       </c>
       <c r="C40" t="n">
-        <v>0.489697</v>
+        <v>0.462523</v>
       </c>
       <c r="D40" t="n">
-        <v>0.355681</v>
+        <v>0.348485</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.582709</v>
+        <v>0.575358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.500881</v>
+        <v>0.475174</v>
       </c>
       <c r="D41" t="n">
-        <v>0.362222</v>
+        <v>0.359412</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.602961</v>
+        <v>0.597338</v>
       </c>
       <c r="C42" t="n">
-        <v>0.522263</v>
+        <v>0.495011</v>
       </c>
       <c r="D42" t="n">
-        <v>0.370739</v>
+        <v>0.37048</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.619729</v>
+        <v>0.615372</v>
       </c>
       <c r="C43" t="n">
-        <v>0.535964</v>
+        <v>0.510342</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376932</v>
+        <v>0.376696</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.63222</v>
+        <v>0.629448</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5608649999999999</v>
+        <v>0.533985</v>
       </c>
       <c r="D44" t="n">
-        <v>0.390032</v>
+        <v>0.379395</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.65327</v>
+        <v>0.645699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.57409</v>
+        <v>0.550596</v>
       </c>
       <c r="D45" t="n">
-        <v>0.398536</v>
+        <v>0.395816</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664849</v>
+        <v>0.657774</v>
       </c>
       <c r="C46" t="n">
-        <v>0.596355</v>
+        <v>0.568039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.409059</v>
+        <v>0.406989</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684987</v>
+        <v>0.6818380000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.614694</v>
+        <v>0.5815399999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.418309</v>
+        <v>0.410025</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.70228</v>
+        <v>0.696504</v>
       </c>
       <c r="C48" t="n">
-        <v>0.631533</v>
+        <v>0.598668</v>
       </c>
       <c r="D48" t="n">
-        <v>0.429165</v>
+        <v>0.42746</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.721069</v>
+        <v>0.72032</v>
       </c>
       <c r="C49" t="n">
-        <v>0.655596</v>
+        <v>0.624667</v>
       </c>
       <c r="D49" t="n">
-        <v>0.439636</v>
+        <v>0.435423</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.744425</v>
+        <v>0.741682</v>
       </c>
       <c r="C50" t="n">
-        <v>0.677882</v>
+        <v>0.643417</v>
       </c>
       <c r="D50" t="n">
-        <v>0.453521</v>
+        <v>0.446055</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.764769</v>
+        <v>0.7580209999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.70429</v>
+        <v>0.66948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.466741</v>
+        <v>0.4651</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.78898</v>
+        <v>0.7852980000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.732981</v>
+        <v>0.69414</v>
       </c>
       <c r="D52" t="n">
-        <v>0.480255</v>
+        <v>0.471394</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.810084</v>
+        <v>0.805895</v>
       </c>
       <c r="C53" t="n">
-        <v>0.75743</v>
+        <v>0.722583</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493461</v>
+        <v>0.493808</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.83136</v>
+        <v>0.825735</v>
       </c>
       <c r="C54" t="n">
-        <v>0.550664</v>
+        <v>0.524965</v>
       </c>
       <c r="D54" t="n">
-        <v>0.398381</v>
+        <v>0.395112</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.622169</v>
+        <v>0.620664</v>
       </c>
       <c r="C55" t="n">
-        <v>0.563435</v>
+        <v>0.536678</v>
       </c>
       <c r="D55" t="n">
-        <v>0.406842</v>
+        <v>0.405572</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.639014</v>
+        <v>0.63772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5799029999999999</v>
+        <v>0.556867</v>
       </c>
       <c r="D56" t="n">
-        <v>0.41428</v>
+        <v>0.412284</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6517500000000001</v>
+        <v>0.650142</v>
       </c>
       <c r="C57" t="n">
-        <v>0.595305</v>
+        <v>0.569475</v>
       </c>
       <c r="D57" t="n">
-        <v>0.423029</v>
+        <v>0.419377</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668492</v>
+        <v>0.666283</v>
       </c>
       <c r="C58" t="n">
-        <v>0.61147</v>
+        <v>0.583982</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428838</v>
+        <v>0.427656</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.68588</v>
+        <v>0.683598</v>
       </c>
       <c r="C59" t="n">
-        <v>0.629857</v>
+        <v>0.598987</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438308</v>
+        <v>0.438393</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.70029</v>
+        <v>0.698442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.648331</v>
+        <v>0.6168169999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445799</v>
+        <v>0.443512</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.719391</v>
+        <v>0.716178</v>
       </c>
       <c r="C61" t="n">
-        <v>0.666852</v>
+        <v>0.63451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.455599</v>
+        <v>0.454329</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.736687</v>
+        <v>0.735688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6834710000000001</v>
+        <v>0.64973</v>
       </c>
       <c r="D62" t="n">
-        <v>0.465797</v>
+        <v>0.462254</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.758126</v>
+        <v>0.75497</v>
       </c>
       <c r="C63" t="n">
-        <v>0.70731</v>
+        <v>0.673705</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477545</v>
+        <v>0.474019</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.768946</v>
+        <v>0.766207</v>
       </c>
       <c r="C64" t="n">
-        <v>0.725652</v>
+        <v>0.692163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.487015</v>
+        <v>0.481067</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.793814</v>
+        <v>0.792589</v>
       </c>
       <c r="C65" t="n">
-        <v>0.756116</v>
+        <v>0.71887</v>
       </c>
       <c r="D65" t="n">
-        <v>0.500345</v>
+        <v>0.497442</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.815122</v>
+        <v>0.812415</v>
       </c>
       <c r="C66" t="n">
-        <v>0.775914</v>
+        <v>0.741856</v>
       </c>
       <c r="D66" t="n">
-        <v>0.51341</v>
+        <v>0.509794</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.845294</v>
+        <v>0.839892</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8067530000000001</v>
+        <v>0.767438</v>
       </c>
       <c r="D67" t="n">
-        <v>0.527939</v>
+        <v>0.5252830000000001</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.867513</v>
+        <v>0.872048</v>
       </c>
       <c r="C68" t="n">
-        <v>0.550139</v>
+        <v>0.519401</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4083</v>
+        <v>0.406283</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.662648</v>
+        <v>0.653363</v>
       </c>
       <c r="C69" t="n">
-        <v>0.568586</v>
+        <v>0.5395759999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.414643</v>
+        <v>0.410426</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.684739</v>
+        <v>0.671574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.592611</v>
+        <v>0.559164</v>
       </c>
       <c r="D70" t="n">
-        <v>0.425179</v>
+        <v>0.421545</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.713025</v>
+        <v>0.696179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.614448</v>
+        <v>0.576819</v>
       </c>
       <c r="D71" t="n">
-        <v>0.437318</v>
+        <v>0.432625</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.734762</v>
+        <v>0.7257749999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.63747</v>
+        <v>0.603095</v>
       </c>
       <c r="D72" t="n">
-        <v>0.448433</v>
+        <v>0.445507</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.760087</v>
+        <v>0.755684</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6682979999999999</v>
+        <v>0.632872</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4592</v>
+        <v>0.454754</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.78754</v>
+        <v>0.779541</v>
       </c>
       <c r="C74" t="n">
-        <v>0.691226</v>
+        <v>0.657081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.468571</v>
+        <v>0.464981</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8173010000000001</v>
+        <v>0.81334</v>
       </c>
       <c r="C75" t="n">
-        <v>0.724239</v>
+        <v>0.689225</v>
       </c>
       <c r="D75" t="n">
-        <v>0.481634</v>
+        <v>0.480358</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.856427</v>
+        <v>0.848324</v>
       </c>
       <c r="C76" t="n">
-        <v>0.757532</v>
+        <v>0.721294</v>
       </c>
       <c r="D76" t="n">
-        <v>0.498611</v>
+        <v>0.491713</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.892228</v>
+        <v>0.893298</v>
       </c>
       <c r="C77" t="n">
-        <v>0.796185</v>
+        <v>0.761234</v>
       </c>
       <c r="D77" t="n">
-        <v>0.513148</v>
+        <v>0.511565</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.941928</v>
+        <v>0.933503</v>
       </c>
       <c r="C78" t="n">
-        <v>0.835019</v>
+        <v>0.798584</v>
       </c>
       <c r="D78" t="n">
-        <v>0.527244</v>
+        <v>0.522106</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.996452</v>
+        <v>0.994104</v>
       </c>
       <c r="C79" t="n">
-        <v>0.882198</v>
+        <v>0.844378</v>
       </c>
       <c r="D79" t="n">
-        <v>0.543913</v>
+        <v>0.539343</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.07407</v>
+        <v>1.05593</v>
       </c>
       <c r="C80" t="n">
-        <v>0.94614</v>
+        <v>0.902589</v>
       </c>
       <c r="D80" t="n">
-        <v>0.563067</v>
+        <v>0.5624</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.14162</v>
+        <v>1.12749</v>
       </c>
       <c r="C81" t="n">
-        <v>1.01589</v>
+        <v>0.968074</v>
       </c>
       <c r="D81" t="n">
-        <v>0.587727</v>
+        <v>0.580798</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.23109</v>
+        <v>1.22293</v>
       </c>
       <c r="C82" t="n">
-        <v>1.08465</v>
+        <v>1.04107</v>
       </c>
       <c r="D82" t="n">
-        <v>0.611944</v>
+        <v>0.612019</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.33377</v>
+        <v>1.30298</v>
       </c>
       <c r="C83" t="n">
-        <v>0.785008</v>
+        <v>0.765323</v>
       </c>
       <c r="D83" t="n">
-        <v>0.489128</v>
+        <v>0.482662</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06089</v>
+        <v>1.04161</v>
       </c>
       <c r="C84" t="n">
-        <v>0.84144</v>
+        <v>0.8220420000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.505514</v>
+        <v>0.496694</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.13661</v>
+        <v>1.12975</v>
       </c>
       <c r="C85" t="n">
-        <v>0.890754</v>
+        <v>0.878794</v>
       </c>
       <c r="D85" t="n">
-        <v>0.519774</v>
+        <v>0.517366</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.21623</v>
+        <v>1.20972</v>
       </c>
       <c r="C86" t="n">
-        <v>0.97501</v>
+        <v>0.963222</v>
       </c>
       <c r="D86" t="n">
-        <v>0.541991</v>
+        <v>0.5411859999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.31522</v>
+        <v>1.3059</v>
       </c>
       <c r="C87" t="n">
-        <v>1.05715</v>
+        <v>1.04472</v>
       </c>
       <c r="D87" t="n">
-        <v>0.566513</v>
+        <v>0.568832</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.43232</v>
+        <v>1.41445</v>
       </c>
       <c r="C88" t="n">
-        <v>1.16746</v>
+        <v>1.15717</v>
       </c>
       <c r="D88" t="n">
-        <v>0.608541</v>
+        <v>0.604864</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.55298</v>
+        <v>1.52999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.26496</v>
+        <v>1.25156</v>
       </c>
       <c r="D89" t="n">
-        <v>0.643239</v>
+        <v>0.64058</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.67039</v>
+        <v>1.6566</v>
       </c>
       <c r="C90" t="n">
-        <v>1.37146</v>
+        <v>1.3589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.681187</v>
+        <v>0.674604</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.80551</v>
+        <v>1.79101</v>
       </c>
       <c r="C91" t="n">
-        <v>1.4992</v>
+        <v>1.48734</v>
       </c>
       <c r="D91" t="n">
-        <v>0.733645</v>
+        <v>0.723678</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.94933</v>
+        <v>1.94096</v>
       </c>
       <c r="C92" t="n">
-        <v>1.63662</v>
+        <v>1.61937</v>
       </c>
       <c r="D92" t="n">
-        <v>0.780157</v>
+        <v>0.7739</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.10374</v>
+        <v>2.08709</v>
       </c>
       <c r="C93" t="n">
-        <v>1.77606</v>
+        <v>1.76686</v>
       </c>
       <c r="D93" t="n">
-        <v>0.8393969999999999</v>
+        <v>0.836519</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25751</v>
+        <v>2.24553</v>
       </c>
       <c r="C94" t="n">
-        <v>1.93449</v>
+        <v>1.91761</v>
       </c>
       <c r="D94" t="n">
-        <v>0.89018</v>
+        <v>0.896503</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.4269</v>
+        <v>2.41886</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09711</v>
+        <v>2.07424</v>
       </c>
       <c r="D95" t="n">
-        <v>0.978467</v>
+        <v>0.970144</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.58294</v>
+        <v>2.5803</v>
       </c>
       <c r="C96" t="n">
-        <v>2.28963</v>
+        <v>2.2632</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0489</v>
+        <v>1.05572</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7775</v>
+        <v>2.76478</v>
       </c>
       <c r="C97" t="n">
-        <v>1.43119</v>
+        <v>1.44027</v>
       </c>
       <c r="D97" t="n">
-        <v>0.798115</v>
+        <v>0.796584</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.06248</v>
+        <v>2.06038</v>
       </c>
       <c r="C98" t="n">
-        <v>1.53651</v>
+        <v>1.54557</v>
       </c>
       <c r="D98" t="n">
-        <v>0.834992</v>
+        <v>0.840148</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.17823</v>
+        <v>2.16412</v>
       </c>
       <c r="C99" t="n">
-        <v>1.62918</v>
+        <v>1.63125</v>
       </c>
       <c r="D99" t="n">
-        <v>0.894263</v>
+        <v>0.895942</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.28519</v>
+        <v>2.28529</v>
       </c>
       <c r="C100" t="n">
-        <v>1.74189</v>
+        <v>1.74679</v>
       </c>
       <c r="D100" t="n">
-        <v>0.943397</v>
+        <v>0.95896</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.42381</v>
+        <v>2.42424</v>
       </c>
       <c r="C101" t="n">
-        <v>1.85214</v>
+        <v>1.85622</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00154</v>
+        <v>0.993525</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.53749</v>
+        <v>2.54137</v>
       </c>
       <c r="C102" t="n">
-        <v>1.97387</v>
+        <v>1.96978</v>
       </c>
       <c r="D102" t="n">
-        <v>1.06242</v>
+        <v>1.06035</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64832</v>
+        <v>2.66163</v>
       </c>
       <c r="C103" t="n">
-        <v>2.09736</v>
+        <v>2.09261</v>
       </c>
       <c r="D103" t="n">
-        <v>1.1313</v>
+        <v>1.12554</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.79388</v>
+        <v>2.79431</v>
       </c>
       <c r="C104" t="n">
-        <v>2.23125</v>
+        <v>2.22156</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19546</v>
+        <v>1.18406</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.91633</v>
+        <v>2.92623</v>
       </c>
       <c r="C105" t="n">
-        <v>2.37042</v>
+        <v>2.35877</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23956</v>
+        <v>1.24087</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.06511</v>
+        <v>3.07232</v>
       </c>
       <c r="C106" t="n">
-        <v>2.50946</v>
+        <v>2.49362</v>
       </c>
       <c r="D106" t="n">
-        <v>1.31186</v>
+        <v>1.32412</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.24012</v>
+        <v>3.24177</v>
       </c>
       <c r="C107" t="n">
-        <v>2.66038</v>
+        <v>2.6388</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38902</v>
+        <v>1.39632</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.3992</v>
+        <v>3.38833</v>
       </c>
       <c r="C108" t="n">
-        <v>2.83083</v>
+        <v>2.80823</v>
       </c>
       <c r="D108" t="n">
-        <v>1.4651</v>
+        <v>1.46936</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.56176</v>
+        <v>3.5677</v>
       </c>
       <c r="C109" t="n">
-        <v>3.01308</v>
+        <v>2.99167</v>
       </c>
       <c r="D109" t="n">
-        <v>1.54014</v>
+        <v>1.55277</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.73298</v>
+        <v>3.72302</v>
       </c>
       <c r="C110" t="n">
-        <v>3.17402</v>
+        <v>3.14854</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62523</v>
+        <v>1.63132</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.90114</v>
+        <v>3.9208</v>
       </c>
       <c r="C111" t="n">
-        <v>2.09308</v>
+        <v>2.08057</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30603</v>
+        <v>1.31113</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.82849</v>
+        <v>2.84679</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19557</v>
+        <v>2.18019</v>
       </c>
       <c r="D112" t="n">
-        <v>1.35162</v>
+        <v>1.34731</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.9354</v>
+        <v>2.93357</v>
       </c>
       <c r="C113" t="n">
-        <v>2.30285</v>
+        <v>2.28837</v>
       </c>
       <c r="D113" t="n">
-        <v>1.4071</v>
+        <v>1.40311</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04147</v>
+        <v>3.04948</v>
       </c>
       <c r="C114" t="n">
-        <v>2.40858</v>
+        <v>2.38834</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45292</v>
+        <v>1.45451</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.16405</v>
+        <v>3.16697</v>
       </c>
       <c r="C115" t="n">
-        <v>2.51833</v>
+        <v>2.49451</v>
       </c>
       <c r="D115" t="n">
-        <v>1.50197</v>
+        <v>1.50547</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.274</v>
+        <v>3.27927</v>
       </c>
       <c r="C116" t="n">
-        <v>2.63768</v>
+        <v>2.60694</v>
       </c>
       <c r="D116" t="n">
-        <v>1.56128</v>
+        <v>1.55885</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.3824</v>
+        <v>3.39616</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7671</v>
+        <v>2.73405</v>
       </c>
       <c r="D117" t="n">
-        <v>1.63662</v>
+        <v>1.63536</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.52572</v>
+        <v>3.53514</v>
       </c>
       <c r="C118" t="n">
-        <v>2.89103</v>
+        <v>2.87662</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70207</v>
+        <v>1.70421</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.63466</v>
+        <v>3.64904</v>
       </c>
       <c r="C119" t="n">
-        <v>3.03856</v>
+        <v>2.9979</v>
       </c>
       <c r="D119" t="n">
-        <v>1.76262</v>
+        <v>1.76012</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300811</v>
+        <v>0.303505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242217</v>
+        <v>0.242822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.246179</v>
+        <v>0.250202</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.305558</v>
+        <v>0.309789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.245773</v>
+        <v>0.247971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253069</v>
+        <v>0.255475</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.30946</v>
+        <v>0.31437</v>
       </c>
       <c r="C4" t="n">
-        <v>0.252662</v>
+        <v>0.254925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257109</v>
+        <v>0.260435</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.316421</v>
+        <v>0.325028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260757</v>
+        <v>0.264761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264002</v>
+        <v>0.268448</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.322531</v>
+        <v>0.329711</v>
       </c>
       <c r="C6" t="n">
-        <v>0.263884</v>
+        <v>0.267694</v>
       </c>
       <c r="D6" t="n">
-        <v>0.267555</v>
+        <v>0.272302</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.32853</v>
+        <v>0.335866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.222749</v>
+        <v>0.221812</v>
       </c>
       <c r="D7" t="n">
-        <v>0.229983</v>
+        <v>0.232492</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.287026</v>
+        <v>0.29275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222469</v>
+        <v>0.227659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.232385</v>
+        <v>0.23584</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.293732</v>
+        <v>0.297544</v>
       </c>
       <c r="C9" t="n">
-        <v>0.228051</v>
+        <v>0.231081</v>
       </c>
       <c r="D9" t="n">
-        <v>0.239305</v>
+        <v>0.241714</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.300387</v>
+        <v>0.303029</v>
       </c>
       <c r="C10" t="n">
-        <v>0.234289</v>
+        <v>0.236179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.243353</v>
+        <v>0.246873</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.30647</v>
+        <v>0.308755</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239588</v>
+        <v>0.240368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.248934</v>
+        <v>0.249705</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.311398</v>
+        <v>0.312879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24301</v>
+        <v>0.245755</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253178</v>
+        <v>0.255818</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.318692</v>
+        <v>0.322508</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24915</v>
+        <v>0.252401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.258716</v>
+        <v>0.259779</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327158</v>
+        <v>0.328956</v>
       </c>
       <c r="C14" t="n">
-        <v>0.254073</v>
+        <v>0.256241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.264622</v>
+        <v>0.266816</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.334905</v>
+        <v>0.33636</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260974</v>
+        <v>0.262412</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270027</v>
+        <v>0.273185</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.343208</v>
+        <v>0.345128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.267757</v>
+        <v>0.269834</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275003</v>
+        <v>0.276603</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.350622</v>
+        <v>0.351121</v>
       </c>
       <c r="C17" t="n">
-        <v>0.274921</v>
+        <v>0.27643</v>
       </c>
       <c r="D17" t="n">
-        <v>0.282368</v>
+        <v>0.283518</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.355764</v>
+        <v>0.358789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.28083</v>
+        <v>0.282367</v>
       </c>
       <c r="D18" t="n">
-        <v>0.288836</v>
+        <v>0.28934</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.36305</v>
+        <v>0.366451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28621</v>
+        <v>0.28893</v>
       </c>
       <c r="D19" t="n">
-        <v>0.294209</v>
+        <v>0.296566</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.36943</v>
+        <v>0.372072</v>
       </c>
       <c r="C20" t="n">
-        <v>0.292518</v>
+        <v>0.295353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.301563</v>
+        <v>0.303342</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.377035</v>
+        <v>0.37942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244562</v>
+        <v>0.244855</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256063</v>
+        <v>0.256891</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.330658</v>
+        <v>0.331027</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248085</v>
+        <v>0.249662</v>
       </c>
       <c r="D22" t="n">
-        <v>0.260365</v>
+        <v>0.26376</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.334857</v>
+        <v>0.335662</v>
       </c>
       <c r="C23" t="n">
-        <v>0.253957</v>
+        <v>0.255146</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266062</v>
+        <v>0.266586</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.339853</v>
+        <v>0.340572</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25987</v>
+        <v>0.26147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271627</v>
+        <v>0.271932</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345927</v>
+        <v>0.345632</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263623</v>
+        <v>0.263551</v>
       </c>
       <c r="D25" t="n">
-        <v>0.276129</v>
+        <v>0.277051</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351735</v>
+        <v>0.351476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.269693</v>
+        <v>0.269749</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28172</v>
+        <v>0.281328</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.356479</v>
+        <v>0.357429</v>
       </c>
       <c r="C27" t="n">
-        <v>0.276732</v>
+        <v>0.276073</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288241</v>
+        <v>0.287541</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.362646</v>
+        <v>0.362441</v>
       </c>
       <c r="C28" t="n">
-        <v>0.282419</v>
+        <v>0.282554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294002</v>
+        <v>0.294766</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.368223</v>
+        <v>0.368158</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289271</v>
+        <v>0.289164</v>
       </c>
       <c r="D29" t="n">
-        <v>0.300807</v>
+        <v>0.299995</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374557</v>
+        <v>0.374436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295319</v>
+        <v>0.295669</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306482</v>
+        <v>0.306499</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.380685</v>
+        <v>0.3808</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301907</v>
+        <v>0.301877</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313222</v>
+        <v>0.31417</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.385769</v>
+        <v>0.386522</v>
       </c>
       <c r="C32" t="n">
-        <v>0.30793</v>
+        <v>0.308503</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319113</v>
+        <v>0.319407</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.391633</v>
+        <v>0.392275</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314793</v>
+        <v>0.315562</v>
       </c>
       <c r="D33" t="n">
-        <v>0.324868</v>
+        <v>0.325971</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.39845</v>
+        <v>0.399092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.320916</v>
+        <v>0.321891</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332281</v>
+        <v>0.332511</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405134</v>
+        <v>0.405948</v>
       </c>
       <c r="C35" t="n">
-        <v>0.257835</v>
+        <v>0.257952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.270565</v>
+        <v>0.270753</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350147</v>
+        <v>0.349529</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26223</v>
+        <v>0.261973</v>
       </c>
       <c r="D36" t="n">
-        <v>0.274958</v>
+        <v>0.274826</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353809</v>
+        <v>0.353462</v>
       </c>
       <c r="C37" t="n">
-        <v>0.267085</v>
+        <v>0.266647</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280725</v>
+        <v>0.280385</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357929</v>
+        <v>0.357931</v>
       </c>
       <c r="C38" t="n">
-        <v>0.273248</v>
+        <v>0.273455</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2851</v>
+        <v>0.284999</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.36283</v>
+        <v>0.362492</v>
       </c>
       <c r="C39" t="n">
-        <v>0.277911</v>
+        <v>0.278033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290209</v>
+        <v>0.290103</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.367364</v>
+        <v>0.366885</v>
       </c>
       <c r="C40" t="n">
-        <v>0.283521</v>
+        <v>0.284209</v>
       </c>
       <c r="D40" t="n">
-        <v>0.297392</v>
+        <v>0.29633</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372796</v>
+        <v>0.372319</v>
       </c>
       <c r="C41" t="n">
-        <v>0.290212</v>
+        <v>0.290216</v>
       </c>
       <c r="D41" t="n">
-        <v>0.303454</v>
+        <v>0.302757</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378309</v>
+        <v>0.378205</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295666</v>
+        <v>0.295635</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309317</v>
+        <v>0.307972</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383772</v>
+        <v>0.383557</v>
       </c>
       <c r="C43" t="n">
-        <v>0.30123</v>
+        <v>0.301145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.315127</v>
+        <v>0.315181</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389772</v>
+        <v>0.389804</v>
       </c>
       <c r="C44" t="n">
-        <v>0.30793</v>
+        <v>0.308</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320589</v>
+        <v>0.320542</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395801</v>
+        <v>0.395956</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314156</v>
+        <v>0.314144</v>
       </c>
       <c r="D45" t="n">
-        <v>0.326684</v>
+        <v>0.32711</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402652</v>
+        <v>0.402476</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320378</v>
+        <v>0.320489</v>
       </c>
       <c r="D46" t="n">
-        <v>0.333648</v>
+        <v>0.332735</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.40819</v>
+        <v>0.40826</v>
       </c>
       <c r="C47" t="n">
-        <v>0.326633</v>
+        <v>0.326469</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339272</v>
+        <v>0.338518</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414447</v>
+        <v>0.414317</v>
       </c>
       <c r="C48" t="n">
-        <v>0.332411</v>
+        <v>0.332809</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343907</v>
+        <v>0.343925</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.420121</v>
+        <v>0.419791</v>
       </c>
       <c r="C49" t="n">
-        <v>0.337681</v>
+        <v>0.337771</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349402</v>
+        <v>0.349914</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.426027</v>
+        <v>0.426011</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270493</v>
+        <v>0.270116</v>
       </c>
       <c r="D50" t="n">
-        <v>0.276938</v>
+        <v>0.277095</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.36313</v>
+        <v>0.363013</v>
       </c>
       <c r="C51" t="n">
-        <v>0.275166</v>
+        <v>0.27494</v>
       </c>
       <c r="D51" t="n">
-        <v>0.282198</v>
+        <v>0.281753</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367623</v>
+        <v>0.367435</v>
       </c>
       <c r="C52" t="n">
-        <v>0.279486</v>
+        <v>0.279316</v>
       </c>
       <c r="D52" t="n">
-        <v>0.286064</v>
+        <v>0.285979</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371832</v>
+        <v>0.371953</v>
       </c>
       <c r="C53" t="n">
-        <v>0.285242</v>
+        <v>0.284917</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291636</v>
+        <v>0.291796</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.376426</v>
+        <v>0.375747</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29074</v>
+        <v>0.29064</v>
       </c>
       <c r="D54" t="n">
-        <v>0.297167</v>
+        <v>0.296761</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380581</v>
+        <v>0.380907</v>
       </c>
       <c r="C55" t="n">
-        <v>0.296662</v>
+        <v>0.295881</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302853</v>
+        <v>0.302949</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385867</v>
+        <v>0.385725</v>
       </c>
       <c r="C56" t="n">
-        <v>0.302443</v>
+        <v>0.302256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.308043</v>
+        <v>0.30815</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.391798</v>
+        <v>0.392804</v>
       </c>
       <c r="C57" t="n">
-        <v>0.308426</v>
+        <v>0.308076</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314122</v>
+        <v>0.314029</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.39783</v>
+        <v>0.398432</v>
       </c>
       <c r="C58" t="n">
-        <v>0.314715</v>
+        <v>0.313958</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320711</v>
+        <v>0.320423</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403809</v>
+        <v>0.403421</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320832</v>
+        <v>0.320313</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326465</v>
+        <v>0.326464</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409807</v>
+        <v>0.409887</v>
       </c>
       <c r="C60" t="n">
-        <v>0.326687</v>
+        <v>0.32638</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332774</v>
+        <v>0.33268</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.415885</v>
+        <v>0.416526</v>
       </c>
       <c r="C61" t="n">
-        <v>0.332848</v>
+        <v>0.33249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338681</v>
+        <v>0.338836</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421706</v>
+        <v>0.421733</v>
       </c>
       <c r="C62" t="n">
-        <v>0.338457</v>
+        <v>0.338098</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344171</v>
+        <v>0.344449</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.427594</v>
+        <v>0.427738</v>
       </c>
       <c r="C63" t="n">
-        <v>0.344211</v>
+        <v>0.344155</v>
       </c>
       <c r="D63" t="n">
-        <v>0.349942</v>
+        <v>0.350031</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433692</v>
+        <v>0.433968</v>
       </c>
       <c r="C64" t="n">
-        <v>0.280828</v>
+        <v>0.279556</v>
       </c>
       <c r="D64" t="n">
-        <v>0.289156</v>
+        <v>0.288951</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.397789</v>
+        <v>0.39365</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287223</v>
+        <v>0.287119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298068</v>
+        <v>0.297454</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.39965</v>
+        <v>0.403768</v>
       </c>
       <c r="C66" t="n">
-        <v>0.292362</v>
+        <v>0.293186</v>
       </c>
       <c r="D66" t="n">
-        <v>0.303235</v>
+        <v>0.302336</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.408118</v>
+        <v>0.408794</v>
       </c>
       <c r="C67" t="n">
-        <v>0.299215</v>
+        <v>0.300354</v>
       </c>
       <c r="D67" t="n">
-        <v>0.306686</v>
+        <v>0.307271</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.418396</v>
+        <v>0.418602</v>
       </c>
       <c r="C68" t="n">
-        <v>0.306072</v>
+        <v>0.30683</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314873</v>
+        <v>0.314675</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.430547</v>
+        <v>0.430534</v>
       </c>
       <c r="C69" t="n">
-        <v>0.314576</v>
+        <v>0.313258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322717</v>
+        <v>0.322611</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.442321</v>
+        <v>0.440773</v>
       </c>
       <c r="C70" t="n">
-        <v>0.321912</v>
+        <v>0.321419</v>
       </c>
       <c r="D70" t="n">
-        <v>0.331719</v>
+        <v>0.330639</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453768</v>
+        <v>0.453356</v>
       </c>
       <c r="C71" t="n">
-        <v>0.331264</v>
+        <v>0.330203</v>
       </c>
       <c r="D71" t="n">
-        <v>0.340217</v>
+        <v>0.338908</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.465709</v>
+        <v>0.467016</v>
       </c>
       <c r="C72" t="n">
-        <v>0.340534</v>
+        <v>0.339428</v>
       </c>
       <c r="D72" t="n">
-        <v>0.347349</v>
+        <v>0.347365</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.48298</v>
+        <v>0.48457</v>
       </c>
       <c r="C73" t="n">
-        <v>0.350731</v>
+        <v>0.350842</v>
       </c>
       <c r="D73" t="n">
-        <v>0.357153</v>
+        <v>0.357171</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500285</v>
+        <v>0.500248</v>
       </c>
       <c r="C74" t="n">
-        <v>0.362628</v>
+        <v>0.360388</v>
       </c>
       <c r="D74" t="n">
-        <v>0.369157</v>
+        <v>0.368028</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.514246</v>
+        <v>0.515628</v>
       </c>
       <c r="C75" t="n">
-        <v>0.371359</v>
+        <v>0.371128</v>
       </c>
       <c r="D75" t="n">
-        <v>0.379844</v>
+        <v>0.377506</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5313290000000001</v>
+        <v>0.53813</v>
       </c>
       <c r="C76" t="n">
-        <v>0.382347</v>
+        <v>0.383307</v>
       </c>
       <c r="D76" t="n">
-        <v>0.390118</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.553333</v>
+        <v>0.561622</v>
       </c>
       <c r="C77" t="n">
-        <v>0.393613</v>
+        <v>0.396933</v>
       </c>
       <c r="D77" t="n">
-        <v>0.404067</v>
+        <v>0.405006</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.580647</v>
+        <v>0.588225</v>
       </c>
       <c r="C78" t="n">
-        <v>0.37631</v>
+        <v>0.375482</v>
       </c>
       <c r="D78" t="n">
-        <v>0.379988</v>
+        <v>0.378113</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.716224</v>
+        <v>0.715216</v>
       </c>
       <c r="C79" t="n">
-        <v>0.385167</v>
+        <v>0.387572</v>
       </c>
       <c r="D79" t="n">
-        <v>0.392946</v>
+        <v>0.392327</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.734132</v>
+        <v>0.730855</v>
       </c>
       <c r="C80" t="n">
-        <v>0.404769</v>
+        <v>0.40071</v>
       </c>
       <c r="D80" t="n">
-        <v>0.408607</v>
+        <v>0.402218</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.754049</v>
+        <v>0.7494769999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.420318</v>
+        <v>0.416407</v>
       </c>
       <c r="D81" t="n">
-        <v>0.423161</v>
+        <v>0.416911</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.779522</v>
+        <v>0.772858</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435023</v>
+        <v>0.435044</v>
       </c>
       <c r="D82" t="n">
-        <v>0.437109</v>
+        <v>0.435146</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.800222</v>
+        <v>0.793773</v>
       </c>
       <c r="C83" t="n">
-        <v>0.453563</v>
+        <v>0.452801</v>
       </c>
       <c r="D83" t="n">
-        <v>0.455686</v>
+        <v>0.452953</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.829268</v>
+        <v>0.821476</v>
       </c>
       <c r="C84" t="n">
-        <v>0.471722</v>
+        <v>0.47104</v>
       </c>
       <c r="D84" t="n">
-        <v>0.474398</v>
+        <v>0.472664</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.851295</v>
+        <v>0.843851</v>
       </c>
       <c r="C85" t="n">
-        <v>0.491417</v>
+        <v>0.490408</v>
       </c>
       <c r="D85" t="n">
-        <v>0.494937</v>
+        <v>0.492704</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.877065</v>
+        <v>0.871065</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5124649999999999</v>
+        <v>0.512571</v>
       </c>
       <c r="D86" t="n">
-        <v>0.515597</v>
+        <v>0.517317</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.903895</v>
+        <v>0.897819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.533979</v>
+        <v>0.533776</v>
       </c>
       <c r="D87" t="n">
-        <v>0.535088</v>
+        <v>0.5339739999999999</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9318070000000001</v>
+        <v>0.924101</v>
       </c>
       <c r="C88" t="n">
-        <v>0.556133</v>
+        <v>0.556566</v>
       </c>
       <c r="D88" t="n">
-        <v>0.557698</v>
+        <v>0.556588</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.959005</v>
+        <v>0.952647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.579036</v>
+        <v>0.579079</v>
       </c>
       <c r="D89" t="n">
-        <v>0.579858</v>
+        <v>0.579229</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.98834</v>
+        <v>0.980702</v>
       </c>
       <c r="C90" t="n">
-        <v>0.603418</v>
+        <v>0.602083</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6046550000000001</v>
+        <v>0.6021030000000001</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.02012</v>
+        <v>1.01083</v>
       </c>
       <c r="C91" t="n">
-        <v>0.626596</v>
+        <v>0.624961</v>
       </c>
       <c r="D91" t="n">
-        <v>0.628049</v>
+        <v>0.624743</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05096</v>
+        <v>1.04167</v>
       </c>
       <c r="C92" t="n">
-        <v>0.646242</v>
+        <v>0.641885</v>
       </c>
       <c r="D92" t="n">
-        <v>0.651888</v>
+        <v>0.644977</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.17132</v>
+        <v>1.15366</v>
       </c>
       <c r="C93" t="n">
-        <v>0.664042</v>
+        <v>0.656177</v>
       </c>
       <c r="D93" t="n">
-        <v>0.667525</v>
+        <v>0.6613019999999999</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.17934</v>
+        <v>1.16392</v>
       </c>
       <c r="C94" t="n">
-        <v>0.676814</v>
+        <v>0.671637</v>
       </c>
       <c r="D94" t="n">
-        <v>0.683837</v>
+        <v>0.678692</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.18824</v>
+        <v>1.17496</v>
       </c>
       <c r="C95" t="n">
-        <v>0.694627</v>
+        <v>0.6865830000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.696619</v>
+        <v>0.688329</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.2002</v>
+        <v>1.18729</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7114549999999999</v>
+        <v>0.706</v>
       </c>
       <c r="D96" t="n">
-        <v>0.712785</v>
+        <v>0.707352</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.2156</v>
+        <v>1.1992</v>
       </c>
       <c r="C97" t="n">
-        <v>0.729185</v>
+        <v>0.722086</v>
       </c>
       <c r="D97" t="n">
-        <v>0.735637</v>
+        <v>0.727098</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.23003</v>
+        <v>1.21375</v>
       </c>
       <c r="C98" t="n">
-        <v>0.74747</v>
+        <v>0.7404539999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.75357</v>
+        <v>0.744406</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.25019</v>
+        <v>1.23333</v>
       </c>
       <c r="C99" t="n">
-        <v>0.766593</v>
+        <v>0.759186</v>
       </c>
       <c r="D99" t="n">
-        <v>0.773686</v>
+        <v>0.76469</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.26804</v>
+        <v>1.25098</v>
       </c>
       <c r="C100" t="n">
-        <v>0.785998</v>
+        <v>0.778819</v>
       </c>
       <c r="D100" t="n">
-        <v>0.792879</v>
+        <v>0.783962</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.28366</v>
+        <v>1.26645</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8067569999999999</v>
+        <v>0.798925</v>
       </c>
       <c r="D101" t="n">
-        <v>0.813373</v>
+        <v>0.804464</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.30398</v>
+        <v>1.28699</v>
       </c>
       <c r="C102" t="n">
-        <v>0.828716</v>
+        <v>0.820379</v>
       </c>
       <c r="D102" t="n">
-        <v>0.834999</v>
+        <v>0.826651</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.33036</v>
+        <v>1.31252</v>
       </c>
       <c r="C103" t="n">
-        <v>0.850712</v>
+        <v>0.841421</v>
       </c>
       <c r="D103" t="n">
-        <v>0.85851</v>
+        <v>0.849328</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.353</v>
+        <v>1.33498</v>
       </c>
       <c r="C104" t="n">
-        <v>0.872757</v>
+        <v>0.863752</v>
       </c>
       <c r="D104" t="n">
-        <v>0.882332</v>
+        <v>0.872852</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.3778</v>
+        <v>1.35945</v>
       </c>
       <c r="C105" t="n">
-        <v>0.896249</v>
+        <v>0.886798</v>
       </c>
       <c r="D105" t="n">
-        <v>0.90682</v>
+        <v>0.897264</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.40228</v>
+        <v>1.38424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.919264</v>
+        <v>0.9101359999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9321</v>
+        <v>0.9220739999999999</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.41035</v>
+        <v>1.38803</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8741370000000001</v>
+        <v>0.863227</v>
       </c>
       <c r="D107" t="n">
-        <v>0.87799</v>
+        <v>0.867617</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.4129</v>
+        <v>1.39382</v>
       </c>
       <c r="C108" t="n">
-        <v>0.888594</v>
+        <v>0.87831</v>
       </c>
       <c r="D108" t="n">
-        <v>0.892745</v>
+        <v>0.882638</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.42305</v>
+        <v>1.40149</v>
       </c>
       <c r="C109" t="n">
-        <v>0.903243</v>
+        <v>0.893666</v>
       </c>
       <c r="D109" t="n">
-        <v>0.909872</v>
+        <v>0.901118</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.4315</v>
+        <v>1.41092</v>
       </c>
       <c r="C110" t="n">
-        <v>0.919664</v>
+        <v>0.909149</v>
       </c>
       <c r="D110" t="n">
-        <v>0.926879</v>
+        <v>0.916052</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.44033</v>
+        <v>1.42243</v>
       </c>
       <c r="C111" t="n">
-        <v>0.935488</v>
+        <v>0.925767</v>
       </c>
       <c r="D111" t="n">
-        <v>0.940347</v>
+        <v>0.930523</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.4531</v>
+        <v>1.43538</v>
       </c>
       <c r="C112" t="n">
-        <v>0.953576</v>
+        <v>0.9432120000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.959634</v>
+        <v>0.949439</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.46419</v>
+        <v>1.44596</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9718</v>
+        <v>0.960624</v>
       </c>
       <c r="D113" t="n">
-        <v>0.977993</v>
+        <v>0.96676</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.48008</v>
+        <v>1.46279</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9907280000000001</v>
+        <v>0.980059</v>
       </c>
       <c r="D114" t="n">
-        <v>0.996623</v>
+        <v>0.985723</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49571</v>
+        <v>1.47486</v>
       </c>
       <c r="C115" t="n">
-        <v>1.01002</v>
+        <v>0.998938</v>
       </c>
       <c r="D115" t="n">
-        <v>1.0181</v>
+        <v>1.00684</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.51453</v>
+        <v>1.49442</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03026</v>
+        <v>1.01907</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03863</v>
+        <v>1.02734</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.53457</v>
+        <v>1.51637</v>
       </c>
       <c r="C117" t="n">
-        <v>1.05077</v>
+        <v>1.03994</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05985</v>
+        <v>1.04907</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.55442</v>
+        <v>1.53533</v>
       </c>
       <c r="C118" t="n">
-        <v>1.07181</v>
+        <v>1.05991</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07828</v>
+        <v>1.06694</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.57401</v>
+        <v>1.55427</v>
       </c>
       <c r="C119" t="n">
-        <v>1.09453</v>
+        <v>1.08255</v>
       </c>
       <c r="D119" t="n">
-        <v>1.1017</v>
+        <v>1.08953</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.275942</v>
+        <v>0.273972</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211397</v>
+        <v>0.211798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206603</v>
+        <v>0.207399</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28076</v>
+        <v>0.281292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21626</v>
+        <v>0.218423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209511</v>
+        <v>0.209694</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.288806</v>
+        <v>0.286341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221495</v>
+        <v>0.219891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.210988</v>
+        <v>0.211044</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.288152</v>
+        <v>0.287953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.226744</v>
+        <v>0.22461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212952</v>
+        <v>0.212391</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.293207</v>
+        <v>0.290423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.23115</v>
+        <v>0.231842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217309</v>
+        <v>0.217099</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.303367</v>
+        <v>0.301558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.211295</v>
+        <v>0.213021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.217048</v>
+        <v>0.218332</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.293805</v>
+        <v>0.300179</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221523</v>
+        <v>0.217357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.225355</v>
+        <v>0.222443</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.300161</v>
+        <v>0.30396</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224153</v>
+        <v>0.22793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224728</v>
+        <v>0.22654</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.302525</v>
+        <v>0.307187</v>
       </c>
       <c r="C10" t="n">
-        <v>0.226728</v>
+        <v>0.2301</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224367</v>
+        <v>0.226807</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.305693</v>
+        <v>0.315274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.223076</v>
+        <v>0.229368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223859</v>
+        <v>0.227807</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.309187</v>
+        <v>0.315454</v>
       </c>
       <c r="C12" t="n">
-        <v>0.23262</v>
+        <v>0.238275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229482</v>
+        <v>0.232431</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.31879</v>
+        <v>0.319907</v>
       </c>
       <c r="C13" t="n">
-        <v>0.225112</v>
+        <v>0.238487</v>
       </c>
       <c r="D13" t="n">
-        <v>0.235075</v>
+        <v>0.236078</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321385</v>
+        <v>0.323784</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237258</v>
+        <v>0.238471</v>
       </c>
       <c r="D14" t="n">
-        <v>0.231662</v>
+        <v>0.23436</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.335576</v>
+        <v>0.330692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240558</v>
+        <v>0.244103</v>
       </c>
       <c r="D15" t="n">
-        <v>0.240947</v>
+        <v>0.236528</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.336802</v>
+        <v>0.334507</v>
       </c>
       <c r="C16" t="n">
-        <v>0.245356</v>
+        <v>0.24831</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24513</v>
+        <v>0.238141</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.340284</v>
+        <v>0.337251</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249241</v>
+        <v>0.253493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242558</v>
+        <v>0.242466</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.345839</v>
+        <v>0.34357</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25771</v>
+        <v>0.261345</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250704</v>
+        <v>0.242577</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.348764</v>
+        <v>0.348385</v>
       </c>
       <c r="C19" t="n">
-        <v>0.261689</v>
+        <v>0.266273</v>
       </c>
       <c r="D19" t="n">
-        <v>0.253969</v>
+        <v>0.248244</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.356391</v>
+        <v>0.353744</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269306</v>
+        <v>0.272355</v>
       </c>
       <c r="D20" t="n">
-        <v>0.254352</v>
+        <v>0.249705</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.365926</v>
+        <v>0.362464</v>
       </c>
       <c r="C21" t="n">
-        <v>0.245871</v>
+        <v>0.256982</v>
       </c>
       <c r="D21" t="n">
-        <v>0.251763</v>
+        <v>0.244129</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.346091</v>
+        <v>0.347602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262187</v>
+        <v>0.2635</v>
       </c>
       <c r="D22" t="n">
-        <v>0.255932</v>
+        <v>0.250731</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.354</v>
+        <v>0.354213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.262441</v>
+        <v>0.261003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.257095</v>
+        <v>0.255255</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.359682</v>
+        <v>0.360286</v>
       </c>
       <c r="C24" t="n">
-        <v>0.269862</v>
+        <v>0.277057</v>
       </c>
       <c r="D24" t="n">
-        <v>0.261991</v>
+        <v>0.258301</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.36586</v>
+        <v>0.364885</v>
       </c>
       <c r="C25" t="n">
-        <v>0.285601</v>
+        <v>0.284114</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26829</v>
+        <v>0.260853</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.369191</v>
+        <v>0.367735</v>
       </c>
       <c r="C26" t="n">
-        <v>0.287299</v>
+        <v>0.287024</v>
       </c>
       <c r="D26" t="n">
-        <v>0.268395</v>
+        <v>0.266106</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.375607</v>
+        <v>0.373121</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29221</v>
+        <v>0.295728</v>
       </c>
       <c r="D27" t="n">
-        <v>0.272117</v>
+        <v>0.270658</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.380253</v>
+        <v>0.377796</v>
       </c>
       <c r="C28" t="n">
-        <v>0.298896</v>
+        <v>0.29848</v>
       </c>
       <c r="D28" t="n">
-        <v>0.275714</v>
+        <v>0.273979</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.387475</v>
+        <v>0.385166</v>
       </c>
       <c r="C29" t="n">
-        <v>0.304545</v>
+        <v>0.303969</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278441</v>
+        <v>0.278473</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.392024</v>
+        <v>0.390474</v>
       </c>
       <c r="C30" t="n">
-        <v>0.317324</v>
+        <v>0.316097</v>
       </c>
       <c r="D30" t="n">
-        <v>0.286116</v>
+        <v>0.28114</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.398842</v>
+        <v>0.397318</v>
       </c>
       <c r="C31" t="n">
-        <v>0.314764</v>
+        <v>0.314577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.286197</v>
+        <v>0.284022</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.400492</v>
+        <v>0.400766</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325179</v>
+        <v>0.325621</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289651</v>
+        <v>0.289281</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.406685</v>
+        <v>0.405859</v>
       </c>
       <c r="C33" t="n">
-        <v>0.33533</v>
+        <v>0.334223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.295423</v>
+        <v>0.292373</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.410691</v>
+        <v>0.409731</v>
       </c>
       <c r="C34" t="n">
-        <v>0.339195</v>
+        <v>0.33807</v>
       </c>
       <c r="D34" t="n">
-        <v>0.298032</v>
+        <v>0.297301</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.418558</v>
+        <v>0.419358</v>
       </c>
       <c r="C35" t="n">
-        <v>0.279215</v>
+        <v>0.278189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.278145</v>
+        <v>0.277892</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.403389</v>
+        <v>0.401508</v>
       </c>
       <c r="C36" t="n">
-        <v>0.285072</v>
+        <v>0.28445</v>
       </c>
       <c r="D36" t="n">
-        <v>0.28096</v>
+        <v>0.280582</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408157</v>
+        <v>0.407284</v>
       </c>
       <c r="C37" t="n">
-        <v>0.290744</v>
+        <v>0.29004</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283206</v>
+        <v>0.283539</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.410464</v>
+        <v>0.409392</v>
       </c>
       <c r="C38" t="n">
-        <v>0.295639</v>
+        <v>0.293246</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285866</v>
+        <v>0.285536</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.415099</v>
+        <v>0.414444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302151</v>
+        <v>0.301218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291129</v>
+        <v>0.290413</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.419561</v>
+        <v>0.418107</v>
       </c>
       <c r="C40" t="n">
-        <v>0.305842</v>
+        <v>0.304652</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292775</v>
+        <v>0.291443</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.423556</v>
+        <v>0.422709</v>
       </c>
       <c r="C41" t="n">
-        <v>0.308921</v>
+        <v>0.308988</v>
       </c>
       <c r="D41" t="n">
-        <v>0.294313</v>
+        <v>0.293818</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.429636</v>
+        <v>0.428448</v>
       </c>
       <c r="C42" t="n">
-        <v>0.311192</v>
+        <v>0.310041</v>
       </c>
       <c r="D42" t="n">
-        <v>0.296692</v>
+        <v>0.295968</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.435905</v>
+        <v>0.434614</v>
       </c>
       <c r="C43" t="n">
-        <v>0.316392</v>
+        <v>0.315476</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298516</v>
+        <v>0.297802</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.440599</v>
+        <v>0.439187</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321094</v>
+        <v>0.320251</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301231</v>
+        <v>0.301116</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.442412</v>
+        <v>0.441291</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324844</v>
+        <v>0.323959</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304789</v>
+        <v>0.304304</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.44865</v>
+        <v>0.447851</v>
       </c>
       <c r="C46" t="n">
-        <v>0.326159</v>
+        <v>0.32548</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3057</v>
+        <v>0.304905</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455582</v>
+        <v>0.454349</v>
       </c>
       <c r="C47" t="n">
-        <v>0.331922</v>
+        <v>0.330899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.308399</v>
+        <v>0.308601</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.46081</v>
+        <v>0.463441</v>
       </c>
       <c r="C48" t="n">
-        <v>0.338091</v>
+        <v>0.340958</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3112</v>
+        <v>0.310822</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.466894</v>
+        <v>0.465606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.342183</v>
+        <v>0.344361</v>
       </c>
       <c r="D49" t="n">
-        <v>0.315329</v>
+        <v>0.314973</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.476612</v>
+        <v>0.474889</v>
       </c>
       <c r="C50" t="n">
-        <v>0.312526</v>
+        <v>0.311568</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293636</v>
+        <v>0.293226</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.43018</v>
+        <v>0.429261</v>
       </c>
       <c r="C51" t="n">
-        <v>0.315846</v>
+        <v>0.31556</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296594</v>
+        <v>0.296099</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433338</v>
+        <v>0.432491</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318966</v>
+        <v>0.318496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297267</v>
+        <v>0.297022</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438645</v>
+        <v>0.438027</v>
       </c>
       <c r="C53" t="n">
-        <v>0.323759</v>
+        <v>0.323359</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300579</v>
+        <v>0.300083</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.442273</v>
+        <v>0.44104</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329226</v>
+        <v>0.328681</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303506</v>
+        <v>0.303374</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.444966</v>
+        <v>0.444282</v>
       </c>
       <c r="C55" t="n">
-        <v>0.334367</v>
+        <v>0.333614</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305285</v>
+        <v>0.305227</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.44958</v>
+        <v>0.44956</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334579</v>
+        <v>0.334373</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307332</v>
+        <v>0.307567</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.453009</v>
+        <v>0.451335</v>
       </c>
       <c r="C57" t="n">
-        <v>0.342833</v>
+        <v>0.342357</v>
       </c>
       <c r="D57" t="n">
-        <v>0.309796</v>
+        <v>0.312897</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.457026</v>
+        <v>0.456439</v>
       </c>
       <c r="C58" t="n">
-        <v>0.350292</v>
+        <v>0.350132</v>
       </c>
       <c r="D58" t="n">
-        <v>0.313991</v>
+        <v>0.313859</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.46096</v>
+        <v>0.460397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.357433</v>
+        <v>0.357288</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318569</v>
+        <v>0.318577</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.465836</v>
+        <v>0.465288</v>
       </c>
       <c r="C60" t="n">
-        <v>0.361781</v>
+        <v>0.361703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320423</v>
+        <v>0.320187</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.470312</v>
+        <v>0.469644</v>
       </c>
       <c r="C61" t="n">
-        <v>0.367407</v>
+        <v>0.367098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323294</v>
+        <v>0.323228</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.477056</v>
+        <v>0.476482</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371876</v>
+        <v>0.371762</v>
       </c>
       <c r="D62" t="n">
-        <v>0.32499</v>
+        <v>0.325194</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.481232</v>
+        <v>0.480572</v>
       </c>
       <c r="C63" t="n">
-        <v>0.377335</v>
+        <v>0.376927</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328587</v>
+        <v>0.328282</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.489328</v>
+        <v>0.486796</v>
       </c>
       <c r="C64" t="n">
-        <v>0.344214</v>
+        <v>0.343933</v>
       </c>
       <c r="D64" t="n">
-        <v>0.319686</v>
+        <v>0.318891</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.463711</v>
+        <v>0.463577</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350178</v>
+        <v>0.350233</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316553</v>
+        <v>0.316516</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467552</v>
+        <v>0.467112</v>
       </c>
       <c r="C66" t="n">
-        <v>0.354917</v>
+        <v>0.3544</v>
       </c>
       <c r="D66" t="n">
-        <v>0.318096</v>
+        <v>0.317854</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.478261</v>
+        <v>0.478423</v>
       </c>
       <c r="C67" t="n">
-        <v>0.361263</v>
+        <v>0.360993</v>
       </c>
       <c r="D67" t="n">
-        <v>0.322054</v>
+        <v>0.321641</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.490848</v>
+        <v>0.49063</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365315</v>
+        <v>0.365021</v>
       </c>
       <c r="D68" t="n">
-        <v>0.326065</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.493655</v>
+        <v>0.496282</v>
       </c>
       <c r="C69" t="n">
-        <v>0.370287</v>
+        <v>0.369672</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327871</v>
+        <v>0.327614</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.508562</v>
+        <v>0.510574</v>
       </c>
       <c r="C70" t="n">
-        <v>0.376474</v>
+        <v>0.376228</v>
       </c>
       <c r="D70" t="n">
-        <v>0.33124</v>
+        <v>0.330969</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.514045</v>
+        <v>0.51614</v>
       </c>
       <c r="C71" t="n">
-        <v>0.384984</v>
+        <v>0.385329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335486</v>
+        <v>0.335701</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.524875</v>
+        <v>0.528593</v>
       </c>
       <c r="C72" t="n">
-        <v>0.393046</v>
+        <v>0.394153</v>
       </c>
       <c r="D72" t="n">
-        <v>0.339517</v>
+        <v>0.33928</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.542007</v>
+        <v>0.551037</v>
       </c>
       <c r="C73" t="n">
-        <v>0.402777</v>
+        <v>0.40407</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344812</v>
+        <v>0.344567</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.556443</v>
+        <v>0.565696</v>
       </c>
       <c r="C74" t="n">
-        <v>0.408247</v>
+        <v>0.411102</v>
       </c>
       <c r="D74" t="n">
-        <v>0.347093</v>
+        <v>0.347269</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.57353</v>
+        <v>0.577993</v>
       </c>
       <c r="C75" t="n">
-        <v>0.416195</v>
+        <v>0.425103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.353433</v>
+        <v>0.354345</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.593265</v>
+        <v>0.602431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.428331</v>
+        <v>0.431198</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361666</v>
+        <v>0.361407</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6112300000000001</v>
+        <v>0.62153</v>
       </c>
       <c r="C77" t="n">
-        <v>0.440472</v>
+        <v>0.445259</v>
       </c>
       <c r="D77" t="n">
-        <v>0.365707</v>
+        <v>0.367616</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6431249999999999</v>
+        <v>0.654815</v>
       </c>
       <c r="C78" t="n">
-        <v>0.410475</v>
+        <v>0.414918</v>
       </c>
       <c r="D78" t="n">
-        <v>0.360703</v>
+        <v>0.366163</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.691815</v>
+        <v>0.687239</v>
       </c>
       <c r="C79" t="n">
-        <v>0.426932</v>
+        <v>0.429201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.363067</v>
+        <v>0.36498</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.716445</v>
+        <v>0.719233</v>
       </c>
       <c r="C80" t="n">
-        <v>0.445288</v>
+        <v>0.445338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.368677</v>
+        <v>0.373598</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.745595</v>
+        <v>0.7494189999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>0.462951</v>
+        <v>0.461992</v>
       </c>
       <c r="D81" t="n">
-        <v>0.379776</v>
+        <v>0.386039</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.782927</v>
+        <v>0.7879119999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>0.483297</v>
+        <v>0.486099</v>
       </c>
       <c r="D82" t="n">
-        <v>0.382673</v>
+        <v>0.393348</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.830256</v>
+        <v>0.832704</v>
       </c>
       <c r="C83" t="n">
-        <v>0.510564</v>
+        <v>0.508266</v>
       </c>
       <c r="D83" t="n">
-        <v>0.398332</v>
+        <v>0.402868</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885247</v>
+        <v>0.886871</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5304140000000001</v>
+        <v>0.533975</v>
       </c>
       <c r="D84" t="n">
-        <v>0.408881</v>
+        <v>0.412413</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.921903</v>
+        <v>0.9234019999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.557777</v>
+        <v>0.557578</v>
       </c>
       <c r="D85" t="n">
-        <v>0.420038</v>
+        <v>0.429641</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.978718</v>
+        <v>0.9769949999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.58011</v>
+        <v>0.580052</v>
       </c>
       <c r="D86" t="n">
-        <v>0.436934</v>
+        <v>0.442381</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03488</v>
+        <v>1.03762</v>
       </c>
       <c r="C87" t="n">
-        <v>0.611708</v>
+        <v>0.610501</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448719</v>
+        <v>0.459606</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09479</v>
+        <v>1.09275</v>
       </c>
       <c r="C88" t="n">
-        <v>0.642158</v>
+        <v>0.641505</v>
       </c>
       <c r="D88" t="n">
-        <v>0.467684</v>
+        <v>0.471485</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.13709</v>
+        <v>1.1315</v>
       </c>
       <c r="C89" t="n">
-        <v>0.679597</v>
+        <v>0.680341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.485925</v>
+        <v>0.49448</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.19285</v>
+        <v>1.18941</v>
       </c>
       <c r="C90" t="n">
-        <v>0.714371</v>
+        <v>0.7148330000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.511368</v>
+        <v>0.514799</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.26948</v>
+        <v>1.2615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.758423</v>
+        <v>0.756738</v>
       </c>
       <c r="D91" t="n">
-        <v>0.537281</v>
+        <v>0.53953</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.31245</v>
+        <v>1.30842</v>
       </c>
       <c r="C92" t="n">
-        <v>0.798681</v>
+        <v>0.793081</v>
       </c>
       <c r="D92" t="n">
-        <v>0.648062</v>
+        <v>0.648664</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.35602</v>
+        <v>1.34613</v>
       </c>
       <c r="C93" t="n">
-        <v>0.832037</v>
+        <v>0.831961</v>
       </c>
       <c r="D93" t="n">
-        <v>0.676128</v>
+        <v>0.676731</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.41391</v>
+        <v>1.40171</v>
       </c>
       <c r="C94" t="n">
-        <v>0.865761</v>
+        <v>0.863142</v>
       </c>
       <c r="D94" t="n">
-        <v>0.696704</v>
+        <v>0.697283</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.45327</v>
+        <v>1.44081</v>
       </c>
       <c r="C95" t="n">
-        <v>0.902372</v>
+        <v>0.897196</v>
       </c>
       <c r="D95" t="n">
-        <v>0.723313</v>
+        <v>0.721166</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.49748</v>
+        <v>1.48679</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9381389999999999</v>
+        <v>0.932366</v>
       </c>
       <c r="D96" t="n">
-        <v>0.750922</v>
+        <v>0.748505</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.55457</v>
+        <v>1.54053</v>
       </c>
       <c r="C97" t="n">
-        <v>0.975154</v>
+        <v>0.969043</v>
       </c>
       <c r="D97" t="n">
-        <v>0.778955</v>
+        <v>0.775896</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.60454</v>
+        <v>1.59844</v>
       </c>
       <c r="C98" t="n">
-        <v>1.01281</v>
+        <v>1.00487</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8070349999999999</v>
+        <v>0.803712</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.64359</v>
+        <v>1.62989</v>
       </c>
       <c r="C99" t="n">
-        <v>1.0537</v>
+        <v>1.04732</v>
       </c>
       <c r="D99" t="n">
-        <v>0.832191</v>
+        <v>0.830922</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.69149</v>
+        <v>1.68303</v>
       </c>
       <c r="C100" t="n">
-        <v>1.09044</v>
+        <v>1.08461</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8583809999999999</v>
+        <v>0.8567669999999999</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.72882</v>
+        <v>1.7142</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12389</v>
+        <v>1.11805</v>
       </c>
       <c r="D101" t="n">
-        <v>0.883437</v>
+        <v>0.881004</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.78278</v>
+        <v>1.77396</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16583</v>
+        <v>1.15937</v>
       </c>
       <c r="D102" t="n">
-        <v>0.915759</v>
+        <v>0.9134370000000001</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.83337</v>
+        <v>1.8234</v>
       </c>
       <c r="C103" t="n">
-        <v>1.20087</v>
+        <v>1.19353</v>
       </c>
       <c r="D103" t="n">
-        <v>0.943307</v>
+        <v>0.939436</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.87573</v>
+        <v>1.86317</v>
       </c>
       <c r="C104" t="n">
-        <v>1.23682</v>
+        <v>1.22995</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9720760000000001</v>
+        <v>0.967091</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.91301</v>
+        <v>1.90535</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27979</v>
+        <v>1.27284</v>
       </c>
       <c r="D105" t="n">
-        <v>0.998275</v>
+        <v>0.992317</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.97563</v>
+        <v>1.96466</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31876</v>
+        <v>1.31065</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02334</v>
+        <v>1.01867</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.86974</v>
+        <v>1.85284</v>
       </c>
       <c r="C107" t="n">
-        <v>1.23472</v>
+        <v>1.22515</v>
       </c>
       <c r="D107" t="n">
-        <v>1.07172</v>
+        <v>1.06549</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.90002</v>
+        <v>1.88307</v>
       </c>
       <c r="C108" t="n">
-        <v>1.26313</v>
+        <v>1.25344</v>
       </c>
       <c r="D108" t="n">
-        <v>1.09463</v>
+        <v>1.08776</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.93457</v>
+        <v>1.91468</v>
       </c>
       <c r="C109" t="n">
-        <v>1.29283</v>
+        <v>1.2832</v>
       </c>
       <c r="D109" t="n">
-        <v>1.11195</v>
+        <v>1.10434</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.96762</v>
+        <v>1.95186</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32136</v>
+        <v>1.31258</v>
       </c>
       <c r="D110" t="n">
-        <v>1.13008</v>
+        <v>1.12144</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.99957</v>
+        <v>1.98036</v>
       </c>
       <c r="C111" t="n">
-        <v>1.34675</v>
+        <v>1.33594</v>
       </c>
       <c r="D111" t="n">
-        <v>1.15122</v>
+        <v>1.14394</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.03958</v>
+        <v>2.02044</v>
       </c>
       <c r="C112" t="n">
-        <v>1.38188</v>
+        <v>1.37149</v>
       </c>
       <c r="D112" t="n">
-        <v>1.17626</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.07305</v>
+        <v>2.05654</v>
       </c>
       <c r="C113" t="n">
-        <v>1.41238</v>
+        <v>1.40427</v>
       </c>
       <c r="D113" t="n">
-        <v>1.19365</v>
+        <v>1.18845</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.10805</v>
+        <v>2.09278</v>
       </c>
       <c r="C114" t="n">
-        <v>1.44231</v>
+        <v>1.43316</v>
       </c>
       <c r="D114" t="n">
-        <v>1.21414</v>
+        <v>1.2074</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.13765</v>
+        <v>2.12271</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47751</v>
+        <v>1.46841</v>
       </c>
       <c r="D115" t="n">
-        <v>1.24055</v>
+        <v>1.23356</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.17762</v>
+        <v>2.1599</v>
       </c>
       <c r="C116" t="n">
-        <v>1.50944</v>
+        <v>1.50028</v>
       </c>
       <c r="D116" t="n">
-        <v>1.26093</v>
+        <v>1.25412</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.21377</v>
+        <v>2.19767</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54071</v>
+        <v>1.53135</v>
       </c>
       <c r="D117" t="n">
-        <v>1.2836</v>
+        <v>1.27611</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.24025</v>
+        <v>2.22445</v>
       </c>
       <c r="C118" t="n">
-        <v>1.58113</v>
+        <v>1.57167</v>
       </c>
       <c r="D118" t="n">
-        <v>1.30786</v>
+        <v>1.29906</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.2818</v>
+        <v>2.26486</v>
       </c>
       <c r="C119" t="n">
-        <v>1.61649</v>
+        <v>1.60739</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32979</v>
+        <v>1.32257</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.43866</v>
+        <v>0.445284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.333211</v>
+        <v>0.336613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275152</v>
+        <v>0.275761</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.456051</v>
+        <v>0.452289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.337573</v>
+        <v>0.341835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.277886</v>
+        <v>0.278091</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.470133</v>
+        <v>0.469651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.359104</v>
+        <v>0.360906</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28901</v>
+        <v>0.289107</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479662</v>
+        <v>0.479773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368274</v>
+        <v>0.368205</v>
       </c>
       <c r="D5" t="n">
-        <v>0.293507</v>
+        <v>0.292358</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.489088</v>
+        <v>0.48466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3736</v>
+        <v>0.37019</v>
       </c>
       <c r="D6" t="n">
-        <v>0.296455</v>
+        <v>0.296225</v>
       </c>
     </row>
     <row r="7">
@@ -11134,10 +11134,10 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.50064</v>
+        <v>0.499683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.396227</v>
+        <v>0.392546</v>
       </c>
       <c r="D7" t="n">
         <v>0.30534</v>
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.508711</v>
+        <v>0.512174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417521</v>
+        <v>0.407945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313076</v>
+        <v>0.313048</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.534581</v>
+        <v>0.528019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432191</v>
+        <v>0.428652</v>
       </c>
       <c r="D9" t="n">
-        <v>0.328708</v>
+        <v>0.326056</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.548838</v>
+        <v>0.543618</v>
       </c>
       <c r="C10" t="n">
-        <v>0.452876</v>
+        <v>0.449347</v>
       </c>
       <c r="D10" t="n">
-        <v>0.340854</v>
+        <v>0.338147</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.570194</v>
+        <v>0.5699109999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347989</v>
+        <v>0.345152</v>
       </c>
       <c r="D11" t="n">
-        <v>0.276991</v>
+        <v>0.276683</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4215</v>
+        <v>0.42038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.354861</v>
+        <v>0.353546</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27838</v>
+        <v>0.278041</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.43642</v>
+        <v>0.438953</v>
       </c>
       <c r="C13" t="n">
-        <v>0.368729</v>
+        <v>0.367023</v>
       </c>
       <c r="D13" t="n">
-        <v>0.288099</v>
+        <v>0.287464</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.439865</v>
+        <v>0.441736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.385728</v>
+        <v>0.383773</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287726</v>
+        <v>0.288727</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.468977</v>
+        <v>0.467243</v>
       </c>
       <c r="C15" t="n">
-        <v>0.398825</v>
+        <v>0.397937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.300644</v>
+        <v>0.297487</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.474735</v>
+        <v>0.473701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.425561</v>
+        <v>0.417751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.303763</v>
+        <v>0.30461</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.504335</v>
+        <v>0.496783</v>
       </c>
       <c r="C17" t="n">
-        <v>0.437142</v>
+        <v>0.431742</v>
       </c>
       <c r="D17" t="n">
-        <v>0.316301</v>
+        <v>0.313763</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.516852</v>
+        <v>0.512302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.450641</v>
+        <v>0.446372</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318228</v>
+        <v>0.315234</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5427149999999999</v>
+        <v>0.540303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.466654</v>
+        <v>0.466928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.335623</v>
+        <v>0.329017</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.552576</v>
+        <v>0.547029</v>
       </c>
       <c r="C20" t="n">
-        <v>0.489803</v>
+        <v>0.490481</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341908</v>
+        <v>0.341494</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.567957</v>
+        <v>0.571951</v>
       </c>
       <c r="C21" t="n">
-        <v>0.507805</v>
+        <v>0.511865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.354338</v>
+        <v>0.352406</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.586971</v>
+        <v>0.588099</v>
       </c>
       <c r="C22" t="n">
-        <v>0.528491</v>
+        <v>0.531945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.363476</v>
+        <v>0.367025</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.620441</v>
+        <v>0.624451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.561891</v>
+        <v>0.560057</v>
       </c>
       <c r="D23" t="n">
-        <v>0.377715</v>
+        <v>0.377492</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.640852</v>
+        <v>0.639421</v>
       </c>
       <c r="C24" t="n">
-        <v>0.578975</v>
+        <v>0.575902</v>
       </c>
       <c r="D24" t="n">
-        <v>0.39188</v>
+        <v>0.390079</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.663944</v>
+        <v>0.662793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.604743</v>
+        <v>0.604095</v>
       </c>
       <c r="D25" t="n">
-        <v>0.409117</v>
+        <v>0.401627</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.696309</v>
+        <v>0.693914</v>
       </c>
       <c r="C26" t="n">
-        <v>0.395734</v>
+        <v>0.397826</v>
       </c>
       <c r="D26" t="n">
-        <v>0.29305</v>
+        <v>0.291231</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5140940000000001</v>
+        <v>0.515706</v>
       </c>
       <c r="C27" t="n">
-        <v>0.403553</v>
+        <v>0.403797</v>
       </c>
       <c r="D27" t="n">
-        <v>0.296273</v>
+        <v>0.297533</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.529701</v>
+        <v>0.526356</v>
       </c>
       <c r="C28" t="n">
-        <v>0.418601</v>
+        <v>0.419177</v>
       </c>
       <c r="D28" t="n">
-        <v>0.303615</v>
+        <v>0.30501</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.544386</v>
+        <v>0.545249</v>
       </c>
       <c r="C29" t="n">
-        <v>0.428246</v>
+        <v>0.426599</v>
       </c>
       <c r="D29" t="n">
-        <v>0.309996</v>
+        <v>0.309907</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5665210000000001</v>
+        <v>0.569364</v>
       </c>
       <c r="C30" t="n">
-        <v>0.450218</v>
+        <v>0.448098</v>
       </c>
       <c r="D30" t="n">
-        <v>0.316561</v>
+        <v>0.320714</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.583059</v>
+        <v>0.5884740000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.463471</v>
+        <v>0.46411</v>
       </c>
       <c r="D31" t="n">
-        <v>0.323805</v>
+        <v>0.330154</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.602882</v>
+        <v>0.607086</v>
       </c>
       <c r="C32" t="n">
-        <v>0.480859</v>
+        <v>0.482858</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332828</v>
+        <v>0.338028</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.615011</v>
+        <v>0.623159</v>
       </c>
       <c r="C33" t="n">
-        <v>0.500042</v>
+        <v>0.500695</v>
       </c>
       <c r="D33" t="n">
-        <v>0.341228</v>
+        <v>0.351717</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.642231</v>
+        <v>0.649628</v>
       </c>
       <c r="C34" t="n">
-        <v>0.520032</v>
+        <v>0.5199820000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.354453</v>
+        <v>0.359591</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.665544</v>
+        <v>0.672775</v>
       </c>
       <c r="C35" t="n">
-        <v>0.543642</v>
+        <v>0.547412</v>
       </c>
       <c r="D35" t="n">
-        <v>0.359252</v>
+        <v>0.37337</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.680378</v>
+        <v>0.6893</v>
       </c>
       <c r="C36" t="n">
-        <v>0.566262</v>
+        <v>0.569037</v>
       </c>
       <c r="D36" t="n">
-        <v>0.384188</v>
+        <v>0.386021</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.708576</v>
+        <v>0.718794</v>
       </c>
       <c r="C37" t="n">
-        <v>0.591774</v>
+        <v>0.596241</v>
       </c>
       <c r="D37" t="n">
-        <v>0.390723</v>
+        <v>0.398907</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.734432</v>
+        <v>0.743839</v>
       </c>
       <c r="C38" t="n">
-        <v>0.615546</v>
+        <v>0.61868</v>
       </c>
       <c r="D38" t="n">
-        <v>0.406458</v>
+        <v>0.414682</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.771493</v>
+        <v>0.77996</v>
       </c>
       <c r="C39" t="n">
-        <v>0.642438</v>
+        <v>0.64689</v>
       </c>
       <c r="D39" t="n">
-        <v>0.419372</v>
+        <v>0.427548</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.793507</v>
+        <v>0.800212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.462523</v>
+        <v>0.46797</v>
       </c>
       <c r="D40" t="n">
-        <v>0.348485</v>
+        <v>0.354201</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.575358</v>
+        <v>0.580496</v>
       </c>
       <c r="C41" t="n">
-        <v>0.475174</v>
+        <v>0.480588</v>
       </c>
       <c r="D41" t="n">
-        <v>0.359412</v>
+        <v>0.361488</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.597338</v>
+        <v>0.600427</v>
       </c>
       <c r="C42" t="n">
-        <v>0.495011</v>
+        <v>0.499051</v>
       </c>
       <c r="D42" t="n">
-        <v>0.37048</v>
+        <v>0.369615</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.615372</v>
+        <v>0.617487</v>
       </c>
       <c r="C43" t="n">
-        <v>0.510342</v>
+        <v>0.511885</v>
       </c>
       <c r="D43" t="n">
-        <v>0.376696</v>
+        <v>0.377137</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629448</v>
+        <v>0.629575</v>
       </c>
       <c r="C44" t="n">
-        <v>0.533985</v>
+        <v>0.535642</v>
       </c>
       <c r="D44" t="n">
-        <v>0.379395</v>
+        <v>0.388356</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.645699</v>
+        <v>0.652736</v>
       </c>
       <c r="C45" t="n">
-        <v>0.550596</v>
+        <v>0.552212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.395816</v>
+        <v>0.397276</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.657774</v>
+        <v>0.664838</v>
       </c>
       <c r="C46" t="n">
-        <v>0.568039</v>
+        <v>0.573209</v>
       </c>
       <c r="D46" t="n">
-        <v>0.406989</v>
+        <v>0.407465</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6818380000000001</v>
+        <v>0.684513</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5815399999999999</v>
+        <v>0.588767</v>
       </c>
       <c r="D47" t="n">
-        <v>0.410025</v>
+        <v>0.417614</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.696504</v>
+        <v>0.69913</v>
       </c>
       <c r="C48" t="n">
-        <v>0.598668</v>
+        <v>0.604919</v>
       </c>
       <c r="D48" t="n">
-        <v>0.42746</v>
+        <v>0.428255</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.72032</v>
+        <v>0.721796</v>
       </c>
       <c r="C49" t="n">
-        <v>0.624667</v>
+        <v>0.629283</v>
       </c>
       <c r="D49" t="n">
-        <v>0.435423</v>
+        <v>0.437548</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.741682</v>
+        <v>0.742568</v>
       </c>
       <c r="C50" t="n">
-        <v>0.643417</v>
+        <v>0.649232</v>
       </c>
       <c r="D50" t="n">
-        <v>0.446055</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7580209999999999</v>
+        <v>0.763853</v>
       </c>
       <c r="C51" t="n">
-        <v>0.66948</v>
+        <v>0.674573</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4651</v>
+        <v>0.464928</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7852980000000001</v>
+        <v>0.787308</v>
       </c>
       <c r="C52" t="n">
-        <v>0.69414</v>
+        <v>0.699353</v>
       </c>
       <c r="D52" t="n">
-        <v>0.471394</v>
+        <v>0.478455</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.805895</v>
+        <v>0.807523</v>
       </c>
       <c r="C53" t="n">
-        <v>0.722583</v>
+        <v>0.723779</v>
       </c>
       <c r="D53" t="n">
-        <v>0.493808</v>
+        <v>0.494232</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.825735</v>
+        <v>0.828021</v>
       </c>
       <c r="C54" t="n">
-        <v>0.524965</v>
+        <v>0.526782</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395112</v>
+        <v>0.395661</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620664</v>
+        <v>0.620277</v>
       </c>
       <c r="C55" t="n">
-        <v>0.536678</v>
+        <v>0.537061</v>
       </c>
       <c r="D55" t="n">
-        <v>0.405572</v>
+        <v>0.4048</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.63772</v>
+        <v>0.6366270000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.556867</v>
+        <v>0.554836</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412284</v>
+        <v>0.412615</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.650142</v>
+        <v>0.650786</v>
       </c>
       <c r="C57" t="n">
-        <v>0.569475</v>
+        <v>0.569873</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419377</v>
+        <v>0.419033</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.666283</v>
+        <v>0.666957</v>
       </c>
       <c r="C58" t="n">
-        <v>0.583982</v>
+        <v>0.584323</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427656</v>
+        <v>0.427475</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.683598</v>
+        <v>0.684974</v>
       </c>
       <c r="C59" t="n">
-        <v>0.598987</v>
+        <v>0.5996359999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438393</v>
+        <v>0.437328</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.698442</v>
+        <v>0.699094</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6168169999999999</v>
+        <v>0.617726</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443512</v>
+        <v>0.443571</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.716178</v>
+        <v>0.721774</v>
       </c>
       <c r="C61" t="n">
-        <v>0.63451</v>
+        <v>0.638338</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454329</v>
+        <v>0.453984</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.735688</v>
+        <v>0.736175</v>
       </c>
       <c r="C62" t="n">
-        <v>0.64973</v>
+        <v>0.652572</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462254</v>
+        <v>0.462375</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.75497</v>
+        <v>0.757902</v>
       </c>
       <c r="C63" t="n">
-        <v>0.673705</v>
+        <v>0.675434</v>
       </c>
       <c r="D63" t="n">
-        <v>0.474019</v>
+        <v>0.476308</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.766207</v>
+        <v>0.768365</v>
       </c>
       <c r="C64" t="n">
-        <v>0.692163</v>
+        <v>0.6934979999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.481067</v>
+        <v>0.487113</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.792589</v>
+        <v>0.79641</v>
       </c>
       <c r="C65" t="n">
-        <v>0.71887</v>
+        <v>0.722535</v>
       </c>
       <c r="D65" t="n">
-        <v>0.497442</v>
+        <v>0.498397</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.812415</v>
+        <v>0.815662</v>
       </c>
       <c r="C66" t="n">
-        <v>0.741856</v>
+        <v>0.743075</v>
       </c>
       <c r="D66" t="n">
-        <v>0.509794</v>
+        <v>0.510242</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.839892</v>
+        <v>0.844352</v>
       </c>
       <c r="C67" t="n">
-        <v>0.767438</v>
+        <v>0.772716</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5252830000000001</v>
+        <v>0.525891</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.872048</v>
+        <v>0.86651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.519401</v>
+        <v>0.527066</v>
       </c>
       <c r="D68" t="n">
-        <v>0.406283</v>
+        <v>0.408411</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.653363</v>
+        <v>0.666025</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5395759999999999</v>
+        <v>0.546314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.410426</v>
+        <v>0.413315</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.671574</v>
+        <v>0.6845059999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.559164</v>
+        <v>0.5696329999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.421545</v>
+        <v>0.425934</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.696179</v>
+        <v>0.711655</v>
       </c>
       <c r="C71" t="n">
-        <v>0.576819</v>
+        <v>0.5910069999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.432625</v>
+        <v>0.436614</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7257749999999999</v>
+        <v>0.736773</v>
       </c>
       <c r="C72" t="n">
-        <v>0.603095</v>
+        <v>0.615713</v>
       </c>
       <c r="D72" t="n">
-        <v>0.445507</v>
+        <v>0.4479</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.755684</v>
+        <v>0.772618</v>
       </c>
       <c r="C73" t="n">
-        <v>0.632872</v>
+        <v>0.65033</v>
       </c>
       <c r="D73" t="n">
-        <v>0.454754</v>
+        <v>0.458668</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.779541</v>
+        <v>0.793533</v>
       </c>
       <c r="C74" t="n">
-        <v>0.657081</v>
+        <v>0.669441</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464981</v>
+        <v>0.467358</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.81334</v>
+        <v>0.830774</v>
       </c>
       <c r="C75" t="n">
-        <v>0.689225</v>
+        <v>0.704946</v>
       </c>
       <c r="D75" t="n">
-        <v>0.480358</v>
+        <v>0.482379</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.848324</v>
+        <v>0.871791</v>
       </c>
       <c r="C76" t="n">
-        <v>0.721294</v>
+        <v>0.739235</v>
       </c>
       <c r="D76" t="n">
-        <v>0.491713</v>
+        <v>0.494454</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.893298</v>
+        <v>0.918919</v>
       </c>
       <c r="C77" t="n">
-        <v>0.761234</v>
+        <v>0.782047</v>
       </c>
       <c r="D77" t="n">
-        <v>0.511565</v>
+        <v>0.514678</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.933503</v>
+        <v>0.96341</v>
       </c>
       <c r="C78" t="n">
-        <v>0.798584</v>
+        <v>0.82189</v>
       </c>
       <c r="D78" t="n">
-        <v>0.522106</v>
+        <v>0.528129</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.994104</v>
+        <v>1.01574</v>
       </c>
       <c r="C79" t="n">
-        <v>0.844378</v>
+        <v>0.866045</v>
       </c>
       <c r="D79" t="n">
-        <v>0.539343</v>
+        <v>0.545339</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.05593</v>
+        <v>1.08443</v>
       </c>
       <c r="C80" t="n">
-        <v>0.902589</v>
+        <v>0.926164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5624</v>
+        <v>0.566559</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.12749</v>
+        <v>1.1573</v>
       </c>
       <c r="C81" t="n">
-        <v>0.968074</v>
+        <v>0.993739</v>
       </c>
       <c r="D81" t="n">
-        <v>0.580798</v>
+        <v>0.585711</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.22293</v>
+        <v>1.24493</v>
       </c>
       <c r="C82" t="n">
-        <v>1.04107</v>
+        <v>1.06694</v>
       </c>
       <c r="D82" t="n">
-        <v>0.612019</v>
+        <v>0.614447</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.30298</v>
+        <v>1.34807</v>
       </c>
       <c r="C83" t="n">
-        <v>0.765323</v>
+        <v>0.782309</v>
       </c>
       <c r="D83" t="n">
-        <v>0.482662</v>
+        <v>0.487272</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04161</v>
+        <v>1.06402</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8220420000000001</v>
+        <v>0.837684</v>
       </c>
       <c r="D84" t="n">
-        <v>0.496694</v>
+        <v>0.501719</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.12975</v>
+        <v>1.14102</v>
       </c>
       <c r="C85" t="n">
-        <v>0.878794</v>
+        <v>0.896541</v>
       </c>
       <c r="D85" t="n">
-        <v>0.517366</v>
+        <v>0.520581</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.20972</v>
+        <v>1.22456</v>
       </c>
       <c r="C86" t="n">
-        <v>0.963222</v>
+        <v>0.976764</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5411859999999999</v>
+        <v>0.547295</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.3059</v>
+        <v>1.31539</v>
       </c>
       <c r="C87" t="n">
-        <v>1.04472</v>
+        <v>1.05289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.568832</v>
+        <v>0.5744320000000001</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41445</v>
+        <v>1.41852</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15717</v>
+        <v>1.15964</v>
       </c>
       <c r="D88" t="n">
-        <v>0.604864</v>
+        <v>0.612917</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.52999</v>
+        <v>1.53939</v>
       </c>
       <c r="C89" t="n">
-        <v>1.25156</v>
+        <v>1.25993</v>
       </c>
       <c r="D89" t="n">
-        <v>0.64058</v>
+        <v>0.644665</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.6566</v>
+        <v>1.67926</v>
       </c>
       <c r="C90" t="n">
-        <v>1.3589</v>
+        <v>1.37268</v>
       </c>
       <c r="D90" t="n">
-        <v>0.674604</v>
+        <v>0.6841469999999999</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.79101</v>
+        <v>1.80696</v>
       </c>
       <c r="C91" t="n">
-        <v>1.48734</v>
+        <v>1.49719</v>
       </c>
       <c r="D91" t="n">
-        <v>0.723678</v>
+        <v>0.735501</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.94096</v>
+        <v>1.94635</v>
       </c>
       <c r="C92" t="n">
-        <v>1.61937</v>
+        <v>1.6266</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7739</v>
+        <v>0.785142</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.08709</v>
+        <v>2.0882</v>
       </c>
       <c r="C93" t="n">
-        <v>1.76686</v>
+        <v>1.76653</v>
       </c>
       <c r="D93" t="n">
-        <v>0.836519</v>
+        <v>0.840495</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.24553</v>
+        <v>2.23741</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91761</v>
+        <v>1.91528</v>
       </c>
       <c r="D94" t="n">
-        <v>0.896503</v>
+        <v>0.893927</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.41886</v>
+        <v>2.40979</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07424</v>
+        <v>2.07157</v>
       </c>
       <c r="D95" t="n">
-        <v>0.970144</v>
+        <v>0.970436</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.5803</v>
+        <v>2.57175</v>
       </c>
       <c r="C96" t="n">
-        <v>2.2632</v>
+        <v>2.25605</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05572</v>
+        <v>1.05791</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.76478</v>
+        <v>2.7567</v>
       </c>
       <c r="C97" t="n">
-        <v>1.44027</v>
+        <v>1.43617</v>
       </c>
       <c r="D97" t="n">
-        <v>0.796584</v>
+        <v>0.794071</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.06038</v>
+        <v>2.04541</v>
       </c>
       <c r="C98" t="n">
-        <v>1.54557</v>
+        <v>1.53752</v>
       </c>
       <c r="D98" t="n">
-        <v>0.840148</v>
+        <v>0.835433</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.16412</v>
+        <v>2.15907</v>
       </c>
       <c r="C99" t="n">
-        <v>1.63125</v>
+        <v>1.62982</v>
       </c>
       <c r="D99" t="n">
-        <v>0.895942</v>
+        <v>0.896706</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.28529</v>
+        <v>2.27376</v>
       </c>
       <c r="C100" t="n">
-        <v>1.74679</v>
+        <v>1.7369</v>
       </c>
       <c r="D100" t="n">
-        <v>0.95896</v>
+        <v>0.9589029999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.42424</v>
+        <v>2.40495</v>
       </c>
       <c r="C101" t="n">
-        <v>1.85622</v>
+        <v>1.8451</v>
       </c>
       <c r="D101" t="n">
-        <v>0.993525</v>
+        <v>0.994009</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.54137</v>
+        <v>2.52775</v>
       </c>
       <c r="C102" t="n">
-        <v>1.96978</v>
+        <v>1.95764</v>
       </c>
       <c r="D102" t="n">
-        <v>1.06035</v>
+        <v>1.06119</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.66163</v>
+        <v>2.6487</v>
       </c>
       <c r="C103" t="n">
-        <v>2.09261</v>
+        <v>2.07894</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12554</v>
+        <v>1.12076</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.79431</v>
+        <v>2.77599</v>
       </c>
       <c r="C104" t="n">
-        <v>2.22156</v>
+        <v>2.20762</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18406</v>
+        <v>1.18197</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.92623</v>
+        <v>2.91086</v>
       </c>
       <c r="C105" t="n">
-        <v>2.35877</v>
+        <v>2.34478</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24087</v>
+        <v>1.23636</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.07232</v>
+        <v>3.05662</v>
       </c>
       <c r="C106" t="n">
-        <v>2.49362</v>
+        <v>2.47722</v>
       </c>
       <c r="D106" t="n">
-        <v>1.32412</v>
+        <v>1.31886</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.24177</v>
+        <v>3.22062</v>
       </c>
       <c r="C107" t="n">
-        <v>2.6388</v>
+        <v>2.61647</v>
       </c>
       <c r="D107" t="n">
-        <v>1.39632</v>
+        <v>1.38614</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.38833</v>
+        <v>3.37401</v>
       </c>
       <c r="C108" t="n">
-        <v>2.80823</v>
+        <v>2.78601</v>
       </c>
       <c r="D108" t="n">
-        <v>1.46936</v>
+        <v>1.45877</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.5677</v>
+        <v>3.53773</v>
       </c>
       <c r="C109" t="n">
-        <v>2.99167</v>
+        <v>2.96013</v>
       </c>
       <c r="D109" t="n">
-        <v>1.55277</v>
+        <v>1.53918</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.72302</v>
+        <v>3.70476</v>
       </c>
       <c r="C110" t="n">
-        <v>3.14854</v>
+        <v>3.12657</v>
       </c>
       <c r="D110" t="n">
-        <v>1.63132</v>
+        <v>1.62577</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.9208</v>
+        <v>3.89733</v>
       </c>
       <c r="C111" t="n">
-        <v>2.08057</v>
+        <v>2.06809</v>
       </c>
       <c r="D111" t="n">
-        <v>1.31113</v>
+        <v>1.30373</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.84679</v>
+        <v>2.82482</v>
       </c>
       <c r="C112" t="n">
-        <v>2.18019</v>
+        <v>2.1662</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34731</v>
+        <v>1.34071</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.93357</v>
+        <v>2.92523</v>
       </c>
       <c r="C113" t="n">
-        <v>2.28837</v>
+        <v>2.275</v>
       </c>
       <c r="D113" t="n">
-        <v>1.40311</v>
+        <v>1.39579</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.04948</v>
+        <v>3.02764</v>
       </c>
       <c r="C114" t="n">
-        <v>2.38834</v>
+        <v>2.37104</v>
       </c>
       <c r="D114" t="n">
-        <v>1.45451</v>
+        <v>1.44656</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.16697</v>
+        <v>3.14426</v>
       </c>
       <c r="C115" t="n">
-        <v>2.49451</v>
+        <v>2.47943</v>
       </c>
       <c r="D115" t="n">
-        <v>1.50547</v>
+        <v>1.4971</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.27927</v>
+        <v>3.25635</v>
       </c>
       <c r="C116" t="n">
-        <v>2.60694</v>
+        <v>2.5929</v>
       </c>
       <c r="D116" t="n">
-        <v>1.55885</v>
+        <v>1.55121</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.39616</v>
+        <v>3.37029</v>
       </c>
       <c r="C117" t="n">
-        <v>2.73405</v>
+        <v>2.71706</v>
       </c>
       <c r="D117" t="n">
-        <v>1.63536</v>
+        <v>1.62546</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.53514</v>
+        <v>3.49815</v>
       </c>
       <c r="C118" t="n">
-        <v>2.87662</v>
+        <v>2.84616</v>
       </c>
       <c r="D118" t="n">
-        <v>1.70421</v>
+        <v>1.69258</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.64904</v>
+        <v>3.60796</v>
       </c>
       <c r="C119" t="n">
-        <v>2.9979</v>
+        <v>2.98414</v>
       </c>
       <c r="D119" t="n">
-        <v>1.76012</v>
+        <v>1.74543</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.303505</v>
+        <v>0.20804</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242822</v>
+        <v>0.14527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.250202</v>
+        <v>0.173644</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.309789</v>
+        <v>0.213776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.247971</v>
+        <v>0.152366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.255475</v>
+        <v>0.17898</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.31437</v>
+        <v>0.220692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.254925</v>
+        <v>0.163151</v>
       </c>
       <c r="D4" t="n">
-        <v>0.260435</v>
+        <v>0.185094</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.325028</v>
+        <v>0.227782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264761</v>
+        <v>0.169676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.268448</v>
+        <v>0.190604</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.329711</v>
+        <v>0.232453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.267694</v>
+        <v>0.17695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272302</v>
+        <v>0.194538</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.335866</v>
+        <v>0.240078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221812</v>
+        <v>0.132927</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232492</v>
+        <v>0.170993</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.29275</v>
+        <v>0.199671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227659</v>
+        <v>0.140524</v>
       </c>
       <c r="D8" t="n">
-        <v>0.23584</v>
+        <v>0.175733</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.297544</v>
+        <v>0.206928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231081</v>
+        <v>0.146402</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241714</v>
+        <v>0.178062</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.303029</v>
+        <v>0.211567</v>
       </c>
       <c r="C10" t="n">
-        <v>0.236179</v>
+        <v>0.152288</v>
       </c>
       <c r="D10" t="n">
-        <v>0.246873</v>
+        <v>0.183294</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.308755</v>
+        <v>0.216215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.240368</v>
+        <v>0.158638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249705</v>
+        <v>0.187014</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.312879</v>
+        <v>0.220655</v>
       </c>
       <c r="C12" t="n">
-        <v>0.245755</v>
+        <v>0.165798</v>
       </c>
       <c r="D12" t="n">
-        <v>0.255818</v>
+        <v>0.192791</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322508</v>
+        <v>0.226909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.252401</v>
+        <v>0.173393</v>
       </c>
       <c r="D13" t="n">
-        <v>0.259779</v>
+        <v>0.195792</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328956</v>
+        <v>0.235684</v>
       </c>
       <c r="C14" t="n">
-        <v>0.256241</v>
+        <v>0.179622</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266816</v>
+        <v>0.202574</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.33636</v>
+        <v>0.243364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.262412</v>
+        <v>0.185969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273185</v>
+        <v>0.208392</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.345128</v>
+        <v>0.250235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.269834</v>
+        <v>0.192637</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276603</v>
+        <v>0.214155</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.351121</v>
+        <v>0.256965</v>
       </c>
       <c r="C17" t="n">
-        <v>0.27643</v>
+        <v>0.199097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283518</v>
+        <v>0.220246</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.358789</v>
+        <v>0.263153</v>
       </c>
       <c r="C18" t="n">
-        <v>0.282367</v>
+        <v>0.20442</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28934</v>
+        <v>0.226083</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.366451</v>
+        <v>0.268855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.28893</v>
+        <v>0.210749</v>
       </c>
       <c r="D19" t="n">
-        <v>0.296566</v>
+        <v>0.230813</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.372072</v>
+        <v>0.27577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295353</v>
+        <v>0.215955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.303342</v>
+        <v>0.23466</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.37942</v>
+        <v>0.281878</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244855</v>
+        <v>0.170862</v>
       </c>
       <c r="D21" t="n">
-        <v>0.256891</v>
+        <v>0.195264</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.331027</v>
+        <v>0.231495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249662</v>
+        <v>0.175821</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26376</v>
+        <v>0.200047</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.335662</v>
+        <v>0.235662</v>
       </c>
       <c r="C23" t="n">
-        <v>0.255146</v>
+        <v>0.180703</v>
       </c>
       <c r="D23" t="n">
-        <v>0.266586</v>
+        <v>0.204458</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.340572</v>
+        <v>0.239784</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26147</v>
+        <v>0.185523</v>
       </c>
       <c r="D24" t="n">
-        <v>0.271932</v>
+        <v>0.209599</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.345632</v>
+        <v>0.245422</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263551</v>
+        <v>0.190182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.277051</v>
+        <v>0.214368</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.351476</v>
+        <v>0.25021</v>
       </c>
       <c r="C26" t="n">
-        <v>0.269749</v>
+        <v>0.194707</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281328</v>
+        <v>0.218891</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.357429</v>
+        <v>0.25479</v>
       </c>
       <c r="C27" t="n">
-        <v>0.276073</v>
+        <v>0.199714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287541</v>
+        <v>0.224312</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.362441</v>
+        <v>0.260173</v>
       </c>
       <c r="C28" t="n">
-        <v>0.282554</v>
+        <v>0.205549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.294766</v>
+        <v>0.230375</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.368158</v>
+        <v>0.265264</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289164</v>
+        <v>0.211076</v>
       </c>
       <c r="D29" t="n">
-        <v>0.299995</v>
+        <v>0.23598</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.374436</v>
+        <v>0.270873</v>
       </c>
       <c r="C30" t="n">
-        <v>0.295669</v>
+        <v>0.215946</v>
       </c>
       <c r="D30" t="n">
-        <v>0.306499</v>
+        <v>0.240461</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3808</v>
+        <v>0.276762</v>
       </c>
       <c r="C31" t="n">
-        <v>0.301877</v>
+        <v>0.220879</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31417</v>
+        <v>0.246477</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.386522</v>
+        <v>0.282041</v>
       </c>
       <c r="C32" t="n">
-        <v>0.308503</v>
+        <v>0.225722</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319407</v>
+        <v>0.251158</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.392275</v>
+        <v>0.287778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.315562</v>
+        <v>0.230536</v>
       </c>
       <c r="D33" t="n">
-        <v>0.325971</v>
+        <v>0.25701</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.399092</v>
+        <v>0.293485</v>
       </c>
       <c r="C34" t="n">
-        <v>0.321891</v>
+        <v>0.235566</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332511</v>
+        <v>0.261616</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.405948</v>
+        <v>0.300006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.257952</v>
+        <v>0.185727</v>
       </c>
       <c r="D35" t="n">
-        <v>0.270753</v>
+        <v>0.209932</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.349529</v>
+        <v>0.245698</v>
       </c>
       <c r="C36" t="n">
-        <v>0.261973</v>
+        <v>0.189132</v>
       </c>
       <c r="D36" t="n">
-        <v>0.274826</v>
+        <v>0.213308</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.353462</v>
+        <v>0.249323</v>
       </c>
       <c r="C37" t="n">
-        <v>0.266647</v>
+        <v>0.192735</v>
       </c>
       <c r="D37" t="n">
-        <v>0.280385</v>
+        <v>0.217374</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357931</v>
+        <v>0.25337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.273455</v>
+        <v>0.197059</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284999</v>
+        <v>0.222323</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.362492</v>
+        <v>0.257457</v>
       </c>
       <c r="C39" t="n">
-        <v>0.278033</v>
+        <v>0.201208</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290103</v>
+        <v>0.227048</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.366885</v>
+        <v>0.261395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.284209</v>
+        <v>0.20557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29633</v>
+        <v>0.231839</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.372319</v>
+        <v>0.26572</v>
       </c>
       <c r="C41" t="n">
-        <v>0.290216</v>
+        <v>0.210089</v>
       </c>
       <c r="D41" t="n">
-        <v>0.302757</v>
+        <v>0.236827</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.378205</v>
+        <v>0.270741</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295635</v>
+        <v>0.214401</v>
       </c>
       <c r="D42" t="n">
-        <v>0.307972</v>
+        <v>0.241703</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.383557</v>
+        <v>0.275751</v>
       </c>
       <c r="C43" t="n">
-        <v>0.301145</v>
+        <v>0.219298</v>
       </c>
       <c r="D43" t="n">
-        <v>0.315181</v>
+        <v>0.24682</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.389804</v>
+        <v>0.281168</v>
       </c>
       <c r="C44" t="n">
-        <v>0.308</v>
+        <v>0.224623</v>
       </c>
       <c r="D44" t="n">
-        <v>0.320542</v>
+        <v>0.252393</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.395956</v>
+        <v>0.286557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.314144</v>
+        <v>0.229609</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32711</v>
+        <v>0.257477</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.402476</v>
+        <v>0.292698</v>
       </c>
       <c r="C46" t="n">
-        <v>0.320489</v>
+        <v>0.234628</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332735</v>
+        <v>0.262876</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.40826</v>
+        <v>0.298637</v>
       </c>
       <c r="C47" t="n">
-        <v>0.326469</v>
+        <v>0.239324</v>
       </c>
       <c r="D47" t="n">
-        <v>0.338518</v>
+        <v>0.268041</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.414317</v>
+        <v>0.304474</v>
       </c>
       <c r="C48" t="n">
-        <v>0.332809</v>
+        <v>0.243696</v>
       </c>
       <c r="D48" t="n">
-        <v>0.343925</v>
+        <v>0.272602</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.419791</v>
+        <v>0.310591</v>
       </c>
       <c r="C49" t="n">
-        <v>0.337771</v>
+        <v>0.247892</v>
       </c>
       <c r="D49" t="n">
-        <v>0.349914</v>
+        <v>0.277655</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.426011</v>
+        <v>0.316343</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270116</v>
+        <v>0.194731</v>
       </c>
       <c r="D50" t="n">
-        <v>0.277095</v>
+        <v>0.208952</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.363013</v>
+        <v>0.256334</v>
       </c>
       <c r="C51" t="n">
-        <v>0.27494</v>
+        <v>0.198199</v>
       </c>
       <c r="D51" t="n">
-        <v>0.281753</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.367435</v>
+        <v>0.259786</v>
       </c>
       <c r="C52" t="n">
-        <v>0.279316</v>
+        <v>0.201711</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285979</v>
+        <v>0.216441</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.371953</v>
+        <v>0.26363</v>
       </c>
       <c r="C53" t="n">
-        <v>0.284917</v>
+        <v>0.205853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291796</v>
+        <v>0.22056</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.375747</v>
+        <v>0.267601</v>
       </c>
       <c r="C54" t="n">
-        <v>0.29064</v>
+        <v>0.210168</v>
       </c>
       <c r="D54" t="n">
-        <v>0.296761</v>
+        <v>0.224998</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.380907</v>
+        <v>0.271787</v>
       </c>
       <c r="C55" t="n">
-        <v>0.295881</v>
+        <v>0.214395</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302949</v>
+        <v>0.229404</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.385725</v>
+        <v>0.276295</v>
       </c>
       <c r="C56" t="n">
-        <v>0.302256</v>
+        <v>0.219271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.30815</v>
+        <v>0.233891</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.392804</v>
+        <v>0.282156</v>
       </c>
       <c r="C57" t="n">
-        <v>0.308076</v>
+        <v>0.224366</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314029</v>
+        <v>0.238859</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.398432</v>
+        <v>0.287646</v>
       </c>
       <c r="C58" t="n">
-        <v>0.313958</v>
+        <v>0.22921</v>
       </c>
       <c r="D58" t="n">
-        <v>0.320423</v>
+        <v>0.243825</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.403421</v>
+        <v>0.29424</v>
       </c>
       <c r="C59" t="n">
-        <v>0.320313</v>
+        <v>0.234726</v>
       </c>
       <c r="D59" t="n">
-        <v>0.326464</v>
+        <v>0.251065</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.409887</v>
+        <v>0.30019</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32638</v>
+        <v>0.239674</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33268</v>
+        <v>0.257969</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.416526</v>
+        <v>0.306221</v>
       </c>
       <c r="C61" t="n">
-        <v>0.33249</v>
+        <v>0.244909</v>
       </c>
       <c r="D61" t="n">
-        <v>0.338836</v>
+        <v>0.259822</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.421733</v>
+        <v>0.312683</v>
       </c>
       <c r="C62" t="n">
-        <v>0.338098</v>
+        <v>0.249519</v>
       </c>
       <c r="D62" t="n">
-        <v>0.344449</v>
+        <v>0.264937</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.427738</v>
+        <v>0.319095</v>
       </c>
       <c r="C63" t="n">
-        <v>0.344155</v>
+        <v>0.254151</v>
       </c>
       <c r="D63" t="n">
-        <v>0.350031</v>
+        <v>0.270149</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.433968</v>
+        <v>0.324916</v>
       </c>
       <c r="C64" t="n">
-        <v>0.279556</v>
+        <v>0.203269</v>
       </c>
       <c r="D64" t="n">
-        <v>0.288951</v>
+        <v>0.217725</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.39365</v>
+        <v>0.28117</v>
       </c>
       <c r="C65" t="n">
-        <v>0.287119</v>
+        <v>0.209199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.297454</v>
+        <v>0.222881</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.403768</v>
+        <v>0.292698</v>
       </c>
       <c r="C66" t="n">
-        <v>0.293186</v>
+        <v>0.213701</v>
       </c>
       <c r="D66" t="n">
-        <v>0.302336</v>
+        <v>0.228195</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.408794</v>
+        <v>0.300768</v>
       </c>
       <c r="C67" t="n">
-        <v>0.300354</v>
+        <v>0.219128</v>
       </c>
       <c r="D67" t="n">
-        <v>0.307271</v>
+        <v>0.23255</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.418602</v>
+        <v>0.306229</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30683</v>
+        <v>0.22429</v>
       </c>
       <c r="D68" t="n">
-        <v>0.314675</v>
+        <v>0.239252</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.430534</v>
+        <v>0.320235</v>
       </c>
       <c r="C69" t="n">
-        <v>0.313258</v>
+        <v>0.231163</v>
       </c>
       <c r="D69" t="n">
-        <v>0.322611</v>
+        <v>0.248344</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.440773</v>
+        <v>0.322234</v>
       </c>
       <c r="C70" t="n">
-        <v>0.321419</v>
+        <v>0.238906</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330639</v>
+        <v>0.251821</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.453356</v>
+        <v>0.334381</v>
       </c>
       <c r="C71" t="n">
-        <v>0.330203</v>
+        <v>0.242294</v>
       </c>
       <c r="D71" t="n">
-        <v>0.338908</v>
+        <v>0.259578</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.467016</v>
+        <v>0.348046</v>
       </c>
       <c r="C72" t="n">
-        <v>0.339428</v>
+        <v>0.250591</v>
       </c>
       <c r="D72" t="n">
-        <v>0.347365</v>
+        <v>0.267354</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.48457</v>
+        <v>0.363328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.350842</v>
+        <v>0.259298</v>
       </c>
       <c r="D73" t="n">
-        <v>0.357171</v>
+        <v>0.276993</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.500248</v>
+        <v>0.384079</v>
       </c>
       <c r="C74" t="n">
-        <v>0.360388</v>
+        <v>0.269896</v>
       </c>
       <c r="D74" t="n">
-        <v>0.368028</v>
+        <v>0.288624</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.515628</v>
+        <v>0.40098</v>
       </c>
       <c r="C75" t="n">
-        <v>0.371128</v>
+        <v>0.279858</v>
       </c>
       <c r="D75" t="n">
-        <v>0.377506</v>
+        <v>0.29983</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.53813</v>
+        <v>0.42223</v>
       </c>
       <c r="C76" t="n">
-        <v>0.383307</v>
+        <v>0.292098</v>
       </c>
       <c r="D76" t="n">
-        <v>0.391</v>
+        <v>0.313289</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.561622</v>
+        <v>0.444361</v>
       </c>
       <c r="C77" t="n">
-        <v>0.396933</v>
+        <v>0.304078</v>
       </c>
       <c r="D77" t="n">
-        <v>0.405006</v>
+        <v>0.325869</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.588225</v>
+        <v>0.468275</v>
       </c>
       <c r="C78" t="n">
-        <v>0.375482</v>
+        <v>0.294814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.378113</v>
+        <v>0.310429</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.715216</v>
+        <v>0.548112</v>
       </c>
       <c r="C79" t="n">
-        <v>0.387572</v>
+        <v>0.305258</v>
       </c>
       <c r="D79" t="n">
-        <v>0.392327</v>
+        <v>0.324549</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.730855</v>
+        <v>0.566356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.40071</v>
+        <v>0.316118</v>
       </c>
       <c r="D80" t="n">
-        <v>0.402218</v>
+        <v>0.336856</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7494769999999999</v>
+        <v>0.582051</v>
       </c>
       <c r="C81" t="n">
-        <v>0.416407</v>
+        <v>0.329796</v>
       </c>
       <c r="D81" t="n">
-        <v>0.416911</v>
+        <v>0.349853</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.772858</v>
+        <v>0.604958</v>
       </c>
       <c r="C82" t="n">
-        <v>0.435044</v>
+        <v>0.34665</v>
       </c>
       <c r="D82" t="n">
-        <v>0.435146</v>
+        <v>0.367481</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.793773</v>
+        <v>0.620932</v>
       </c>
       <c r="C83" t="n">
-        <v>0.452801</v>
+        <v>0.360136</v>
       </c>
       <c r="D83" t="n">
-        <v>0.452953</v>
+        <v>0.382788</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.821476</v>
+        <v>0.644647</v>
       </c>
       <c r="C84" t="n">
-        <v>0.47104</v>
+        <v>0.376703</v>
       </c>
       <c r="D84" t="n">
-        <v>0.472664</v>
+        <v>0.410059</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.843851</v>
+        <v>0.667652</v>
       </c>
       <c r="C85" t="n">
-        <v>0.490408</v>
+        <v>0.390891</v>
       </c>
       <c r="D85" t="n">
-        <v>0.492704</v>
+        <v>0.422584</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.871065</v>
+        <v>0.6911580000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>0.512571</v>
+        <v>0.408549</v>
       </c>
       <c r="D86" t="n">
-        <v>0.517317</v>
+        <v>0.447094</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.897819</v>
+        <v>0.715224</v>
       </c>
       <c r="C87" t="n">
-        <v>0.533776</v>
+        <v>0.426174</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5339739999999999</v>
+        <v>0.465905</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.924101</v>
+        <v>0.738676</v>
       </c>
       <c r="C88" t="n">
-        <v>0.556566</v>
+        <v>0.443909</v>
       </c>
       <c r="D88" t="n">
-        <v>0.556588</v>
+        <v>0.490405</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.952647</v>
+        <v>0.764728</v>
       </c>
       <c r="C89" t="n">
-        <v>0.579079</v>
+        <v>0.46287</v>
       </c>
       <c r="D89" t="n">
-        <v>0.579229</v>
+        <v>0.512621</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.980702</v>
+        <v>0.791411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.602083</v>
+        <v>0.482822</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6021030000000001</v>
+        <v>0.538367</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01083</v>
+        <v>0.8203819999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.624961</v>
+        <v>0.501598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.624743</v>
+        <v>0.562565</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.04167</v>
+        <v>0.850795</v>
       </c>
       <c r="C92" t="n">
-        <v>0.641885</v>
+        <v>0.518898</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644977</v>
+        <v>0.552285</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15366</v>
+        <v>0.892647</v>
       </c>
       <c r="C93" t="n">
-        <v>0.656177</v>
+        <v>0.532021</v>
       </c>
       <c r="D93" t="n">
-        <v>0.6613019999999999</v>
+        <v>0.5883930000000001</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.16392</v>
+        <v>0.900708</v>
       </c>
       <c r="C94" t="n">
-        <v>0.671637</v>
+        <v>0.5442979999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.678692</v>
+        <v>0.58605</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.17496</v>
+        <v>0.910033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6865830000000001</v>
+        <v>0.558881</v>
       </c>
       <c r="D95" t="n">
-        <v>0.688329</v>
+        <v>0.59811</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.18729</v>
+        <v>0.922171</v>
       </c>
       <c r="C96" t="n">
-        <v>0.706</v>
+        <v>0.571206</v>
       </c>
       <c r="D96" t="n">
-        <v>0.707352</v>
+        <v>0.612975</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1992</v>
+        <v>0.9341469999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>0.722086</v>
+        <v>0.585647</v>
       </c>
       <c r="D97" t="n">
-        <v>0.727098</v>
+        <v>0.635873</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.21375</v>
+        <v>0.947859</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7404539999999999</v>
+        <v>0.59999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.744406</v>
+        <v>0.654309</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.23333</v>
+        <v>0.966032</v>
       </c>
       <c r="C99" t="n">
-        <v>0.759186</v>
+        <v>0.615291</v>
       </c>
       <c r="D99" t="n">
-        <v>0.76469</v>
+        <v>0.725089</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.25098</v>
+        <v>0.981082</v>
       </c>
       <c r="C100" t="n">
-        <v>0.778819</v>
+        <v>0.63006</v>
       </c>
       <c r="D100" t="n">
-        <v>0.783962</v>
+        <v>0.71934</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.26645</v>
+        <v>0.997214</v>
       </c>
       <c r="C101" t="n">
-        <v>0.798925</v>
+        <v>0.646934</v>
       </c>
       <c r="D101" t="n">
-        <v>0.804464</v>
+        <v>0.71789</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.28699</v>
+        <v>1.01826</v>
       </c>
       <c r="C102" t="n">
-        <v>0.820379</v>
+        <v>0.66298</v>
       </c>
       <c r="D102" t="n">
-        <v>0.826651</v>
+        <v>0.740574</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.31252</v>
+        <v>1.04261</v>
       </c>
       <c r="C103" t="n">
-        <v>0.841421</v>
+        <v>0.679512</v>
       </c>
       <c r="D103" t="n">
-        <v>0.849328</v>
+        <v>0.765944</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.33498</v>
+        <v>1.06554</v>
       </c>
       <c r="C104" t="n">
-        <v>0.863752</v>
+        <v>0.697133</v>
       </c>
       <c r="D104" t="n">
-        <v>0.872852</v>
+        <v>0.793609</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.35945</v>
+        <v>1.09245</v>
       </c>
       <c r="C105" t="n">
-        <v>0.886798</v>
+        <v>0.715856</v>
       </c>
       <c r="D105" t="n">
-        <v>0.897264</v>
+        <v>0.821669</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.38424</v>
+        <v>1.11961</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9101359999999999</v>
+        <v>0.733301</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9220739999999999</v>
+        <v>0.8497980000000001</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.38803</v>
+        <v>1.06062</v>
       </c>
       <c r="C107" t="n">
-        <v>0.863227</v>
+        <v>0.685379</v>
       </c>
       <c r="D107" t="n">
-        <v>0.867617</v>
+        <v>0.723923</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.39382</v>
+        <v>1.06503</v>
       </c>
       <c r="C108" t="n">
-        <v>0.87831</v>
+        <v>0.69721</v>
       </c>
       <c r="D108" t="n">
-        <v>0.882638</v>
+        <v>0.7377359999999999</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.40149</v>
+        <v>1.07411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.893666</v>
+        <v>0.708646</v>
       </c>
       <c r="D109" t="n">
-        <v>0.901118</v>
+        <v>0.75566</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.41092</v>
+        <v>1.0813</v>
       </c>
       <c r="C110" t="n">
-        <v>0.909149</v>
+        <v>0.720979</v>
       </c>
       <c r="D110" t="n">
-        <v>0.916052</v>
+        <v>0.772526</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.42243</v>
+        <v>1.0928</v>
       </c>
       <c r="C111" t="n">
-        <v>0.925767</v>
+        <v>0.734168</v>
       </c>
       <c r="D111" t="n">
-        <v>0.930523</v>
+        <v>0.787762</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.43538</v>
+        <v>1.10507</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9432120000000001</v>
+        <v>0.748016</v>
       </c>
       <c r="D112" t="n">
-        <v>0.949439</v>
+        <v>0.808706</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.44596</v>
+        <v>1.11758</v>
       </c>
       <c r="C113" t="n">
-        <v>0.960624</v>
+        <v>0.761643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.96676</v>
+        <v>0.835982</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.46279</v>
+        <v>1.13386</v>
       </c>
       <c r="C114" t="n">
-        <v>0.980059</v>
+        <v>0.77658</v>
       </c>
       <c r="D114" t="n">
-        <v>0.985723</v>
+        <v>0.851046</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47486</v>
+        <v>1.14743</v>
       </c>
       <c r="C115" t="n">
-        <v>0.998938</v>
+        <v>0.791283</v>
       </c>
       <c r="D115" t="n">
-        <v>1.00684</v>
+        <v>0.878629</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.49442</v>
+        <v>1.16703</v>
       </c>
       <c r="C116" t="n">
-        <v>1.01907</v>
+        <v>0.80699</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02734</v>
+        <v>0.9054140000000001</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.51637</v>
+        <v>1.18927</v>
       </c>
       <c r="C117" t="n">
-        <v>1.03994</v>
+        <v>0.82306</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04907</v>
+        <v>0.931437</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.53533</v>
+        <v>1.21137</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05991</v>
+        <v>0.839299</v>
       </c>
       <c r="D118" t="n">
-        <v>1.06694</v>
+        <v>0.955172</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.55427</v>
+        <v>1.23496</v>
       </c>
       <c r="C119" t="n">
-        <v>1.08255</v>
+        <v>0.856715</v>
       </c>
       <c r="D119" t="n">
-        <v>1.08953</v>
+        <v>0.98394</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.273972</v>
+        <v>0.197344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.211798</v>
+        <v>0.148188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.207399</v>
+        <v>0.155728</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.281292</v>
+        <v>0.201482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.218423</v>
+        <v>0.15103</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209694</v>
+        <v>0.156838</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.286341</v>
+        <v>0.206059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219891</v>
+        <v>0.151109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.211044</v>
+        <v>0.159551</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.287953</v>
+        <v>0.208278</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22461</v>
+        <v>0.154001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.212391</v>
+        <v>0.160338</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.290423</v>
+        <v>0.210414</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231842</v>
+        <v>0.158619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.217099</v>
+        <v>0.165032</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.301558</v>
+        <v>0.219025</v>
       </c>
       <c r="C7" t="n">
-        <v>0.213021</v>
+        <v>0.149797</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218332</v>
+        <v>0.16265</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.300179</v>
+        <v>0.208317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.217357</v>
+        <v>0.154116</v>
       </c>
       <c r="D8" t="n">
-        <v>0.222443</v>
+        <v>0.164322</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30396</v>
+        <v>0.21034</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22793</v>
+        <v>0.155991</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22654</v>
+        <v>0.165202</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.307187</v>
+        <v>0.21106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301</v>
+        <v>0.156719</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226807</v>
+        <v>0.167207</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.315274</v>
+        <v>0.21757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.229368</v>
+        <v>0.156518</v>
       </c>
       <c r="D11" t="n">
-        <v>0.227807</v>
+        <v>0.166628</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.315454</v>
+        <v>0.217755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238275</v>
+        <v>0.161865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.232431</v>
+        <v>0.170479</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.319907</v>
+        <v>0.224688</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238487</v>
+        <v>0.161479</v>
       </c>
       <c r="D13" t="n">
-        <v>0.236078</v>
+        <v>0.169298</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323784</v>
+        <v>0.223484</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238471</v>
+        <v>0.162542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.23436</v>
+        <v>0.169904</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.330692</v>
+        <v>0.232749</v>
       </c>
       <c r="C15" t="n">
-        <v>0.244103</v>
+        <v>0.167102</v>
       </c>
       <c r="D15" t="n">
-        <v>0.236528</v>
+        <v>0.172351</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.334507</v>
+        <v>0.235831</v>
       </c>
       <c r="C16" t="n">
-        <v>0.24831</v>
+        <v>0.17044</v>
       </c>
       <c r="D16" t="n">
-        <v>0.238141</v>
+        <v>0.172368</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.337251</v>
+        <v>0.24043</v>
       </c>
       <c r="C17" t="n">
-        <v>0.253493</v>
+        <v>0.174483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.242466</v>
+        <v>0.175535</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.34357</v>
+        <v>0.24306</v>
       </c>
       <c r="C18" t="n">
-        <v>0.261345</v>
+        <v>0.183358</v>
       </c>
       <c r="D18" t="n">
-        <v>0.242577</v>
+        <v>0.175311</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.348385</v>
+        <v>0.247456</v>
       </c>
       <c r="C19" t="n">
-        <v>0.266273</v>
+        <v>0.188175</v>
       </c>
       <c r="D19" t="n">
-        <v>0.248244</v>
+        <v>0.180585</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.353744</v>
+        <v>0.252037</v>
       </c>
       <c r="C20" t="n">
-        <v>0.272355</v>
+        <v>0.197611</v>
       </c>
       <c r="D20" t="n">
-        <v>0.249705</v>
+        <v>0.179944</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.362464</v>
+        <v>0.261258</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256982</v>
+        <v>0.171846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.244129</v>
+        <v>0.178912</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.347602</v>
+        <v>0.236466</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2635</v>
+        <v>0.177936</v>
       </c>
       <c r="D22" t="n">
-        <v>0.250731</v>
+        <v>0.179778</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.354213</v>
+        <v>0.248574</v>
       </c>
       <c r="C23" t="n">
-        <v>0.261003</v>
+        <v>0.187699</v>
       </c>
       <c r="D23" t="n">
-        <v>0.255255</v>
+        <v>0.185368</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.360286</v>
+        <v>0.253251</v>
       </c>
       <c r="C24" t="n">
-        <v>0.277057</v>
+        <v>0.198707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.258301</v>
+        <v>0.189533</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.364885</v>
+        <v>0.257606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.284114</v>
+        <v>0.21002</v>
       </c>
       <c r="D25" t="n">
-        <v>0.260853</v>
+        <v>0.193438</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.367735</v>
+        <v>0.259326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.287024</v>
+        <v>0.211006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.266106</v>
+        <v>0.196264</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.373121</v>
+        <v>0.266718</v>
       </c>
       <c r="C27" t="n">
-        <v>0.295728</v>
+        <v>0.220602</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270658</v>
+        <v>0.200314</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.377796</v>
+        <v>0.269353</v>
       </c>
       <c r="C28" t="n">
-        <v>0.29848</v>
+        <v>0.226202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.273979</v>
+        <v>0.20368</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.385166</v>
+        <v>0.275075</v>
       </c>
       <c r="C29" t="n">
-        <v>0.303969</v>
+        <v>0.230948</v>
       </c>
       <c r="D29" t="n">
-        <v>0.278473</v>
+        <v>0.205387</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.390474</v>
+        <v>0.280182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.316097</v>
+        <v>0.243804</v>
       </c>
       <c r="D30" t="n">
-        <v>0.28114</v>
+        <v>0.211193</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.397318</v>
+        <v>0.28612</v>
       </c>
       <c r="C31" t="n">
-        <v>0.314577</v>
+        <v>0.241781</v>
       </c>
       <c r="D31" t="n">
-        <v>0.284022</v>
+        <v>0.21223</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.400766</v>
+        <v>0.288318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325621</v>
+        <v>0.252576</v>
       </c>
       <c r="D32" t="n">
-        <v>0.289281</v>
+        <v>0.216139</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.405859</v>
+        <v>0.293251</v>
       </c>
       <c r="C33" t="n">
-        <v>0.334223</v>
+        <v>0.262496</v>
       </c>
       <c r="D33" t="n">
-        <v>0.292373</v>
+        <v>0.220851</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.409731</v>
+        <v>0.295872</v>
       </c>
       <c r="C34" t="n">
-        <v>0.33807</v>
+        <v>0.265251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297301</v>
+        <v>0.224072</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.419358</v>
+        <v>0.303437</v>
       </c>
       <c r="C35" t="n">
-        <v>0.278189</v>
+        <v>0.197957</v>
       </c>
       <c r="D35" t="n">
-        <v>0.277892</v>
+        <v>0.200862</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.401508</v>
+        <v>0.28306</v>
       </c>
       <c r="C36" t="n">
-        <v>0.28445</v>
+        <v>0.209981</v>
       </c>
       <c r="D36" t="n">
-        <v>0.280582</v>
+        <v>0.207416</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.407284</v>
+        <v>0.284053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.29004</v>
+        <v>0.209395</v>
       </c>
       <c r="D37" t="n">
-        <v>0.283539</v>
+        <v>0.205486</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409392</v>
+        <v>0.289301</v>
       </c>
       <c r="C38" t="n">
-        <v>0.293246</v>
+        <v>0.218535</v>
       </c>
       <c r="D38" t="n">
-        <v>0.285536</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.414444</v>
+        <v>0.293631</v>
       </c>
       <c r="C39" t="n">
-        <v>0.301218</v>
+        <v>0.225257</v>
       </c>
       <c r="D39" t="n">
-        <v>0.290413</v>
+        <v>0.216374</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418107</v>
+        <v>0.296835</v>
       </c>
       <c r="C40" t="n">
-        <v>0.304652</v>
+        <v>0.228749</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291443</v>
+        <v>0.218697</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.422709</v>
+        <v>0.301969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.308988</v>
+        <v>0.23378</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293818</v>
+        <v>0.219195</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.428448</v>
+        <v>0.306903</v>
       </c>
       <c r="C42" t="n">
-        <v>0.310041</v>
+        <v>0.234572</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295968</v>
+        <v>0.221268</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.434614</v>
+        <v>0.312942</v>
       </c>
       <c r="C43" t="n">
-        <v>0.315476</v>
+        <v>0.240995</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297802</v>
+        <v>0.223166</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.439187</v>
+        <v>0.31694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.320251</v>
+        <v>0.244848</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301116</v>
+        <v>0.225622</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.441291</v>
+        <v>0.318491</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323959</v>
+        <v>0.248212</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304304</v>
+        <v>0.228892</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.447851</v>
+        <v>0.325571</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32548</v>
+        <v>0.251002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.304905</v>
+        <v>0.229322</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.454349</v>
+        <v>0.332089</v>
       </c>
       <c r="C47" t="n">
-        <v>0.330899</v>
+        <v>0.255698</v>
       </c>
       <c r="D47" t="n">
-        <v>0.308601</v>
+        <v>0.232588</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.463441</v>
+        <v>0.337256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.340958</v>
+        <v>0.261817</v>
       </c>
       <c r="D48" t="n">
-        <v>0.310822</v>
+        <v>0.235226</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.465606</v>
+        <v>0.342961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.344361</v>
+        <v>0.265761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.314973</v>
+        <v>0.238483</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.474889</v>
+        <v>0.352642</v>
       </c>
       <c r="C50" t="n">
-        <v>0.311568</v>
+        <v>0.23139</v>
       </c>
       <c r="D50" t="n">
-        <v>0.293226</v>
+        <v>0.216695</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.429261</v>
+        <v>0.300966</v>
       </c>
       <c r="C51" t="n">
-        <v>0.31556</v>
+        <v>0.23483</v>
       </c>
       <c r="D51" t="n">
-        <v>0.296099</v>
+        <v>0.218869</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.432491</v>
+        <v>0.303548</v>
       </c>
       <c r="C52" t="n">
-        <v>0.318496</v>
+        <v>0.241077</v>
       </c>
       <c r="D52" t="n">
-        <v>0.297022</v>
+        <v>0.222118</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.438027</v>
+        <v>0.309051</v>
       </c>
       <c r="C53" t="n">
-        <v>0.323359</v>
+        <v>0.246078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300083</v>
+        <v>0.225194</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.44104</v>
+        <v>0.312312</v>
       </c>
       <c r="C54" t="n">
-        <v>0.328681</v>
+        <v>0.250179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.303374</v>
+        <v>0.228314</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.444282</v>
+        <v>0.315077</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333614</v>
+        <v>0.256068</v>
       </c>
       <c r="D55" t="n">
-        <v>0.305227</v>
+        <v>0.229991</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.44956</v>
+        <v>0.319709</v>
       </c>
       <c r="C56" t="n">
-        <v>0.334373</v>
+        <v>0.25611</v>
       </c>
       <c r="D56" t="n">
-        <v>0.307567</v>
+        <v>0.231779</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451335</v>
+        <v>0.32244</v>
       </c>
       <c r="C57" t="n">
-        <v>0.342357</v>
+        <v>0.263613</v>
       </c>
       <c r="D57" t="n">
-        <v>0.312897</v>
+        <v>0.233492</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.456439</v>
+        <v>0.326547</v>
       </c>
       <c r="C58" t="n">
-        <v>0.350132</v>
+        <v>0.271596</v>
       </c>
       <c r="D58" t="n">
-        <v>0.313859</v>
+        <v>0.237911</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.460397</v>
+        <v>0.330497</v>
       </c>
       <c r="C59" t="n">
-        <v>0.357288</v>
+        <v>0.279406</v>
       </c>
       <c r="D59" t="n">
-        <v>0.318577</v>
+        <v>0.242551</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.465288</v>
+        <v>0.335689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.361703</v>
+        <v>0.284003</v>
       </c>
       <c r="D60" t="n">
-        <v>0.320187</v>
+        <v>0.243972</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.469644</v>
+        <v>0.340015</v>
       </c>
       <c r="C61" t="n">
-        <v>0.367098</v>
+        <v>0.28854</v>
       </c>
       <c r="D61" t="n">
-        <v>0.323228</v>
+        <v>0.246908</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.476482</v>
+        <v>0.346984</v>
       </c>
       <c r="C62" t="n">
-        <v>0.371762</v>
+        <v>0.292959</v>
       </c>
       <c r="D62" t="n">
-        <v>0.325194</v>
+        <v>0.248933</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.480572</v>
+        <v>0.351675</v>
       </c>
       <c r="C63" t="n">
-        <v>0.376927</v>
+        <v>0.298114</v>
       </c>
       <c r="D63" t="n">
-        <v>0.328282</v>
+        <v>0.252627</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.486796</v>
+        <v>0.357361</v>
       </c>
       <c r="C64" t="n">
-        <v>0.343933</v>
+        <v>0.261121</v>
       </c>
       <c r="D64" t="n">
-        <v>0.318891</v>
+        <v>0.238168</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.463577</v>
+        <v>0.322947</v>
       </c>
       <c r="C65" t="n">
-        <v>0.350233</v>
+        <v>0.264823</v>
       </c>
       <c r="D65" t="n">
-        <v>0.316516</v>
+        <v>0.240838</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467112</v>
+        <v>0.324233</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3544</v>
+        <v>0.268385</v>
       </c>
       <c r="D66" t="n">
-        <v>0.317854</v>
+        <v>0.239772</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.478423</v>
+        <v>0.333859</v>
       </c>
       <c r="C67" t="n">
-        <v>0.360993</v>
+        <v>0.275899</v>
       </c>
       <c r="D67" t="n">
-        <v>0.321641</v>
+        <v>0.243325</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.49063</v>
+        <v>0.344881</v>
       </c>
       <c r="C68" t="n">
-        <v>0.365021</v>
+        <v>0.27884</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3257</v>
+        <v>0.247333</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.496282</v>
+        <v>0.350493</v>
       </c>
       <c r="C69" t="n">
-        <v>0.369672</v>
+        <v>0.284365</v>
       </c>
       <c r="D69" t="n">
-        <v>0.327614</v>
+        <v>0.249089</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.510574</v>
+        <v>0.358441</v>
       </c>
       <c r="C70" t="n">
-        <v>0.376228</v>
+        <v>0.291529</v>
       </c>
       <c r="D70" t="n">
-        <v>0.330969</v>
+        <v>0.252668</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.51614</v>
+        <v>0.370657</v>
       </c>
       <c r="C71" t="n">
-        <v>0.385329</v>
+        <v>0.297521</v>
       </c>
       <c r="D71" t="n">
-        <v>0.335701</v>
+        <v>0.256741</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.528593</v>
+        <v>0.382226</v>
       </c>
       <c r="C72" t="n">
-        <v>0.394153</v>
+        <v>0.304879</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33928</v>
+        <v>0.260488</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.551037</v>
+        <v>0.395902</v>
       </c>
       <c r="C73" t="n">
-        <v>0.40407</v>
+        <v>0.313843</v>
       </c>
       <c r="D73" t="n">
-        <v>0.344567</v>
+        <v>0.267999</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.565696</v>
+        <v>0.411123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.411102</v>
+        <v>0.320216</v>
       </c>
       <c r="D74" t="n">
-        <v>0.347269</v>
+        <v>0.268609</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.577993</v>
+        <v>0.425945</v>
       </c>
       <c r="C75" t="n">
-        <v>0.425103</v>
+        <v>0.326355</v>
       </c>
       <c r="D75" t="n">
-        <v>0.354345</v>
+        <v>0.273908</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.602431</v>
+        <v>0.4511</v>
       </c>
       <c r="C76" t="n">
-        <v>0.431198</v>
+        <v>0.337739</v>
       </c>
       <c r="D76" t="n">
-        <v>0.361407</v>
+        <v>0.279212</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.62153</v>
+        <v>0.473147</v>
       </c>
       <c r="C77" t="n">
-        <v>0.445259</v>
+        <v>0.350393</v>
       </c>
       <c r="D77" t="n">
-        <v>0.367616</v>
+        <v>0.287755</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.654815</v>
+        <v>0.502466</v>
       </c>
       <c r="C78" t="n">
-        <v>0.414918</v>
+        <v>0.306533</v>
       </c>
       <c r="D78" t="n">
-        <v>0.366163</v>
+        <v>0.278752</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.687239</v>
+        <v>0.529908</v>
       </c>
       <c r="C79" t="n">
-        <v>0.429201</v>
+        <v>0.330843</v>
       </c>
       <c r="D79" t="n">
-        <v>0.36498</v>
+        <v>0.283748</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.719233</v>
+        <v>0.566134</v>
       </c>
       <c r="C80" t="n">
-        <v>0.445338</v>
+        <v>0.337469</v>
       </c>
       <c r="D80" t="n">
-        <v>0.373598</v>
+        <v>0.29321</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7494189999999999</v>
+        <v>0.584909</v>
       </c>
       <c r="C81" t="n">
-        <v>0.461992</v>
+        <v>0.349553</v>
       </c>
       <c r="D81" t="n">
-        <v>0.386039</v>
+        <v>0.294183</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7879119999999999</v>
+        <v>0.6233070000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.486099</v>
+        <v>0.379604</v>
       </c>
       <c r="D82" t="n">
-        <v>0.393348</v>
+        <v>0.31177</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.832704</v>
+        <v>0.671847</v>
       </c>
       <c r="C83" t="n">
-        <v>0.508266</v>
+        <v>0.39793</v>
       </c>
       <c r="D83" t="n">
-        <v>0.402868</v>
+        <v>0.320076</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.886871</v>
+        <v>0.711577</v>
       </c>
       <c r="C84" t="n">
-        <v>0.533975</v>
+        <v>0.425502</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412413</v>
+        <v>0.328868</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9234019999999999</v>
+        <v>0.754536</v>
       </c>
       <c r="C85" t="n">
-        <v>0.557578</v>
+        <v>0.441942</v>
       </c>
       <c r="D85" t="n">
-        <v>0.429641</v>
+        <v>0.34877</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9769949999999999</v>
+        <v>0.801245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.580052</v>
+        <v>0.468056</v>
       </c>
       <c r="D86" t="n">
-        <v>0.442381</v>
+        <v>0.364354</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.03762</v>
+        <v>0.853806</v>
       </c>
       <c r="C87" t="n">
-        <v>0.610501</v>
+        <v>0.499872</v>
       </c>
       <c r="D87" t="n">
-        <v>0.459606</v>
+        <v>0.38072</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09275</v>
+        <v>0.903629</v>
       </c>
       <c r="C88" t="n">
-        <v>0.641505</v>
+        <v>0.532359</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471485</v>
+        <v>0.394709</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1315</v>
+        <v>0.943774</v>
       </c>
       <c r="C89" t="n">
-        <v>0.680341</v>
+        <v>0.568933</v>
       </c>
       <c r="D89" t="n">
-        <v>0.49448</v>
+        <v>0.412067</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.18941</v>
+        <v>0.994601</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7148330000000001</v>
+        <v>0.601132</v>
       </c>
       <c r="D90" t="n">
-        <v>0.514799</v>
+        <v>0.43833</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.2615</v>
+        <v>1.05854</v>
       </c>
       <c r="C91" t="n">
-        <v>0.756738</v>
+        <v>0.644938</v>
       </c>
       <c r="D91" t="n">
-        <v>0.53953</v>
+        <v>0.470398</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.30842</v>
+        <v>1.10619</v>
       </c>
       <c r="C92" t="n">
-        <v>0.793081</v>
+        <v>0.6642749999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.648664</v>
+        <v>0.608276</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34613</v>
+        <v>1.11175</v>
       </c>
       <c r="C93" t="n">
-        <v>0.831961</v>
+        <v>0.697029</v>
       </c>
       <c r="D93" t="n">
-        <v>0.676731</v>
+        <v>0.636653</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.40171</v>
+        <v>1.15686</v>
       </c>
       <c r="C94" t="n">
-        <v>0.863142</v>
+        <v>0.729721</v>
       </c>
       <c r="D94" t="n">
-        <v>0.697283</v>
+        <v>0.661107</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.44081</v>
+        <v>1.19165</v>
       </c>
       <c r="C95" t="n">
-        <v>0.897196</v>
+        <v>0.759844</v>
       </c>
       <c r="D95" t="n">
-        <v>0.721166</v>
+        <v>0.68977</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.48679</v>
+        <v>1.23048</v>
       </c>
       <c r="C96" t="n">
-        <v>0.932366</v>
+        <v>0.792601</v>
       </c>
       <c r="D96" t="n">
-        <v>0.748505</v>
+        <v>0.719951</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.54053</v>
+        <v>1.27732</v>
       </c>
       <c r="C97" t="n">
-        <v>0.969043</v>
+        <v>0.827631</v>
       </c>
       <c r="D97" t="n">
-        <v>0.775896</v>
+        <v>0.7524189999999999</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.59844</v>
+        <v>1.32179</v>
       </c>
       <c r="C98" t="n">
-        <v>1.00487</v>
+        <v>0.86115</v>
       </c>
       <c r="D98" t="n">
-        <v>0.803712</v>
+        <v>0.77949</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.62989</v>
+        <v>1.35505</v>
       </c>
       <c r="C99" t="n">
-        <v>1.04732</v>
+        <v>0.898636</v>
       </c>
       <c r="D99" t="n">
-        <v>0.830922</v>
+        <v>0.81492</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.68303</v>
+        <v>1.3965</v>
       </c>
       <c r="C100" t="n">
-        <v>1.08461</v>
+        <v>0.934625</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8567669999999999</v>
+        <v>0.842966</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.7142</v>
+        <v>1.43143</v>
       </c>
       <c r="C101" t="n">
-        <v>1.11805</v>
+        <v>0.966498</v>
       </c>
       <c r="D101" t="n">
-        <v>0.881004</v>
+        <v>0.873717</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.77396</v>
+        <v>1.47734</v>
       </c>
       <c r="C102" t="n">
-        <v>1.15937</v>
+        <v>1.00716</v>
       </c>
       <c r="D102" t="n">
-        <v>0.9134370000000001</v>
+        <v>0.904033</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.8234</v>
+        <v>1.52053</v>
       </c>
       <c r="C103" t="n">
-        <v>1.19353</v>
+        <v>1.03977</v>
       </c>
       <c r="D103" t="n">
-        <v>0.939436</v>
+        <v>0.937373</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.86317</v>
+        <v>1.56127</v>
       </c>
       <c r="C104" t="n">
-        <v>1.22995</v>
+        <v>1.07297</v>
       </c>
       <c r="D104" t="n">
-        <v>0.967091</v>
+        <v>0.968137</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.90535</v>
+        <v>1.59672</v>
       </c>
       <c r="C105" t="n">
-        <v>1.27284</v>
+        <v>1.11531</v>
       </c>
       <c r="D105" t="n">
-        <v>0.992317</v>
+        <v>0.99699</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.96466</v>
+        <v>1.65148</v>
       </c>
       <c r="C106" t="n">
-        <v>1.31065</v>
+        <v>1.15242</v>
       </c>
       <c r="D106" t="n">
-        <v>1.01867</v>
+        <v>1.02443</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.85284</v>
+        <v>1.49966</v>
       </c>
       <c r="C107" t="n">
-        <v>1.22515</v>
+        <v>1.02985</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06549</v>
+        <v>1.08608</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.88307</v>
+        <v>1.52317</v>
       </c>
       <c r="C108" t="n">
-        <v>1.25344</v>
+        <v>1.05449</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08776</v>
+        <v>1.108</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.91468</v>
+        <v>1.5527</v>
       </c>
       <c r="C109" t="n">
-        <v>1.2832</v>
+        <v>1.08362</v>
       </c>
       <c r="D109" t="n">
-        <v>1.10434</v>
+        <v>1.12832</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.95186</v>
+        <v>1.58387</v>
       </c>
       <c r="C110" t="n">
-        <v>1.31258</v>
+        <v>1.11041</v>
       </c>
       <c r="D110" t="n">
-        <v>1.12144</v>
+        <v>1.14704</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.98036</v>
+        <v>1.60892</v>
       </c>
       <c r="C111" t="n">
-        <v>1.33594</v>
+        <v>1.1341</v>
       </c>
       <c r="D111" t="n">
-        <v>1.14394</v>
+        <v>1.17109</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.02044</v>
+        <v>1.6461</v>
       </c>
       <c r="C112" t="n">
-        <v>1.37149</v>
+        <v>1.16679</v>
       </c>
       <c r="D112" t="n">
-        <v>1.171</v>
+        <v>1.19891</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.05654</v>
+        <v>1.67741</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40427</v>
+        <v>1.1992</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18845</v>
+        <v>1.22064</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.09278</v>
+        <v>1.70902</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43316</v>
+        <v>1.22463</v>
       </c>
       <c r="D114" t="n">
-        <v>1.2074</v>
+        <v>1.24193</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.12271</v>
+        <v>1.73705</v>
       </c>
       <c r="C115" t="n">
-        <v>1.46841</v>
+        <v>1.26071</v>
       </c>
       <c r="D115" t="n">
-        <v>1.23356</v>
+        <v>1.27032</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.1599</v>
+        <v>1.7747</v>
       </c>
       <c r="C116" t="n">
-        <v>1.50028</v>
+        <v>1.2922</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25412</v>
+        <v>1.29365</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.19767</v>
+        <v>1.81029</v>
       </c>
       <c r="C117" t="n">
-        <v>1.53135</v>
+        <v>1.32228</v>
       </c>
       <c r="D117" t="n">
-        <v>1.27611</v>
+        <v>1.31755</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.22445</v>
+        <v>1.83563</v>
       </c>
       <c r="C118" t="n">
-        <v>1.57167</v>
+        <v>1.36202</v>
       </c>
       <c r="D118" t="n">
-        <v>1.29906</v>
+        <v>1.34333</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.26486</v>
+        <v>1.87569</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60739</v>
+        <v>1.39538</v>
       </c>
       <c r="D119" t="n">
-        <v>1.32257</v>
+        <v>1.36832</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.445284</v>
+        <v>0.376126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.336613</v>
+        <v>0.275006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.275761</v>
+        <v>0.203745</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.452289</v>
+        <v>0.38702</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341835</v>
+        <v>0.28312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278091</v>
+        <v>0.210156</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.469651</v>
+        <v>0.409774</v>
       </c>
       <c r="C4" t="n">
-        <v>0.360906</v>
+        <v>0.301058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289107</v>
+        <v>0.21854</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.479773</v>
+        <v>0.41486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.368205</v>
+        <v>0.310072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.292358</v>
+        <v>0.223711</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.48466</v>
+        <v>0.423016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.37019</v>
+        <v>0.31503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.296225</v>
+        <v>0.229775</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.499683</v>
+        <v>0.434573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.392546</v>
+        <v>0.342783</v>
       </c>
       <c r="D7" t="n">
-        <v>0.30534</v>
+        <v>0.23812</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.512174</v>
+        <v>0.447498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.407945</v>
+        <v>0.349295</v>
       </c>
       <c r="D8" t="n">
-        <v>0.313048</v>
+        <v>0.24847</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.528019</v>
+        <v>0.4636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.428652</v>
+        <v>0.368358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.326056</v>
+        <v>0.26065</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.543618</v>
+        <v>0.476871</v>
       </c>
       <c r="C10" t="n">
-        <v>0.449347</v>
+        <v>0.385308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.338147</v>
+        <v>0.274412</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5699109999999999</v>
+        <v>0.49442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.345152</v>
+        <v>0.289532</v>
       </c>
       <c r="D11" t="n">
-        <v>0.276683</v>
+        <v>0.208395</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.42038</v>
+        <v>0.336253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.353546</v>
+        <v>0.289258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278041</v>
+        <v>0.209843</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.438953</v>
+        <v>0.353527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.367023</v>
+        <v>0.302577</v>
       </c>
       <c r="D13" t="n">
-        <v>0.287464</v>
+        <v>0.220995</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.441736</v>
+        <v>0.355841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.383773</v>
+        <v>0.317673</v>
       </c>
       <c r="D14" t="n">
-        <v>0.288727</v>
+        <v>0.224061</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.467243</v>
+        <v>0.378148</v>
       </c>
       <c r="C15" t="n">
-        <v>0.397937</v>
+        <v>0.333084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.297487</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.473701</v>
+        <v>0.388801</v>
       </c>
       <c r="C16" t="n">
-        <v>0.417751</v>
+        <v>0.349264</v>
       </c>
       <c r="D16" t="n">
-        <v>0.30461</v>
+        <v>0.239119</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.496783</v>
+        <v>0.408972</v>
       </c>
       <c r="C17" t="n">
-        <v>0.431742</v>
+        <v>0.364528</v>
       </c>
       <c r="D17" t="n">
-        <v>0.313763</v>
+        <v>0.246368</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.512302</v>
+        <v>0.427136</v>
       </c>
       <c r="C18" t="n">
-        <v>0.446372</v>
+        <v>0.369239</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315234</v>
+        <v>0.248626</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.540303</v>
+        <v>0.445597</v>
       </c>
       <c r="C19" t="n">
-        <v>0.466928</v>
+        <v>0.397449</v>
       </c>
       <c r="D19" t="n">
-        <v>0.329017</v>
+        <v>0.257816</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.547029</v>
+        <v>0.454932</v>
       </c>
       <c r="C20" t="n">
-        <v>0.490481</v>
+        <v>0.418821</v>
       </c>
       <c r="D20" t="n">
-        <v>0.341494</v>
+        <v>0.270339</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.571951</v>
+        <v>0.479955</v>
       </c>
       <c r="C21" t="n">
-        <v>0.511865</v>
+        <v>0.437699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.352406</v>
+        <v>0.279105</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.588099</v>
+        <v>0.495059</v>
       </c>
       <c r="C22" t="n">
-        <v>0.531945</v>
+        <v>0.462456</v>
       </c>
       <c r="D22" t="n">
-        <v>0.367025</v>
+        <v>0.287661</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.624451</v>
+        <v>0.532786</v>
       </c>
       <c r="C23" t="n">
-        <v>0.560057</v>
+        <v>0.489762</v>
       </c>
       <c r="D23" t="n">
-        <v>0.377492</v>
+        <v>0.304795</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.639421</v>
+        <v>0.551363</v>
       </c>
       <c r="C24" t="n">
-        <v>0.575902</v>
+        <v>0.511062</v>
       </c>
       <c r="D24" t="n">
-        <v>0.390079</v>
+        <v>0.313398</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.662793</v>
+        <v>0.575971</v>
       </c>
       <c r="C25" t="n">
-        <v>0.604095</v>
+        <v>0.53674</v>
       </c>
       <c r="D25" t="n">
-        <v>0.401627</v>
+        <v>0.325117</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.693914</v>
+        <v>0.6088750000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.397826</v>
+        <v>0.316538</v>
       </c>
       <c r="D26" t="n">
-        <v>0.291231</v>
+        <v>0.222589</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.515706</v>
+        <v>0.413765</v>
       </c>
       <c r="C27" t="n">
-        <v>0.403797</v>
+        <v>0.323978</v>
       </c>
       <c r="D27" t="n">
-        <v>0.297533</v>
+        <v>0.22734</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.526356</v>
+        <v>0.423718</v>
       </c>
       <c r="C28" t="n">
-        <v>0.419177</v>
+        <v>0.34618</v>
       </c>
       <c r="D28" t="n">
-        <v>0.30501</v>
+        <v>0.238248</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.545249</v>
+        <v>0.45053</v>
       </c>
       <c r="C29" t="n">
-        <v>0.426599</v>
+        <v>0.355141</v>
       </c>
       <c r="D29" t="n">
-        <v>0.309907</v>
+        <v>0.241783</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.569364</v>
+        <v>0.473207</v>
       </c>
       <c r="C30" t="n">
-        <v>0.448098</v>
+        <v>0.376083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320714</v>
+        <v>0.248122</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5884740000000001</v>
+        <v>0.493133</v>
       </c>
       <c r="C31" t="n">
-        <v>0.46411</v>
+        <v>0.390181</v>
       </c>
       <c r="D31" t="n">
-        <v>0.330154</v>
+        <v>0.25769</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.607086</v>
+        <v>0.511249</v>
       </c>
       <c r="C32" t="n">
-        <v>0.482858</v>
+        <v>0.408879</v>
       </c>
       <c r="D32" t="n">
-        <v>0.338028</v>
+        <v>0.266967</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.623159</v>
+        <v>0.5174260000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.500695</v>
+        <v>0.418464</v>
       </c>
       <c r="D33" t="n">
-        <v>0.351717</v>
+        <v>0.270895</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.649628</v>
+        <v>0.5417419999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5199820000000001</v>
+        <v>0.440135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.359591</v>
+        <v>0.281084</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.672775</v>
+        <v>0.562789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.547412</v>
+        <v>0.461107</v>
       </c>
       <c r="D35" t="n">
-        <v>0.37337</v>
+        <v>0.292057</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6893</v>
+        <v>0.590414</v>
       </c>
       <c r="C36" t="n">
-        <v>0.569037</v>
+        <v>0.497969</v>
       </c>
       <c r="D36" t="n">
-        <v>0.386021</v>
+        <v>0.310744</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.718794</v>
+        <v>0.612136</v>
       </c>
       <c r="C37" t="n">
-        <v>0.596241</v>
+        <v>0.511202</v>
       </c>
       <c r="D37" t="n">
-        <v>0.398907</v>
+        <v>0.314583</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.743839</v>
+        <v>0.6352719999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.61868</v>
+        <v>0.5500080000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.414682</v>
+        <v>0.339993</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.77996</v>
+        <v>0.680694</v>
       </c>
       <c r="C39" t="n">
-        <v>0.64689</v>
+        <v>0.577595</v>
       </c>
       <c r="D39" t="n">
-        <v>0.427548</v>
+        <v>0.347812</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.800212</v>
+        <v>0.701519</v>
       </c>
       <c r="C40" t="n">
-        <v>0.46797</v>
+        <v>0.381575</v>
       </c>
       <c r="D40" t="n">
-        <v>0.354201</v>
+        <v>0.271044</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.580496</v>
+        <v>0.467064</v>
       </c>
       <c r="C41" t="n">
-        <v>0.480588</v>
+        <v>0.400321</v>
       </c>
       <c r="D41" t="n">
-        <v>0.361488</v>
+        <v>0.284464</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.600427</v>
+        <v>0.493862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.499051</v>
+        <v>0.421429</v>
       </c>
       <c r="D42" t="n">
-        <v>0.369615</v>
+        <v>0.291908</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.617487</v>
+        <v>0.510148</v>
       </c>
       <c r="C43" t="n">
-        <v>0.511885</v>
+        <v>0.434557</v>
       </c>
       <c r="D43" t="n">
-        <v>0.377137</v>
+        <v>0.299746</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.629575</v>
+        <v>0.522891</v>
       </c>
       <c r="C44" t="n">
-        <v>0.535642</v>
+        <v>0.460303</v>
       </c>
       <c r="D44" t="n">
-        <v>0.388356</v>
+        <v>0.308402</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.652736</v>
+        <v>0.544795</v>
       </c>
       <c r="C45" t="n">
-        <v>0.552212</v>
+        <v>0.466679</v>
       </c>
       <c r="D45" t="n">
-        <v>0.397276</v>
+        <v>0.311295</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.664838</v>
+        <v>0.549219</v>
       </c>
       <c r="C46" t="n">
-        <v>0.573209</v>
+        <v>0.483647</v>
       </c>
       <c r="D46" t="n">
-        <v>0.407465</v>
+        <v>0.325457</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.684513</v>
+        <v>0.5700190000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.588767</v>
+        <v>0.511602</v>
       </c>
       <c r="D47" t="n">
-        <v>0.417614</v>
+        <v>0.337897</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.69913</v>
+        <v>0.590178</v>
       </c>
       <c r="C48" t="n">
-        <v>0.604919</v>
+        <v>0.529227</v>
       </c>
       <c r="D48" t="n">
-        <v>0.428255</v>
+        <v>0.345268</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.721796</v>
+        <v>0.610962</v>
       </c>
       <c r="C49" t="n">
-        <v>0.629283</v>
+        <v>0.554086</v>
       </c>
       <c r="D49" t="n">
-        <v>0.437548</v>
+        <v>0.353241</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.742568</v>
+        <v>0.633415</v>
       </c>
       <c r="C50" t="n">
-        <v>0.649232</v>
+        <v>0.574028</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4493</v>
+        <v>0.358992</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.763853</v>
+        <v>0.648689</v>
       </c>
       <c r="C51" t="n">
-        <v>0.674573</v>
+        <v>0.593732</v>
       </c>
       <c r="D51" t="n">
-        <v>0.464928</v>
+        <v>0.376275</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.787308</v>
+        <v>0.678103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.699353</v>
+        <v>0.628835</v>
       </c>
       <c r="D52" t="n">
-        <v>0.478455</v>
+        <v>0.393647</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.807523</v>
+        <v>0.699373</v>
       </c>
       <c r="C53" t="n">
-        <v>0.723779</v>
+        <v>0.654591</v>
       </c>
       <c r="D53" t="n">
-        <v>0.494232</v>
+        <v>0.410525</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828021</v>
+        <v>0.722553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.526782</v>
+        <v>0.439581</v>
       </c>
       <c r="D54" t="n">
-        <v>0.395661</v>
+        <v>0.313673</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.620277</v>
+        <v>0.505725</v>
       </c>
       <c r="C55" t="n">
-        <v>0.537061</v>
+        <v>0.456922</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4048</v>
+        <v>0.324772</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6366270000000001</v>
+        <v>0.521333</v>
       </c>
       <c r="C56" t="n">
-        <v>0.554836</v>
+        <v>0.473401</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412615</v>
+        <v>0.331267</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.650786</v>
+        <v>0.53417</v>
       </c>
       <c r="C57" t="n">
-        <v>0.569873</v>
+        <v>0.48798</v>
       </c>
       <c r="D57" t="n">
-        <v>0.419033</v>
+        <v>0.335992</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.666957</v>
+        <v>0.551304</v>
       </c>
       <c r="C58" t="n">
-        <v>0.584323</v>
+        <v>0.505082</v>
       </c>
       <c r="D58" t="n">
-        <v>0.427475</v>
+        <v>0.345725</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.684974</v>
+        <v>0.56918</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5996359999999999</v>
+        <v>0.5202560000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.437328</v>
+        <v>0.354433</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.699094</v>
+        <v>0.583237</v>
       </c>
       <c r="C60" t="n">
-        <v>0.617726</v>
+        <v>0.540085</v>
       </c>
       <c r="D60" t="n">
-        <v>0.443571</v>
+        <v>0.360433</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.721774</v>
+        <v>0.601378</v>
       </c>
       <c r="C61" t="n">
-        <v>0.638338</v>
+        <v>0.5588340000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.453984</v>
+        <v>0.371189</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.736175</v>
+        <v>0.619702</v>
       </c>
       <c r="C62" t="n">
-        <v>0.652572</v>
+        <v>0.575918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.462375</v>
+        <v>0.376798</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.757902</v>
+        <v>0.640711</v>
       </c>
       <c r="C63" t="n">
-        <v>0.675434</v>
+        <v>0.601433</v>
       </c>
       <c r="D63" t="n">
-        <v>0.476308</v>
+        <v>0.393392</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.768365</v>
+        <v>0.651525</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6934979999999999</v>
+        <v>0.619354</v>
       </c>
       <c r="D64" t="n">
-        <v>0.487113</v>
+        <v>0.402121</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.79641</v>
+        <v>0.678666</v>
       </c>
       <c r="C65" t="n">
-        <v>0.722535</v>
+        <v>0.648258</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498397</v>
+        <v>0.411611</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.815662</v>
+        <v>0.698786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.743075</v>
+        <v>0.667932</v>
       </c>
       <c r="D66" t="n">
-        <v>0.510242</v>
+        <v>0.423758</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.844352</v>
+        <v>0.728774</v>
       </c>
       <c r="C67" t="n">
-        <v>0.772716</v>
+        <v>0.6974050000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.525891</v>
+        <v>0.436919</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.86651</v>
+        <v>0.7509169999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.527066</v>
+        <v>0.435826</v>
       </c>
       <c r="D68" t="n">
-        <v>0.408411</v>
+        <v>0.325511</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.666025</v>
+        <v>0.536895</v>
       </c>
       <c r="C69" t="n">
-        <v>0.546314</v>
+        <v>0.456669</v>
       </c>
       <c r="D69" t="n">
-        <v>0.413315</v>
+        <v>0.329273</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6845059999999999</v>
+        <v>0.5585020000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5696329999999999</v>
+        <v>0.480766</v>
       </c>
       <c r="D70" t="n">
-        <v>0.425934</v>
+        <v>0.342473</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.711655</v>
+        <v>0.582986</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5910069999999999</v>
+        <v>0.503603</v>
       </c>
       <c r="D71" t="n">
-        <v>0.436614</v>
+        <v>0.352621</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.736773</v>
+        <v>0.605424</v>
       </c>
       <c r="C72" t="n">
-        <v>0.615713</v>
+        <v>0.524768</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4479</v>
+        <v>0.362502</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.772618</v>
+        <v>0.633941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.65033</v>
+        <v>0.551459</v>
       </c>
       <c r="D73" t="n">
-        <v>0.458668</v>
+        <v>0.372545</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793533</v>
+        <v>0.652408</v>
       </c>
       <c r="C74" t="n">
-        <v>0.669441</v>
+        <v>0.573256</v>
       </c>
       <c r="D74" t="n">
-        <v>0.467358</v>
+        <v>0.38169</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.830774</v>
+        <v>0.68818</v>
       </c>
       <c r="C75" t="n">
-        <v>0.704946</v>
+        <v>0.609134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.482379</v>
+        <v>0.397321</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.871791</v>
+        <v>0.728282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.739235</v>
+        <v>0.645774</v>
       </c>
       <c r="D76" t="n">
-        <v>0.494454</v>
+        <v>0.407071</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.918919</v>
+        <v>0.76278</v>
       </c>
       <c r="C77" t="n">
-        <v>0.782047</v>
+        <v>0.681978</v>
       </c>
       <c r="D77" t="n">
-        <v>0.514678</v>
+        <v>0.431012</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.96341</v>
+        <v>0.814404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.82189</v>
+        <v>0.722566</v>
       </c>
       <c r="D78" t="n">
-        <v>0.528129</v>
+        <v>0.437006</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01574</v>
+        <v>0.870661</v>
       </c>
       <c r="C79" t="n">
-        <v>0.866045</v>
+        <v>0.768779</v>
       </c>
       <c r="D79" t="n">
-        <v>0.545339</v>
+        <v>0.456577</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.08443</v>
+        <v>0.931124</v>
       </c>
       <c r="C80" t="n">
-        <v>0.926164</v>
+        <v>0.828696</v>
       </c>
       <c r="D80" t="n">
-        <v>0.566559</v>
+        <v>0.477964</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.1573</v>
+        <v>1.00898</v>
       </c>
       <c r="C81" t="n">
-        <v>0.993739</v>
+        <v>0.898902</v>
       </c>
       <c r="D81" t="n">
-        <v>0.585711</v>
+        <v>0.496549</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.24493</v>
+        <v>1.10276</v>
       </c>
       <c r="C82" t="n">
-        <v>1.06694</v>
+        <v>0.979158</v>
       </c>
       <c r="D82" t="n">
-        <v>0.614447</v>
+        <v>0.530058</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.34807</v>
+        <v>1.19788</v>
       </c>
       <c r="C83" t="n">
-        <v>0.782309</v>
+        <v>0.662585</v>
       </c>
       <c r="D83" t="n">
-        <v>0.487272</v>
+        <v>0.403224</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06402</v>
+        <v>0.900219</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837684</v>
+        <v>0.719086</v>
       </c>
       <c r="D84" t="n">
-        <v>0.501719</v>
+        <v>0.414568</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.14102</v>
+        <v>0.9718869999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.896541</v>
+        <v>0.776933</v>
       </c>
       <c r="D85" t="n">
-        <v>0.520581</v>
+        <v>0.434163</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.22456</v>
+        <v>1.06282</v>
       </c>
       <c r="C86" t="n">
-        <v>0.976764</v>
+        <v>0.863914</v>
       </c>
       <c r="D86" t="n">
-        <v>0.547295</v>
+        <v>0.456393</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.31539</v>
+        <v>1.15257</v>
       </c>
       <c r="C87" t="n">
-        <v>1.05289</v>
+        <v>0.947722</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5744320000000001</v>
+        <v>0.481833</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.41852</v>
+        <v>1.27114</v>
       </c>
       <c r="C88" t="n">
-        <v>1.15964</v>
+        <v>1.066</v>
       </c>
       <c r="D88" t="n">
-        <v>0.612917</v>
+        <v>0.517391</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.53939</v>
+        <v>1.3914</v>
       </c>
       <c r="C89" t="n">
-        <v>1.25993</v>
+        <v>1.17785</v>
       </c>
       <c r="D89" t="n">
-        <v>0.644665</v>
+        <v>0.557782</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.67926</v>
+        <v>1.5307</v>
       </c>
       <c r="C90" t="n">
-        <v>1.37268</v>
+        <v>1.30326</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6841469999999999</v>
+        <v>0.601638</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.80696</v>
+        <v>1.66978</v>
       </c>
       <c r="C91" t="n">
-        <v>1.49719</v>
+        <v>1.44372</v>
       </c>
       <c r="D91" t="n">
-        <v>0.735501</v>
+        <v>0.652141</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.94635</v>
+        <v>1.81892</v>
       </c>
       <c r="C92" t="n">
-        <v>1.6266</v>
+        <v>1.59146</v>
       </c>
       <c r="D92" t="n">
-        <v>0.785142</v>
+        <v>0.708363</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.0882</v>
+        <v>1.96411</v>
       </c>
       <c r="C93" t="n">
-        <v>1.76653</v>
+        <v>1.74633</v>
       </c>
       <c r="D93" t="n">
-        <v>0.840495</v>
+        <v>0.7667659999999999</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.23741</v>
+        <v>2.1198</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91528</v>
+        <v>1.91659</v>
       </c>
       <c r="D94" t="n">
-        <v>0.893927</v>
+        <v>0.836024</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40979</v>
+        <v>2.29924</v>
       </c>
       <c r="C95" t="n">
-        <v>2.07157</v>
+        <v>2.09441</v>
       </c>
       <c r="D95" t="n">
-        <v>0.970436</v>
+        <v>0.9166840000000001</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57175</v>
+        <v>2.46925</v>
       </c>
       <c r="C96" t="n">
-        <v>2.25605</v>
+        <v>2.30801</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05791</v>
+        <v>1.00894</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7567</v>
+        <v>2.66083</v>
       </c>
       <c r="C97" t="n">
-        <v>1.43617</v>
+        <v>1.35051</v>
       </c>
       <c r="D97" t="n">
-        <v>0.794071</v>
+        <v>0.742718</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.04541</v>
+        <v>1.87408</v>
       </c>
       <c r="C98" t="n">
-        <v>1.53752</v>
+        <v>1.45628</v>
       </c>
       <c r="D98" t="n">
-        <v>0.835433</v>
+        <v>0.788695</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.15907</v>
+        <v>1.98382</v>
       </c>
       <c r="C99" t="n">
-        <v>1.62982</v>
+        <v>1.55127</v>
       </c>
       <c r="D99" t="n">
-        <v>0.896706</v>
+        <v>0.859085</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.27376</v>
+        <v>2.09938</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7369</v>
+        <v>1.66894</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9589029999999999</v>
+        <v>0.922005</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.40495</v>
+        <v>2.23667</v>
       </c>
       <c r="C101" t="n">
-        <v>1.8451</v>
+        <v>1.78471</v>
       </c>
       <c r="D101" t="n">
-        <v>0.994009</v>
+        <v>0.9630919999999999</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.52775</v>
+        <v>2.35836</v>
       </c>
       <c r="C102" t="n">
-        <v>1.95764</v>
+        <v>1.91006</v>
       </c>
       <c r="D102" t="n">
-        <v>1.06119</v>
+        <v>1.04298</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.6487</v>
+        <v>2.48406</v>
       </c>
       <c r="C103" t="n">
-        <v>2.07894</v>
+        <v>2.04572</v>
       </c>
       <c r="D103" t="n">
-        <v>1.12076</v>
+        <v>1.11307</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.77599</v>
+        <v>2.62002</v>
       </c>
       <c r="C104" t="n">
-        <v>2.20762</v>
+        <v>2.19416</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18197</v>
+        <v>1.17416</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.91086</v>
+        <v>2.75285</v>
       </c>
       <c r="C105" t="n">
-        <v>2.34478</v>
+        <v>2.34545</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23636</v>
+        <v>1.23848</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>3.05662</v>
+        <v>2.91259</v>
       </c>
       <c r="C106" t="n">
-        <v>2.47722</v>
+        <v>2.49573</v>
       </c>
       <c r="D106" t="n">
-        <v>1.31886</v>
+        <v>1.33071</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.22062</v>
+        <v>3.08072</v>
       </c>
       <c r="C107" t="n">
-        <v>2.61647</v>
+        <v>2.66016</v>
       </c>
       <c r="D107" t="n">
-        <v>1.38614</v>
+        <v>1.40753</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.37401</v>
+        <v>3.23671</v>
       </c>
       <c r="C108" t="n">
-        <v>2.78601</v>
+        <v>2.85205</v>
       </c>
       <c r="D108" t="n">
-        <v>1.45877</v>
+        <v>1.48369</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.53773</v>
+        <v>3.41227</v>
       </c>
       <c r="C109" t="n">
-        <v>2.96013</v>
+        <v>3.03518</v>
       </c>
       <c r="D109" t="n">
-        <v>1.53918</v>
+        <v>1.57029</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.70476</v>
+        <v>3.57797</v>
       </c>
       <c r="C110" t="n">
-        <v>3.12657</v>
+        <v>3.20378</v>
       </c>
       <c r="D110" t="n">
-        <v>1.62577</v>
+        <v>1.66841</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.89733</v>
+        <v>3.7663</v>
       </c>
       <c r="C111" t="n">
-        <v>2.06809</v>
+        <v>1.95382</v>
       </c>
       <c r="D111" t="n">
-        <v>1.30373</v>
+        <v>1.3296</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.82482</v>
+        <v>2.58101</v>
       </c>
       <c r="C112" t="n">
-        <v>2.1662</v>
+        <v>2.06217</v>
       </c>
       <c r="D112" t="n">
-        <v>1.34071</v>
+        <v>1.36852</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.92523</v>
+        <v>2.67882</v>
       </c>
       <c r="C113" t="n">
-        <v>2.275</v>
+        <v>2.18043</v>
       </c>
       <c r="D113" t="n">
-        <v>1.39579</v>
+        <v>1.42979</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.02764</v>
+        <v>2.7914</v>
       </c>
       <c r="C114" t="n">
-        <v>2.37104</v>
+        <v>2.28706</v>
       </c>
       <c r="D114" t="n">
-        <v>1.44656</v>
+        <v>1.4862</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.14426</v>
+        <v>2.91387</v>
       </c>
       <c r="C115" t="n">
-        <v>2.47943</v>
+        <v>2.40422</v>
       </c>
       <c r="D115" t="n">
-        <v>1.4971</v>
+        <v>1.54483</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.25635</v>
+        <v>3.03016</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5929</v>
+        <v>2.52611</v>
       </c>
       <c r="D116" t="n">
-        <v>1.55121</v>
+        <v>1.60307</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.37029</v>
+        <v>3.15207</v>
       </c>
       <c r="C117" t="n">
-        <v>2.71706</v>
+        <v>2.65516</v>
       </c>
       <c r="D117" t="n">
-        <v>1.62546</v>
+        <v>1.68611</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.49815</v>
+        <v>3.28425</v>
       </c>
       <c r="C118" t="n">
-        <v>2.84616</v>
+        <v>2.79532</v>
       </c>
       <c r="D118" t="n">
-        <v>1.69258</v>
+        <v>1.76339</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.60796</v>
+        <v>3.40269</v>
       </c>
       <c r="C119" t="n">
-        <v>2.98414</v>
+        <v>2.93064</v>
       </c>
       <c r="D119" t="n">
-        <v>1.74543</v>
+        <v>1.81928</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7680,13 +7680,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20804</v>
+        <v>0.205855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.14527</v>
+        <v>0.143554</v>
       </c>
       <c r="D2" t="n">
-        <v>0.173644</v>
+        <v>0.172781</v>
       </c>
     </row>
     <row r="3">
@@ -7694,13 +7694,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.213776</v>
+        <v>0.212072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.152366</v>
+        <v>0.150952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.17898</v>
+        <v>0.177388</v>
       </c>
     </row>
     <row r="4">
@@ -7708,13 +7708,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.220692</v>
+        <v>0.217352</v>
       </c>
       <c r="C4" t="n">
-        <v>0.163151</v>
+        <v>0.160858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185094</v>
+        <v>0.183531</v>
       </c>
     </row>
     <row r="5">
@@ -7722,13 +7722,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.227782</v>
+        <v>0.225497</v>
       </c>
       <c r="C5" t="n">
-        <v>0.169676</v>
+        <v>0.169303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190604</v>
+        <v>0.189357</v>
       </c>
     </row>
     <row r="6">
@@ -7736,13 +7736,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232453</v>
+        <v>0.232976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17695</v>
+        <v>0.176606</v>
       </c>
       <c r="D6" t="n">
-        <v>0.194538</v>
+        <v>0.194187</v>
       </c>
     </row>
     <row r="7">
@@ -7750,13 +7750,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240078</v>
+        <v>0.241713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.132927</v>
+        <v>0.132679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.170993</v>
+        <v>0.170021</v>
       </c>
     </row>
     <row r="8">
@@ -7764,13 +7764,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.199671</v>
+        <v>0.199765</v>
       </c>
       <c r="C8" t="n">
-        <v>0.140524</v>
+        <v>0.138709</v>
       </c>
       <c r="D8" t="n">
-        <v>0.175733</v>
+        <v>0.173985</v>
       </c>
     </row>
     <row r="9">
@@ -7778,13 +7778,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.206928</v>
+        <v>0.205142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.146402</v>
+        <v>0.145491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.178062</v>
+        <v>0.177534</v>
       </c>
     </row>
     <row r="10">
@@ -7792,13 +7792,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211567</v>
+        <v>0.211515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.152288</v>
+        <v>0.152517</v>
       </c>
       <c r="D10" t="n">
-        <v>0.183294</v>
+        <v>0.183161</v>
       </c>
     </row>
     <row r="11">
@@ -7806,13 +7806,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.216215</v>
+        <v>0.216204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.158638</v>
+        <v>0.159445</v>
       </c>
       <c r="D11" t="n">
-        <v>0.187014</v>
+        <v>0.18756</v>
       </c>
     </row>
     <row r="12">
@@ -7820,13 +7820,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220655</v>
+        <v>0.221343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.165798</v>
+        <v>0.1651</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192791</v>
+        <v>0.191317</v>
       </c>
     </row>
     <row r="13">
@@ -7834,13 +7834,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.226909</v>
+        <v>0.228238</v>
       </c>
       <c r="C13" t="n">
-        <v>0.173393</v>
+        <v>0.172418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195792</v>
+        <v>0.196053</v>
       </c>
     </row>
     <row r="14">
@@ -7848,13 +7848,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235684</v>
+        <v>0.235449</v>
       </c>
       <c r="C14" t="n">
-        <v>0.179622</v>
+        <v>0.179534</v>
       </c>
       <c r="D14" t="n">
-        <v>0.202574</v>
+        <v>0.20246</v>
       </c>
     </row>
     <row r="15">
@@ -7862,13 +7862,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.243364</v>
+        <v>0.242941</v>
       </c>
       <c r="C15" t="n">
-        <v>0.185969</v>
+        <v>0.185082</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208392</v>
+        <v>0.207781</v>
       </c>
     </row>
     <row r="16">
@@ -7876,13 +7876,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.250235</v>
+        <v>0.251268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192637</v>
+        <v>0.192023</v>
       </c>
       <c r="D16" t="n">
-        <v>0.214155</v>
+        <v>0.213304</v>
       </c>
     </row>
     <row r="17">
@@ -7890,13 +7890,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256965</v>
+        <v>0.257438</v>
       </c>
       <c r="C17" t="n">
-        <v>0.199097</v>
+        <v>0.198947</v>
       </c>
       <c r="D17" t="n">
-        <v>0.220246</v>
+        <v>0.219685</v>
       </c>
     </row>
     <row r="18">
@@ -7904,13 +7904,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.263153</v>
+        <v>0.262971</v>
       </c>
       <c r="C18" t="n">
-        <v>0.20442</v>
+        <v>0.20403</v>
       </c>
       <c r="D18" t="n">
-        <v>0.226083</v>
+        <v>0.225134</v>
       </c>
     </row>
     <row r="19">
@@ -7918,13 +7918,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268855</v>
+        <v>0.269208</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210749</v>
+        <v>0.210181</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230813</v>
+        <v>0.230293</v>
       </c>
     </row>
     <row r="20">
@@ -7932,13 +7932,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.27577</v>
+        <v>0.276144</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215955</v>
+        <v>0.215432</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23466</v>
+        <v>0.235295</v>
       </c>
     </row>
     <row r="21">
@@ -7946,13 +7946,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.281878</v>
+        <v>0.282185</v>
       </c>
       <c r="C21" t="n">
-        <v>0.170862</v>
+        <v>0.171085</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195264</v>
+        <v>0.195228</v>
       </c>
     </row>
     <row r="22">
@@ -7960,13 +7960,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.231495</v>
+        <v>0.231913</v>
       </c>
       <c r="C22" t="n">
-        <v>0.175821</v>
+        <v>0.176102</v>
       </c>
       <c r="D22" t="n">
-        <v>0.200047</v>
+        <v>0.200218</v>
       </c>
     </row>
     <row r="23">
@@ -7974,13 +7974,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235662</v>
+        <v>0.23588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.180703</v>
+        <v>0.180394</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204458</v>
+        <v>0.204823</v>
       </c>
     </row>
     <row r="24">
@@ -7988,13 +7988,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239784</v>
+        <v>0.240064</v>
       </c>
       <c r="C24" t="n">
-        <v>0.185523</v>
+        <v>0.186258</v>
       </c>
       <c r="D24" t="n">
-        <v>0.209599</v>
+        <v>0.209521</v>
       </c>
     </row>
     <row r="25">
@@ -8002,13 +8002,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.245422</v>
+        <v>0.245449</v>
       </c>
       <c r="C25" t="n">
-        <v>0.190182</v>
+        <v>0.190064</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214368</v>
+        <v>0.214433</v>
       </c>
     </row>
     <row r="26">
@@ -8016,13 +8016,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.25021</v>
+        <v>0.250672</v>
       </c>
       <c r="C26" t="n">
-        <v>0.194707</v>
+        <v>0.194927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.218891</v>
+        <v>0.218987</v>
       </c>
     </row>
     <row r="27">
@@ -8030,13 +8030,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.25479</v>
+        <v>0.255709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.199714</v>
+        <v>0.200261</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224312</v>
+        <v>0.224425</v>
       </c>
     </row>
     <row r="28">
@@ -8044,13 +8044,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.260173</v>
+        <v>0.260611</v>
       </c>
       <c r="C28" t="n">
-        <v>0.205549</v>
+        <v>0.205559</v>
       </c>
       <c r="D28" t="n">
-        <v>0.230375</v>
+        <v>0.229904</v>
       </c>
     </row>
     <row r="29">
@@ -8058,13 +8058,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.265264</v>
+        <v>0.265672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211076</v>
+        <v>0.210848</v>
       </c>
       <c r="D29" t="n">
-        <v>0.23598</v>
+        <v>0.23571</v>
       </c>
     </row>
     <row r="30">
@@ -8072,13 +8072,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.270873</v>
+        <v>0.271654</v>
       </c>
       <c r="C30" t="n">
-        <v>0.215946</v>
+        <v>0.216094</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240461</v>
+        <v>0.240546</v>
       </c>
     </row>
     <row r="31">
@@ -8086,13 +8086,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.276762</v>
+        <v>0.276864</v>
       </c>
       <c r="C31" t="n">
-        <v>0.220879</v>
+        <v>0.221104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246477</v>
+        <v>0.246404</v>
       </c>
     </row>
     <row r="32">
@@ -8100,13 +8100,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.282041</v>
+        <v>0.282586</v>
       </c>
       <c r="C32" t="n">
-        <v>0.225722</v>
+        <v>0.225695</v>
       </c>
       <c r="D32" t="n">
-        <v>0.251158</v>
+        <v>0.25148</v>
       </c>
     </row>
     <row r="33">
@@ -8114,13 +8114,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.287778</v>
+        <v>0.287757</v>
       </c>
       <c r="C33" t="n">
-        <v>0.230536</v>
+        <v>0.230606</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25701</v>
+        <v>0.257205</v>
       </c>
     </row>
     <row r="34">
@@ -8128,13 +8128,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.293485</v>
+        <v>0.293811</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235566</v>
+        <v>0.236013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.261616</v>
+        <v>0.261886</v>
       </c>
     </row>
     <row r="35">
@@ -8142,13 +8142,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.300006</v>
+        <v>0.299993</v>
       </c>
       <c r="C35" t="n">
-        <v>0.185727</v>
+        <v>0.18548</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209932</v>
+        <v>0.209579</v>
       </c>
     </row>
     <row r="36">
@@ -8156,13 +8156,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245698</v>
+        <v>0.245279</v>
       </c>
       <c r="C36" t="n">
-        <v>0.189132</v>
+        <v>0.188942</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213308</v>
+        <v>0.213594</v>
       </c>
     </row>
     <row r="37">
@@ -8170,13 +8170,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.249323</v>
+        <v>0.249148</v>
       </c>
       <c r="C37" t="n">
-        <v>0.192735</v>
+        <v>0.1926</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217374</v>
+        <v>0.217452</v>
       </c>
     </row>
     <row r="38">
@@ -8184,13 +8184,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.25337</v>
+        <v>0.253181</v>
       </c>
       <c r="C38" t="n">
-        <v>0.197059</v>
+        <v>0.196987</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222323</v>
+        <v>0.222291</v>
       </c>
     </row>
     <row r="39">
@@ -8198,13 +8198,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.257457</v>
+        <v>0.257115</v>
       </c>
       <c r="C39" t="n">
-        <v>0.201208</v>
+        <v>0.201081</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227048</v>
+        <v>0.227596</v>
       </c>
     </row>
     <row r="40">
@@ -8212,13 +8212,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.261395</v>
+        <v>0.261403</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20557</v>
+        <v>0.205408</v>
       </c>
       <c r="D40" t="n">
-        <v>0.231839</v>
+        <v>0.23191</v>
       </c>
     </row>
     <row r="41">
@@ -8226,13 +8226,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.26572</v>
+        <v>0.265783</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210089</v>
+        <v>0.20995</v>
       </c>
       <c r="D41" t="n">
-        <v>0.236827</v>
+        <v>0.237004</v>
       </c>
     </row>
     <row r="42">
@@ -8240,13 +8240,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.270741</v>
+        <v>0.27095</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214401</v>
+        <v>0.214472</v>
       </c>
       <c r="D42" t="n">
-        <v>0.241703</v>
+        <v>0.241813</v>
       </c>
     </row>
     <row r="43">
@@ -8254,13 +8254,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.275751</v>
+        <v>0.275767</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219298</v>
+        <v>0.219308</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24682</v>
+        <v>0.246638</v>
       </c>
     </row>
     <row r="44">
@@ -8268,13 +8268,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.281168</v>
+        <v>0.281363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.224623</v>
+        <v>0.224416</v>
       </c>
       <c r="D44" t="n">
-        <v>0.252393</v>
+        <v>0.252145</v>
       </c>
     </row>
     <row r="45">
@@ -8282,13 +8282,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.286557</v>
+        <v>0.286861</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229609</v>
+        <v>0.229351</v>
       </c>
       <c r="D45" t="n">
-        <v>0.257477</v>
+        <v>0.257437</v>
       </c>
     </row>
     <row r="46">
@@ -8296,13 +8296,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292698</v>
+        <v>0.292637</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234628</v>
+        <v>0.234524</v>
       </c>
       <c r="D46" t="n">
-        <v>0.262876</v>
+        <v>0.262746</v>
       </c>
     </row>
     <row r="47">
@@ -8310,13 +8310,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.298637</v>
+        <v>0.298735</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239324</v>
+        <v>0.239146</v>
       </c>
       <c r="D47" t="n">
-        <v>0.268041</v>
+        <v>0.267934</v>
       </c>
     </row>
     <row r="48">
@@ -8324,13 +8324,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.304474</v>
+        <v>0.30448</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243696</v>
+        <v>0.243418</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272602</v>
+        <v>0.272645</v>
       </c>
     </row>
     <row r="49">
@@ -8338,13 +8338,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.310591</v>
+        <v>0.310632</v>
       </c>
       <c r="C49" t="n">
-        <v>0.247892</v>
+        <v>0.247791</v>
       </c>
       <c r="D49" t="n">
-        <v>0.277655</v>
+        <v>0.277647</v>
       </c>
     </row>
     <row r="50">
@@ -8352,13 +8352,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.316343</v>
+        <v>0.316276</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194731</v>
+        <v>0.194729</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208952</v>
+        <v>0.208843</v>
       </c>
     </row>
     <row r="51">
@@ -8366,13 +8366,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.256334</v>
+        <v>0.2576</v>
       </c>
       <c r="C51" t="n">
-        <v>0.198199</v>
+        <v>0.198191</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212612</v>
+        <v>0.212468</v>
       </c>
     </row>
     <row r="52">
@@ -8380,13 +8380,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.259786</v>
+        <v>0.259946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.201711</v>
+        <v>0.201648</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216441</v>
+        <v>0.216357</v>
       </c>
     </row>
     <row r="53">
@@ -8394,13 +8394,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.26363</v>
+        <v>0.263631</v>
       </c>
       <c r="C53" t="n">
-        <v>0.205853</v>
+        <v>0.2057</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22056</v>
+        <v>0.220408</v>
       </c>
     </row>
     <row r="54">
@@ -8408,13 +8408,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.267601</v>
+        <v>0.267733</v>
       </c>
       <c r="C54" t="n">
-        <v>0.210168</v>
+        <v>0.210049</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224998</v>
+        <v>0.224826</v>
       </c>
     </row>
     <row r="55">
@@ -8422,13 +8422,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.271787</v>
+        <v>0.271942</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214395</v>
+        <v>0.214238</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229404</v>
+        <v>0.229207</v>
       </c>
     </row>
     <row r="56">
@@ -8436,13 +8436,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.276295</v>
+        <v>0.276456</v>
       </c>
       <c r="C56" t="n">
-        <v>0.219271</v>
+        <v>0.219116</v>
       </c>
       <c r="D56" t="n">
-        <v>0.233891</v>
+        <v>0.234011</v>
       </c>
     </row>
     <row r="57">
@@ -8450,13 +8450,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.282156</v>
+        <v>0.281442</v>
       </c>
       <c r="C57" t="n">
-        <v>0.224366</v>
+        <v>0.223986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.238859</v>
+        <v>0.238789</v>
       </c>
     </row>
     <row r="58">
@@ -8464,13 +8464,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.287646</v>
+        <v>0.287018</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22921</v>
+        <v>0.228987</v>
       </c>
       <c r="D58" t="n">
-        <v>0.243825</v>
+        <v>0.244012</v>
       </c>
     </row>
     <row r="59">
@@ -8478,13 +8478,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.29424</v>
+        <v>0.295479</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234726</v>
+        <v>0.234445</v>
       </c>
       <c r="D59" t="n">
-        <v>0.251065</v>
+        <v>0.251038</v>
       </c>
     </row>
     <row r="60">
@@ -8492,13 +8492,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30019</v>
+        <v>0.30209</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239674</v>
+        <v>0.239573</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257969</v>
+        <v>0.254984</v>
       </c>
     </row>
     <row r="61">
@@ -8506,13 +8506,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.306221</v>
+        <v>0.30801</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244909</v>
+        <v>0.244721</v>
       </c>
       <c r="D61" t="n">
-        <v>0.259822</v>
+        <v>0.260248</v>
       </c>
     </row>
     <row r="62">
@@ -8520,13 +8520,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.312683</v>
+        <v>0.314035</v>
       </c>
       <c r="C62" t="n">
-        <v>0.249519</v>
+        <v>0.248943</v>
       </c>
       <c r="D62" t="n">
-        <v>0.264937</v>
+        <v>0.265164</v>
       </c>
     </row>
     <row r="63">
@@ -8534,13 +8534,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.319095</v>
+        <v>0.320096</v>
       </c>
       <c r="C63" t="n">
-        <v>0.254151</v>
+        <v>0.253664</v>
       </c>
       <c r="D63" t="n">
-        <v>0.270149</v>
+        <v>0.269955</v>
       </c>
     </row>
     <row r="64">
@@ -8548,13 +8548,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.324916</v>
+        <v>0.326666</v>
       </c>
       <c r="C64" t="n">
-        <v>0.203269</v>
+        <v>0.205236</v>
       </c>
       <c r="D64" t="n">
-        <v>0.217725</v>
+        <v>0.219484</v>
       </c>
     </row>
     <row r="65">
@@ -8562,13 +8562,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.28117</v>
+        <v>0.281237</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209199</v>
+        <v>0.209902</v>
       </c>
       <c r="D65" t="n">
-        <v>0.222881</v>
+        <v>0.22763</v>
       </c>
     </row>
     <row r="66">
@@ -8576,13 +8576,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.292698</v>
+        <v>0.296472</v>
       </c>
       <c r="C66" t="n">
-        <v>0.213701</v>
+        <v>0.214739</v>
       </c>
       <c r="D66" t="n">
-        <v>0.228195</v>
+        <v>0.22899</v>
       </c>
     </row>
     <row r="67">
@@ -8590,13 +8590,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.300768</v>
+        <v>0.3018</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219128</v>
+        <v>0.220299</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23255</v>
+        <v>0.234493</v>
       </c>
     </row>
     <row r="68">
@@ -8604,13 +8604,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.306229</v>
+        <v>0.312658</v>
       </c>
       <c r="C68" t="n">
-        <v>0.22429</v>
+        <v>0.22637</v>
       </c>
       <c r="D68" t="n">
-        <v>0.239252</v>
+        <v>0.241324</v>
       </c>
     </row>
     <row r="69">
@@ -8618,13 +8618,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.320235</v>
+        <v>0.318827</v>
       </c>
       <c r="C69" t="n">
-        <v>0.231163</v>
+        <v>0.232814</v>
       </c>
       <c r="D69" t="n">
-        <v>0.248344</v>
+        <v>0.246799</v>
       </c>
     </row>
     <row r="70">
@@ -8632,13 +8632,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.322234</v>
+        <v>0.326644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238906</v>
+        <v>0.239727</v>
       </c>
       <c r="D70" t="n">
-        <v>0.251821</v>
+        <v>0.255139</v>
       </c>
     </row>
     <row r="71">
@@ -8646,13 +8646,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.334381</v>
+        <v>0.342809</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242294</v>
+        <v>0.245902</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259578</v>
+        <v>0.261911</v>
       </c>
     </row>
     <row r="72">
@@ -8660,13 +8660,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.348046</v>
+        <v>0.35349</v>
       </c>
       <c r="C72" t="n">
-        <v>0.250591</v>
+        <v>0.253464</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267354</v>
+        <v>0.270983</v>
       </c>
     </row>
     <row r="73">
@@ -8674,13 +8674,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.363328</v>
+        <v>0.368087</v>
       </c>
       <c r="C73" t="n">
-        <v>0.259298</v>
+        <v>0.261792</v>
       </c>
       <c r="D73" t="n">
-        <v>0.276993</v>
+        <v>0.2805</v>
       </c>
     </row>
     <row r="74">
@@ -8688,13 +8688,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.384079</v>
+        <v>0.384857</v>
       </c>
       <c r="C74" t="n">
-        <v>0.269896</v>
+        <v>0.271279</v>
       </c>
       <c r="D74" t="n">
-        <v>0.288624</v>
+        <v>0.291485</v>
       </c>
     </row>
     <row r="75">
@@ -8702,13 +8702,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.40098</v>
+        <v>0.402643</v>
       </c>
       <c r="C75" t="n">
-        <v>0.279858</v>
+        <v>0.280916</v>
       </c>
       <c r="D75" t="n">
-        <v>0.29983</v>
+        <v>0.301353</v>
       </c>
     </row>
     <row r="76">
@@ -8716,13 +8716,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.42223</v>
+        <v>0.423783</v>
       </c>
       <c r="C76" t="n">
-        <v>0.292098</v>
+        <v>0.291554</v>
       </c>
       <c r="D76" t="n">
-        <v>0.313289</v>
+        <v>0.314006</v>
       </c>
     </row>
     <row r="77">
@@ -8730,13 +8730,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.444361</v>
+        <v>0.447543</v>
       </c>
       <c r="C77" t="n">
-        <v>0.304078</v>
+        <v>0.303233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.325869</v>
+        <v>0.32743</v>
       </c>
     </row>
     <row r="78">
@@ -8744,13 +8744,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.468275</v>
+        <v>0.468396</v>
       </c>
       <c r="C78" t="n">
-        <v>0.294814</v>
+        <v>0.296069</v>
       </c>
       <c r="D78" t="n">
-        <v>0.310429</v>
+        <v>0.324146</v>
       </c>
     </row>
     <row r="79">
@@ -8758,13 +8758,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.548112</v>
+        <v>0.549424</v>
       </c>
       <c r="C79" t="n">
-        <v>0.305258</v>
+        <v>0.301077</v>
       </c>
       <c r="D79" t="n">
-        <v>0.324549</v>
+        <v>0.334347</v>
       </c>
     </row>
     <row r="80">
@@ -8772,13 +8772,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.566356</v>
+        <v>0.566859</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316118</v>
+        <v>0.317145</v>
       </c>
       <c r="D80" t="n">
-        <v>0.336856</v>
+        <v>0.330876</v>
       </c>
     </row>
     <row r="81">
@@ -8786,13 +8786,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.582051</v>
+        <v>0.586199</v>
       </c>
       <c r="C81" t="n">
-        <v>0.329796</v>
+        <v>0.330193</v>
       </c>
       <c r="D81" t="n">
-        <v>0.349853</v>
+        <v>0.348121</v>
       </c>
     </row>
     <row r="82">
@@ -8800,13 +8800,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.604958</v>
+        <v>0.603437</v>
       </c>
       <c r="C82" t="n">
-        <v>0.34665</v>
+        <v>0.343417</v>
       </c>
       <c r="D82" t="n">
-        <v>0.367481</v>
+        <v>0.363433</v>
       </c>
     </row>
     <row r="83">
@@ -8814,13 +8814,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.620932</v>
+        <v>0.623565</v>
       </c>
       <c r="C83" t="n">
-        <v>0.360136</v>
+        <v>0.360537</v>
       </c>
       <c r="D83" t="n">
-        <v>0.382788</v>
+        <v>0.389681</v>
       </c>
     </row>
     <row r="84">
@@ -8828,13 +8828,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.644647</v>
+        <v>0.649219</v>
       </c>
       <c r="C84" t="n">
-        <v>0.376703</v>
+        <v>0.378824</v>
       </c>
       <c r="D84" t="n">
-        <v>0.410059</v>
+        <v>0.404884</v>
       </c>
     </row>
     <row r="85">
@@ -8842,13 +8842,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.667652</v>
+        <v>0.672394</v>
       </c>
       <c r="C85" t="n">
-        <v>0.390891</v>
+        <v>0.393609</v>
       </c>
       <c r="D85" t="n">
-        <v>0.422584</v>
+        <v>0.436926</v>
       </c>
     </row>
     <row r="86">
@@ -8856,13 +8856,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6911580000000001</v>
+        <v>0.695941</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408549</v>
+        <v>0.411747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.447094</v>
+        <v>0.449037</v>
       </c>
     </row>
     <row r="87">
@@ -8870,13 +8870,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.715224</v>
+        <v>0.7213580000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.426174</v>
+        <v>0.430004</v>
       </c>
       <c r="D87" t="n">
-        <v>0.465905</v>
+        <v>0.468661</v>
       </c>
     </row>
     <row r="88">
@@ -8884,13 +8884,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.738676</v>
+        <v>0.7462299999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.443909</v>
+        <v>0.448048</v>
       </c>
       <c r="D88" t="n">
-        <v>0.490405</v>
+        <v>0.490854</v>
       </c>
     </row>
     <row r="89">
@@ -8898,13 +8898,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.764728</v>
+        <v>0.770626</v>
       </c>
       <c r="C89" t="n">
-        <v>0.46287</v>
+        <v>0.465806</v>
       </c>
       <c r="D89" t="n">
-        <v>0.512621</v>
+        <v>0.515337</v>
       </c>
     </row>
     <row r="90">
@@ -8912,13 +8912,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.791411</v>
+        <v>0.79878</v>
       </c>
       <c r="C90" t="n">
-        <v>0.482822</v>
+        <v>0.486338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.538367</v>
+        <v>0.53997</v>
       </c>
     </row>
     <row r="91">
@@ -8926,13 +8926,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8203819999999999</v>
+        <v>0.8266520000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>0.501598</v>
+        <v>0.504803</v>
       </c>
       <c r="D91" t="n">
-        <v>0.562565</v>
+        <v>0.565458</v>
       </c>
     </row>
     <row r="92">
@@ -8940,13 +8940,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.850795</v>
+        <v>0.856896</v>
       </c>
       <c r="C92" t="n">
-        <v>0.518898</v>
+        <v>0.524493</v>
       </c>
       <c r="D92" t="n">
-        <v>0.552285</v>
+        <v>0.556412</v>
       </c>
     </row>
     <row r="93">
@@ -8954,13 +8954,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.892647</v>
+        <v>0.902041</v>
       </c>
       <c r="C93" t="n">
-        <v>0.532021</v>
+        <v>0.535</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5883930000000001</v>
+        <v>0.571125</v>
       </c>
     </row>
     <row r="94">
@@ -8968,13 +8968,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.900708</v>
+        <v>0.910153</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5442979999999999</v>
+        <v>0.5482</v>
       </c>
       <c r="D94" t="n">
-        <v>0.58605</v>
+        <v>0.590435</v>
       </c>
     </row>
     <row r="95">
@@ -8982,13 +8982,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.910033</v>
+        <v>0.91817</v>
       </c>
       <c r="C95" t="n">
-        <v>0.558881</v>
+        <v>0.560091</v>
       </c>
       <c r="D95" t="n">
-        <v>0.59811</v>
+        <v>0.599532</v>
       </c>
     </row>
     <row r="96">
@@ -8996,13 +8996,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.922171</v>
+        <v>0.929563</v>
       </c>
       <c r="C96" t="n">
-        <v>0.571206</v>
+        <v>0.574532</v>
       </c>
       <c r="D96" t="n">
-        <v>0.612975</v>
+        <v>0.61631</v>
       </c>
     </row>
     <row r="97">
@@ -9010,13 +9010,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9341469999999999</v>
+        <v>0.940854</v>
       </c>
       <c r="C97" t="n">
-        <v>0.585647</v>
+        <v>0.588396</v>
       </c>
       <c r="D97" t="n">
-        <v>0.635873</v>
+        <v>0.640112</v>
       </c>
     </row>
     <row r="98">
@@ -9024,13 +9024,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.947859</v>
+        <v>0.955044</v>
       </c>
       <c r="C98" t="n">
-        <v>0.59999</v>
+        <v>0.602823</v>
       </c>
       <c r="D98" t="n">
-        <v>0.654309</v>
+        <v>0.656983</v>
       </c>
     </row>
     <row r="99">
@@ -9038,13 +9038,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.966032</v>
+        <v>0.973591</v>
       </c>
       <c r="C99" t="n">
-        <v>0.615291</v>
+        <v>0.618097</v>
       </c>
       <c r="D99" t="n">
-        <v>0.725089</v>
+        <v>0.679192</v>
       </c>
     </row>
     <row r="100">
@@ -9052,13 +9052,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.981082</v>
+        <v>0.990243</v>
       </c>
       <c r="C100" t="n">
-        <v>0.63006</v>
+        <v>0.632865</v>
       </c>
       <c r="D100" t="n">
-        <v>0.71934</v>
+        <v>0.700121</v>
       </c>
     </row>
     <row r="101">
@@ -9066,13 +9066,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.997214</v>
+        <v>1.00495</v>
       </c>
       <c r="C101" t="n">
-        <v>0.646934</v>
+        <v>0.649825</v>
       </c>
       <c r="D101" t="n">
-        <v>0.71789</v>
+        <v>0.7233889999999999</v>
       </c>
     </row>
     <row r="102">
@@ -9080,13 +9080,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01826</v>
+        <v>1.02538</v>
       </c>
       <c r="C102" t="n">
-        <v>0.66298</v>
+        <v>0.667006</v>
       </c>
       <c r="D102" t="n">
-        <v>0.740574</v>
+        <v>0.746737</v>
       </c>
     </row>
     <row r="103">
@@ -9094,13 +9094,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.04261</v>
+        <v>1.05103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.679512</v>
+        <v>0.683133</v>
       </c>
       <c r="D103" t="n">
-        <v>0.765944</v>
+        <v>0.773219</v>
       </c>
     </row>
     <row r="104">
@@ -9108,13 +9108,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06554</v>
+        <v>1.07512</v>
       </c>
       <c r="C104" t="n">
-        <v>0.697133</v>
+        <v>0.702051</v>
       </c>
       <c r="D104" t="n">
-        <v>0.793609</v>
+        <v>0.801009</v>
       </c>
     </row>
     <row r="105">
@@ -9122,13 +9122,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.09245</v>
+        <v>1.10139</v>
       </c>
       <c r="C105" t="n">
-        <v>0.715856</v>
+        <v>0.719172</v>
       </c>
       <c r="D105" t="n">
-        <v>0.821669</v>
+        <v>0.829836</v>
       </c>
     </row>
     <row r="106">
@@ -9136,13 +9136,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.11961</v>
+        <v>1.12861</v>
       </c>
       <c r="C106" t="n">
-        <v>0.733301</v>
+        <v>0.737861</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8497980000000001</v>
+        <v>0.857577</v>
       </c>
     </row>
     <row r="107">
@@ -9150,13 +9150,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.06062</v>
+        <v>1.06882</v>
       </c>
       <c r="C107" t="n">
-        <v>0.685379</v>
+        <v>0.6913280000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.723923</v>
+        <v>0.73004</v>
       </c>
     </row>
     <row r="108">
@@ -9164,13 +9164,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.06503</v>
+        <v>1.07545</v>
       </c>
       <c r="C108" t="n">
-        <v>0.69721</v>
+        <v>0.702397</v>
       </c>
       <c r="D108" t="n">
-        <v>0.7377359999999999</v>
+        <v>0.742968</v>
       </c>
     </row>
     <row r="109">
@@ -9178,13 +9178,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.07411</v>
+        <v>1.08307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.708646</v>
+        <v>0.716233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.75566</v>
+        <v>0.874153</v>
       </c>
     </row>
     <row r="110">
@@ -9192,13 +9192,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0813</v>
+        <v>1.09174</v>
       </c>
       <c r="C110" t="n">
-        <v>0.720979</v>
+        <v>0.727382</v>
       </c>
       <c r="D110" t="n">
-        <v>0.772526</v>
+        <v>0.779793</v>
       </c>
     </row>
     <row r="111">
@@ -9206,13 +9206,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0928</v>
+        <v>1.10285</v>
       </c>
       <c r="C111" t="n">
-        <v>0.734168</v>
+        <v>0.7408360000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.787762</v>
+        <v>0.793922</v>
       </c>
     </row>
     <row r="112">
@@ -9220,13 +9220,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.10507</v>
+        <v>1.11561</v>
       </c>
       <c r="C112" t="n">
-        <v>0.748016</v>
+        <v>0.753915</v>
       </c>
       <c r="D112" t="n">
-        <v>0.808706</v>
+        <v>0.815774</v>
       </c>
     </row>
     <row r="113">
@@ -9234,13 +9234,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11758</v>
+        <v>1.12717</v>
       </c>
       <c r="C113" t="n">
-        <v>0.761643</v>
+        <v>0.767742</v>
       </c>
       <c r="D113" t="n">
-        <v>0.835982</v>
+        <v>0.969249</v>
       </c>
     </row>
     <row r="114">
@@ -9248,13 +9248,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.13386</v>
+        <v>1.14434</v>
       </c>
       <c r="C114" t="n">
-        <v>0.77658</v>
+        <v>0.783179</v>
       </c>
       <c r="D114" t="n">
-        <v>0.851046</v>
+        <v>0.857872</v>
       </c>
     </row>
     <row r="115">
@@ -9262,13 +9262,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14743</v>
+        <v>1.15918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.791283</v>
+        <v>0.799116</v>
       </c>
       <c r="D115" t="n">
-        <v>0.878629</v>
+        <v>0.885998</v>
       </c>
     </row>
     <row r="116">
@@ -9276,13 +9276,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.16703</v>
+        <v>1.17903</v>
       </c>
       <c r="C116" t="n">
-        <v>0.80699</v>
+        <v>0.815138</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9054140000000001</v>
+        <v>0.912094</v>
       </c>
     </row>
     <row r="117">
@@ -9290,13 +9290,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.18927</v>
+        <v>1.20161</v>
       </c>
       <c r="C117" t="n">
-        <v>0.82306</v>
+        <v>0.831083</v>
       </c>
       <c r="D117" t="n">
-        <v>0.931437</v>
+        <v>0.938837</v>
       </c>
     </row>
     <row r="118">
@@ -9304,13 +9304,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21137</v>
+        <v>1.22414</v>
       </c>
       <c r="C118" t="n">
-        <v>0.839299</v>
+        <v>0.84831</v>
       </c>
       <c r="D118" t="n">
-        <v>0.955172</v>
+        <v>0.964377</v>
       </c>
     </row>
     <row r="119">
@@ -9318,13 +9318,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.23496</v>
+        <v>1.24604</v>
       </c>
       <c r="C119" t="n">
-        <v>0.856715</v>
+        <v>0.864795</v>
       </c>
       <c r="D119" t="n">
-        <v>0.98394</v>
+        <v>0.993823</v>
       </c>
     </row>
   </sheetData>
@@ -9372,13 +9372,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.197344</v>
+        <v>0.196968</v>
       </c>
       <c r="C2" t="n">
-        <v>0.148188</v>
+        <v>0.14798</v>
       </c>
       <c r="D2" t="n">
-        <v>0.155728</v>
+        <v>0.155537</v>
       </c>
     </row>
     <row r="3">
@@ -9386,13 +9386,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.201482</v>
+        <v>0.199316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15103</v>
+        <v>0.150041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.156838</v>
+        <v>0.15673</v>
       </c>
     </row>
     <row r="4">
@@ -9400,13 +9400,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.206059</v>
+        <v>0.206478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.151109</v>
+        <v>0.150591</v>
       </c>
       <c r="D4" t="n">
-        <v>0.159551</v>
+        <v>0.158865</v>
       </c>
     </row>
     <row r="5">
@@ -9414,13 +9414,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.208278</v>
+        <v>0.206808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.154001</v>
+        <v>0.153155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160338</v>
+        <v>0.160177</v>
       </c>
     </row>
     <row r="6">
@@ -9428,13 +9428,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.210414</v>
+        <v>0.207818</v>
       </c>
       <c r="C6" t="n">
-        <v>0.158619</v>
+        <v>0.156454</v>
       </c>
       <c r="D6" t="n">
-        <v>0.165032</v>
+        <v>0.162808</v>
       </c>
     </row>
     <row r="7">
@@ -9442,13 +9442,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.219025</v>
+        <v>0.215054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.149797</v>
+        <v>0.15073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16265</v>
+        <v>0.161998</v>
       </c>
     </row>
     <row r="8">
@@ -9456,13 +9456,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.208317</v>
+        <v>0.206409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.154116</v>
+        <v>0.152916</v>
       </c>
       <c r="D8" t="n">
-        <v>0.164322</v>
+        <v>0.163658</v>
       </c>
     </row>
     <row r="9">
@@ -9470,13 +9470,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21034</v>
+        <v>0.207897</v>
       </c>
       <c r="C9" t="n">
-        <v>0.155991</v>
+        <v>0.154547</v>
       </c>
       <c r="D9" t="n">
-        <v>0.165202</v>
+        <v>0.166555</v>
       </c>
     </row>
     <row r="10">
@@ -9484,13 +9484,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.21106</v>
+        <v>0.209125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.156719</v>
+        <v>0.156753</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167207</v>
+        <v>0.166935</v>
       </c>
     </row>
     <row r="11">
@@ -9498,13 +9498,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.21757</v>
+        <v>0.216557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.156518</v>
+        <v>0.153907</v>
       </c>
       <c r="D11" t="n">
-        <v>0.166628</v>
+        <v>0.165377</v>
       </c>
     </row>
     <row r="12">
@@ -9512,13 +9512,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.217755</v>
+        <v>0.219731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.161865</v>
+        <v>0.162331</v>
       </c>
       <c r="D12" t="n">
-        <v>0.170479</v>
+        <v>0.169095</v>
       </c>
     </row>
     <row r="13">
@@ -9526,13 +9526,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224688</v>
+        <v>0.225581</v>
       </c>
       <c r="C13" t="n">
-        <v>0.161479</v>
+        <v>0.160464</v>
       </c>
       <c r="D13" t="n">
-        <v>0.169298</v>
+        <v>0.170189</v>
       </c>
     </row>
     <row r="14">
@@ -9540,13 +9540,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.223484</v>
+        <v>0.226929</v>
       </c>
       <c r="C14" t="n">
-        <v>0.162542</v>
+        <v>0.163542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.169904</v>
+        <v>0.171508</v>
       </c>
     </row>
     <row r="15">
@@ -9554,13 +9554,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.232749</v>
+        <v>0.233643</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167102</v>
+        <v>0.167148</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172351</v>
+        <v>0.173178</v>
       </c>
     </row>
     <row r="16">
@@ -9568,13 +9568,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.235831</v>
+        <v>0.237914</v>
       </c>
       <c r="C16" t="n">
-        <v>0.17044</v>
+        <v>0.170234</v>
       </c>
       <c r="D16" t="n">
-        <v>0.172368</v>
+        <v>0.174277</v>
       </c>
     </row>
     <row r="17">
@@ -9582,13 +9582,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.24043</v>
+        <v>0.240033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.174483</v>
+        <v>0.175383</v>
       </c>
       <c r="D17" t="n">
-        <v>0.175535</v>
+        <v>0.175742</v>
       </c>
     </row>
     <row r="18">
@@ -9596,13 +9596,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.24306</v>
+        <v>0.244412</v>
       </c>
       <c r="C18" t="n">
-        <v>0.183358</v>
+        <v>0.182383</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175311</v>
+        <v>0.177529</v>
       </c>
     </row>
     <row r="19">
@@ -9610,13 +9610,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247456</v>
+        <v>0.2499</v>
       </c>
       <c r="C19" t="n">
-        <v>0.188175</v>
+        <v>0.189434</v>
       </c>
       <c r="D19" t="n">
-        <v>0.180585</v>
+        <v>0.181354</v>
       </c>
     </row>
     <row r="20">
@@ -9624,13 +9624,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252037</v>
+        <v>0.254787</v>
       </c>
       <c r="C20" t="n">
-        <v>0.197611</v>
+        <v>0.200066</v>
       </c>
       <c r="D20" t="n">
-        <v>0.179944</v>
+        <v>0.185214</v>
       </c>
     </row>
     <row r="21">
@@ -9638,13 +9638,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.261258</v>
+        <v>0.262064</v>
       </c>
       <c r="C21" t="n">
-        <v>0.171846</v>
+        <v>0.178059</v>
       </c>
       <c r="D21" t="n">
-        <v>0.178912</v>
+        <v>0.184315</v>
       </c>
     </row>
     <row r="22">
@@ -9652,13 +9652,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236466</v>
+        <v>0.242314</v>
       </c>
       <c r="C22" t="n">
-        <v>0.177936</v>
+        <v>0.185104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.179778</v>
+        <v>0.187895</v>
       </c>
     </row>
     <row r="23">
@@ -9666,13 +9666,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248574</v>
+        <v>0.248736</v>
       </c>
       <c r="C23" t="n">
-        <v>0.187699</v>
+        <v>0.188844</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185368</v>
+        <v>0.189991</v>
       </c>
     </row>
     <row r="24">
@@ -9680,13 +9680,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.253251</v>
+        <v>0.253126</v>
       </c>
       <c r="C24" t="n">
-        <v>0.198707</v>
+        <v>0.199767</v>
       </c>
       <c r="D24" t="n">
-        <v>0.189533</v>
+        <v>0.189625</v>
       </c>
     </row>
     <row r="25">
@@ -9694,13 +9694,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.257606</v>
+        <v>0.256695</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21002</v>
+        <v>0.210701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.193438</v>
+        <v>0.195976</v>
       </c>
     </row>
     <row r="26">
@@ -9708,13 +9708,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.259326</v>
+        <v>0.258593</v>
       </c>
       <c r="C26" t="n">
-        <v>0.211006</v>
+        <v>0.21138</v>
       </c>
       <c r="D26" t="n">
-        <v>0.196264</v>
+        <v>0.197233</v>
       </c>
     </row>
     <row r="27">
@@ -9722,13 +9722,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.266718</v>
+        <v>0.266228</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220602</v>
+        <v>0.220825</v>
       </c>
       <c r="D27" t="n">
-        <v>0.200314</v>
+        <v>0.202399</v>
       </c>
     </row>
     <row r="28">
@@ -9736,13 +9736,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.269353</v>
+        <v>0.268657</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226202</v>
+        <v>0.226022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20368</v>
+        <v>0.203138</v>
       </c>
     </row>
     <row r="29">
@@ -9750,13 +9750,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.275075</v>
+        <v>0.274265</v>
       </c>
       <c r="C29" t="n">
-        <v>0.230948</v>
+        <v>0.230584</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205387</v>
+        <v>0.206727</v>
       </c>
     </row>
     <row r="30">
@@ -9764,13 +9764,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.280182</v>
+        <v>0.278915</v>
       </c>
       <c r="C30" t="n">
-        <v>0.243804</v>
+        <v>0.243384</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211193</v>
+        <v>0.210742</v>
       </c>
     </row>
     <row r="31">
@@ -9778,13 +9778,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.28612</v>
+        <v>0.284539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.241781</v>
+        <v>0.240338</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21223</v>
+        <v>0.212146</v>
       </c>
     </row>
     <row r="32">
@@ -9792,13 +9792,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288318</v>
+        <v>0.287008</v>
       </c>
       <c r="C32" t="n">
-        <v>0.252576</v>
+        <v>0.252439</v>
       </c>
       <c r="D32" t="n">
-        <v>0.216139</v>
+        <v>0.216403</v>
       </c>
     </row>
     <row r="33">
@@ -9806,13 +9806,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293251</v>
+        <v>0.292118</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262496</v>
+        <v>0.261674</v>
       </c>
       <c r="D33" t="n">
-        <v>0.220851</v>
+        <v>0.221509</v>
       </c>
     </row>
     <row r="34">
@@ -9820,13 +9820,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.295872</v>
+        <v>0.295503</v>
       </c>
       <c r="C34" t="n">
-        <v>0.265251</v>
+        <v>0.265012</v>
       </c>
       <c r="D34" t="n">
-        <v>0.224072</v>
+        <v>0.223872</v>
       </c>
     </row>
     <row r="35">
@@ -9834,13 +9834,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.303437</v>
+        <v>0.303066</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197957</v>
+        <v>0.197204</v>
       </c>
       <c r="D35" t="n">
-        <v>0.200862</v>
+        <v>0.206039</v>
       </c>
     </row>
     <row r="36">
@@ -9848,13 +9848,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.28306</v>
+        <v>0.283011</v>
       </c>
       <c r="C36" t="n">
-        <v>0.209981</v>
+        <v>0.208486</v>
       </c>
       <c r="D36" t="n">
-        <v>0.207416</v>
+        <v>0.207905</v>
       </c>
     </row>
     <row r="37">
@@ -9862,13 +9862,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284053</v>
+        <v>0.288266</v>
       </c>
       <c r="C37" t="n">
-        <v>0.209395</v>
+        <v>0.213691</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205486</v>
+        <v>0.21042</v>
       </c>
     </row>
     <row r="38">
@@ -9876,13 +9876,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.289301</v>
+        <v>0.289141</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218535</v>
+        <v>0.218448</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2122</v>
+        <v>0.212291</v>
       </c>
     </row>
     <row r="39">
@@ -9890,13 +9890,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.293631</v>
+        <v>0.29301</v>
       </c>
       <c r="C39" t="n">
-        <v>0.225257</v>
+        <v>0.224938</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216374</v>
+        <v>0.216104</v>
       </c>
     </row>
     <row r="40">
@@ -9904,13 +9904,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.296835</v>
+        <v>0.296377</v>
       </c>
       <c r="C40" t="n">
-        <v>0.228749</v>
+        <v>0.227984</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218697</v>
+        <v>0.21805</v>
       </c>
     </row>
     <row r="41">
@@ -9918,13 +9918,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.301969</v>
+        <v>0.30147</v>
       </c>
       <c r="C41" t="n">
-        <v>0.23378</v>
+        <v>0.233535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219195</v>
+        <v>0.218993</v>
       </c>
     </row>
     <row r="42">
@@ -9932,13 +9932,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.306903</v>
+        <v>0.306842</v>
       </c>
       <c r="C42" t="n">
-        <v>0.234572</v>
+        <v>0.233832</v>
       </c>
       <c r="D42" t="n">
-        <v>0.221268</v>
+        <v>0.220319</v>
       </c>
     </row>
     <row r="43">
@@ -9946,13 +9946,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312942</v>
+        <v>0.312595</v>
       </c>
       <c r="C43" t="n">
-        <v>0.240995</v>
+        <v>0.239868</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223166</v>
+        <v>0.222797</v>
       </c>
     </row>
     <row r="44">
@@ -9960,13 +9960,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31694</v>
+        <v>0.316628</v>
       </c>
       <c r="C44" t="n">
-        <v>0.244848</v>
+        <v>0.24446</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225622</v>
+        <v>0.225456</v>
       </c>
     </row>
     <row r="45">
@@ -9974,13 +9974,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.318491</v>
+        <v>0.318222</v>
       </c>
       <c r="C45" t="n">
-        <v>0.248212</v>
+        <v>0.247652</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228892</v>
+        <v>0.228113</v>
       </c>
     </row>
     <row r="46">
@@ -9988,13 +9988,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.325571</v>
+        <v>0.325154</v>
       </c>
       <c r="C46" t="n">
-        <v>0.251002</v>
+        <v>0.249856</v>
       </c>
       <c r="D46" t="n">
-        <v>0.229322</v>
+        <v>0.228999</v>
       </c>
     </row>
     <row r="47">
@@ -10002,13 +10002,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.332089</v>
+        <v>0.332064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.255698</v>
+        <v>0.255075</v>
       </c>
       <c r="D47" t="n">
-        <v>0.232588</v>
+        <v>0.232087</v>
       </c>
     </row>
     <row r="48">
@@ -10016,13 +10016,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.337256</v>
+        <v>0.336852</v>
       </c>
       <c r="C48" t="n">
-        <v>0.261817</v>
+        <v>0.260635</v>
       </c>
       <c r="D48" t="n">
-        <v>0.235226</v>
+        <v>0.234692</v>
       </c>
     </row>
     <row r="49">
@@ -10030,13 +10030,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.342961</v>
+        <v>0.342673</v>
       </c>
       <c r="C49" t="n">
-        <v>0.265761</v>
+        <v>0.265671</v>
       </c>
       <c r="D49" t="n">
-        <v>0.238483</v>
+        <v>0.238628</v>
       </c>
     </row>
     <row r="50">
@@ -10044,13 +10044,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.352642</v>
+        <v>0.352391</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23139</v>
+        <v>0.231181</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216695</v>
+        <v>0.219084</v>
       </c>
     </row>
     <row r="51">
@@ -10058,13 +10058,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.300966</v>
+        <v>0.30085</v>
       </c>
       <c r="C51" t="n">
-        <v>0.23483</v>
+        <v>0.234682</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218869</v>
+        <v>0.220905</v>
       </c>
     </row>
     <row r="52">
@@ -10072,13 +10072,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.303548</v>
+        <v>0.303419</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241077</v>
+        <v>0.240717</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222118</v>
+        <v>0.222011</v>
       </c>
     </row>
     <row r="53">
@@ -10086,13 +10086,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.309051</v>
+        <v>0.308948</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246078</v>
+        <v>0.245337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225194</v>
+        <v>0.224413</v>
       </c>
     </row>
     <row r="54">
@@ -10100,13 +10100,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.312312</v>
+        <v>0.31232</v>
       </c>
       <c r="C54" t="n">
-        <v>0.250179</v>
+        <v>0.250247</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228314</v>
+        <v>0.227655</v>
       </c>
     </row>
     <row r="55">
@@ -10114,13 +10114,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.315077</v>
+        <v>0.312723</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256068</v>
+        <v>0.255856</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229991</v>
+        <v>0.229745</v>
       </c>
     </row>
     <row r="56">
@@ -10128,13 +10128,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.319709</v>
+        <v>0.319353</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25611</v>
+        <v>0.255549</v>
       </c>
       <c r="D56" t="n">
-        <v>0.231779</v>
+        <v>0.231216</v>
       </c>
     </row>
     <row r="57">
@@ -10142,13 +10142,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32244</v>
+        <v>0.322344</v>
       </c>
       <c r="C57" t="n">
-        <v>0.263613</v>
+        <v>0.262505</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233492</v>
+        <v>0.233143</v>
       </c>
     </row>
     <row r="58">
@@ -10156,13 +10156,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.326547</v>
+        <v>0.326444</v>
       </c>
       <c r="C58" t="n">
-        <v>0.271596</v>
+        <v>0.269924</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237911</v>
+        <v>0.237639</v>
       </c>
     </row>
     <row r="59">
@@ -10170,13 +10170,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.330497</v>
+        <v>0.330651</v>
       </c>
       <c r="C59" t="n">
-        <v>0.279406</v>
+        <v>0.278605</v>
       </c>
       <c r="D59" t="n">
-        <v>0.242551</v>
+        <v>0.242223</v>
       </c>
     </row>
     <row r="60">
@@ -10184,13 +10184,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.335689</v>
+        <v>0.335855</v>
       </c>
       <c r="C60" t="n">
-        <v>0.284003</v>
+        <v>0.283299</v>
       </c>
       <c r="D60" t="n">
-        <v>0.243972</v>
+        <v>0.243622</v>
       </c>
     </row>
     <row r="61">
@@ -10198,13 +10198,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.340015</v>
+        <v>0.340209</v>
       </c>
       <c r="C61" t="n">
-        <v>0.28854</v>
+        <v>0.288251</v>
       </c>
       <c r="D61" t="n">
-        <v>0.246908</v>
+        <v>0.246708</v>
       </c>
     </row>
     <row r="62">
@@ -10212,13 +10212,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.346984</v>
+        <v>0.346841</v>
       </c>
       <c r="C62" t="n">
-        <v>0.292959</v>
+        <v>0.292593</v>
       </c>
       <c r="D62" t="n">
-        <v>0.248933</v>
+        <v>0.248484</v>
       </c>
     </row>
     <row r="63">
@@ -10226,13 +10226,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.351675</v>
+        <v>0.351641</v>
       </c>
       <c r="C63" t="n">
-        <v>0.298114</v>
+        <v>0.298092</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252627</v>
+        <v>0.252002</v>
       </c>
     </row>
     <row r="64">
@@ -10240,13 +10240,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.357361</v>
+        <v>0.358032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.261121</v>
+        <v>0.261237</v>
       </c>
       <c r="D64" t="n">
-        <v>0.238168</v>
+        <v>0.238351</v>
       </c>
     </row>
     <row r="65">
@@ -10254,13 +10254,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.322947</v>
+        <v>0.323555</v>
       </c>
       <c r="C65" t="n">
-        <v>0.264823</v>
+        <v>0.264363</v>
       </c>
       <c r="D65" t="n">
-        <v>0.240838</v>
+        <v>0.240622</v>
       </c>
     </row>
     <row r="66">
@@ -10268,13 +10268,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.324233</v>
+        <v>0.327049</v>
       </c>
       <c r="C66" t="n">
-        <v>0.268385</v>
+        <v>0.268403</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239772</v>
+        <v>0.239622</v>
       </c>
     </row>
     <row r="67">
@@ -10282,13 +10282,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.333859</v>
+        <v>0.336593</v>
       </c>
       <c r="C67" t="n">
-        <v>0.275899</v>
+        <v>0.27617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.243325</v>
+        <v>0.243299</v>
       </c>
     </row>
     <row r="68">
@@ -10296,13 +10296,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344881</v>
+        <v>0.348083</v>
       </c>
       <c r="C68" t="n">
-        <v>0.27884</v>
+        <v>0.279481</v>
       </c>
       <c r="D68" t="n">
-        <v>0.247333</v>
+        <v>0.246787</v>
       </c>
     </row>
     <row r="69">
@@ -10310,13 +10310,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.350493</v>
+        <v>0.355964</v>
       </c>
       <c r="C69" t="n">
-        <v>0.284365</v>
+        <v>0.283869</v>
       </c>
       <c r="D69" t="n">
-        <v>0.249089</v>
+        <v>0.24834</v>
       </c>
     </row>
     <row r="70">
@@ -10324,13 +10324,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.358441</v>
+        <v>0.362506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.291529</v>
+        <v>0.290356</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252668</v>
+        <v>0.251949</v>
       </c>
     </row>
     <row r="71">
@@ -10338,13 +10338,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.370657</v>
+        <v>0.376965</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297521</v>
+        <v>0.298963</v>
       </c>
       <c r="D71" t="n">
-        <v>0.256741</v>
+        <v>0.256777</v>
       </c>
     </row>
     <row r="72">
@@ -10352,13 +10352,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.382226</v>
+        <v>0.389939</v>
       </c>
       <c r="C72" t="n">
-        <v>0.304879</v>
+        <v>0.307477</v>
       </c>
       <c r="D72" t="n">
-        <v>0.260488</v>
+        <v>0.260033</v>
       </c>
     </row>
     <row r="73">
@@ -10366,13 +10366,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.395902</v>
+        <v>0.406036</v>
       </c>
       <c r="C73" t="n">
-        <v>0.313843</v>
+        <v>0.317014</v>
       </c>
       <c r="D73" t="n">
-        <v>0.267999</v>
+        <v>0.266682</v>
       </c>
     </row>
     <row r="74">
@@ -10380,13 +10380,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411123</v>
+        <v>0.422512</v>
       </c>
       <c r="C74" t="n">
-        <v>0.320216</v>
+        <v>0.324516</v>
       </c>
       <c r="D74" t="n">
-        <v>0.268609</v>
+        <v>0.268459</v>
       </c>
     </row>
     <row r="75">
@@ -10394,13 +10394,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.425945</v>
+        <v>0.433251</v>
       </c>
       <c r="C75" t="n">
-        <v>0.326355</v>
+        <v>0.33165</v>
       </c>
       <c r="D75" t="n">
-        <v>0.273908</v>
+        <v>0.273512</v>
       </c>
     </row>
     <row r="76">
@@ -10408,13 +10408,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4511</v>
+        <v>0.453655</v>
       </c>
       <c r="C76" t="n">
-        <v>0.337739</v>
+        <v>0.34504</v>
       </c>
       <c r="D76" t="n">
-        <v>0.279212</v>
+        <v>0.278785</v>
       </c>
     </row>
     <row r="77">
@@ -10422,13 +10422,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.473147</v>
+        <v>0.464786</v>
       </c>
       <c r="C77" t="n">
-        <v>0.350393</v>
+        <v>0.357878</v>
       </c>
       <c r="D77" t="n">
-        <v>0.287755</v>
+        <v>0.28764</v>
       </c>
     </row>
     <row r="78">
@@ -10436,13 +10436,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.502466</v>
+        <v>0.512616</v>
       </c>
       <c r="C78" t="n">
-        <v>0.306533</v>
+        <v>0.312804</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278752</v>
+        <v>0.275319</v>
       </c>
     </row>
     <row r="79">
@@ -10450,13 +10450,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.529908</v>
+        <v>0.5465989999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.330843</v>
+        <v>0.325012</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283748</v>
+        <v>0.291639</v>
       </c>
     </row>
     <row r="80">
@@ -10464,13 +10464,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.566134</v>
+        <v>0.569031</v>
       </c>
       <c r="C80" t="n">
-        <v>0.337469</v>
+        <v>0.351737</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29321</v>
+        <v>0.29785</v>
       </c>
     </row>
     <row r="81">
@@ -10478,13 +10478,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.584909</v>
+        <v>0.6003810000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.349553</v>
+        <v>0.368205</v>
       </c>
       <c r="D81" t="n">
-        <v>0.294183</v>
+        <v>0.305009</v>
       </c>
     </row>
     <row r="82">
@@ -10492,13 +10492,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6233070000000001</v>
+        <v>0.628542</v>
       </c>
       <c r="C82" t="n">
-        <v>0.379604</v>
+        <v>0.391261</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31177</v>
+        <v>0.316737</v>
       </c>
     </row>
     <row r="83">
@@ -10506,13 +10506,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.671847</v>
+        <v>0.676544</v>
       </c>
       <c r="C83" t="n">
-        <v>0.39793</v>
+        <v>0.414841</v>
       </c>
       <c r="D83" t="n">
-        <v>0.320076</v>
+        <v>0.32977</v>
       </c>
     </row>
     <row r="84">
@@ -10520,13 +10520,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.711577</v>
+        <v>0.719925</v>
       </c>
       <c r="C84" t="n">
-        <v>0.425502</v>
+        <v>0.432131</v>
       </c>
       <c r="D84" t="n">
-        <v>0.328868</v>
+        <v>0.338162</v>
       </c>
     </row>
     <row r="85">
@@ -10534,13 +10534,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.754536</v>
+        <v>0.755026</v>
       </c>
       <c r="C85" t="n">
-        <v>0.441942</v>
+        <v>0.455524</v>
       </c>
       <c r="D85" t="n">
-        <v>0.34877</v>
+        <v>0.350883</v>
       </c>
     </row>
     <row r="86">
@@ -10548,13 +10548,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.801245</v>
+        <v>0.806334</v>
       </c>
       <c r="C86" t="n">
-        <v>0.468056</v>
+        <v>0.480825</v>
       </c>
       <c r="D86" t="n">
-        <v>0.364354</v>
+        <v>0.375282</v>
       </c>
     </row>
     <row r="87">
@@ -10562,13 +10562,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.853806</v>
+        <v>0.858814</v>
       </c>
       <c r="C87" t="n">
-        <v>0.499872</v>
+        <v>0.50945</v>
       </c>
       <c r="D87" t="n">
-        <v>0.38072</v>
+        <v>0.384288</v>
       </c>
     </row>
     <row r="88">
@@ -10576,13 +10576,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.903629</v>
+        <v>0.909474</v>
       </c>
       <c r="C88" t="n">
-        <v>0.532359</v>
+        <v>0.536129</v>
       </c>
       <c r="D88" t="n">
-        <v>0.394709</v>
+        <v>0.395392</v>
       </c>
     </row>
     <row r="89">
@@ -10590,13 +10590,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.943774</v>
+        <v>0.947546</v>
       </c>
       <c r="C89" t="n">
-        <v>0.568933</v>
+        <v>0.574558</v>
       </c>
       <c r="D89" t="n">
-        <v>0.412067</v>
+        <v>0.421981</v>
       </c>
     </row>
     <row r="90">
@@ -10604,13 +10604,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.994601</v>
+        <v>0.99724</v>
       </c>
       <c r="C90" t="n">
-        <v>0.601132</v>
+        <v>0.610215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.43833</v>
+        <v>0.443065</v>
       </c>
     </row>
     <row r="91">
@@ -10618,13 +10618,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05854</v>
+        <v>1.06158</v>
       </c>
       <c r="C91" t="n">
-        <v>0.644938</v>
+        <v>0.654348</v>
       </c>
       <c r="D91" t="n">
-        <v>0.470398</v>
+        <v>0.475866</v>
       </c>
     </row>
     <row r="92">
@@ -10632,13 +10632,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.10619</v>
+        <v>1.10781</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6642749999999999</v>
+        <v>0.666872</v>
       </c>
       <c r="D92" t="n">
-        <v>0.608276</v>
+        <v>0.604827</v>
       </c>
     </row>
     <row r="93">
@@ -10646,13 +10646,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.11175</v>
+        <v>1.11309</v>
       </c>
       <c r="C93" t="n">
-        <v>0.697029</v>
+        <v>0.7045630000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.636653</v>
+        <v>0.638078</v>
       </c>
     </row>
     <row r="94">
@@ -10660,13 +10660,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.15686</v>
+        <v>1.16163</v>
       </c>
       <c r="C94" t="n">
-        <v>0.729721</v>
+        <v>0.731953</v>
       </c>
       <c r="D94" t="n">
-        <v>0.661107</v>
+        <v>0.664033</v>
       </c>
     </row>
     <row r="95">
@@ -10674,13 +10674,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19165</v>
+        <v>1.19536</v>
       </c>
       <c r="C95" t="n">
-        <v>0.759844</v>
+        <v>0.762624</v>
       </c>
       <c r="D95" t="n">
-        <v>0.68977</v>
+        <v>0.692334</v>
       </c>
     </row>
     <row r="96">
@@ -10688,13 +10688,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.23048</v>
+        <v>1.2321</v>
       </c>
       <c r="C96" t="n">
-        <v>0.792601</v>
+        <v>0.796438</v>
       </c>
       <c r="D96" t="n">
-        <v>0.719951</v>
+        <v>0.72337</v>
       </c>
     </row>
     <row r="97">
@@ -10702,13 +10702,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.27732</v>
+        <v>1.27949</v>
       </c>
       <c r="C97" t="n">
-        <v>0.827631</v>
+        <v>0.830801</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7524189999999999</v>
+        <v>0.755584</v>
       </c>
     </row>
     <row r="98">
@@ -10716,13 +10716,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.32179</v>
+        <v>1.32324</v>
       </c>
       <c r="C98" t="n">
-        <v>0.86115</v>
+        <v>0.8647820000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.77949</v>
+        <v>0.787493</v>
       </c>
     </row>
     <row r="99">
@@ -10730,13 +10730,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.35505</v>
+        <v>1.35614</v>
       </c>
       <c r="C99" t="n">
-        <v>0.898636</v>
+        <v>0.903634</v>
       </c>
       <c r="D99" t="n">
-        <v>0.81492</v>
+        <v>0.816809</v>
       </c>
     </row>
     <row r="100">
@@ -10744,13 +10744,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3965</v>
+        <v>1.39785</v>
       </c>
       <c r="C100" t="n">
-        <v>0.934625</v>
+        <v>0.9373899999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>0.842966</v>
+        <v>0.845436</v>
       </c>
     </row>
     <row r="101">
@@ -10758,13 +10758,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.43143</v>
+        <v>1.43314</v>
       </c>
       <c r="C101" t="n">
-        <v>0.966498</v>
+        <v>0.968705</v>
       </c>
       <c r="D101" t="n">
-        <v>0.873717</v>
+        <v>0.873136</v>
       </c>
     </row>
     <row r="102">
@@ -10772,13 +10772,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.47734</v>
+        <v>1.48265</v>
       </c>
       <c r="C102" t="n">
-        <v>1.00716</v>
+        <v>1.01036</v>
       </c>
       <c r="D102" t="n">
-        <v>0.904033</v>
+        <v>0.906328</v>
       </c>
     </row>
     <row r="103">
@@ -10786,13 +10786,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.52053</v>
+        <v>1.52584</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03977</v>
+        <v>1.04381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.937373</v>
+        <v>0.939266</v>
       </c>
     </row>
     <row r="104">
@@ -10800,13 +10800,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.56127</v>
+        <v>1.56413</v>
       </c>
       <c r="C104" t="n">
-        <v>1.07297</v>
+        <v>1.07379</v>
       </c>
       <c r="D104" t="n">
-        <v>0.968137</v>
+        <v>0.969347</v>
       </c>
     </row>
     <row r="105">
@@ -10814,13 +10814,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.59672</v>
+        <v>1.59892</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11531</v>
+        <v>1.11948</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99699</v>
+        <v>0.998508</v>
       </c>
     </row>
     <row r="106">
@@ -10828,13 +10828,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.65148</v>
+        <v>1.65371</v>
       </c>
       <c r="C106" t="n">
-        <v>1.15242</v>
+        <v>1.15503</v>
       </c>
       <c r="D106" t="n">
-        <v>1.02443</v>
+        <v>1.02841</v>
       </c>
     </row>
     <row r="107">
@@ -10842,13 +10842,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.49966</v>
+        <v>1.49878</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02985</v>
+        <v>1.03162</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08608</v>
+        <v>1.08748</v>
       </c>
     </row>
     <row r="108">
@@ -10856,13 +10856,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.52317</v>
+        <v>1.5251</v>
       </c>
       <c r="C108" t="n">
-        <v>1.05449</v>
+        <v>1.05633</v>
       </c>
       <c r="D108" t="n">
-        <v>1.108</v>
+        <v>1.10954</v>
       </c>
     </row>
     <row r="109">
@@ -10870,13 +10870,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.5527</v>
+        <v>1.55068</v>
       </c>
       <c r="C109" t="n">
-        <v>1.08362</v>
+        <v>1.08568</v>
       </c>
       <c r="D109" t="n">
-        <v>1.12832</v>
+        <v>1.12901</v>
       </c>
     </row>
     <row r="110">
@@ -10884,13 +10884,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.58387</v>
+        <v>1.58521</v>
       </c>
       <c r="C110" t="n">
-        <v>1.11041</v>
+        <v>1.11341</v>
       </c>
       <c r="D110" t="n">
-        <v>1.14704</v>
+        <v>1.15198</v>
       </c>
     </row>
     <row r="111">
@@ -10898,13 +10898,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.60892</v>
+        <v>1.61093</v>
       </c>
       <c r="C111" t="n">
-        <v>1.1341</v>
+        <v>1.13746</v>
       </c>
       <c r="D111" t="n">
-        <v>1.17109</v>
+        <v>1.17442</v>
       </c>
     </row>
     <row r="112">
@@ -10912,13 +10912,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.6461</v>
+        <v>1.6473</v>
       </c>
       <c r="C112" t="n">
-        <v>1.16679</v>
+        <v>1.17035</v>
       </c>
       <c r="D112" t="n">
-        <v>1.19891</v>
+        <v>1.20191</v>
       </c>
     </row>
     <row r="113">
@@ -10926,13 +10926,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.67741</v>
+        <v>1.67717</v>
       </c>
       <c r="C113" t="n">
-        <v>1.1992</v>
+        <v>1.19845</v>
       </c>
       <c r="D113" t="n">
-        <v>1.22064</v>
+        <v>1.22201</v>
       </c>
     </row>
     <row r="114">
@@ -10940,13 +10940,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.70902</v>
+        <v>1.7086</v>
       </c>
       <c r="C114" t="n">
-        <v>1.22463</v>
+        <v>1.22815</v>
       </c>
       <c r="D114" t="n">
-        <v>1.24193</v>
+        <v>1.24472</v>
       </c>
     </row>
     <row r="115">
@@ -10954,13 +10954,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.73705</v>
+        <v>1.73847</v>
       </c>
       <c r="C115" t="n">
-        <v>1.26071</v>
+        <v>1.26212</v>
       </c>
       <c r="D115" t="n">
-        <v>1.27032</v>
+        <v>1.27201</v>
       </c>
     </row>
     <row r="116">
@@ -10968,13 +10968,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.7747</v>
+        <v>1.77518</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2922</v>
+        <v>1.29419</v>
       </c>
       <c r="D116" t="n">
-        <v>1.29365</v>
+        <v>1.29477</v>
       </c>
     </row>
     <row r="117">
@@ -10982,13 +10982,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.81029</v>
+        <v>1.81199</v>
       </c>
       <c r="C117" t="n">
-        <v>1.32228</v>
+        <v>1.32569</v>
       </c>
       <c r="D117" t="n">
-        <v>1.31755</v>
+        <v>1.32001</v>
       </c>
     </row>
     <row r="118">
@@ -10996,13 +10996,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.83563</v>
+        <v>1.83803</v>
       </c>
       <c r="C118" t="n">
-        <v>1.36202</v>
+        <v>1.36499</v>
       </c>
       <c r="D118" t="n">
-        <v>1.34333</v>
+        <v>1.34643</v>
       </c>
     </row>
     <row r="119">
@@ -11010,13 +11010,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.87569</v>
+        <v>1.88058</v>
       </c>
       <c r="C119" t="n">
-        <v>1.39538</v>
+        <v>1.40087</v>
       </c>
       <c r="D119" t="n">
-        <v>1.36832</v>
+        <v>1.37238</v>
       </c>
     </row>
   </sheetData>
@@ -11064,13 +11064,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.376126</v>
+        <v>0.374532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.275006</v>
+        <v>0.271863</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203745</v>
+        <v>0.203013</v>
       </c>
     </row>
     <row r="3">
@@ -11078,13 +11078,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.38702</v>
+        <v>0.38184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.28312</v>
+        <v>0.27816</v>
       </c>
       <c r="D3" t="n">
-        <v>0.210156</v>
+        <v>0.208749</v>
       </c>
     </row>
     <row r="4">
@@ -11092,13 +11092,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.409774</v>
+        <v>0.399376</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301058</v>
+        <v>0.296976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21854</v>
+        <v>0.21731</v>
       </c>
     </row>
     <row r="5">
@@ -11106,13 +11106,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.41486</v>
+        <v>0.405702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310072</v>
+        <v>0.305503</v>
       </c>
       <c r="D5" t="n">
-        <v>0.223711</v>
+        <v>0.2224</v>
       </c>
     </row>
     <row r="6">
@@ -11120,13 +11120,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.423016</v>
+        <v>0.413355</v>
       </c>
       <c r="C6" t="n">
-        <v>0.31503</v>
+        <v>0.31381</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229775</v>
+        <v>0.226854</v>
       </c>
     </row>
     <row r="7">
@@ -11134,13 +11134,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.434573</v>
+        <v>0.430244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.342783</v>
+        <v>0.338119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23812</v>
+        <v>0.236947</v>
       </c>
     </row>
     <row r="8">
@@ -11148,13 +11148,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.447498</v>
+        <v>0.442198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.349295</v>
+        <v>0.351222</v>
       </c>
       <c r="D8" t="n">
-        <v>0.24847</v>
+        <v>0.249051</v>
       </c>
     </row>
     <row r="9">
@@ -11162,13 +11162,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4636</v>
+        <v>0.458875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.368358</v>
+        <v>0.367721</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26065</v>
+        <v>0.260392</v>
       </c>
     </row>
     <row r="10">
@@ -11176,13 +11176,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.476871</v>
+        <v>0.471892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.385308</v>
+        <v>0.389179</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274412</v>
+        <v>0.273838</v>
       </c>
     </row>
     <row r="11">
@@ -11190,13 +11190,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.49442</v>
+        <v>0.494037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.289532</v>
+        <v>0.286889</v>
       </c>
       <c r="D11" t="n">
-        <v>0.208395</v>
+        <v>0.21071</v>
       </c>
     </row>
     <row r="12">
@@ -11204,13 +11204,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.336253</v>
+        <v>0.341268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.289258</v>
+        <v>0.291878</v>
       </c>
       <c r="D12" t="n">
-        <v>0.209843</v>
+        <v>0.210461</v>
       </c>
     </row>
     <row r="13">
@@ -11218,13 +11218,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.353527</v>
+        <v>0.353333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.302577</v>
+        <v>0.305932</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220995</v>
+        <v>0.221005</v>
       </c>
     </row>
     <row r="14">
@@ -11232,13 +11232,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.355841</v>
+        <v>0.356109</v>
       </c>
       <c r="C14" t="n">
-        <v>0.317673</v>
+        <v>0.317577</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224061</v>
+        <v>0.224097</v>
       </c>
     </row>
     <row r="15">
@@ -11246,13 +11246,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.378148</v>
+        <v>0.37811</v>
       </c>
       <c r="C15" t="n">
-        <v>0.333084</v>
+        <v>0.333407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2318</v>
+        <v>0.231382</v>
       </c>
     </row>
     <row r="16">
@@ -11260,13 +11260,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.388801</v>
+        <v>0.385173</v>
       </c>
       <c r="C16" t="n">
-        <v>0.349264</v>
+        <v>0.346722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.239119</v>
+        <v>0.24136</v>
       </c>
     </row>
     <row r="17">
@@ -11274,13 +11274,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.408972</v>
+        <v>0.407916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.364528</v>
+        <v>0.362971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.246368</v>
+        <v>0.245763</v>
       </c>
     </row>
     <row r="18">
@@ -11288,13 +11288,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.427136</v>
+        <v>0.425222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.369239</v>
+        <v>0.368058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.248626</v>
+        <v>0.247203</v>
       </c>
     </row>
     <row r="19">
@@ -11302,13 +11302,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.445597</v>
+        <v>0.444789</v>
       </c>
       <c r="C19" t="n">
-        <v>0.397449</v>
+        <v>0.397059</v>
       </c>
       <c r="D19" t="n">
-        <v>0.257816</v>
+        <v>0.256697</v>
       </c>
     </row>
     <row r="20">
@@ -11316,13 +11316,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.454932</v>
+        <v>0.454438</v>
       </c>
       <c r="C20" t="n">
-        <v>0.418821</v>
+        <v>0.414769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.270339</v>
+        <v>0.269474</v>
       </c>
     </row>
     <row r="21">
@@ -11330,13 +11330,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.479955</v>
+        <v>0.476272</v>
       </c>
       <c r="C21" t="n">
-        <v>0.437699</v>
+        <v>0.435223</v>
       </c>
       <c r="D21" t="n">
-        <v>0.279105</v>
+        <v>0.279922</v>
       </c>
     </row>
     <row r="22">
@@ -11344,13 +11344,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.495059</v>
+        <v>0.495565</v>
       </c>
       <c r="C22" t="n">
-        <v>0.462456</v>
+        <v>0.462211</v>
       </c>
       <c r="D22" t="n">
-        <v>0.287661</v>
+        <v>0.287821</v>
       </c>
     </row>
     <row r="23">
@@ -11358,13 +11358,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.532786</v>
+        <v>0.530765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.489762</v>
+        <v>0.487344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.304795</v>
+        <v>0.303932</v>
       </c>
     </row>
     <row r="24">
@@ -11372,13 +11372,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.551363</v>
+        <v>0.55138</v>
       </c>
       <c r="C24" t="n">
-        <v>0.511062</v>
+        <v>0.506274</v>
       </c>
       <c r="D24" t="n">
-        <v>0.313398</v>
+        <v>0.312728</v>
       </c>
     </row>
     <row r="25">
@@ -11386,13 +11386,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.575971</v>
+        <v>0.573627</v>
       </c>
       <c r="C25" t="n">
-        <v>0.53674</v>
+        <v>0.535143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.325117</v>
+        <v>0.323874</v>
       </c>
     </row>
     <row r="26">
@@ -11400,13 +11400,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6088750000000001</v>
+        <v>0.606975</v>
       </c>
       <c r="C26" t="n">
-        <v>0.316538</v>
+        <v>0.325135</v>
       </c>
       <c r="D26" t="n">
-        <v>0.222589</v>
+        <v>0.224395</v>
       </c>
     </row>
     <row r="27">
@@ -11414,13 +11414,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.413765</v>
+        <v>0.42117</v>
       </c>
       <c r="C27" t="n">
-        <v>0.323978</v>
+        <v>0.331732</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22734</v>
+        <v>0.228325</v>
       </c>
     </row>
     <row r="28">
@@ -11428,13 +11428,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.423718</v>
+        <v>0.431728</v>
       </c>
       <c r="C28" t="n">
-        <v>0.34618</v>
+        <v>0.347088</v>
       </c>
       <c r="D28" t="n">
-        <v>0.238248</v>
+        <v>0.236753</v>
       </c>
     </row>
     <row r="29">
@@ -11442,13 +11442,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.45053</v>
+        <v>0.450203</v>
       </c>
       <c r="C29" t="n">
-        <v>0.355141</v>
+        <v>0.354901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.241783</v>
+        <v>0.241184</v>
       </c>
     </row>
     <row r="30">
@@ -11456,13 +11456,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.473207</v>
+        <v>0.473178</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376083</v>
+        <v>0.374727</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248122</v>
+        <v>0.249239</v>
       </c>
     </row>
     <row r="31">
@@ -11470,13 +11470,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.493133</v>
+        <v>0.492178</v>
       </c>
       <c r="C31" t="n">
-        <v>0.390181</v>
+        <v>0.389799</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25769</v>
+        <v>0.257214</v>
       </c>
     </row>
     <row r="32">
@@ -11484,13 +11484,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.511249</v>
+        <v>0.510402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.408879</v>
+        <v>0.407464</v>
       </c>
       <c r="D32" t="n">
-        <v>0.266967</v>
+        <v>0.266587</v>
       </c>
     </row>
     <row r="33">
@@ -11498,13 +11498,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5174260000000001</v>
+        <v>0.524756</v>
       </c>
       <c r="C33" t="n">
-        <v>0.418464</v>
+        <v>0.429347</v>
       </c>
       <c r="D33" t="n">
-        <v>0.270895</v>
+        <v>0.277465</v>
       </c>
     </row>
     <row r="34">
@@ -11512,13 +11512,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5417419999999999</v>
+        <v>0.550606</v>
       </c>
       <c r="C34" t="n">
-        <v>0.440135</v>
+        <v>0.45024</v>
       </c>
       <c r="D34" t="n">
-        <v>0.281084</v>
+        <v>0.287002</v>
       </c>
     </row>
     <row r="35">
@@ -11526,13 +11526,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.562789</v>
+        <v>0.572811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.461107</v>
+        <v>0.47109</v>
       </c>
       <c r="D35" t="n">
-        <v>0.292057</v>
+        <v>0.298656</v>
       </c>
     </row>
     <row r="36">
@@ -11540,13 +11540,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.590414</v>
+        <v>0.59019</v>
       </c>
       <c r="C36" t="n">
-        <v>0.497969</v>
+        <v>0.495905</v>
       </c>
       <c r="D36" t="n">
-        <v>0.310744</v>
+        <v>0.310875</v>
       </c>
     </row>
     <row r="37">
@@ -11554,13 +11554,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.612136</v>
+        <v>0.621447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.511202</v>
+        <v>0.5218429999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.314583</v>
+        <v>0.322172</v>
       </c>
     </row>
     <row r="38">
@@ -11568,13 +11568,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6352719999999999</v>
+        <v>0.645275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5500080000000001</v>
+        <v>0.549412</v>
       </c>
       <c r="D38" t="n">
-        <v>0.339993</v>
+        <v>0.339699</v>
       </c>
     </row>
     <row r="39">
@@ -11582,13 +11582,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.680694</v>
+        <v>0.680075</v>
       </c>
       <c r="C39" t="n">
-        <v>0.577595</v>
+        <v>0.576863</v>
       </c>
       <c r="D39" t="n">
-        <v>0.347812</v>
+        <v>0.348173</v>
       </c>
     </row>
     <row r="40">
@@ -11596,13 +11596,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.701519</v>
+        <v>0.696815</v>
       </c>
       <c r="C40" t="n">
-        <v>0.381575</v>
+        <v>0.390637</v>
       </c>
       <c r="D40" t="n">
-        <v>0.271044</v>
+        <v>0.27608</v>
       </c>
     </row>
     <row r="41">
@@ -11610,13 +11610,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.467064</v>
+        <v>0.473521</v>
       </c>
       <c r="C41" t="n">
-        <v>0.400321</v>
+        <v>0.401861</v>
       </c>
       <c r="D41" t="n">
-        <v>0.284464</v>
+        <v>0.284158</v>
       </c>
     </row>
     <row r="42">
@@ -11624,13 +11624,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.493862</v>
+        <v>0.493352</v>
       </c>
       <c r="C42" t="n">
-        <v>0.421429</v>
+        <v>0.421491</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291908</v>
+        <v>0.292458</v>
       </c>
     </row>
     <row r="43">
@@ -11638,13 +11638,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.510148</v>
+        <v>0.509544</v>
       </c>
       <c r="C43" t="n">
-        <v>0.434557</v>
+        <v>0.433675</v>
       </c>
       <c r="D43" t="n">
-        <v>0.299746</v>
+        <v>0.300076</v>
       </c>
     </row>
     <row r="44">
@@ -11652,13 +11652,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.522891</v>
+        <v>0.522483</v>
       </c>
       <c r="C44" t="n">
-        <v>0.460303</v>
+        <v>0.459634</v>
       </c>
       <c r="D44" t="n">
-        <v>0.308402</v>
+        <v>0.308201</v>
       </c>
     </row>
     <row r="45">
@@ -11666,13 +11666,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.544795</v>
+        <v>0.543637</v>
       </c>
       <c r="C45" t="n">
-        <v>0.466679</v>
+        <v>0.471471</v>
       </c>
       <c r="D45" t="n">
-        <v>0.311295</v>
+        <v>0.315899</v>
       </c>
     </row>
     <row r="46">
@@ -11680,13 +11680,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.549219</v>
+        <v>0.555396</v>
       </c>
       <c r="C46" t="n">
-        <v>0.483647</v>
+        <v>0.491719</v>
       </c>
       <c r="D46" t="n">
-        <v>0.325457</v>
+        <v>0.329385</v>
       </c>
     </row>
     <row r="47">
@@ -11694,13 +11694,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5700190000000001</v>
+        <v>0.574833</v>
       </c>
       <c r="C47" t="n">
-        <v>0.511602</v>
+        <v>0.5112950000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337897</v>
+        <v>0.337693</v>
       </c>
     </row>
     <row r="48">
@@ -11708,13 +11708,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.590178</v>
+        <v>0.589628</v>
       </c>
       <c r="C48" t="n">
-        <v>0.529227</v>
+        <v>0.528479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.345268</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="49">
@@ -11722,13 +11722,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.610962</v>
+        <v>0.611714</v>
       </c>
       <c r="C49" t="n">
-        <v>0.554086</v>
+        <v>0.554357</v>
       </c>
       <c r="D49" t="n">
-        <v>0.353241</v>
+        <v>0.353268</v>
       </c>
     </row>
     <row r="50">
@@ -11736,13 +11736,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.633415</v>
+        <v>0.634038</v>
       </c>
       <c r="C50" t="n">
-        <v>0.574028</v>
+        <v>0.573804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.358992</v>
+        <v>0.364644</v>
       </c>
     </row>
     <row r="51">
@@ -11750,13 +11750,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.648689</v>
+        <v>0.6540629999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.593732</v>
+        <v>0.602108</v>
       </c>
       <c r="D51" t="n">
-        <v>0.376275</v>
+        <v>0.380156</v>
       </c>
     </row>
     <row r="52">
@@ -11764,13 +11764,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.678103</v>
+        <v>0.67864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.628835</v>
+        <v>0.628895</v>
       </c>
       <c r="D52" t="n">
-        <v>0.393647</v>
+        <v>0.393515</v>
       </c>
     </row>
     <row r="53">
@@ -11778,13 +11778,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.699373</v>
+        <v>0.69961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.654591</v>
+        <v>0.654836</v>
       </c>
       <c r="D53" t="n">
-        <v>0.410525</v>
+        <v>0.410063</v>
       </c>
     </row>
     <row r="54">
@@ -11792,13 +11792,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.722553</v>
+        <v>0.722351</v>
       </c>
       <c r="C54" t="n">
-        <v>0.439581</v>
+        <v>0.445837</v>
       </c>
       <c r="D54" t="n">
-        <v>0.313673</v>
+        <v>0.31459</v>
       </c>
     </row>
     <row r="55">
@@ -11806,13 +11806,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.505725</v>
+        <v>0.505808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.456922</v>
+        <v>0.45734</v>
       </c>
       <c r="D55" t="n">
-        <v>0.324772</v>
+        <v>0.32523</v>
       </c>
     </row>
     <row r="56">
@@ -11820,13 +11820,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.521333</v>
+        <v>0.520963</v>
       </c>
       <c r="C56" t="n">
-        <v>0.473401</v>
+        <v>0.473129</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331267</v>
+        <v>0.331962</v>
       </c>
     </row>
     <row r="57">
@@ -11834,13 +11834,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.53417</v>
+        <v>0.53533</v>
       </c>
       <c r="C57" t="n">
-        <v>0.48798</v>
+        <v>0.48953</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335992</v>
+        <v>0.336413</v>
       </c>
     </row>
     <row r="58">
@@ -11848,13 +11848,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.551304</v>
+        <v>0.55167</v>
       </c>
       <c r="C58" t="n">
-        <v>0.505082</v>
+        <v>0.504907</v>
       </c>
       <c r="D58" t="n">
-        <v>0.345725</v>
+        <v>0.345948</v>
       </c>
     </row>
     <row r="59">
@@ -11862,13 +11862,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.56918</v>
+        <v>0.568697</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5202560000000001</v>
+        <v>0.520197</v>
       </c>
       <c r="D59" t="n">
-        <v>0.354433</v>
+        <v>0.354066</v>
       </c>
     </row>
     <row r="60">
@@ -11876,13 +11876,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.583237</v>
+        <v>0.583487</v>
       </c>
       <c r="C60" t="n">
-        <v>0.540085</v>
+        <v>0.539848</v>
       </c>
       <c r="D60" t="n">
-        <v>0.360433</v>
+        <v>0.361032</v>
       </c>
     </row>
     <row r="61">
@@ -11890,13 +11890,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.601378</v>
+        <v>0.601923</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5588340000000001</v>
+        <v>0.558746</v>
       </c>
       <c r="D61" t="n">
-        <v>0.371189</v>
+        <v>0.371535</v>
       </c>
     </row>
     <row r="62">
@@ -11904,13 +11904,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.619702</v>
+        <v>0.619411</v>
       </c>
       <c r="C62" t="n">
-        <v>0.575918</v>
+        <v>0.5757640000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.376798</v>
+        <v>0.377405</v>
       </c>
     </row>
     <row r="63">
@@ -11918,13 +11918,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.640711</v>
+        <v>0.640778</v>
       </c>
       <c r="C63" t="n">
-        <v>0.601433</v>
+        <v>0.601172</v>
       </c>
       <c r="D63" t="n">
-        <v>0.393392</v>
+        <v>0.39299</v>
       </c>
     </row>
     <row r="64">
@@ -11932,13 +11932,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.651525</v>
+        <v>0.652193</v>
       </c>
       <c r="C64" t="n">
-        <v>0.619354</v>
+        <v>0.619663</v>
       </c>
       <c r="D64" t="n">
-        <v>0.402121</v>
+        <v>0.402085</v>
       </c>
     </row>
     <row r="65">
@@ -11946,13 +11946,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.678666</v>
+        <v>0.6794829999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.648258</v>
+        <v>0.648441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.411611</v>
+        <v>0.411252</v>
       </c>
     </row>
     <row r="66">
@@ -11960,13 +11960,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.698786</v>
+        <v>0.699508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.667932</v>
+        <v>0.668349</v>
       </c>
       <c r="D66" t="n">
-        <v>0.423758</v>
+        <v>0.423014</v>
       </c>
     </row>
     <row r="67">
@@ -11974,13 +11974,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.728774</v>
+        <v>0.729425</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6974050000000001</v>
+        <v>0.698401</v>
       </c>
       <c r="D67" t="n">
-        <v>0.436919</v>
+        <v>0.438387</v>
       </c>
     </row>
     <row r="68">
@@ -11988,13 +11988,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7509169999999999</v>
+        <v>0.752193</v>
       </c>
       <c r="C68" t="n">
-        <v>0.435826</v>
+        <v>0.439088</v>
       </c>
       <c r="D68" t="n">
-        <v>0.325511</v>
+        <v>0.325845</v>
       </c>
     </row>
     <row r="69">
@@ -12002,13 +12002,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.536895</v>
+        <v>0.538189</v>
       </c>
       <c r="C69" t="n">
-        <v>0.456669</v>
+        <v>0.457026</v>
       </c>
       <c r="D69" t="n">
-        <v>0.329273</v>
+        <v>0.329796</v>
       </c>
     </row>
     <row r="70">
@@ -12016,13 +12016,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5585020000000001</v>
+        <v>0.556036</v>
       </c>
       <c r="C70" t="n">
-        <v>0.480766</v>
+        <v>0.482168</v>
       </c>
       <c r="D70" t="n">
-        <v>0.342473</v>
+        <v>0.342748</v>
       </c>
     </row>
     <row r="71">
@@ -12030,13 +12030,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.582986</v>
+        <v>0.579919</v>
       </c>
       <c r="C71" t="n">
-        <v>0.503603</v>
+        <v>0.5034690000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.352621</v>
+        <v>0.35285</v>
       </c>
     </row>
     <row r="72">
@@ -12044,13 +12044,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.605424</v>
+        <v>0.606291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.524768</v>
+        <v>0.524927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.362502</v>
+        <v>0.36209</v>
       </c>
     </row>
     <row r="73">
@@ -12058,13 +12058,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.633941</v>
+        <v>0.633997</v>
       </c>
       <c r="C73" t="n">
-        <v>0.551459</v>
+        <v>0.551671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.372545</v>
+        <v>0.3722</v>
       </c>
     </row>
     <row r="74">
@@ -12072,13 +12072,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.652408</v>
+        <v>0.655639</v>
       </c>
       <c r="C74" t="n">
-        <v>0.573256</v>
+        <v>0.5721349999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.38169</v>
+        <v>0.381477</v>
       </c>
     </row>
     <row r="75">
@@ -12086,13 +12086,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.68818</v>
+        <v>0.691411</v>
       </c>
       <c r="C75" t="n">
-        <v>0.609134</v>
+        <v>0.609257</v>
       </c>
       <c r="D75" t="n">
-        <v>0.397321</v>
+        <v>0.397313</v>
       </c>
     </row>
     <row r="76">
@@ -12100,13 +12100,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.728282</v>
+        <v>0.72823</v>
       </c>
       <c r="C76" t="n">
-        <v>0.645774</v>
+        <v>0.642761</v>
       </c>
       <c r="D76" t="n">
-        <v>0.407071</v>
+        <v>0.406137</v>
       </c>
     </row>
     <row r="77">
@@ -12114,13 +12114,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.76278</v>
+        <v>0.771261</v>
       </c>
       <c r="C77" t="n">
-        <v>0.681978</v>
+        <v>0.68588</v>
       </c>
       <c r="D77" t="n">
-        <v>0.431012</v>
+        <v>0.430755</v>
       </c>
     </row>
     <row r="78">
@@ -12128,13 +12128,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.814404</v>
+        <v>0.824729</v>
       </c>
       <c r="C78" t="n">
-        <v>0.722566</v>
+        <v>0.728841</v>
       </c>
       <c r="D78" t="n">
-        <v>0.437006</v>
+        <v>0.438711</v>
       </c>
     </row>
     <row r="79">
@@ -12142,13 +12142,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.870661</v>
+        <v>0.879501</v>
       </c>
       <c r="C79" t="n">
-        <v>0.768779</v>
+        <v>0.775597</v>
       </c>
       <c r="D79" t="n">
-        <v>0.456577</v>
+        <v>0.454856</v>
       </c>
     </row>
     <row r="80">
@@ -12156,13 +12156,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.931124</v>
+        <v>0.940369</v>
       </c>
       <c r="C80" t="n">
-        <v>0.828696</v>
+        <v>0.833714</v>
       </c>
       <c r="D80" t="n">
-        <v>0.477964</v>
+        <v>0.475112</v>
       </c>
     </row>
     <row r="81">
@@ -12170,13 +12170,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.00898</v>
+        <v>1.01911</v>
       </c>
       <c r="C81" t="n">
-        <v>0.898902</v>
+        <v>0.909351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.496549</v>
+        <v>0.494865</v>
       </c>
     </row>
     <row r="82">
@@ -12184,13 +12184,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10276</v>
+        <v>1.12232</v>
       </c>
       <c r="C82" t="n">
-        <v>0.979158</v>
+        <v>0.993441</v>
       </c>
       <c r="D82" t="n">
-        <v>0.530058</v>
+        <v>0.531142</v>
       </c>
     </row>
     <row r="83">
@@ -12198,13 +12198,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.19788</v>
+        <v>1.22133</v>
       </c>
       <c r="C83" t="n">
-        <v>0.662585</v>
+        <v>0.673891</v>
       </c>
       <c r="D83" t="n">
-        <v>0.403224</v>
+        <v>0.404974</v>
       </c>
     </row>
     <row r="84">
@@ -12212,13 +12212,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.900219</v>
+        <v>0.921871</v>
       </c>
       <c r="C84" t="n">
-        <v>0.719086</v>
+        <v>0.7299639999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.414568</v>
+        <v>0.416983</v>
       </c>
     </row>
     <row r="85">
@@ -12226,13 +12226,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9718869999999999</v>
+        <v>1.00391</v>
       </c>
       <c r="C85" t="n">
-        <v>0.776933</v>
+        <v>0.797056</v>
       </c>
       <c r="D85" t="n">
-        <v>0.434163</v>
+        <v>0.436938</v>
       </c>
     </row>
     <row r="86">
@@ -12240,13 +12240,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.06282</v>
+        <v>1.08824</v>
       </c>
       <c r="C86" t="n">
-        <v>0.863914</v>
+        <v>0.881183</v>
       </c>
       <c r="D86" t="n">
-        <v>0.456393</v>
+        <v>0.461292</v>
       </c>
     </row>
     <row r="87">
@@ -12254,13 +12254,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.15257</v>
+        <v>1.17697</v>
       </c>
       <c r="C87" t="n">
-        <v>0.947722</v>
+        <v>0.964928</v>
       </c>
       <c r="D87" t="n">
-        <v>0.481833</v>
+        <v>0.487658</v>
       </c>
     </row>
     <row r="88">
@@ -12268,13 +12268,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.27114</v>
+        <v>1.2855</v>
       </c>
       <c r="C88" t="n">
-        <v>1.066</v>
+        <v>1.07977</v>
       </c>
       <c r="D88" t="n">
-        <v>0.517391</v>
+        <v>0.524896</v>
       </c>
     </row>
     <row r="89">
@@ -12282,13 +12282,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.3914</v>
+        <v>1.40734</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17785</v>
+        <v>1.1944</v>
       </c>
       <c r="D89" t="n">
-        <v>0.557782</v>
+        <v>0.563409</v>
       </c>
     </row>
     <row r="90">
@@ -12296,13 +12296,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.5307</v>
+        <v>1.54104</v>
       </c>
       <c r="C90" t="n">
-        <v>1.30326</v>
+        <v>1.31702</v>
       </c>
       <c r="D90" t="n">
-        <v>0.601638</v>
+        <v>0.608073</v>
       </c>
     </row>
     <row r="91">
@@ -12310,13 +12310,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.66978</v>
+        <v>1.67909</v>
       </c>
       <c r="C91" t="n">
-        <v>1.44372</v>
+        <v>1.45868</v>
       </c>
       <c r="D91" t="n">
-        <v>0.652141</v>
+        <v>0.659316</v>
       </c>
     </row>
     <row r="92">
@@ -12324,13 +12324,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.81892</v>
+        <v>1.82579</v>
       </c>
       <c r="C92" t="n">
-        <v>1.59146</v>
+        <v>1.59885</v>
       </c>
       <c r="D92" t="n">
-        <v>0.708363</v>
+        <v>0.708432</v>
       </c>
     </row>
     <row r="93">
@@ -12338,13 +12338,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.96411</v>
+        <v>1.9817</v>
       </c>
       <c r="C93" t="n">
-        <v>1.74633</v>
+        <v>1.76361</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7667659999999999</v>
+        <v>0.773493</v>
       </c>
     </row>
     <row r="94">
@@ -12352,13 +12352,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.1198</v>
+        <v>2.14237</v>
       </c>
       <c r="C94" t="n">
-        <v>1.91659</v>
+        <v>1.93414</v>
       </c>
       <c r="D94" t="n">
-        <v>0.836024</v>
+        <v>0.8472</v>
       </c>
     </row>
     <row r="95">
@@ -12366,13 +12366,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.29924</v>
+        <v>2.31884</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09441</v>
+        <v>2.11278</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9166840000000001</v>
+        <v>0.930491</v>
       </c>
     </row>
     <row r="96">
@@ -12380,13 +12380,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.46925</v>
+        <v>2.49101</v>
       </c>
       <c r="C96" t="n">
-        <v>2.30801</v>
+        <v>2.32829</v>
       </c>
       <c r="D96" t="n">
-        <v>1.00894</v>
+        <v>1.02113</v>
       </c>
     </row>
     <row r="97">
@@ -12394,13 +12394,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.66083</v>
+        <v>2.67961</v>
       </c>
       <c r="C97" t="n">
-        <v>1.35051</v>
+        <v>1.35821</v>
       </c>
       <c r="D97" t="n">
-        <v>0.742718</v>
+        <v>0.7502180000000001</v>
       </c>
     </row>
     <row r="98">
@@ -12408,13 +12408,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.87408</v>
+        <v>1.88387</v>
       </c>
       <c r="C98" t="n">
-        <v>1.45628</v>
+        <v>1.46563</v>
       </c>
       <c r="D98" t="n">
-        <v>0.788695</v>
+        <v>0.79803</v>
       </c>
     </row>
     <row r="99">
@@ -12422,13 +12422,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.98382</v>
+        <v>1.99364</v>
       </c>
       <c r="C99" t="n">
-        <v>1.55127</v>
+        <v>1.56011</v>
       </c>
       <c r="D99" t="n">
-        <v>0.859085</v>
+        <v>0.8645080000000001</v>
       </c>
     </row>
     <row r="100">
@@ -12436,13 +12436,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.09938</v>
+        <v>2.11555</v>
       </c>
       <c r="C100" t="n">
-        <v>1.66894</v>
+        <v>1.67874</v>
       </c>
       <c r="D100" t="n">
-        <v>0.922005</v>
+        <v>0.93303</v>
       </c>
     </row>
     <row r="101">
@@ -12450,13 +12450,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.23667</v>
+        <v>2.24983</v>
       </c>
       <c r="C101" t="n">
-        <v>1.78471</v>
+        <v>1.79721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9630919999999999</v>
+        <v>0.9731340000000001</v>
       </c>
     </row>
     <row r="102">
@@ -12464,13 +12464,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.35836</v>
+        <v>2.37021</v>
       </c>
       <c r="C102" t="n">
-        <v>1.91006</v>
+        <v>1.92182</v>
       </c>
       <c r="D102" t="n">
-        <v>1.04298</v>
+        <v>1.04799</v>
       </c>
     </row>
     <row r="103">
@@ -12478,13 +12478,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.48406</v>
+        <v>2.49122</v>
       </c>
       <c r="C103" t="n">
-        <v>2.04572</v>
+        <v>2.05719</v>
       </c>
       <c r="D103" t="n">
-        <v>1.11307</v>
+        <v>1.118</v>
       </c>
     </row>
     <row r="104">
@@ -12492,13 +12492,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.62002</v>
+        <v>2.63188</v>
       </c>
       <c r="C104" t="n">
-        <v>2.19416</v>
+        <v>2.20411</v>
       </c>
       <c r="D104" t="n">
-        <v>1.17416</v>
+        <v>1.18509</v>
       </c>
     </row>
     <row r="105">
@@ -12506,13 +12506,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.75285</v>
+        <v>2.76924</v>
       </c>
       <c r="C105" t="n">
-        <v>2.34545</v>
+        <v>2.35876</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23848</v>
+        <v>1.24466</v>
       </c>
     </row>
     <row r="106">
@@ -12520,13 +12520,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.91259</v>
+        <v>2.92173</v>
       </c>
       <c r="C106" t="n">
-        <v>2.49573</v>
+        <v>2.50709</v>
       </c>
       <c r="D106" t="n">
-        <v>1.33071</v>
+        <v>1.3366</v>
       </c>
     </row>
     <row r="107">
@@ -12534,13 +12534,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>3.08072</v>
+        <v>3.09408</v>
       </c>
       <c r="C107" t="n">
-        <v>2.66016</v>
+        <v>2.67306</v>
       </c>
       <c r="D107" t="n">
-        <v>1.40753</v>
+        <v>1.41544</v>
       </c>
     </row>
     <row r="108">
@@ -12548,13 +12548,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>3.23671</v>
+        <v>3.25313</v>
       </c>
       <c r="C108" t="n">
-        <v>2.85205</v>
+        <v>2.85984</v>
       </c>
       <c r="D108" t="n">
-        <v>1.48369</v>
+        <v>1.49307</v>
       </c>
     </row>
     <row r="109">
@@ -12562,13 +12562,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>3.41227</v>
+        <v>3.42549</v>
       </c>
       <c r="C109" t="n">
-        <v>3.03518</v>
+        <v>3.05321</v>
       </c>
       <c r="D109" t="n">
-        <v>1.57029</v>
+        <v>1.58753</v>
       </c>
     </row>
     <row r="110">
@@ -12576,13 +12576,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.57797</v>
+        <v>3.58653</v>
       </c>
       <c r="C110" t="n">
-        <v>3.20378</v>
+        <v>3.22322</v>
       </c>
       <c r="D110" t="n">
-        <v>1.66841</v>
+        <v>1.67957</v>
       </c>
     </row>
     <row r="111">
@@ -12590,13 +12590,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.7663</v>
+        <v>3.78217</v>
       </c>
       <c r="C111" t="n">
-        <v>1.95382</v>
+        <v>1.97453</v>
       </c>
       <c r="D111" t="n">
-        <v>1.3296</v>
+        <v>1.33818</v>
       </c>
     </row>
     <row r="112">
@@ -12604,13 +12604,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.58101</v>
+        <v>2.59356</v>
       </c>
       <c r="C112" t="n">
-        <v>2.06217</v>
+        <v>2.07455</v>
       </c>
       <c r="D112" t="n">
-        <v>1.36852</v>
+        <v>1.37656</v>
       </c>
     </row>
     <row r="113">
@@ -12618,13 +12618,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.67882</v>
+        <v>2.68928</v>
       </c>
       <c r="C113" t="n">
-        <v>2.18043</v>
+        <v>2.18553</v>
       </c>
       <c r="D113" t="n">
-        <v>1.42979</v>
+        <v>1.43822</v>
       </c>
     </row>
     <row r="114">
@@ -12632,13 +12632,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.7914</v>
+        <v>2.80439</v>
       </c>
       <c r="C114" t="n">
-        <v>2.28706</v>
+        <v>2.29777</v>
       </c>
       <c r="D114" t="n">
-        <v>1.4862</v>
+        <v>1.49517</v>
       </c>
     </row>
     <row r="115">
@@ -12646,13 +12646,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.91387</v>
+        <v>2.92809</v>
       </c>
       <c r="C115" t="n">
-        <v>2.40422</v>
+        <v>2.41286</v>
       </c>
       <c r="D115" t="n">
-        <v>1.54483</v>
+        <v>1.55338</v>
       </c>
     </row>
     <row r="116">
@@ -12660,13 +12660,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.03016</v>
+        <v>3.05061</v>
       </c>
       <c r="C116" t="n">
-        <v>2.52611</v>
+        <v>2.53535</v>
       </c>
       <c r="D116" t="n">
-        <v>1.60307</v>
+        <v>1.6125</v>
       </c>
     </row>
     <row r="117">
@@ -12674,13 +12674,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>3.15207</v>
+        <v>3.16687</v>
       </c>
       <c r="C117" t="n">
-        <v>2.65516</v>
+        <v>2.67317</v>
       </c>
       <c r="D117" t="n">
-        <v>1.68611</v>
+        <v>1.6969</v>
       </c>
     </row>
     <row r="118">
@@ -12688,13 +12688,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>3.28425</v>
+        <v>3.29804</v>
       </c>
       <c r="C118" t="n">
-        <v>2.79532</v>
+        <v>2.81126</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76339</v>
+        <v>1.7706</v>
       </c>
     </row>
     <row r="119">
@@ -12702,13 +12702,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>3.40269</v>
+        <v>3.41158</v>
       </c>
       <c r="C119" t="n">
-        <v>2.93064</v>
+        <v>2.94905</v>
       </c>
       <c r="D119" t="n">
-        <v>1.81928</v>
+        <v>1.82964</v>
       </c>
     </row>
   </sheetData>

--- a/clang_libcpp/scattered successful looukp.xlsx
+++ b/clang_libcpp/scattered successful looukp.xlsx
@@ -7673,13 +7673,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>20.7538</v>
+        <v>20.3608</v>
       </c>
       <c r="C2" t="n">
-        <v>14.6646</v>
+        <v>14.3256</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6409</v>
+        <v>17.398</v>
       </c>
     </row>
     <row r="3">
@@ -7687,13 +7687,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>21.5589</v>
+        <v>20.974</v>
       </c>
       <c r="C3" t="n">
-        <v>15.4804</v>
+        <v>14.9998</v>
       </c>
       <c r="D3" t="n">
-        <v>18.2177</v>
+        <v>17.9014</v>
       </c>
     </row>
     <row r="4">
@@ -7701,13 +7701,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>22.192</v>
+        <v>21.6826</v>
       </c>
       <c r="C4" t="n">
-        <v>16.5123</v>
+        <v>16.0515</v>
       </c>
       <c r="D4" t="n">
-        <v>18.886</v>
+        <v>18.4325</v>
       </c>
     </row>
     <row r="5">
@@ -7715,13 +7715,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>22.9883</v>
+        <v>22.4412</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2261</v>
+        <v>16.7759</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4775</v>
+        <v>18.9807</v>
       </c>
     </row>
     <row r="6">
@@ -7729,13 +7729,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6803</v>
+        <v>23.1131</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0655</v>
+        <v>17.5574</v>
       </c>
       <c r="D6" t="n">
-        <v>19.9444</v>
+        <v>19.5117</v>
       </c>
     </row>
     <row r="7">
@@ -7743,13 +7743,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4026</v>
+        <v>23.9401</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1597</v>
+        <v>12.7985</v>
       </c>
       <c r="D7" t="n">
-        <v>16.8258</v>
+        <v>16.6384</v>
       </c>
     </row>
     <row r="8">
@@ -7757,13 +7757,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>19.6932</v>
+        <v>19.3852</v>
       </c>
       <c r="C8" t="n">
-        <v>13.6124</v>
+        <v>13.4889</v>
       </c>
       <c r="D8" t="n">
-        <v>17.1918</v>
+        <v>16.9771</v>
       </c>
     </row>
     <row r="9">
@@ -7771,13 +7771,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>20.3168</v>
+        <v>19.8538</v>
       </c>
       <c r="C9" t="n">
-        <v>14.4571</v>
+        <v>14.0639</v>
       </c>
       <c r="D9" t="n">
-        <v>17.6227</v>
+        <v>17.3109</v>
       </c>
     </row>
     <row r="10">
@@ -7785,13 +7785,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8507</v>
+        <v>20.557</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1907</v>
+        <v>14.8427</v>
       </c>
       <c r="D10" t="n">
-        <v>18.0069</v>
+        <v>17.8771</v>
       </c>
     </row>
     <row r="11">
@@ -7799,13 +7799,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>21.3837</v>
+        <v>20.9799</v>
       </c>
       <c r="C11" t="n">
-        <v>15.8066</v>
+        <v>15.5159</v>
       </c>
       <c r="D11" t="n">
-        <v>18.5345</v>
+        <v>18.2054</v>
       </c>
     </row>
     <row r="12">
@@ -7813,13 +7813,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>21.9577</v>
+        <v>21.6312</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4256</v>
+        <v>16.1504</v>
       </c>
       <c r="D12" t="n">
-        <v>18.8765</v>
+        <v>18.6023</v>
       </c>
     </row>
     <row r="13">
@@ -7827,13 +7827,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5868</v>
+        <v>22.3299</v>
       </c>
       <c r="C13" t="n">
-        <v>17.2028</v>
+        <v>16.9149</v>
       </c>
       <c r="D13" t="n">
-        <v>19.352</v>
+        <v>19.2258</v>
       </c>
     </row>
     <row r="14">
@@ -7841,13 +7841,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>23.3369</v>
+        <v>23.0309</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9301</v>
+        <v>17.5896</v>
       </c>
       <c r="D14" t="n">
-        <v>20.0108</v>
+        <v>19.6551</v>
       </c>
     </row>
     <row r="15">
@@ -7855,13 +7855,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>24.1211</v>
+        <v>23.8164</v>
       </c>
       <c r="C15" t="n">
-        <v>18.5618</v>
+        <v>18.2801</v>
       </c>
       <c r="D15" t="n">
-        <v>20.6458</v>
+        <v>20.2784</v>
       </c>
     </row>
     <row r="16">
@@ -7869,13 +7869,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8877</v>
+        <v>24.6236</v>
       </c>
       <c r="C16" t="n">
-        <v>19.2668</v>
+        <v>18.9829</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1018</v>
+        <v>20.9075</v>
       </c>
     </row>
     <row r="17">
@@ -7883,13 +7883,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5707</v>
+        <v>25.3124</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8859</v>
+        <v>19.6621</v>
       </c>
       <c r="D17" t="n">
-        <v>21.7097</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="18">
@@ -7897,13 +7897,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>26.1274</v>
+        <v>25.9326</v>
       </c>
       <c r="C18" t="n">
-        <v>20.4117</v>
+        <v>20.2102</v>
       </c>
       <c r="D18" t="n">
-        <v>22.2006</v>
+        <v>22.0812</v>
       </c>
     </row>
     <row r="19">
@@ -7911,13 +7911,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>26.6907</v>
+        <v>26.5889</v>
       </c>
       <c r="C19" t="n">
-        <v>20.9474</v>
+        <v>20.8165</v>
       </c>
       <c r="D19" t="n">
-        <v>22.6227</v>
+        <v>22.5205</v>
       </c>
     </row>
     <row r="20">
@@ -7925,13 +7925,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>27.373</v>
+        <v>27.3006</v>
       </c>
       <c r="C20" t="n">
-        <v>21.491</v>
+        <v>21.3855</v>
       </c>
       <c r="D20" t="n">
-        <v>23.4143</v>
+        <v>23.1185</v>
       </c>
     </row>
     <row r="21">
@@ -7939,13 +7939,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>27.9773</v>
+        <v>27.8979</v>
       </c>
       <c r="C21" t="n">
-        <v>16.9406</v>
+        <v>16.9653</v>
       </c>
       <c r="D21" t="n">
-        <v>19.1303</v>
+        <v>19.1034</v>
       </c>
     </row>
     <row r="22">
@@ -7953,13 +7953,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>22.7725</v>
+        <v>22.8</v>
       </c>
       <c r="C22" t="n">
-        <v>17.4471</v>
+        <v>17.4479</v>
       </c>
       <c r="D22" t="n">
-        <v>19.5672</v>
+        <v>19.6044</v>
       </c>
     </row>
     <row r="23">
@@ -7967,13 +7967,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>23.1792</v>
+        <v>23.2195</v>
       </c>
       <c r="C23" t="n">
-        <v>17.8892</v>
+        <v>17.9317</v>
       </c>
       <c r="D23" t="n">
-        <v>20.0444</v>
+        <v>20.0476</v>
       </c>
     </row>
     <row r="24">
@@ -7981,13 +7981,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>23.6239</v>
+        <v>23.6362</v>
       </c>
       <c r="C24" t="n">
-        <v>18.4997</v>
+        <v>18.4067</v>
       </c>
       <c r="D24" t="n">
-        <v>20.514</v>
+        <v>20.4842</v>
       </c>
     </row>
     <row r="25">
@@ -7995,13 +7995,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>24.1803</v>
+        <v>24.197</v>
       </c>
       <c r="C25" t="n">
-        <v>18.8692</v>
+        <v>18.8956</v>
       </c>
       <c r="D25" t="n">
-        <v>21.0541</v>
+        <v>21.0493</v>
       </c>
     </row>
     <row r="26">
@@ -8009,13 +8009,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>24.6873</v>
+        <v>24.7141</v>
       </c>
       <c r="C26" t="n">
-        <v>19.3403</v>
+        <v>19.355</v>
       </c>
       <c r="D26" t="n">
-        <v>21.4349</v>
+        <v>21.4757</v>
       </c>
     </row>
     <row r="27">
@@ -8023,13 +8023,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>25.1905</v>
+        <v>25.1931</v>
       </c>
       <c r="C27" t="n">
-        <v>19.8615</v>
+        <v>19.865</v>
       </c>
       <c r="D27" t="n">
-        <v>21.9877</v>
+        <v>21.9977</v>
       </c>
     </row>
     <row r="28">
@@ -8037,13 +8037,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>25.6875</v>
+        <v>25.7276</v>
       </c>
       <c r="C28" t="n">
-        <v>20.3959</v>
+        <v>20.4237</v>
       </c>
       <c r="D28" t="n">
-        <v>22.4905</v>
+        <v>22.5154</v>
       </c>
     </row>
     <row r="29">
@@ -8051,13 +8051,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>26.1935</v>
+        <v>26.2206</v>
       </c>
       <c r="C29" t="n">
-        <v>20.9593</v>
+        <v>20.9707</v>
       </c>
       <c r="D29" t="n">
-        <v>23.0768</v>
+        <v>23.1269</v>
       </c>
     </row>
     <row r="30">
@@ -8065,13 +8065,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>26.7675</v>
+        <v>26.7816</v>
       </c>
       <c r="C30" t="n">
-        <v>21.446</v>
+        <v>21.4721</v>
       </c>
       <c r="D30" t="n">
-        <v>23.5222</v>
+        <v>23.5558</v>
       </c>
     </row>
     <row r="31">
@@ -8082,10 +8082,10 @@
         <v>27.3328</v>
       </c>
       <c r="C31" t="n">
-        <v>21.9581</v>
+        <v>21.9626</v>
       </c>
       <c r="D31" t="n">
-        <v>24.1234</v>
+        <v>24.1196</v>
       </c>
     </row>
     <row r="32">
@@ -8093,13 +8093,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>27.8967</v>
+        <v>27.8772</v>
       </c>
       <c r="C32" t="n">
-        <v>22.4439</v>
+        <v>22.4416</v>
       </c>
       <c r="D32" t="n">
-        <v>24.566</v>
+        <v>24.5776</v>
       </c>
     </row>
     <row r="33">
@@ -8107,13 +8107,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>28.4307</v>
+        <v>28.3998</v>
       </c>
       <c r="C33" t="n">
-        <v>22.9237</v>
+        <v>22.9038</v>
       </c>
       <c r="D33" t="n">
-        <v>25.0825</v>
+        <v>25.0495</v>
       </c>
     </row>
     <row r="34">
@@ -8121,13 +8121,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>28.9683</v>
+        <v>28.9642</v>
       </c>
       <c r="C34" t="n">
-        <v>23.3945</v>
+        <v>23.3843</v>
       </c>
       <c r="D34" t="n">
-        <v>25.557</v>
+        <v>25.5728</v>
       </c>
     </row>
     <row r="35">
@@ -8135,13 +8135,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>29.6075</v>
+        <v>29.5853</v>
       </c>
       <c r="C35" t="n">
-        <v>18.3488</v>
+        <v>18.3383</v>
       </c>
       <c r="D35" t="n">
-        <v>20.513</v>
+        <v>20.4958</v>
       </c>
     </row>
     <row r="36">
@@ -8149,13 +8149,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>24.0321</v>
+        <v>24.1204</v>
       </c>
       <c r="C36" t="n">
-        <v>18.6205</v>
+        <v>18.6794</v>
       </c>
       <c r="D36" t="n">
-        <v>20.7907</v>
+        <v>20.8755</v>
       </c>
     </row>
     <row r="37">
@@ -8163,13 +8163,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>24.3953</v>
+        <v>24.491</v>
       </c>
       <c r="C37" t="n">
-        <v>19.0051</v>
+        <v>19.0406</v>
       </c>
       <c r="D37" t="n">
-        <v>21.1876</v>
+        <v>21.2363</v>
       </c>
     </row>
     <row r="38">
@@ -8177,13 +8177,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>24.8536</v>
+        <v>24.9184</v>
       </c>
       <c r="C38" t="n">
-        <v>19.4839</v>
+        <v>19.4939</v>
       </c>
       <c r="D38" t="n">
-        <v>21.7098</v>
+        <v>21.7405</v>
       </c>
     </row>
     <row r="39">
@@ -8191,13 +8191,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>25.2929</v>
+        <v>25.3254</v>
       </c>
       <c r="C39" t="n">
-        <v>19.8807</v>
+        <v>19.8803</v>
       </c>
       <c r="D39" t="n">
-        <v>22.1401</v>
+        <v>22.1579</v>
       </c>
     </row>
     <row r="40">
@@ -8205,13 +8205,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>25.693</v>
+        <v>25.7548</v>
       </c>
       <c r="C40" t="n">
-        <v>20.2808</v>
+        <v>20.307</v>
       </c>
       <c r="D40" t="n">
-        <v>22.6147</v>
+        <v>22.6459</v>
       </c>
     </row>
     <row r="41">
@@ -8219,13 +8219,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>26.1783</v>
+        <v>26.1909</v>
       </c>
       <c r="C41" t="n">
-        <v>20.7908</v>
+        <v>20.7675</v>
       </c>
       <c r="D41" t="n">
-        <v>23.1195</v>
+        <v>23.1243</v>
       </c>
     </row>
     <row r="42">
@@ -8233,13 +8233,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>26.6955</v>
+        <v>26.7076</v>
       </c>
       <c r="C42" t="n">
-        <v>21.2338</v>
+        <v>21.2208</v>
       </c>
       <c r="D42" t="n">
-        <v>23.5618</v>
+        <v>23.5637</v>
       </c>
     </row>
     <row r="43">
@@ -8247,13 +8247,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>27.2008</v>
+        <v>27.2333</v>
       </c>
       <c r="C43" t="n">
-        <v>21.7237</v>
+        <v>21.699</v>
       </c>
       <c r="D43" t="n">
-        <v>24.033</v>
+        <v>24.0315</v>
       </c>
     </row>
     <row r="44">
@@ -8261,13 +8261,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>27.7438</v>
+        <v>27.7748</v>
       </c>
       <c r="C44" t="n">
-        <v>22.2331</v>
+        <v>22.2354</v>
       </c>
       <c r="D44" t="n">
-        <v>24.5493</v>
+        <v>24.5755</v>
       </c>
     </row>
     <row r="45">
@@ -8275,13 +8275,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>28.2852</v>
+        <v>28.3255</v>
       </c>
       <c r="C45" t="n">
-        <v>22.7352</v>
+        <v>22.7283</v>
       </c>
       <c r="D45" t="n">
-        <v>25.0393</v>
+        <v>25.064</v>
       </c>
     </row>
     <row r="46">
@@ -8289,13 +8289,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>28.8539</v>
+        <v>28.8799</v>
       </c>
       <c r="C46" t="n">
-        <v>23.2428</v>
+        <v>23.2495</v>
       </c>
       <c r="D46" t="n">
-        <v>25.5707</v>
+        <v>25.5719</v>
       </c>
     </row>
     <row r="47">
@@ -8303,13 +8303,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>29.4585</v>
+        <v>29.48</v>
       </c>
       <c r="C47" t="n">
-        <v>23.718</v>
+        <v>23.7104</v>
       </c>
       <c r="D47" t="n">
-        <v>26.0572</v>
+        <v>26.0829</v>
       </c>
     </row>
     <row r="48">
@@ -8317,13 +8317,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>30.0388</v>
+        <v>30.0423</v>
       </c>
       <c r="C48" t="n">
-        <v>24.145</v>
+        <v>24.1475</v>
       </c>
       <c r="D48" t="n">
-        <v>26.5284</v>
+        <v>26.5405</v>
       </c>
     </row>
     <row r="49">
@@ -8331,13 +8331,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>30.6091</v>
+        <v>30.6631</v>
       </c>
       <c r="C49" t="n">
-        <v>24.5643</v>
+        <v>24.5695</v>
       </c>
       <c r="D49" t="n">
-        <v>26.983</v>
+        <v>26.9909</v>
       </c>
     </row>
     <row r="50">
@@ -8345,13 +8345,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>31.1558</v>
+        <v>31.1713</v>
       </c>
       <c r="C50" t="n">
-        <v>19.1972</v>
+        <v>19.2073</v>
       </c>
       <c r="D50" t="n">
-        <v>20.5776</v>
+        <v>20.5835</v>
       </c>
     </row>
     <row r="51">
@@ -8359,13 +8359,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>25.1537</v>
+        <v>25.1818</v>
       </c>
       <c r="C51" t="n">
-        <v>19.5599</v>
+        <v>19.5439</v>
       </c>
       <c r="D51" t="n">
-        <v>20.9519</v>
+        <v>20.9684</v>
       </c>
     </row>
     <row r="52">
@@ -8373,13 +8373,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>25.5329</v>
+        <v>25.5727</v>
       </c>
       <c r="C52" t="n">
-        <v>19.8814</v>
+        <v>19.8953</v>
       </c>
       <c r="D52" t="n">
-        <v>21.2925</v>
+        <v>21.3626</v>
       </c>
     </row>
     <row r="53">
@@ -8387,13 +8387,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>25.9114</v>
+        <v>25.9572</v>
       </c>
       <c r="C53" t="n">
-        <v>20.2883</v>
+        <v>20.2978</v>
       </c>
       <c r="D53" t="n">
-        <v>21.7551</v>
+        <v>21.7478</v>
       </c>
     </row>
     <row r="54">
@@ -8401,13 +8401,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>26.3297</v>
+        <v>26.369</v>
       </c>
       <c r="C54" t="n">
-        <v>20.7243</v>
+        <v>20.7209</v>
       </c>
       <c r="D54" t="n">
-        <v>22.2019</v>
+        <v>22.212</v>
       </c>
     </row>
     <row r="55">
@@ -8415,13 +8415,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>26.7259</v>
+        <v>26.8333</v>
       </c>
       <c r="C55" t="n">
-        <v>21.1383</v>
+        <v>21.1567</v>
       </c>
       <c r="D55" t="n">
-        <v>22.6338</v>
+        <v>22.6339</v>
       </c>
     </row>
     <row r="56">
@@ -8429,13 +8429,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>27.2222</v>
+        <v>27.2775</v>
       </c>
       <c r="C56" t="n">
-        <v>21.6307</v>
+        <v>21.6353</v>
       </c>
       <c r="D56" t="n">
-        <v>23.0749</v>
+        <v>23.0861</v>
       </c>
     </row>
     <row r="57">
@@ -8443,13 +8443,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>27.7273</v>
+        <v>27.7388</v>
       </c>
       <c r="C57" t="n">
-        <v>22.105</v>
+        <v>22.1117</v>
       </c>
       <c r="D57" t="n">
-        <v>23.5586</v>
+        <v>23.5766</v>
       </c>
     </row>
     <row r="58">
@@ -8457,13 +8457,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>28.2851</v>
+        <v>28.333</v>
       </c>
       <c r="C58" t="n">
-        <v>22.5946</v>
+        <v>22.5964</v>
       </c>
       <c r="D58" t="n">
-        <v>24.072</v>
+        <v>24.0644</v>
       </c>
     </row>
     <row r="59">
@@ -8471,13 +8471,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>28.8893</v>
+        <v>28.9191</v>
       </c>
       <c r="C59" t="n">
-        <v>23.1186</v>
+        <v>23.1116</v>
       </c>
       <c r="D59" t="n">
-        <v>24.5936</v>
+        <v>24.5568</v>
       </c>
     </row>
     <row r="60">
@@ -8485,13 +8485,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>29.4862</v>
+        <v>29.497</v>
       </c>
       <c r="C60" t="n">
-        <v>23.6512</v>
+        <v>23.644</v>
       </c>
       <c r="D60" t="n">
-        <v>25.0427</v>
+        <v>25.0828</v>
       </c>
     </row>
     <row r="61">
@@ -8499,13 +8499,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>30.0755</v>
+        <v>30.0938</v>
       </c>
       <c r="C61" t="n">
-        <v>24.1413</v>
+        <v>24.13</v>
       </c>
       <c r="D61" t="n">
-        <v>25.5508</v>
+        <v>25.5587</v>
       </c>
     </row>
     <row r="62">
@@ -8513,13 +8513,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>30.6455</v>
+        <v>30.6695</v>
       </c>
       <c r="C62" t="n">
-        <v>24.5722</v>
+        <v>24.5625</v>
       </c>
       <c r="D62" t="n">
-        <v>26.0627</v>
+        <v>26.0408</v>
       </c>
     </row>
     <row r="63">
@@ -8527,13 +8527,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>31.254</v>
+        <v>31.2694</v>
       </c>
       <c r="C63" t="n">
-        <v>25.0339</v>
+        <v>25.0318</v>
       </c>
       <c r="D63" t="n">
-        <v>26.5099</v>
+        <v>26.5183</v>
       </c>
     </row>
     <row r="64">
@@ -8541,13 +8541,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>31.8138</v>
+        <v>31.8424</v>
       </c>
       <c r="C64" t="n">
-        <v>20.0255</v>
+        <v>19.9679</v>
       </c>
       <c r="D64" t="n">
-        <v>21.3918</v>
+        <v>21.4135</v>
       </c>
     </row>
     <row r="65">
@@ -8555,13 +8555,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>27.8241</v>
+        <v>27.4748</v>
       </c>
       <c r="C65" t="n">
-        <v>20.4852</v>
+        <v>20.3672</v>
       </c>
       <c r="D65" t="n">
-        <v>21.9515</v>
+        <v>21.9366</v>
       </c>
     </row>
     <row r="66">
@@ -8569,13 +8569,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>28.1351</v>
+        <v>28.1636</v>
       </c>
       <c r="C66" t="n">
-        <v>20.7237</v>
+        <v>20.9878</v>
       </c>
       <c r="D66" t="n">
-        <v>22.2828</v>
+        <v>22.481</v>
       </c>
     </row>
     <row r="67">
@@ -8583,13 +8583,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>28.9077</v>
+        <v>29.19</v>
       </c>
       <c r="C67" t="n">
-        <v>21.458</v>
+        <v>21.4402</v>
       </c>
       <c r="D67" t="n">
-        <v>22.8563</v>
+        <v>22.9169</v>
       </c>
     </row>
     <row r="68">
@@ -8597,13 +8597,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>29.8406</v>
+        <v>29.6811</v>
       </c>
       <c r="C68" t="n">
-        <v>21.9353</v>
+        <v>21.9644</v>
       </c>
       <c r="D68" t="n">
-        <v>23.6016</v>
+        <v>23.5773</v>
       </c>
     </row>
     <row r="69">
@@ -8611,13 +8611,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>30.9279</v>
+        <v>30.7643</v>
       </c>
       <c r="C69" t="n">
-        <v>22.4667</v>
+        <v>22.5956</v>
       </c>
       <c r="D69" t="n">
-        <v>24.2213</v>
+        <v>24.3245</v>
       </c>
     </row>
     <row r="70">
@@ -8625,13 +8625,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>31.4039</v>
+        <v>31.5786</v>
       </c>
       <c r="C70" t="n">
-        <v>23.2735</v>
+        <v>23.4498</v>
       </c>
       <c r="D70" t="n">
-        <v>24.5452</v>
+        <v>24.7615</v>
       </c>
     </row>
     <row r="71">
@@ -8639,13 +8639,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>32.481</v>
+        <v>32.6811</v>
       </c>
       <c r="C71" t="n">
-        <v>23.8123</v>
+        <v>23.8358</v>
       </c>
       <c r="D71" t="n">
-        <v>25.2543</v>
+        <v>25.4475</v>
       </c>
     </row>
     <row r="72">
@@ -8653,13 +8653,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>33.6696</v>
+        <v>34.071</v>
       </c>
       <c r="C72" t="n">
-        <v>24.6049</v>
+        <v>24.7011</v>
       </c>
       <c r="D72" t="n">
-        <v>26.1599</v>
+        <v>26.0979</v>
       </c>
     </row>
     <row r="73">
@@ -8667,13 +8667,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>35.4383</v>
+        <v>35.9553</v>
       </c>
       <c r="C73" t="n">
-        <v>25.4648</v>
+        <v>25.741</v>
       </c>
       <c r="D73" t="n">
-        <v>27.0402</v>
+        <v>27.1298</v>
       </c>
     </row>
     <row r="74">
@@ -8681,13 +8681,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>36.7069</v>
+        <v>37.761</v>
       </c>
       <c r="C74" t="n">
-        <v>26.2148</v>
+        <v>26.6864</v>
       </c>
       <c r="D74" t="n">
-        <v>27.8044</v>
+        <v>28.2405</v>
       </c>
     </row>
     <row r="75">
@@ -8695,13 +8695,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>39.0917</v>
+        <v>39.2146</v>
       </c>
       <c r="C75" t="n">
-        <v>27.3665</v>
+        <v>27.5779</v>
       </c>
       <c r="D75" t="n">
-        <v>29.1391</v>
+        <v>29.0028</v>
       </c>
     </row>
     <row r="76">
@@ -8709,13 +8709,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>40.9802</v>
+        <v>41.0548</v>
       </c>
       <c r="C76" t="n">
-        <v>28.5482</v>
+        <v>28.6504</v>
       </c>
       <c r="D76" t="n">
-        <v>30.1772</v>
+        <v>30.0996</v>
       </c>
     </row>
     <row r="77">
@@ -8723,13 +8723,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>43.4427</v>
+        <v>43.2717</v>
       </c>
       <c r="C77" t="n">
-        <v>29.627</v>
+        <v>29.7917</v>
       </c>
       <c r="D77" t="n">
-        <v>31.4219</v>
+        <v>31.368</v>
       </c>
     </row>
     <row r="78">
@@ -8737,13 +8737,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>45.551</v>
+        <v>45.6125</v>
       </c>
       <c r="C78" t="n">
-        <v>28.4682</v>
+        <v>28.4491</v>
       </c>
       <c r="D78" t="n">
-        <v>29.9176</v>
+        <v>29.668</v>
       </c>
     </row>
     <row r="79">
@@ -8751,13 +8751,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>54.6169</v>
+        <v>54.5631</v>
       </c>
       <c r="C79" t="n">
-        <v>30.0176</v>
+        <v>29.6724</v>
       </c>
       <c r="D79" t="n">
-        <v>31.4115</v>
+        <v>31.1963</v>
       </c>
     </row>
     <row r="80">
@@ -8765,13 +8765,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>57.3333</v>
+        <v>56.0043</v>
       </c>
       <c r="C80" t="n">
-        <v>31.3356</v>
+        <v>31.0436</v>
       </c>
       <c r="D80" t="n">
-        <v>32.4423</v>
+        <v>32.3856</v>
       </c>
     </row>
     <row r="81">
@@ -8779,13 +8779,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>59.0973</v>
+        <v>58.1439</v>
       </c>
       <c r="C81" t="n">
-        <v>32.8523</v>
+        <v>32.4355</v>
       </c>
       <c r="D81" t="n">
-        <v>33.8083</v>
+        <v>33.6622</v>
       </c>
     </row>
     <row r="82">
@@ -8793,13 +8793,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>60.7785</v>
+        <v>59.6609</v>
       </c>
       <c r="C82" t="n">
-        <v>34.4321</v>
+        <v>33.9386</v>
       </c>
       <c r="D82" t="n">
-        <v>35.4222</v>
+        <v>35.1155</v>
       </c>
     </row>
     <row r="83">
@@ -8807,13 +8807,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>62.9362</v>
+        <v>61.9332</v>
       </c>
       <c r="C83" t="n">
-        <v>35.8797</v>
+        <v>35.6709</v>
       </c>
       <c r="D83" t="n">
-        <v>36.8765</v>
+        <v>36.7689</v>
       </c>
     </row>
     <row r="84">
@@ -8821,13 +8821,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>65.2402</v>
+        <v>64.53100000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>37.4915</v>
+        <v>37.4699</v>
       </c>
       <c r="D84" t="n">
-        <v>38.9746</v>
+        <v>38.8529</v>
       </c>
     </row>
     <row r="85">
@@ -8835,13 +8835,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>67.2582</v>
+        <v>66.6446</v>
       </c>
       <c r="C85" t="n">
-        <v>39.2505</v>
+        <v>39.1896</v>
       </c>
       <c r="D85" t="n">
-        <v>40.7775</v>
+        <v>40.6744</v>
       </c>
     </row>
     <row r="86">
@@ -8849,13 +8849,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>69.64019999999999</v>
+        <v>68.8896</v>
       </c>
       <c r="C86" t="n">
-        <v>40.9606</v>
+        <v>40.9778</v>
       </c>
       <c r="D86" t="n">
-        <v>42.5703</v>
+        <v>42.6684</v>
       </c>
     </row>
     <row r="87">
@@ -8863,13 +8863,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>71.9813</v>
+        <v>71.2397</v>
       </c>
       <c r="C87" t="n">
-        <v>42.8439</v>
+        <v>42.8513</v>
       </c>
       <c r="D87" t="n">
-        <v>44.2368</v>
+        <v>44.2619</v>
       </c>
     </row>
     <row r="88">
@@ -8877,13 +8877,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>74.246</v>
+        <v>73.5998</v>
       </c>
       <c r="C88" t="n">
-        <v>44.6365</v>
+        <v>44.614</v>
       </c>
       <c r="D88" t="n">
-        <v>46.198</v>
+        <v>46.108</v>
       </c>
     </row>
     <row r="89">
@@ -8891,13 +8891,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>76.76179999999999</v>
+        <v>76.105</v>
       </c>
       <c r="C89" t="n">
-        <v>46.522</v>
+        <v>46.5058</v>
       </c>
       <c r="D89" t="n">
-        <v>48.2988</v>
+        <v>48.072</v>
       </c>
     </row>
     <row r="90">
@@ -8905,13 +8905,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>79.4455</v>
+        <v>78.75230000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>48.6366</v>
+        <v>48.4158</v>
       </c>
       <c r="D90" t="n">
-        <v>50.4105</v>
+        <v>50.2558</v>
       </c>
     </row>
     <row r="91">
@@ -8919,13 +8919,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>82.38630000000001</v>
+        <v>81.6041</v>
       </c>
       <c r="C91" t="n">
-        <v>50.589</v>
+        <v>50.3116</v>
       </c>
       <c r="D91" t="n">
-        <v>52.6504</v>
+        <v>52.3504</v>
       </c>
     </row>
     <row r="92">
@@ -8933,13 +8933,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>85.25960000000001</v>
+        <v>84.4359</v>
       </c>
       <c r="C92" t="n">
-        <v>52.9719</v>
+        <v>52.2608</v>
       </c>
       <c r="D92" t="n">
-        <v>54.0156</v>
+        <v>53.1942</v>
       </c>
     </row>
     <row r="93">
@@ -8947,13 +8947,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>91.0742</v>
+        <v>90.3249</v>
       </c>
       <c r="C93" t="n">
-        <v>54.0287</v>
+        <v>53.3343</v>
       </c>
       <c r="D93" t="n">
-        <v>55.2477</v>
+        <v>54.4402</v>
       </c>
     </row>
     <row r="94">
@@ -8961,13 +8961,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>91.88079999999999</v>
+        <v>90.46380000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>55.508</v>
+        <v>54.5595</v>
       </c>
       <c r="D94" t="n">
-        <v>56.948</v>
+        <v>55.9708</v>
       </c>
     </row>
     <row r="95">
@@ -8975,13 +8975,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>92.79470000000001</v>
+        <v>91.49460000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>55.2952</v>
+        <v>55.9002</v>
       </c>
       <c r="D95" t="n">
-        <v>56.1821</v>
+        <v>56.8663</v>
       </c>
     </row>
     <row r="96">
@@ -8989,13 +8989,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>93.9791</v>
+        <v>92.4085</v>
       </c>
       <c r="C96" t="n">
-        <v>58.1226</v>
+        <v>57.2325</v>
       </c>
       <c r="D96" t="n">
-        <v>58.9717</v>
+        <v>58.1685</v>
       </c>
     </row>
     <row r="97">
@@ -9003,13 +9003,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>94.12860000000001</v>
+        <v>93.6142</v>
       </c>
       <c r="C97" t="n">
-        <v>58.2294</v>
+        <v>58.8156</v>
       </c>
       <c r="D97" t="n">
-        <v>59.6003</v>
+        <v>60.1553</v>
       </c>
     </row>
     <row r="98">
@@ -9017,13 +9017,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>95.1071</v>
+        <v>94.8794</v>
       </c>
       <c r="C98" t="n">
-        <v>59.7801</v>
+        <v>60.2291</v>
       </c>
       <c r="D98" t="n">
-        <v>61.0782</v>
+        <v>61.5504</v>
       </c>
     </row>
     <row r="99">
@@ -9031,13 +9031,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>96.96040000000001</v>
+        <v>96.6281</v>
       </c>
       <c r="C99" t="n">
-        <v>61.3117</v>
+        <v>61.7223</v>
       </c>
       <c r="D99" t="n">
-        <v>62.8338</v>
+        <v>63.2541</v>
       </c>
     </row>
     <row r="100">
@@ -9045,13 +9045,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>98.77930000000001</v>
+        <v>98.1349</v>
       </c>
       <c r="C100" t="n">
-        <v>62.8501</v>
+        <v>63.3171</v>
       </c>
       <c r="D100" t="n">
-        <v>64.81659999999999</v>
+        <v>64.7954</v>
       </c>
     </row>
     <row r="101">
@@ -9059,13 +9059,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>100.166</v>
+        <v>99.7089</v>
       </c>
       <c r="C101" t="n">
-        <v>64.49679999999999</v>
+        <v>64.9306</v>
       </c>
       <c r="D101" t="n">
-        <v>66.66119999999999</v>
+        <v>66.6728</v>
       </c>
     </row>
     <row r="102">
@@ -9073,13 +9073,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>102.06</v>
+        <v>101.551</v>
       </c>
       <c r="C102" t="n">
-        <v>66.27209999999999</v>
+        <v>66.6357</v>
       </c>
       <c r="D102" t="n">
-        <v>68.58459999999999</v>
+        <v>68.48999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -9087,13 +9087,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>104.704</v>
+        <v>103.989</v>
       </c>
       <c r="C103" t="n">
-        <v>68.0269</v>
+        <v>68.3813</v>
       </c>
       <c r="D103" t="n">
-        <v>70.67010000000001</v>
+        <v>70.4423</v>
       </c>
     </row>
     <row r="104">
@@ -9101,13 +9101,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>106.915</v>
+        <v>106.301</v>
       </c>
       <c r="C104" t="n">
-        <v>69.81100000000001</v>
+        <v>70.1238</v>
       </c>
       <c r="D104" t="n">
-        <v>72.9044</v>
+        <v>72.5515</v>
       </c>
     </row>
     <row r="105">
@@ -9115,13 +9115,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>109.434</v>
+        <v>108.741</v>
       </c>
       <c r="C105" t="n">
-        <v>71.58620000000001</v>
+        <v>71.9174</v>
       </c>
       <c r="D105" t="n">
-        <v>75.0389</v>
+        <v>74.8026</v>
       </c>
     </row>
     <row r="106">
@@ -9129,13 +9129,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>112.039</v>
+        <v>111.363</v>
       </c>
       <c r="C106" t="n">
-        <v>73.62139999999999</v>
+        <v>73.7259</v>
       </c>
       <c r="D106" t="n">
-        <v>77.4725</v>
+        <v>77.0295</v>
       </c>
     </row>
     <row r="107">
@@ -9143,13 +9143,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>108.661</v>
+        <v>106.62</v>
       </c>
       <c r="C107" t="n">
-        <v>70.1944</v>
+        <v>69.0928</v>
       </c>
       <c r="D107" t="n">
-        <v>71.20740000000001</v>
+        <v>70.1199</v>
       </c>
     </row>
     <row r="108">
@@ -9157,13 +9157,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>109.192</v>
+        <v>107.153</v>
       </c>
       <c r="C108" t="n">
-        <v>71.3708</v>
+        <v>69.3292</v>
       </c>
       <c r="D108" t="n">
-        <v>72.48399999999999</v>
+        <v>70.5334</v>
       </c>
     </row>
     <row r="109">
@@ -9171,13 +9171,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>110.023</v>
+        <v>107.3</v>
       </c>
       <c r="C109" t="n">
-        <v>72.5153</v>
+        <v>71.3779</v>
       </c>
       <c r="D109" t="n">
-        <v>73.9203</v>
+        <v>72.77549999999999</v>
       </c>
     </row>
     <row r="110">
@@ -9185,13 +9185,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>110.816</v>
+        <v>108.734</v>
       </c>
       <c r="C110" t="n">
-        <v>73.8052</v>
+        <v>72.645</v>
       </c>
       <c r="D110" t="n">
-        <v>75.2598</v>
+        <v>74.11579999999999</v>
       </c>
     </row>
     <row r="111">
@@ -9199,13 +9199,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>111.864</v>
+        <v>109.757</v>
       </c>
       <c r="C111" t="n">
-        <v>75.07899999999999</v>
+        <v>73.91249999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>76.3074</v>
+        <v>75.2186</v>
       </c>
     </row>
     <row r="112">
@@ -9213,13 +9213,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>112.921</v>
+        <v>110.991</v>
       </c>
       <c r="C112" t="n">
-        <v>76.4718</v>
+        <v>75.35509999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>77.9529</v>
+        <v>76.8258</v>
       </c>
     </row>
     <row r="113">
@@ -9227,13 +9227,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>114.086</v>
+        <v>112.155</v>
       </c>
       <c r="C113" t="n">
-        <v>77.8776</v>
+        <v>76.7473</v>
       </c>
       <c r="D113" t="n">
-        <v>79.4866</v>
+        <v>78.3057</v>
       </c>
     </row>
     <row r="114">
@@ -9241,13 +9241,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>115.682</v>
+        <v>113.58</v>
       </c>
       <c r="C114" t="n">
-        <v>79.4836</v>
+        <v>78.2731</v>
       </c>
       <c r="D114" t="n">
-        <v>80.9919</v>
+        <v>79.81610000000001</v>
       </c>
     </row>
     <row r="115">
@@ -9255,13 +9255,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>116.149</v>
+        <v>114.725</v>
       </c>
       <c r="C115" t="n">
-        <v>79.7987</v>
+        <v>79.4992</v>
       </c>
       <c r="D115" t="n">
-        <v>82.7603</v>
+        <v>81.7043</v>
       </c>
     </row>
     <row r="116">
@@ -9269,13 +9269,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>118.109</v>
+        <v>116.636</v>
       </c>
       <c r="C116" t="n">
-        <v>81.4106</v>
+        <v>81.0951</v>
       </c>
       <c r="D116" t="n">
-        <v>84.60639999999999</v>
+        <v>83.3729</v>
       </c>
     </row>
     <row r="117">
@@ -9283,13 +9283,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>120.368</v>
+        <v>118.879</v>
       </c>
       <c r="C117" t="n">
-        <v>83.104</v>
+        <v>82.76049999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>86.515</v>
+        <v>85.2683</v>
       </c>
     </row>
     <row r="118">
@@ -9297,13 +9297,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>122.633</v>
+        <v>121.161</v>
       </c>
       <c r="C118" t="n">
-        <v>84.6992</v>
+        <v>84.41589999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>88.1347</v>
+        <v>87.0073</v>
       </c>
     </row>
     <row r="119">
@@ -9311,13 +9311,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>124.35</v>
+        <v>122.912</v>
       </c>
       <c r="C119" t="n">
-        <v>86.48690000000001</v>
+        <v>86.1936</v>
       </c>
       <c r="D119" t="n">
-        <v>90.25839999999999</v>
+        <v>89.075</v>
       </c>
     </row>
   </sheetData>
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>19.6489</v>
+        <v>19.5284</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7524</v>
+        <v>14.7362</v>
       </c>
       <c r="D2" t="n">
-        <v>15.561</v>
+        <v>15.5531</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0974</v>
+        <v>19.9295</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9903</v>
+        <v>15.0272</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6944</v>
+        <v>15.6474</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>21.0007</v>
+        <v>20.4538</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1892</v>
+        <v>15.0631</v>
       </c>
       <c r="D4" t="n">
-        <v>15.8929</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>20.7289</v>
+        <v>20.5669</v>
       </c>
       <c r="C5" t="n">
-        <v>15.413</v>
+        <v>15.2873</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0276</v>
+        <v>16.0188</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8819</v>
+        <v>20.6948</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6675</v>
+        <v>15.6735</v>
       </c>
       <c r="D6" t="n">
-        <v>16.2614</v>
+        <v>16.2867</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4876</v>
+        <v>21.398</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0638</v>
+        <v>15.0775</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9816</v>
+        <v>16.156</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3757</v>
+        <v>20.7008</v>
       </c>
       <c r="C8" t="n">
-        <v>15.1265</v>
+        <v>15.3027</v>
       </c>
       <c r="D8" t="n">
-        <v>16.3949</v>
+        <v>16.2927</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>20.667</v>
+        <v>20.9102</v>
       </c>
       <c r="C9" t="n">
-        <v>15.3352</v>
+        <v>15.4627</v>
       </c>
       <c r="D9" t="n">
-        <v>16.5642</v>
+        <v>16.4794</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>20.821</v>
+        <v>21.0921</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4135</v>
+        <v>15.5359</v>
       </c>
       <c r="D10" t="n">
-        <v>16.4918</v>
+        <v>16.5203</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4201</v>
+        <v>21.5425</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3523</v>
+        <v>15.5896</v>
       </c>
       <c r="D11" t="n">
-        <v>16.4945</v>
+        <v>16.5792</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>21.7745</v>
+        <v>21.8003</v>
       </c>
       <c r="C12" t="n">
-        <v>15.932</v>
+        <v>16.0206</v>
       </c>
       <c r="D12" t="n">
-        <v>16.7073</v>
+        <v>16.6698</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>22.1993</v>
+        <v>22.4922</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7661</v>
+        <v>16.044</v>
       </c>
       <c r="D13" t="n">
-        <v>16.961</v>
+        <v>16.7991</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7254</v>
+        <v>22.4271</v>
       </c>
       <c r="C14" t="n">
-        <v>16.1708</v>
+        <v>16.2512</v>
       </c>
       <c r="D14" t="n">
-        <v>16.9448</v>
+        <v>17.0292</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>23.2465</v>
+        <v>23.28</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5472</v>
+        <v>16.5756</v>
       </c>
       <c r="D15" t="n">
-        <v>17.1371</v>
+        <v>16.9865</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4137</v>
+        <v>23.5515</v>
       </c>
       <c r="C16" t="n">
-        <v>16.8755</v>
+        <v>17.0976</v>
       </c>
       <c r="D16" t="n">
-        <v>17.105</v>
+        <v>17.3313</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6743</v>
+        <v>24.0881</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3444</v>
+        <v>17.5191</v>
       </c>
       <c r="D17" t="n">
-        <v>17.6304</v>
+        <v>17.5875</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>24.1146</v>
+        <v>24.4231</v>
       </c>
       <c r="C18" t="n">
-        <v>18.1371</v>
+        <v>18.4646</v>
       </c>
       <c r="D18" t="n">
-        <v>17.3019</v>
+        <v>17.6439</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>24.4624</v>
+        <v>24.8526</v>
       </c>
       <c r="C19" t="n">
-        <v>18.726</v>
+        <v>19.0834</v>
       </c>
       <c r="D19" t="n">
-        <v>18.0757</v>
+        <v>18.1692</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>25.0432</v>
+        <v>25.4467</v>
       </c>
       <c r="C20" t="n">
-        <v>19.7594</v>
+        <v>19.9568</v>
       </c>
       <c r="D20" t="n">
-        <v>18.1216</v>
+        <v>18.3532</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>25.8632</v>
+        <v>26.1707</v>
       </c>
       <c r="C21" t="n">
-        <v>17.6572</v>
+        <v>17.3673</v>
       </c>
       <c r="D21" t="n">
-        <v>17.9819</v>
+        <v>18.1216</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>24.1529</v>
+        <v>24.1868</v>
       </c>
       <c r="C22" t="n">
-        <v>18.2085</v>
+        <v>18.1407</v>
       </c>
       <c r="D22" t="n">
-        <v>18.3737</v>
+        <v>18.316</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>24.7772</v>
+        <v>24.226</v>
       </c>
       <c r="C23" t="n">
-        <v>18.6881</v>
+        <v>18.5451</v>
       </c>
       <c r="D23" t="n">
-        <v>18.5217</v>
+        <v>18.7991</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>25.1499</v>
+        <v>25.306</v>
       </c>
       <c r="C24" t="n">
-        <v>19.8509</v>
+        <v>20.1679</v>
       </c>
       <c r="D24" t="n">
-        <v>18.8932</v>
+        <v>19.0842</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>25.6641</v>
+        <v>25.6686</v>
       </c>
       <c r="C25" t="n">
-        <v>20.8774</v>
+        <v>21.1919</v>
       </c>
       <c r="D25" t="n">
-        <v>19.1203</v>
+        <v>19.3778</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>25.7976</v>
+        <v>25.8365</v>
       </c>
       <c r="C26" t="n">
-        <v>20.9745</v>
+        <v>21.0353</v>
       </c>
       <c r="D26" t="n">
-        <v>19.6413</v>
+        <v>19.7674</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>26.5111</v>
+        <v>26.691</v>
       </c>
       <c r="C27" t="n">
-        <v>21.975</v>
+        <v>22.0857</v>
       </c>
       <c r="D27" t="n">
-        <v>20.0228</v>
+        <v>20.0978</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>26.8395</v>
+        <v>26.8962</v>
       </c>
       <c r="C28" t="n">
-        <v>22.4662</v>
+        <v>22.5359</v>
       </c>
       <c r="D28" t="n">
-        <v>20.3476</v>
+        <v>20.3677</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>27.3841</v>
+        <v>27.4855</v>
       </c>
       <c r="C29" t="n">
-        <v>22.9967</v>
+        <v>23.0614</v>
       </c>
       <c r="D29" t="n">
-        <v>20.5644</v>
+        <v>20.6615</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>27.8468</v>
+        <v>27.9466</v>
       </c>
       <c r="C30" t="n">
-        <v>24.2896</v>
+        <v>24.302</v>
       </c>
       <c r="D30" t="n">
-        <v>21.0887</v>
+        <v>21.1312</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>28.3655</v>
+        <v>28.5224</v>
       </c>
       <c r="C31" t="n">
-        <v>23.9652</v>
+        <v>24.155</v>
       </c>
       <c r="D31" t="n">
-        <v>21.1096</v>
+        <v>21.293</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>28.5584</v>
+        <v>28.7625</v>
       </c>
       <c r="C32" t="n">
-        <v>25.1733</v>
+        <v>25.2668</v>
       </c>
       <c r="D32" t="n">
-        <v>21.4565</v>
+        <v>21.6585</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>28.9995</v>
+        <v>29.2196</v>
       </c>
       <c r="C33" t="n">
-        <v>26.1387</v>
+        <v>26.2061</v>
       </c>
       <c r="D33" t="n">
-        <v>22.0251</v>
+        <v>22.0749</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>29.3763</v>
+        <v>29.5602</v>
       </c>
       <c r="C34" t="n">
-        <v>26.4853</v>
+        <v>26.317</v>
       </c>
       <c r="D34" t="n">
-        <v>22.2617</v>
+        <v>22.4623</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>30.1759</v>
+        <v>30.3</v>
       </c>
       <c r="C35" t="n">
-        <v>19.7935</v>
+        <v>20.1427</v>
       </c>
       <c r="D35" t="n">
-        <v>20.5092</v>
+        <v>20.6811</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>28.2756</v>
+        <v>28.3746</v>
       </c>
       <c r="C36" t="n">
-        <v>20.4362</v>
+        <v>20.6666</v>
       </c>
       <c r="D36" t="n">
-        <v>20.7594</v>
+        <v>20.8307</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>28.8002</v>
+        <v>28.8953</v>
       </c>
       <c r="C37" t="n">
-        <v>21.3704</v>
+        <v>21.5184</v>
       </c>
       <c r="D37" t="n">
-        <v>20.9423</v>
+        <v>21.0596</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>28.8643</v>
+        <v>28.9648</v>
       </c>
       <c r="C38" t="n">
-        <v>21.7334</v>
+        <v>21.5726</v>
       </c>
       <c r="D38" t="n">
-        <v>21.2216</v>
+        <v>21.2545</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>29.2858</v>
+        <v>29.3739</v>
       </c>
       <c r="C39" t="n">
-        <v>22.4331</v>
+        <v>22.5134</v>
       </c>
       <c r="D39" t="n">
-        <v>21.6267</v>
+        <v>21.6574</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>29.6308</v>
+        <v>29.7094</v>
       </c>
       <c r="C40" t="n">
-        <v>22.8467</v>
+        <v>22.8687</v>
       </c>
       <c r="D40" t="n">
-        <v>21.7957</v>
+        <v>21.5824</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>30.1388</v>
+        <v>30.0242</v>
       </c>
       <c r="C41" t="n">
-        <v>23.3679</v>
+        <v>23.3723</v>
       </c>
       <c r="D41" t="n">
-        <v>21.8648</v>
+        <v>21.9002</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>30.6281</v>
+        <v>30.6868</v>
       </c>
       <c r="C42" t="n">
-        <v>23.3899</v>
+        <v>23.4466</v>
       </c>
       <c r="D42" t="n">
-        <v>22.09</v>
+        <v>22.1262</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>31.2352</v>
+        <v>31.2712</v>
       </c>
       <c r="C43" t="n">
-        <v>24.0044</v>
+        <v>24.0369</v>
       </c>
       <c r="D43" t="n">
-        <v>22.2973</v>
+        <v>22.3112</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>31.6353</v>
+        <v>31.6789</v>
       </c>
       <c r="C44" t="n">
-        <v>24.4511</v>
+        <v>24.5207</v>
       </c>
       <c r="D44" t="n">
-        <v>22.5237</v>
+        <v>22.5373</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>31.8149</v>
+        <v>31.8391</v>
       </c>
       <c r="C45" t="n">
-        <v>24.7338</v>
+        <v>24.822</v>
       </c>
       <c r="D45" t="n">
-        <v>22.8206</v>
+        <v>22.9013</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>32.516</v>
+        <v>32.5026</v>
       </c>
       <c r="C46" t="n">
-        <v>25.048</v>
+        <v>25.0659</v>
       </c>
       <c r="D46" t="n">
-        <v>22.8835</v>
+        <v>22.9367</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>33.2218</v>
+        <v>33.2208</v>
       </c>
       <c r="C47" t="n">
-        <v>25.5118</v>
+        <v>25.5654</v>
       </c>
       <c r="D47" t="n">
-        <v>23.2344</v>
+        <v>23.2432</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>33.7117</v>
+        <v>33.692</v>
       </c>
       <c r="C48" t="n">
-        <v>26.1232</v>
+        <v>26.1395</v>
       </c>
       <c r="D48" t="n">
-        <v>23.5109</v>
+        <v>23.4942</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>34.303</v>
+        <v>34.2496</v>
       </c>
       <c r="C49" t="n">
-        <v>26.5693</v>
+        <v>26.5934</v>
       </c>
       <c r="D49" t="n">
-        <v>23.827</v>
+        <v>23.8837</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>35.2714</v>
+        <v>35.2397</v>
       </c>
       <c r="C50" t="n">
-        <v>23.4305</v>
+        <v>23.4301</v>
       </c>
       <c r="D50" t="n">
-        <v>21.9073</v>
+        <v>21.9211</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>30.0023</v>
+        <v>30.1078</v>
       </c>
       <c r="C51" t="n">
-        <v>23.7223</v>
+        <v>23.7763</v>
       </c>
       <c r="D51" t="n">
-        <v>22.0863</v>
+        <v>22.107</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>30.297</v>
+        <v>30.3262</v>
       </c>
       <c r="C52" t="n">
-        <v>24.0993</v>
+        <v>24.029</v>
       </c>
       <c r="D52" t="n">
-        <v>22.2176</v>
+        <v>22.1977</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>30.9144</v>
+        <v>30.894</v>
       </c>
       <c r="C53" t="n">
-        <v>24.476</v>
+        <v>24.466</v>
       </c>
       <c r="D53" t="n">
-        <v>22.4438</v>
+        <v>22.487</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>31.223</v>
+        <v>31.2154</v>
       </c>
       <c r="C54" t="n">
-        <v>25.0477</v>
+        <v>25.0336</v>
       </c>
       <c r="D54" t="n">
-        <v>22.7744</v>
+        <v>22.7977</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>31.4639</v>
+        <v>31.4681</v>
       </c>
       <c r="C55" t="n">
-        <v>25.5392</v>
+        <v>25.5009</v>
       </c>
       <c r="D55" t="n">
-        <v>22.9665</v>
+        <v>23.003</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>31.9154</v>
+        <v>31.9204</v>
       </c>
       <c r="C56" t="n">
-        <v>25.5742</v>
+        <v>25.5612</v>
       </c>
       <c r="D56" t="n">
-        <v>23.1277</v>
+        <v>23.1659</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>32.2124</v>
+        <v>32.1612</v>
       </c>
       <c r="C57" t="n">
-        <v>26.3797</v>
+        <v>26.3535</v>
       </c>
       <c r="D57" t="n">
-        <v>23.3282</v>
+        <v>23.3598</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>32.68</v>
+        <v>32.6572</v>
       </c>
       <c r="C58" t="n">
-        <v>27.0184</v>
+        <v>27.0206</v>
       </c>
       <c r="D58" t="n">
-        <v>23.7685</v>
+        <v>23.7642</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>33.0651</v>
+        <v>33.0572</v>
       </c>
       <c r="C59" t="n">
-        <v>27.7787</v>
+        <v>27.9129</v>
       </c>
       <c r="D59" t="n">
-        <v>24.2352</v>
+        <v>24.2676</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>33.6219</v>
+        <v>33.6044</v>
       </c>
       <c r="C60" t="n">
-        <v>28.3236</v>
+        <v>28.3183</v>
       </c>
       <c r="D60" t="n">
-        <v>24.3905</v>
+        <v>24.3489</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>34.0578</v>
+        <v>34.0264</v>
       </c>
       <c r="C61" t="n">
-        <v>28.8519</v>
+        <v>28.7828</v>
       </c>
       <c r="D61" t="n">
-        <v>24.6799</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>34.7448</v>
+        <v>34.6847</v>
       </c>
       <c r="C62" t="n">
-        <v>29.3201</v>
+        <v>29.2519</v>
       </c>
       <c r="D62" t="n">
-        <v>24.8564</v>
+        <v>24.9268</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>35.2175</v>
+        <v>35.1998</v>
       </c>
       <c r="C63" t="n">
-        <v>29.8173</v>
+        <v>29.8101</v>
       </c>
       <c r="D63" t="n">
-        <v>25.198</v>
+        <v>25.2315</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>35.8072</v>
+        <v>35.8077</v>
       </c>
       <c r="C64" t="n">
-        <v>26.0587</v>
+        <v>26.0901</v>
       </c>
       <c r="D64" t="n">
-        <v>23.8046</v>
+        <v>23.9669</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>32.5109</v>
+        <v>32.3647</v>
       </c>
       <c r="C65" t="n">
-        <v>26.5011</v>
+        <v>26.4936</v>
       </c>
       <c r="D65" t="n">
-        <v>23.9783</v>
+        <v>24.1097</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>32.9449</v>
+        <v>32.8296</v>
       </c>
       <c r="C66" t="n">
-        <v>26.8019</v>
+        <v>26.8344</v>
       </c>
       <c r="D66" t="n">
-        <v>23.942</v>
+        <v>24.0215</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>33.8847</v>
+        <v>33.6237</v>
       </c>
       <c r="C67" t="n">
-        <v>27.5835</v>
+        <v>27.6456</v>
       </c>
       <c r="D67" t="n">
-        <v>24.28</v>
+        <v>24.3906</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>35.0501</v>
+        <v>34.7806</v>
       </c>
       <c r="C68" t="n">
-        <v>27.8098</v>
+        <v>27.87</v>
       </c>
       <c r="D68" t="n">
-        <v>24.3502</v>
+        <v>24.846</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>35.1356</v>
+        <v>35.5941</v>
       </c>
       <c r="C69" t="n">
-        <v>27.9856</v>
+        <v>28.4074</v>
       </c>
       <c r="D69" t="n">
-        <v>24.5349</v>
+        <v>24.8901</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>35.8112</v>
+        <v>36.3103</v>
       </c>
       <c r="C70" t="n">
-        <v>28.768</v>
+        <v>29.1002</v>
       </c>
       <c r="D70" t="n">
-        <v>24.841</v>
+        <v>25.2495</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>37.3079</v>
+        <v>37.4843</v>
       </c>
       <c r="C71" t="n">
-        <v>29.385</v>
+        <v>29.8172</v>
       </c>
       <c r="D71" t="n">
-        <v>25.4464</v>
+        <v>25.6771</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>38.2168</v>
+        <v>39.0001</v>
       </c>
       <c r="C72" t="n">
-        <v>30.2103</v>
+        <v>30.555</v>
       </c>
       <c r="D72" t="n">
-        <v>25.7309</v>
+        <v>26.008</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>40.9215</v>
+        <v>40.1926</v>
       </c>
       <c r="C73" t="n">
-        <v>31.2128</v>
+        <v>31.4463</v>
       </c>
       <c r="D73" t="n">
-        <v>26.2904</v>
+        <v>26.7113</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>42.5159</v>
+        <v>41.459</v>
       </c>
       <c r="C74" t="n">
-        <v>32.0293</v>
+        <v>31.9895</v>
       </c>
       <c r="D74" t="n">
-        <v>26.7073</v>
+        <v>26.8295</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>44.8213</v>
+        <v>43.0208</v>
       </c>
       <c r="C75" t="n">
-        <v>32.6037</v>
+        <v>32.8933</v>
       </c>
       <c r="D75" t="n">
-        <v>27.2126</v>
+        <v>27.3317</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>46.2149</v>
+        <v>44.9153</v>
       </c>
       <c r="C76" t="n">
-        <v>33.7597</v>
+        <v>34.0833</v>
       </c>
       <c r="D76" t="n">
-        <v>27.5862</v>
+        <v>27.9141</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>46.817</v>
+        <v>46.5668</v>
       </c>
       <c r="C77" t="n">
-        <v>34.7996</v>
+        <v>35.2046</v>
       </c>
       <c r="D77" t="n">
-        <v>28.1881</v>
+        <v>28.7223</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>49.4851</v>
+        <v>50.1523</v>
       </c>
       <c r="C78" t="n">
-        <v>28.6827</v>
+        <v>30.3727</v>
       </c>
       <c r="D78" t="n">
-        <v>26.563</v>
+        <v>27.4965</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>52.7101</v>
+        <v>53.6748</v>
       </c>
       <c r="C79" t="n">
-        <v>31.8916</v>
+        <v>31.7045</v>
       </c>
       <c r="D79" t="n">
-        <v>26.4653</v>
+        <v>28.3792</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>54.9139</v>
+        <v>55.9609</v>
       </c>
       <c r="C80" t="n">
-        <v>32.5572</v>
+        <v>33.7421</v>
       </c>
       <c r="D80" t="n">
-        <v>27.715</v>
+        <v>29.6321</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>58.5858</v>
+        <v>58.7692</v>
       </c>
       <c r="C81" t="n">
-        <v>33.9165</v>
+        <v>35.7177</v>
       </c>
       <c r="D81" t="n">
-        <v>28.73</v>
+        <v>29.9836</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>63.0178</v>
+        <v>62.7125</v>
       </c>
       <c r="C82" t="n">
-        <v>36.6514</v>
+        <v>38.5753</v>
       </c>
       <c r="D82" t="n">
-        <v>29.4171</v>
+        <v>31.4178</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>67.24460000000001</v>
+        <v>67.3907</v>
       </c>
       <c r="C83" t="n">
-        <v>40.5707</v>
+        <v>40.3704</v>
       </c>
       <c r="D83" t="n">
-        <v>32.6859</v>
+        <v>32.2342</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>73.2859</v>
+        <v>71.6266</v>
       </c>
       <c r="C84" t="n">
-        <v>43.6072</v>
+        <v>42.9581</v>
       </c>
       <c r="D84" t="n">
-        <v>33.6312</v>
+        <v>33.938</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>76.8203</v>
+        <v>75.1743</v>
       </c>
       <c r="C85" t="n">
-        <v>45.5284</v>
+        <v>45.6958</v>
       </c>
       <c r="D85" t="n">
-        <v>35.6793</v>
+        <v>35.5236</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>81.0074</v>
+        <v>80.18259999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>47.6524</v>
+        <v>48.0552</v>
       </c>
       <c r="D86" t="n">
-        <v>36.8082</v>
+        <v>36.816</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>85.7747</v>
+        <v>85.4365</v>
       </c>
       <c r="C87" t="n">
-        <v>50.7823</v>
+        <v>51.2299</v>
       </c>
       <c r="D87" t="n">
-        <v>38.7629</v>
+        <v>38.739</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>90.87869999999999</v>
+        <v>90.5616</v>
       </c>
       <c r="C88" t="n">
-        <v>53.9117</v>
+        <v>54.1528</v>
       </c>
       <c r="D88" t="n">
-        <v>41.0154</v>
+        <v>39.8923</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>94.9718</v>
+        <v>94.2653</v>
       </c>
       <c r="C89" t="n">
-        <v>57.4526</v>
+        <v>57.7491</v>
       </c>
       <c r="D89" t="n">
-        <v>43.0023</v>
+        <v>42.5758</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>99.57340000000001</v>
+        <v>99.10339999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>60.718</v>
+        <v>61.1263</v>
       </c>
       <c r="D90" t="n">
-        <v>45.7396</v>
+        <v>44.1367</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>105.511</v>
+        <v>105.418</v>
       </c>
       <c r="C91" t="n">
-        <v>64.9335</v>
+        <v>65.3623</v>
       </c>
       <c r="D91" t="n">
-        <v>48.3647</v>
+        <v>47.2551</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>109.734</v>
+        <v>110.044</v>
       </c>
       <c r="C92" t="n">
-        <v>66.70659999999999</v>
+        <v>66.6193</v>
       </c>
       <c r="D92" t="n">
-        <v>59.1417</v>
+        <v>59.8789</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>111.441</v>
+        <v>110.363</v>
       </c>
       <c r="C93" t="n">
-        <v>68.2873</v>
+        <v>69.92789999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>62.2344</v>
+        <v>63.5933</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>114.872</v>
+        <v>115.171</v>
       </c>
       <c r="C94" t="n">
-        <v>71.29040000000001</v>
+        <v>72.83240000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>63.8903</v>
+        <v>65.9649</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>119.252</v>
+        <v>118.57</v>
       </c>
       <c r="C95" t="n">
-        <v>74.6728</v>
+        <v>75.979</v>
       </c>
       <c r="D95" t="n">
-        <v>67.3168</v>
+        <v>68.9598</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>121.809</v>
+        <v>122.367</v>
       </c>
       <c r="C96" t="n">
-        <v>77.9115</v>
+        <v>79.24209999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>70.10290000000001</v>
+        <v>71.9449</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>126.309</v>
+        <v>126.887</v>
       </c>
       <c r="C97" t="n">
-        <v>81.3454</v>
+        <v>82.6772</v>
       </c>
       <c r="D97" t="n">
-        <v>72.9093</v>
+        <v>74.8424</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>132.046</v>
+        <v>131.202</v>
       </c>
       <c r="C98" t="n">
-        <v>85.1549</v>
+        <v>86.14870000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>77.6152</v>
+        <v>78.1387</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>134.758</v>
+        <v>134.55</v>
       </c>
       <c r="C99" t="n">
-        <v>89.9777</v>
+        <v>89.8974</v>
       </c>
       <c r="D99" t="n">
-        <v>81.23480000000001</v>
+        <v>81.31910000000001</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>139.54</v>
+        <v>138.626</v>
       </c>
       <c r="C100" t="n">
-        <v>93.4562</v>
+        <v>93.39790000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>84.2842</v>
+        <v>83.9024</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>143.165</v>
+        <v>142.251</v>
       </c>
       <c r="C101" t="n">
-        <v>96.7336</v>
+        <v>96.6609</v>
       </c>
       <c r="D101" t="n">
-        <v>87.4285</v>
+        <v>86.9524</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>147.751</v>
+        <v>146.743</v>
       </c>
       <c r="C102" t="n">
-        <v>100.763</v>
+        <v>100.64</v>
       </c>
       <c r="D102" t="n">
-        <v>90.1003</v>
+        <v>89.8725</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>152.163</v>
+        <v>151.209</v>
       </c>
       <c r="C103" t="n">
-        <v>103.864</v>
+        <v>103.908</v>
       </c>
       <c r="D103" t="n">
-        <v>93.84229999999999</v>
+        <v>93.2102</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>156.175</v>
+        <v>154.794</v>
       </c>
       <c r="C104" t="n">
-        <v>107.558</v>
+        <v>107.286</v>
       </c>
       <c r="D104" t="n">
-        <v>96.9239</v>
+        <v>96.20229999999999</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>159.807</v>
+        <v>158.561</v>
       </c>
       <c r="C105" t="n">
-        <v>111.618</v>
+        <v>111.456</v>
       </c>
       <c r="D105" t="n">
-        <v>98.392</v>
+        <v>98.9782</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>163.865</v>
+        <v>163.676</v>
       </c>
       <c r="C106" t="n">
-        <v>115.371</v>
+        <v>115.044</v>
       </c>
       <c r="D106" t="n">
-        <v>101.362</v>
+        <v>101.645</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>149.088</v>
+        <v>147.951</v>
       </c>
       <c r="C107" t="n">
-        <v>102.838</v>
+        <v>101.178</v>
       </c>
       <c r="D107" t="n">
-        <v>107.756</v>
+        <v>105.851</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>151.538</v>
+        <v>150.052</v>
       </c>
       <c r="C108" t="n">
-        <v>105.619</v>
+        <v>103.755</v>
       </c>
       <c r="D108" t="n">
-        <v>110.948</v>
+        <v>108.533</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>154.926</v>
+        <v>152.835</v>
       </c>
       <c r="C109" t="n">
-        <v>108.333</v>
+        <v>106.56</v>
       </c>
       <c r="D109" t="n">
-        <v>112.75</v>
+        <v>110.66</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>158.429</v>
+        <v>156.701</v>
       </c>
       <c r="C110" t="n">
-        <v>111.212</v>
+        <v>110.43</v>
       </c>
       <c r="D110" t="n">
-        <v>114.79</v>
+        <v>114.185</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>160.857</v>
+        <v>158.764</v>
       </c>
       <c r="C111" t="n">
-        <v>113.703</v>
+        <v>111.95</v>
       </c>
       <c r="D111" t="n">
-        <v>117.428</v>
+        <v>116.713</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>164.432</v>
+        <v>162.148</v>
       </c>
       <c r="C112" t="n">
-        <v>116.66</v>
+        <v>116.072</v>
       </c>
       <c r="D112" t="n">
-        <v>119.739</v>
+        <v>118.226</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>167.524</v>
+        <v>165.465</v>
       </c>
       <c r="C113" t="n">
-        <v>119.963</v>
+        <v>118.388</v>
       </c>
       <c r="D113" t="n">
-        <v>121.906</v>
+        <v>120.309</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>171.021</v>
+        <v>168.567</v>
       </c>
       <c r="C114" t="n">
-        <v>122.869</v>
+        <v>121.293</v>
       </c>
       <c r="D114" t="n">
-        <v>124.203</v>
+        <v>122.478</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>173.286</v>
+        <v>171.935</v>
       </c>
       <c r="C115" t="n">
-        <v>126.01</v>
+        <v>124.664</v>
       </c>
       <c r="D115" t="n">
-        <v>126.406</v>
+        <v>125.613</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>177.164</v>
+        <v>175.157</v>
       </c>
       <c r="C116" t="n">
-        <v>129.275</v>
+        <v>127.832</v>
       </c>
       <c r="D116" t="n">
-        <v>129.408</v>
+        <v>127.343</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>180.649</v>
+        <v>178.626</v>
       </c>
       <c r="C117" t="n">
-        <v>132.418</v>
+        <v>130.998</v>
       </c>
       <c r="D117" t="n">
-        <v>131.795</v>
+        <v>129.814</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>183.469</v>
+        <v>181.354</v>
       </c>
       <c r="C118" t="n">
-        <v>136.394</v>
+        <v>135.033</v>
       </c>
       <c r="D118" t="n">
-        <v>134.329</v>
+        <v>132.668</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>187.501</v>
+        <v>185.595</v>
       </c>
       <c r="C119" t="n">
-        <v>139.781</v>
+        <v>138.501</v>
       </c>
       <c r="D119" t="n">
-        <v>136.601</v>
+        <v>135.723</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>37.5988</v>
+        <v>37.2905</v>
       </c>
       <c r="C2" t="n">
-        <v>27.0467</v>
+        <v>27.0516</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3251</v>
+        <v>20.3275</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>38.1295</v>
+        <v>37.9617</v>
       </c>
       <c r="C3" t="n">
-        <v>27.7703</v>
+        <v>27.5241</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8777</v>
+        <v>20.8634</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>39.8379</v>
+        <v>39.6673</v>
       </c>
       <c r="C4" t="n">
-        <v>29.5834</v>
+        <v>29.4945</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8276</v>
+        <v>21.8207</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>41.0016</v>
+        <v>40.4717</v>
       </c>
       <c r="C5" t="n">
-        <v>30.7152</v>
+        <v>30.5014</v>
       </c>
       <c r="D5" t="n">
-        <v>22.3672</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>41.6511</v>
+        <v>41.1773</v>
       </c>
       <c r="C6" t="n">
-        <v>31.3582</v>
+        <v>30.9424</v>
       </c>
       <c r="D6" t="n">
-        <v>22.7049</v>
+        <v>22.7034</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>43.1834</v>
+        <v>42.5108</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8834</v>
+        <v>33.5351</v>
       </c>
       <c r="D7" t="n">
-        <v>23.6497</v>
+        <v>23.6086</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>44.3866</v>
+        <v>43.8202</v>
       </c>
       <c r="C8" t="n">
-        <v>35.194</v>
+        <v>34.7652</v>
       </c>
       <c r="D8" t="n">
-        <v>24.8475</v>
+        <v>24.6597</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>46.2867</v>
+        <v>45.6965</v>
       </c>
       <c r="C9" t="n">
-        <v>36.824</v>
+        <v>36.4565</v>
       </c>
       <c r="D9" t="n">
-        <v>26.1612</v>
+        <v>26.0263</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>47.6827</v>
+        <v>46.8493</v>
       </c>
       <c r="C10" t="n">
-        <v>38.7317</v>
+        <v>38.1675</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5505</v>
+        <v>27.5177</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>49.0831</v>
+        <v>48.6736</v>
       </c>
       <c r="C11" t="n">
-        <v>28.637</v>
+        <v>28.6575</v>
       </c>
       <c r="D11" t="n">
-        <v>20.9438</v>
+        <v>21.0777</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>33.5632</v>
+        <v>33.861</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7526</v>
+        <v>28.8242</v>
       </c>
       <c r="D12" t="n">
-        <v>20.891</v>
+        <v>20.9854</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>35.1798</v>
+        <v>34.61</v>
       </c>
       <c r="C13" t="n">
-        <v>29.988</v>
+        <v>30.3721</v>
       </c>
       <c r="D13" t="n">
-        <v>22.0004</v>
+        <v>21.9659</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>35.4402</v>
+        <v>35.4454</v>
       </c>
       <c r="C14" t="n">
-        <v>31.3935</v>
+        <v>32.0432</v>
       </c>
       <c r="D14" t="n">
-        <v>22.2822</v>
+        <v>22.3143</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>37.5794</v>
+        <v>38.1401</v>
       </c>
       <c r="C15" t="n">
-        <v>32.9494</v>
+        <v>33.3526</v>
       </c>
       <c r="D15" t="n">
-        <v>22.8924</v>
+        <v>23.1623</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>38.5233</v>
+        <v>39.6508</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4311</v>
+        <v>34.2352</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8818</v>
+        <v>24.2926</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>40.553</v>
+        <v>40.6654</v>
       </c>
       <c r="C17" t="n">
-        <v>36.1801</v>
+        <v>36.3673</v>
       </c>
       <c r="D17" t="n">
-        <v>24.627</v>
+        <v>24.5546</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>42.283</v>
+        <v>42.5276</v>
       </c>
       <c r="C18" t="n">
-        <v>36.8515</v>
+        <v>36.8016</v>
       </c>
       <c r="D18" t="n">
-        <v>24.8861</v>
+        <v>25.2586</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>44.5834</v>
+        <v>44.2555</v>
       </c>
       <c r="C19" t="n">
-        <v>39.7239</v>
+        <v>40.2501</v>
       </c>
       <c r="D19" t="n">
-        <v>25.9076</v>
+        <v>25.9057</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>45.3042</v>
+        <v>45.5455</v>
       </c>
       <c r="C20" t="n">
-        <v>41.9072</v>
+        <v>40.8089</v>
       </c>
       <c r="D20" t="n">
-        <v>26.9371</v>
+        <v>27.2415</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>47.9168</v>
+        <v>47.2128</v>
       </c>
       <c r="C21" t="n">
-        <v>43.5517</v>
+        <v>44.0453</v>
       </c>
       <c r="D21" t="n">
-        <v>27.9847</v>
+        <v>27.8375</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>49.6872</v>
+        <v>49.3237</v>
       </c>
       <c r="C22" t="n">
-        <v>45.8109</v>
+        <v>46.0039</v>
       </c>
       <c r="D22" t="n">
-        <v>28.9247</v>
+        <v>28.8352</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>53.0174</v>
+        <v>53.2258</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8572</v>
+        <v>48.9811</v>
       </c>
       <c r="D23" t="n">
-        <v>30.3642</v>
+        <v>30.221</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>55.2676</v>
+        <v>54.3052</v>
       </c>
       <c r="C24" t="n">
-        <v>50.829</v>
+        <v>50.7515</v>
       </c>
       <c r="D24" t="n">
-        <v>31.1582</v>
+        <v>30.9908</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>57.2659</v>
+        <v>56.2967</v>
       </c>
       <c r="C25" t="n">
-        <v>53.5071</v>
+        <v>53.7241</v>
       </c>
       <c r="D25" t="n">
-        <v>32.3831</v>
+        <v>32.211</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>60.6142</v>
+        <v>59.391</v>
       </c>
       <c r="C26" t="n">
-        <v>32.3872</v>
+        <v>32.4221</v>
       </c>
       <c r="D26" t="n">
-        <v>22.5331</v>
+        <v>21.9957</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>42.0516</v>
+        <v>42.047</v>
       </c>
       <c r="C27" t="n">
-        <v>33.157</v>
+        <v>33.0709</v>
       </c>
       <c r="D27" t="n">
-        <v>22.7348</v>
+        <v>22.483</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>43.1803</v>
+        <v>43.1497</v>
       </c>
       <c r="C28" t="n">
-        <v>34.6469</v>
+        <v>34.6162</v>
       </c>
       <c r="D28" t="n">
-        <v>23.8043</v>
+        <v>23.6034</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>45.0888</v>
+        <v>44.4282</v>
       </c>
       <c r="C29" t="n">
-        <v>35.4719</v>
+        <v>35.3921</v>
       </c>
       <c r="D29" t="n">
-        <v>24.3145</v>
+        <v>24.0879</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>47.3338</v>
+        <v>46.3837</v>
       </c>
       <c r="C30" t="n">
-        <v>37.5079</v>
+        <v>37.395</v>
       </c>
       <c r="D30" t="n">
-        <v>24.8618</v>
+        <v>24.6897</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>49.3678</v>
+        <v>49.2692</v>
       </c>
       <c r="C31" t="n">
-        <v>38.9233</v>
+        <v>37.7785</v>
       </c>
       <c r="D31" t="n">
-        <v>25.9421</v>
+        <v>25.6813</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>51.0324</v>
+        <v>50.5093</v>
       </c>
       <c r="C32" t="n">
-        <v>40.8992</v>
+        <v>39.632</v>
       </c>
       <c r="D32" t="n">
-        <v>26.924</v>
+        <v>26.4274</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>52.4757</v>
+        <v>52.5044</v>
       </c>
       <c r="C33" t="n">
-        <v>42.962</v>
+        <v>42.7856</v>
       </c>
       <c r="D33" t="n">
-        <v>27.7367</v>
+        <v>27.7697</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>55.0276</v>
+        <v>54.1933</v>
       </c>
       <c r="C34" t="n">
-        <v>45.0694</v>
+        <v>44.9781</v>
       </c>
       <c r="D34" t="n">
-        <v>28.7257</v>
+        <v>28.8607</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>57.3494</v>
+        <v>56.3555</v>
       </c>
       <c r="C35" t="n">
-        <v>47.2567</v>
+        <v>47.1685</v>
       </c>
       <c r="D35" t="n">
-        <v>29.9979</v>
+        <v>29.9512</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>59.0325</v>
+        <v>58.3215</v>
       </c>
       <c r="C36" t="n">
-        <v>49.793</v>
+        <v>49.463</v>
       </c>
       <c r="D36" t="n">
-        <v>31.0012</v>
+        <v>30.3932</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>62.1727</v>
+        <v>62.0177</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2788</v>
+        <v>52.2174</v>
       </c>
       <c r="D37" t="n">
-        <v>32.0794</v>
+        <v>32.1714</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>64.5885</v>
+        <v>63.5122</v>
       </c>
       <c r="C38" t="n">
-        <v>54.9997</v>
+        <v>54.9421</v>
       </c>
       <c r="D38" t="n">
-        <v>33.9587</v>
+        <v>33.9434</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>68.04049999999999</v>
+        <v>67.3233</v>
       </c>
       <c r="C39" t="n">
-        <v>57.7462</v>
+        <v>57.5677</v>
       </c>
       <c r="D39" t="n">
-        <v>34.9942</v>
+        <v>34.5337</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>70.1699</v>
+        <v>69.2533</v>
       </c>
       <c r="C40" t="n">
-        <v>38.9937</v>
+        <v>38.2236</v>
       </c>
       <c r="D40" t="n">
-        <v>27.6672</v>
+        <v>27.6656</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>47.3432</v>
+        <v>47.4082</v>
       </c>
       <c r="C41" t="n">
-        <v>40.1864</v>
+        <v>40.1855</v>
       </c>
       <c r="D41" t="n">
-        <v>28.4263</v>
+        <v>28.4622</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>49.3331</v>
+        <v>49.3683</v>
       </c>
       <c r="C42" t="n">
-        <v>42.0962</v>
+        <v>42.1149</v>
       </c>
       <c r="D42" t="n">
-        <v>29.2565</v>
+        <v>28.7298</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>50.9538</v>
+        <v>50.696</v>
       </c>
       <c r="C43" t="n">
-        <v>43.2226</v>
+        <v>43.278</v>
       </c>
       <c r="D43" t="n">
-        <v>30.0305</v>
+        <v>30.0712</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>52.2156</v>
+        <v>52.0707</v>
       </c>
       <c r="C44" t="n">
-        <v>45.9723</v>
+        <v>45.9037</v>
       </c>
       <c r="D44" t="n">
-        <v>30.836</v>
+        <v>30.8099</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>54.3692</v>
+        <v>54.2945</v>
       </c>
       <c r="C45" t="n">
-        <v>47.1311</v>
+        <v>47.1263</v>
       </c>
       <c r="D45" t="n">
-        <v>31.618</v>
+        <v>31.6953</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>55.5853</v>
+        <v>55.6162</v>
       </c>
       <c r="C46" t="n">
-        <v>49.1982</v>
+        <v>49.1756</v>
       </c>
       <c r="D46" t="n">
-        <v>32.8415</v>
+        <v>32.9633</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>57.5108</v>
+        <v>57.6233</v>
       </c>
       <c r="C47" t="n">
-        <v>51.1044</v>
+        <v>51.1387</v>
       </c>
       <c r="D47" t="n">
-        <v>33.6911</v>
+        <v>33.8244</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>59.0371</v>
+        <v>59.0229</v>
       </c>
       <c r="C48" t="n">
-        <v>52.8722</v>
+        <v>52.9202</v>
       </c>
       <c r="D48" t="n">
-        <v>34.5654</v>
+        <v>34.6269</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>61.1778</v>
+        <v>61.2285</v>
       </c>
       <c r="C49" t="n">
-        <v>55.3537</v>
+        <v>55.4048</v>
       </c>
       <c r="D49" t="n">
-        <v>35.3062</v>
+        <v>35.3095</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>63.3997</v>
+        <v>63.4414</v>
       </c>
       <c r="C50" t="n">
-        <v>57.286</v>
+        <v>57.3453</v>
       </c>
       <c r="D50" t="n">
-        <v>36.4653</v>
+        <v>36.4777</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>65.4302</v>
+        <v>65.4597</v>
       </c>
       <c r="C51" t="n">
-        <v>60.1278</v>
+        <v>60.1775</v>
       </c>
       <c r="D51" t="n">
-        <v>37.987</v>
+        <v>37.9881</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>67.7723</v>
+        <v>67.7812</v>
       </c>
       <c r="C52" t="n">
-        <v>62.8352</v>
+        <v>62.9515</v>
       </c>
       <c r="D52" t="n">
-        <v>39.3517</v>
+        <v>39.3601</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>69.9349</v>
+        <v>70.0077</v>
       </c>
       <c r="C53" t="n">
-        <v>65.4512</v>
+        <v>65.37869999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>41.023</v>
+        <v>41.1095</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>72.294</v>
+        <v>72.31789999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>44.6008</v>
+        <v>44.6379</v>
       </c>
       <c r="D54" t="n">
-        <v>31.4107</v>
+        <v>31.4484</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>50.575</v>
+        <v>50.6825</v>
       </c>
       <c r="C55" t="n">
-        <v>45.7084</v>
+        <v>45.7389</v>
       </c>
       <c r="D55" t="n">
-        <v>32.4306</v>
+        <v>32.6001</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>52.0729</v>
+        <v>52.1193</v>
       </c>
       <c r="C56" t="n">
-        <v>47.2935</v>
+        <v>47.2913</v>
       </c>
       <c r="D56" t="n">
-        <v>33.1586</v>
+        <v>33.2231</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>53.4414</v>
+        <v>53.5808</v>
       </c>
       <c r="C57" t="n">
-        <v>48.9017</v>
+        <v>48.9321</v>
       </c>
       <c r="D57" t="n">
-        <v>33.6228</v>
+        <v>33.642</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>55.1109</v>
+        <v>55.2374</v>
       </c>
       <c r="C58" t="n">
-        <v>50.4645</v>
+        <v>50.5175</v>
       </c>
       <c r="D58" t="n">
-        <v>34.6503</v>
+        <v>34.6626</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>56.8669</v>
+        <v>56.9204</v>
       </c>
       <c r="C59" t="n">
-        <v>52.0323</v>
+        <v>52.1078</v>
       </c>
       <c r="D59" t="n">
-        <v>35.3667</v>
+        <v>35.4653</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>58.3338</v>
+        <v>58.429</v>
       </c>
       <c r="C60" t="n">
-        <v>54.0188</v>
+        <v>54.0475</v>
       </c>
       <c r="D60" t="n">
-        <v>36.0576</v>
+        <v>36.1168</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>60.1891</v>
+        <v>60.2638</v>
       </c>
       <c r="C61" t="n">
-        <v>55.8944</v>
+        <v>55.887</v>
       </c>
       <c r="D61" t="n">
-        <v>37.1381</v>
+        <v>37.1882</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>61.8519</v>
+        <v>61.9785</v>
       </c>
       <c r="C62" t="n">
-        <v>57.5466</v>
+        <v>57.6445</v>
       </c>
       <c r="D62" t="n">
-        <v>37.7633</v>
+        <v>37.6912</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>64.1268</v>
+        <v>64.1716</v>
       </c>
       <c r="C63" t="n">
-        <v>60.1193</v>
+        <v>60.202</v>
       </c>
       <c r="D63" t="n">
-        <v>39.2736</v>
+        <v>39.3717</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>65.2285</v>
+        <v>65.2667</v>
       </c>
       <c r="C64" t="n">
-        <v>61.9562</v>
+        <v>61.9895</v>
       </c>
       <c r="D64" t="n">
-        <v>40.24</v>
+        <v>40.1898</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>67.9271</v>
+        <v>67.9622</v>
       </c>
       <c r="C65" t="n">
-        <v>64.82380000000001</v>
+        <v>64.83920000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>41.2279</v>
+        <v>41.163</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>69.97020000000001</v>
+        <v>70.0882</v>
       </c>
       <c r="C66" t="n">
-        <v>66.85039999999999</v>
+        <v>66.91240000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>42.4193</v>
+        <v>42.4525</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>73.07550000000001</v>
+        <v>72.9589</v>
       </c>
       <c r="C67" t="n">
-        <v>69.7389</v>
+        <v>69.6763</v>
       </c>
       <c r="D67" t="n">
-        <v>43.969</v>
+        <v>43.7419</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>75.2846</v>
+        <v>75.17610000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>44.0604</v>
+        <v>43.7574</v>
       </c>
       <c r="D68" t="n">
-        <v>32.5189</v>
+        <v>32.6385</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>53.718</v>
+        <v>53.8979</v>
       </c>
       <c r="C69" t="n">
-        <v>45.6932</v>
+        <v>45.6028</v>
       </c>
       <c r="D69" t="n">
-        <v>32.8917</v>
+        <v>32.9445</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>55.6156</v>
+        <v>55.7609</v>
       </c>
       <c r="C70" t="n">
-        <v>48.1832</v>
+        <v>48.1536</v>
       </c>
       <c r="D70" t="n">
-        <v>34.2349</v>
+        <v>34.39</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>57.9158</v>
+        <v>58.3865</v>
       </c>
       <c r="C71" t="n">
-        <v>50.3108</v>
+        <v>50.4116</v>
       </c>
       <c r="D71" t="n">
-        <v>35.2522</v>
+        <v>35.341</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>60.6861</v>
+        <v>60.9642</v>
       </c>
       <c r="C72" t="n">
-        <v>52.4592</v>
+        <v>52.6464</v>
       </c>
       <c r="D72" t="n">
-        <v>36.1939</v>
+        <v>36.4003</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>63.2178</v>
+        <v>63.7111</v>
       </c>
       <c r="C73" t="n">
-        <v>55.1672</v>
+        <v>55.3332</v>
       </c>
       <c r="D73" t="n">
-        <v>37.2418</v>
+        <v>37.3576</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>65.1627</v>
+        <v>65.74039999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>57.3904</v>
+        <v>57.6661</v>
       </c>
       <c r="D74" t="n">
-        <v>38.1918</v>
+        <v>38.2944</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>69.0821</v>
+        <v>69.2839</v>
       </c>
       <c r="C75" t="n">
-        <v>61.0292</v>
+        <v>61.1583</v>
       </c>
       <c r="D75" t="n">
-        <v>39.7843</v>
+        <v>39.8754</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>73.34310000000001</v>
+        <v>72.5941</v>
       </c>
       <c r="C76" t="n">
-        <v>64.66330000000001</v>
+        <v>64.3373</v>
       </c>
       <c r="D76" t="n">
-        <v>40.7777</v>
+        <v>40.7931</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>77.0232</v>
+        <v>76.4106</v>
       </c>
       <c r="C77" t="n">
-        <v>68.6694</v>
+        <v>68.3869</v>
       </c>
       <c r="D77" t="n">
-        <v>43.152</v>
+        <v>43.2315</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>82.3045</v>
+        <v>81.0715</v>
       </c>
       <c r="C78" t="n">
-        <v>72.9273</v>
+        <v>72.38890000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>43.7825</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>88.6611</v>
+        <v>86.48139999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>78.0518</v>
+        <v>76.7983</v>
       </c>
       <c r="D79" t="n">
-        <v>45.8756</v>
+        <v>45.2562</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>95.1246</v>
+        <v>93.63979999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>84.2321</v>
+        <v>83.1675</v>
       </c>
       <c r="D80" t="n">
-        <v>47.5279</v>
+        <v>47.8671</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>102.526</v>
+        <v>100.984</v>
       </c>
       <c r="C81" t="n">
-        <v>91.39660000000001</v>
+        <v>90.3729</v>
       </c>
       <c r="D81" t="n">
-        <v>49.4665</v>
+        <v>49.4514</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>111.15</v>
+        <v>109.222</v>
       </c>
       <c r="C82" t="n">
-        <v>99.486</v>
+        <v>97.79689999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>52.4926</v>
+        <v>52.8793</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>122.532</v>
+        <v>119.648</v>
       </c>
       <c r="C83" t="n">
-        <v>67.1236</v>
+        <v>66.53700000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>40.2836</v>
+        <v>40.2722</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>92.46210000000001</v>
+        <v>90.34610000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>73.2625</v>
+        <v>72.2743</v>
       </c>
       <c r="D84" t="n">
-        <v>41.6101</v>
+        <v>41.5519</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>100.126</v>
+        <v>99.3484</v>
       </c>
       <c r="C85" t="n">
-        <v>79.8613</v>
+        <v>78.6944</v>
       </c>
       <c r="D85" t="n">
-        <v>43.1207</v>
+        <v>42.9456</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>108.717</v>
+        <v>107.771</v>
       </c>
       <c r="C86" t="n">
-        <v>88.3356</v>
+        <v>87.498</v>
       </c>
       <c r="D86" t="n">
-        <v>45.5936</v>
+        <v>45.8164</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>117.974</v>
+        <v>117.577</v>
       </c>
       <c r="C87" t="n">
-        <v>96.8383</v>
+        <v>96.669</v>
       </c>
       <c r="D87" t="n">
-        <v>48.4894</v>
+        <v>48.4012</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>128.771</v>
+        <v>128.258</v>
       </c>
       <c r="C88" t="n">
-        <v>108.557</v>
+        <v>108.057</v>
       </c>
       <c r="D88" t="n">
-        <v>52.6955</v>
+        <v>52.4788</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>140.842</v>
+        <v>141.054</v>
       </c>
       <c r="C89" t="n">
-        <v>119.451</v>
+        <v>119.954</v>
       </c>
       <c r="D89" t="n">
-        <v>55.899</v>
+        <v>56.5519</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>154.365</v>
+        <v>154.52</v>
       </c>
       <c r="C90" t="n">
-        <v>131.504</v>
+        <v>132.343</v>
       </c>
       <c r="D90" t="n">
-        <v>60.796</v>
+        <v>60.9097</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>167.633</v>
+        <v>168.55</v>
       </c>
       <c r="C91" t="n">
-        <v>145.637</v>
+        <v>146.661</v>
       </c>
       <c r="D91" t="n">
-        <v>66.3404</v>
+        <v>66.05159999999999</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>182.75</v>
+        <v>183.2</v>
       </c>
       <c r="C92" t="n">
-        <v>160.437</v>
+        <v>161.471</v>
       </c>
       <c r="D92" t="n">
-        <v>71.1841</v>
+        <v>71.7154</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>197.531</v>
+        <v>197.954</v>
       </c>
       <c r="C93" t="n">
-        <v>175.85</v>
+        <v>176.881</v>
       </c>
       <c r="D93" t="n">
-        <v>77.3257</v>
+        <v>77.5278</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>213.567</v>
+        <v>214.009</v>
       </c>
       <c r="C94" t="n">
-        <v>193.059</v>
+        <v>194.155</v>
       </c>
       <c r="D94" t="n">
-        <v>84.1793</v>
+        <v>84.5282</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>231.26</v>
+        <v>231.795</v>
       </c>
       <c r="C95" t="n">
-        <v>210.761</v>
+        <v>212.136</v>
       </c>
       <c r="D95" t="n">
-        <v>92.65860000000001</v>
+        <v>93.13120000000001</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>248.214</v>
+        <v>248.891</v>
       </c>
       <c r="C96" t="n">
-        <v>232.333</v>
+        <v>233.407</v>
       </c>
       <c r="D96" t="n">
-        <v>101.486</v>
+        <v>102.496</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>267.836</v>
+        <v>268.467</v>
       </c>
       <c r="C97" t="n">
-        <v>135.633</v>
+        <v>136.429</v>
       </c>
       <c r="D97" t="n">
-        <v>75.258</v>
+        <v>74.9834</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>188.326</v>
+        <v>188.4</v>
       </c>
       <c r="C98" t="n">
-        <v>145.812</v>
+        <v>147.018</v>
       </c>
       <c r="D98" t="n">
-        <v>78.89749999999999</v>
+        <v>79.57250000000001</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>199.413</v>
+        <v>199.698</v>
       </c>
       <c r="C99" t="n">
-        <v>155.453</v>
+        <v>156.631</v>
       </c>
       <c r="D99" t="n">
-        <v>85.64319999999999</v>
+        <v>86.3107</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>210.961</v>
+        <v>211.199</v>
       </c>
       <c r="C100" t="n">
-        <v>167.326</v>
+        <v>167.944</v>
       </c>
       <c r="D100" t="n">
-        <v>93.2899</v>
+        <v>93.15989999999999</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>224.708</v>
+        <v>224.642</v>
       </c>
       <c r="C101" t="n">
-        <v>179.039</v>
+        <v>180.163</v>
       </c>
       <c r="D101" t="n">
-        <v>96.8725</v>
+        <v>96.9686</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>236.158</v>
+        <v>237.388</v>
       </c>
       <c r="C102" t="n">
-        <v>191.535</v>
+        <v>192.528</v>
       </c>
       <c r="D102" t="n">
-        <v>104.09</v>
+        <v>104.88</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>248.613</v>
+        <v>249.258</v>
       </c>
       <c r="C103" t="n">
-        <v>204.997</v>
+        <v>206.463</v>
       </c>
       <c r="D103" t="n">
-        <v>110.916</v>
+        <v>111.705</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>262.9</v>
+        <v>263.145</v>
       </c>
       <c r="C104" t="n">
-        <v>219.505</v>
+        <v>220.561</v>
       </c>
       <c r="D104" t="n">
-        <v>118.061</v>
+        <v>117.951</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>275.805</v>
+        <v>276.633</v>
       </c>
       <c r="C105" t="n">
-        <v>234.674</v>
+        <v>236.114</v>
       </c>
       <c r="D105" t="n">
-        <v>123.775</v>
+        <v>124.544</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>291.434</v>
+        <v>292.095</v>
       </c>
       <c r="C106" t="n">
-        <v>249.928</v>
+        <v>250.983</v>
       </c>
       <c r="D106" t="n">
-        <v>132.823</v>
+        <v>133.477</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>308.86</v>
+        <v>309.139</v>
       </c>
       <c r="C107" t="n">
-        <v>266.509</v>
+        <v>267.447</v>
       </c>
       <c r="D107" t="n">
-        <v>140.962</v>
+        <v>141.13</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>324.747</v>
+        <v>323.734</v>
       </c>
       <c r="C108" t="n">
-        <v>285.556</v>
+        <v>286.461</v>
       </c>
       <c r="D108" t="n">
-        <v>148.886</v>
+        <v>148.456</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>343.163</v>
+        <v>341.702</v>
       </c>
       <c r="C109" t="n">
-        <v>304.769</v>
+        <v>304.41</v>
       </c>
       <c r="D109" t="n">
-        <v>158.194</v>
+        <v>158.145</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>358.801</v>
+        <v>356.332</v>
       </c>
       <c r="C110" t="n">
-        <v>321.826</v>
+        <v>321.519</v>
       </c>
       <c r="D110" t="n">
-        <v>166.906</v>
+        <v>166.596</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>378.17</v>
+        <v>375.273</v>
       </c>
       <c r="C111" t="n">
-        <v>196.128</v>
+        <v>198.055</v>
       </c>
       <c r="D111" t="n">
-        <v>131.832</v>
+        <v>132.383</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>258.397</v>
+        <v>258.147</v>
       </c>
       <c r="C112" t="n">
-        <v>206.99</v>
+        <v>206.36</v>
       </c>
       <c r="D112" t="n">
-        <v>135.99</v>
+        <v>136.757</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>268.573</v>
+        <v>267.581</v>
       </c>
       <c r="C113" t="n">
-        <v>217.28</v>
+        <v>218.752</v>
       </c>
       <c r="D113" t="n">
-        <v>142.418</v>
+        <v>142.812</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>279.226</v>
+        <v>278.15</v>
       </c>
       <c r="C114" t="n">
-        <v>228.284</v>
+        <v>228.933</v>
       </c>
       <c r="D114" t="n">
-        <v>148.038</v>
+        <v>148.337</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>292.248</v>
+        <v>289.086</v>
       </c>
       <c r="C115" t="n">
-        <v>240.259</v>
+        <v>239.106</v>
       </c>
       <c r="D115" t="n">
-        <v>153.885</v>
+        <v>154.309</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>304.207</v>
+        <v>299.201</v>
       </c>
       <c r="C116" t="n">
-        <v>252.977</v>
+        <v>251.069</v>
       </c>
       <c r="D116" t="n">
-        <v>159.977</v>
+        <v>160.272</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>316.735</v>
+        <v>312.278</v>
       </c>
       <c r="C117" t="n">
-        <v>266.065</v>
+        <v>264.391</v>
       </c>
       <c r="D117" t="n">
-        <v>168.221</v>
+        <v>168.303</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>328.385</v>
+        <v>325.894</v>
       </c>
       <c r="C118" t="n">
-        <v>279.499</v>
+        <v>277.711</v>
       </c>
       <c r="D118" t="n">
-        <v>176.734</v>
+        <v>175.839</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>340.435</v>
+        <v>336.431</v>
       </c>
       <c r="C119" t="n">
-        <v>293.931</v>
+        <v>292.196</v>
       </c>
       <c r="D119" t="n">
-        <v>182.698</v>
+        <v>181.521</v>
       </c>
     </row>
   </sheetData>
